--- a/ingredients/ingredients.xlsx
+++ b/ingredients/ingredients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27FD0B-4828-46B0-84D6-6B646F863D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78BD6D8-4DCC-4BFC-A43B-4C0A590979C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="245">
   <si>
     <t>ingredients_ori</t>
   </si>
@@ -52,9 +52,6 @@
     <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
     <t>小麦粉（国内製造）、砂糖、カカオマス、全粉乳、植物油脂、ショートニング、マーガリン（乳成分を含む）、乳糖、バター、ココアバター、脱脂粉乳、加糖練乳、液全卵、うるちひえパフ、ごま、ぶどう糖、食塩、乾燥卵白（卵を含む）／リン酸Ca、乳化剤（大豆由来）、膨脹剤、香料（乳由来）、着色料（カロテノイド）、ビタミンＤ</t>
   </si>
   <si>
@@ -76,12 +73,6 @@
     <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
   </si>
   <si>
-    <t>砂糖（外国製造又は国内製造）、小麦粉、植物油脂、全粉乳、カカオマス、乳糖、ココアバター、ショートニング、ココアパウダー、加糖脱脂練乳、異性化液糖、生クリーム、食塩／乳化剤、膨脹剤、香料、着色料(カラメル)、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
@@ -103,105 +94,18 @@
     <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、玄米粉、醤油風味シーズニング（大豆を含む）、ココナッツ、食塩、乳糖/膨張剤、調味料（アミノ酸）、乳化剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、玄米粉、食塩、ココナッツ、梅干しエキスパウダー、コーンスターチ、乳糖/膨張剤、酸味料、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（赤１０６）</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（青１、黄４、赤２）</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、でん粉（馬鈴薯）、植物油（パームヤシ）、ソルビトール、乳化剤（パームヤシ）、香料、酸味料、着色料（黄5）</t>
-  </si>
-  <si>
-    <t>ビスケット（小麦粉、砂糖、ショートニング、植物油脂、その他）（国内製造）、準チョコレート（砂糖、植物油脂、ココアパウダー、全粉乳、脱脂粉乳、その他）／乳化剤、香料、カラメル色素、膨脹剤、（一部に卵・乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、全粉乳、ショートニング、ココアバター、マーガリ（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、カラメル粉末（乳成分を含む）、乳糖、キャラメル粉末（乳成分を含む）、洋酒、うるちひえパフ、食塩、液卵白(卵を含む)、カカオマス、水飴／ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、トレハロース、ビタミンＣ、ビタミンＤ、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>マルトース（国内製造）、水飴、もち粉、植物油脂、砂糖、乳糖、デキストリン、全粉乳、ココアバター、脱脂粉乳、ココアパウダー、ホエイパウダー（乳成分を含む）、コーヒー、洋酒、クリーム（乳成分を含む）、チーズ粉末／トレハロース、乳化剤（大豆由来）、調味料（アミノ酸）、加工デンプン、酒精、香料、カゼインＮａ（乳由来）</t>
-  </si>
-  <si>
-    <t>落花生（アメリカ産）、乾燥ポテト、植物油脂、唐辛子パウダー、食塩、ガーリックパウダー、オニオンパウダー、砂糖、酵母エキスパウダー、ガーリック風味パウダー、たんぱく加水分解物、ブドウ糖、野菜エキスパウダー、チリパウダー、チキンパウダー、乳糖、ホワイトペッパーパウダー、クミンパウダー、パプリカパウダー、オリゴ糖、ハバネロペースト／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、カロチノイド色素、酸化防止剤（ビタミンE）、香辛料抽出物、酸味料、カラメル色素、（一部に乳成分・小麦・落花生・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、唐辛子パウダー、食塩、ガーリックパウダー、オニオンパウダー、砂糖、酵母エキスパウダー、ガーリック風味パウダー、たんぱく加水分解物、ブドウ糖、野菜エキスパウダー、チリパウダー、チキンパウダー、乳糖、ホワイトペッパーパウダー、クミンパウダー、パプリカパウダー、ハバネロペースト／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、カロチノイド色素、酸化防止剤（ビタミンE）、香辛料抽出物、酸味料、カラメル色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、粉末油脂、ビーフ風味パウダー（ビーフエキスパウダー、食塩、たんぱく加水分解物、ビーフ風味調味料、乳糖、野菜エキスパウダー、香辛料）、澱粉、酵母エキスパウダー／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、炭酸Ca、香料、甘味料（スクラロース）、酸化防止剤（ビタミンE）、酸味料、（一部に乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、サワークリームオニオン風味パウダー（食塩、ホエイパウダー（乳製品）、砂糖、オニオンパウダー、粉末酢、たんぱく加水分解物、ねぎエキスパウダー、デキストリン、酵母エキスパウダー）、食塩、オニオンパウダー、粉末油脂、砂糖、澱粉／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、酸味料、香料、炭酸Ca、香辛料抽出物、甘味料（スクラロース、ステビア）、酸化防止剤（ビタミンE）、（一部に乳成分を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、コーングリッツ、小麦粉、粉末油脂、食塩（鳴門の焼塩59%）、砂糖、ビーフオイル、デキストリン、ブドウ糖、酵母エキスパウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳酸Ca、塩化Ca、炭酸Ca、（一部に卵・小麦を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂（パーム油、ヤシ油、米油、ごま油）、コーングリッツ、小麦粉、粉末油脂、食塩、砂糖、あおさ、酵母エキスパウダー、調味パウダー（食塩、ブドウ糖、酵母エキスパウダー）、青のり、唐辛子パウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳酸Ca、塩化Ca、炭酸Ca、（一部に卵・小麦・えび・かに・ごまを含む）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖（国内製造）、食塩、高麗人参エキス、調製ローヤルゼリー、ガラナ、マカ／炭酸、酸味料、香料、Ｖ．Ｃ、甘味料（アセスルファムＫ、アスパルテーム・Ｌ－フェニルアラニン化合物）、カロテン色素、カフェイン、アルギニン、アラニン、グリシン、ロイシン、ナイアシン、イソロイシン、バリン、Ｖ．Ｂ６</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、脱脂粉乳、全粉乳、デキストリン、カゼインNa、乳化剤、香料、酸化防止剤(ビタミンC)</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、全粉乳、デキストリン／乳化剤、カゼインＮａ、香料、酸化防止剤（ビタミンＣ）、甘味料（アセスルファムＫ、スクラロース）</t>
-  </si>
-  <si>
-    <t>コーヒー（コーヒー豆（ブラジル産、エチオピア産、その他））／香料、酸化防止剤（ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳、全粉乳、ミルクソース、デキストリン、乳化剤、香料、カゼインＮａ、酸化防止剤（ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>コーヒー、牛乳、砂糖、全粉乳、脱脂粉乳、デキストリン／香料、乳化剤、カゼインＮａ、                  甘味料（アセスルファムＫ、スクラロース）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（粉末みそ、みそ、砂糖、食塩、でん粉、香辛料、ポークエキス、ポーク調味料、豚脂、乳化油脂、酵母エキス、みそ加工品、香味調味料、たん白加水分解物、魚介エキス、植物油脂）、かやく（大豆加工品、メンマ、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、酒精、増粘多糖類、カラメル色素、カロチノイド色素、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、甘味料（カンゾウ）、酸味料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>野菜（にんじん（輸入）、ケール、ほうれん草、アスパラガス、クレソン、パセリ、かぼちゃ、レタス、キャベツ、ビート、だいこん、はくさい、たまねぎ、セロリ）、果実（ぶどう、りんご、レモン、バナナ）、クリーミングパウダー、食物繊維、寒天、植物性乳酸菌（殺菌）／ｐＨ調整剤、乳化剤、ビタミンＣ、香料、（一部に乳成分・バナナ・りんごを含む）</t>
-  </si>
-  <si>
     <t>じゃがいも（国産又はアメリカ）、植物油、でん粉、食塩、砂糖、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、唐辛子、ガーリックパウダー、酵母エキスパウダー（乳成分を含む）、ビーフパウダー、こしょう、粉末植物油脂 / 調味料（アミノ酸等）、香料（ゼラチンを含む）、酸味料、着色料（カラメル、カロチノイド、炭末、クチナシ）、甘味料（ステビア）、香辛料抽出物</t>
   </si>
   <si>
-    <t>ぶどう糖、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料</t>
-  </si>
-  <si>
     <t>ぶどう糖、砂糖、イソマルトオリゴ糖、でん粉、乳化剤、酸味料、糊料(プルラン)、乳酸カルシウム、アントシアニン色素、香料</t>
   </si>
   <si>
-    <t>ぶどう糖、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、着色料（アントシアニン、クチナシ）</t>
-  </si>
-  <si>
     <t>ぶどう糖（国内製造）、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、カラメル色素</t>
   </si>
   <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（カラメル、フラボノイド）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（クチナシ、フラボノイド）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ、ガムベース、酸味料、香料、乳酸カルシウム、軟化剤、アントシアニン色素、緑茶抽出物</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
-  </si>
-  <si>
-    <t>砂糖、ぶどう糖、でん粉、水あめ/ガムベース、香料、酸味料、糊料（アラビアガム）、フラボノイド色素、リン酸カルシウム</t>
-  </si>
-  <si>
-    <t>砂糖､加工油脂､水あめ､でん粉､ゼラチン／酸味料､乳化剤､増粘剤(プルラン)､香料､クチナシ色素</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ぶどう糖、砂糖、イソマルトオリゴ糖、乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、乳酸カルシウム</t>
   </si>
   <si>
@@ -214,15 +118,6 @@
     <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
   </si>
   <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、脱脂粉乳／乳化剤、カゼインNa、甘味料（アセスルファムK、スクラロース）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、加糖れん乳、クリーム/乳化剤、カゼインＮａ</t>
-  </si>
-  <si>
     <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（赤色40号）</t>
   </si>
   <si>
@@ -235,15 +130,6 @@
     <t>めん（小麦粉（国内製造）、小麦全粒粉、食塩、小麦たん白、植物油脂、大豆食物繊維、たん白加水分解物）、スープ（しょうゆ、ポークエキス、動物油脂、唐辛子、糖類、香味油、粉末かつお節、たん白加水分解物、チキンエキス、ポーク調味油、しょうゆ調味料、デキストリン、食塩、ポークパウダー、ガーリックペースト）、かやく（ねぎ）／加工デンプン、調味料（アミノ酸等）、増粘剤（加工デンプン、増粘多糖類）、着色料（カラメル、クチナシ、パプリカ色素）、炭酸カルシウム、かんすい、乳化剤、香辛料抽出物、酸化防止剤（Ｖ.Ｅ）、香料、（一部に卵・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>牛乳（国内製造）、砂糖、コーヒー、食塩 / 香料、乳化剤、 カゼインNa、安定剤（カラギナン）</t>
-  </si>
-  <si>
-    <t>コーヒー（コーヒー豆（ブラジル又はベトナム（5%未満））） / 香料</t>
-  </si>
-  <si>
-    <t>牛乳（国内製造）、コーヒー、砂糖、食塩 / 香料、カゼインNa、乳化剤、安定剤（カラギナン）、甘味料（アセスルファムK）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
@@ -274,17 +160,627 @@
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>麦芽、ホップ、大麦、コーン、糖類</t>
-  </si>
-  <si>
     <t>発泡酒（国内製造）（麦芽、ホップ、大麦）、スピリッツ（大麦）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、しょうゆ、食塩、香辛料）、ソース（糖類、香辛料、食塩、粉末しょうゆ、チキン調味料、ごま、酵母エキス、野菜調味油）／加工でん粉、乳化剤、調味料（アミノ酸等）、炭酸Ｃａ、カラメル色素、かんすい、ベニコウジ色素、カロチノイド色素、香料、香辛料抽出物、酸味料、甘味料（カンゾウ、スクラロース）、増粘剤（グァーガム）、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、サイリウム種皮、大豆食物繊維、チキンエキス、チキン調味料）、スープ（香辛料、糖類、食塩、粉末みそ、唐辛子みそ、魚醤、ポーク調味料、魚介調味料、にぼし粉末、酵母エキス、乳化油脂、粉末しょうゆ、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、かんすい、増粘剤（キサンタンガム）、カラメル色素、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、乳化剤、甘味料（アセスルファムＫ、スクラロース）、ビタミンＢ２、ビタミンＢ１、酸味料、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
+  </si>
+  <si>
+    <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
+  </si>
+  <si>
+    <t>＜パインアップル	＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、紅花色素、香料＜メロン＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、香料、着色料（紅花黄、クチナシ）＜コーラ＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、カラメル色素、香料＜ソーダ＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、香料＜ぶどう＞ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、香料、着色料（野菜色素、クチナシ）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、全粉乳、でん粉、カカオマス、ショートニング、加糖れん乳、ココアパウダー、クリームパウダー、モルトエキス、食塩、ココアバター、大豆胚芽エキス／膨脹剤、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は韓国製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
+  </si>
+  <si>
+    <t>【青リンゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮青リンゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（黄色４号、青色１号）、（一部にりんご・ゼラチンを含む）　【レモン】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮レモン果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、着色料（黄色４号）、（一部にゼラチンを含む）　【グレープ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮グレープ果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、甘味料（アセスルファムＫ、ステビア）、着色料（赤色４０号、青色１号）、（一部にゼラチンを含む）　【イチゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮イチゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（赤色４０号）、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、コンソメシーズニング（チキンエキスパウダー、ぶどう糖、食塩、砂糖、オニオンパウダー、野菜エキスパウダー、酵母エキスパウダー、デキストリン、乳糖、香辛料、たん白加水分解物、植物油脂）、砂糖、オニオンパウダー、食塩、香辛料／調味料（アミノ酸等）、乳化剤、パプリカ色素、加工デンプン、香料、酸味料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、ラード、しょうゆ、食塩、香辛料）、添付調味料（糖類、たん白加水分解物、食塩、しょうゆ、醸造酢、ポークエキス、植物油脂、りんご、香辛料、トマト、野菜エキス、でん粉）、かやく（キャベツ、味付け鶏ひき肉）、調味料（アミノ酸等）、酒精、カラメル色素、パプリカ色素、香辛料抽出物、増粘剤（グァーガム）、かんすい、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、甘味料（ステビア、カンゾウ）、重曹、ビタミンＢ２</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、砂糖、ショートニング、小麦全粒粉、食塩）、小麦粉、乳糖、植物油脂、砂糖、ココアパウダー、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、カラメル色素、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）　</t>
+  </si>
+  <si>
+    <t>カカオマス（コートジボワール製造又は国内製造又はその他）、砂糖、小麦粉、ココアバター、乳糖、ココアパウダー、植物油脂、カカオニブ、全粉乳、イースト/乳化剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）　</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）（国内製造）、小麦粉、植物油脂、乳糖、砂糖、ナチュラルチーズ、食塩、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む</t>
+  </si>
+  <si>
+    <t>カカオマス（コートジボワール製造又は国内製造又はその他）、砂糖、小麦粉、乳糖、植物油脂、ココアバター、カカオニブ、ココアパウダー、全粉乳、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、小麦粉、植物油脂、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、植物油脂、小麦粉、カカオマス、ココアバター、いちご果汁パウダー、イースト、ココアパウダー／乳化剤、酸味料、アラビアガム、香料、光沢剤、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、乳糖、小麦粉、全粉乳、植物油脂、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、カカオマス、ココアバター、ココアパウダー、イースト/乳化剤、アラビアガム、膨張剤、光沢剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない)(国内製造)、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、たんぱく質濃縮ホエイパウダー、赤唐辛子パウダー、オニオンパウダー／香料、調味料(アミノ酸等)、着色料(カロチノイド、カラメル)、酸味料、(一部に乳成分・大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーン(遺伝子組換えでない)(米国産)、植物油、砂糖、粉末醤油、ぶどう糖、食塩、オニオンパウダー、香辛料、ポークエキスパウダー、酵母エキスパウダー／調味料(アミノ酸等)、香料、着色料(カラメル、カロチノイド)、甘味料(アセスルファムK、ステビア、カンゾウ)、酸味料、(一部に小麦・ごま・大豆・豚肉を含む)</t>
+  </si>
+  <si>
+    <t>コーングリッツ(遺伝子組換えでない)(国内製造)、植物油、砂糖、粉末醤油、ぶどう糖、たん白加水分解物、オニオンパウダー、食塩、酵母エキスパウダー、ビーフエキス調味料、ブラックペッパー／調味料(アミノ酸等)、着色料(カラメル、カロチノイド)、香料、酸味料、甘味料(アスパルテーム・L-フェニルアラニン化合物、スクラロース)、香辛料抽出物、(一部に小麦・牛肉・ごま・大豆・豚肉を含む)</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>麦芽（外国製造又は国内製造（５％未満））、ホップ、米、コーン、スターチ</t>
+  </si>
+  <si>
+    <t>麦芽・ホップ</t>
+  </si>
+  <si>
+    <t>発泡酒（国内製造）（麦芽（大麦麦芽・小麦麦芽）、ホップ、大麦、コリアンダーシード、オレンジピール）、スピリッツ（大麦）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）､ぶどう糖、水あめ､還元水あめ ／ガムベース、酸味料、香料</t>
+  </si>
+  <si>
+    <t>（レモン味）砂糖（国内製造）、水飴、濃縮レモン果汁、ハーブエキス（オレンジを含む）
+（ピーチ味）砂糖（国内製造）、水飴、濃縮ピーチ果汁、ハーブエキス（オレンジを含む）
+（グレープ味）砂糖（国内製造）、水飴、濃縮グレープ果汁、ハーブエキス（オレンジを含む）
+（オレンジ味）砂糖（国内製造）、水飴、濃縮オレンジ果汁、ハーブエキス（オレンジを含む）
+（青りんご味）砂糖（国内製造）、水飴、濃縮りんご果汁、ハーブエキス（オレンジを含む）</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ‐カルニチンＬ‐酒石酸塩、塩化Ｎａ、　　　　　　　ガラナ種子エキス、クエン酸、香料、甘味料（Ｄ‐リボース、スクラロース）、Ｌ‐アルギニン、　　　　クエン酸Ｎａ、カフェイン、保存料（安息香酸）、ナイアシン、着色料（アントシアニン）、　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>〈グレープ〉砂糖（国内製造）、水あめ、グレープペースト/酸味料、香料、着色料（アントシアニン、クチナシ）、チャ抽出物 〈オレンジ〉砂糖（国内製造）、水あめ、オレンジペースト/酸味料、香料、着色料（カロテノイド）、チャ抽出物 〈ストロベリー〉砂糖（国内製造）、水あめ、ストロベリーペースト/酸味料、香料、着色料（アントシアニン、カロテノイド）、チャ抽出物 〈メロン〉砂糖（国内製造）、水あめ、濃縮メロン果汁/酸味料、着色料（紅麹、クチナシ）、香料、チャ抽出物</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、加糖練乳、上白糖、生クリーム（乳成分を含む）、植物油脂、牛乳、食塩／乳化剤</t>
+  </si>
+  <si>
+    <t>ブドウ糖（国内製造）、澱粉／酸味料、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、ソース(砂糖、野菜・果実、醸造酢、食塩、アミノ酸液、その他)、砂糖、食塩、ソース風味パウダー、香辛料、アオサ粉、野菜パウダー、ミート調味エキス、野菜エキス、魚介エキス、魚醤パウダー（魚介類）／加工デンプン、調味料(アミノ酸等)、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤(ビタミンE)、香辛料抽出物、（一部に小麦・卵・乳成分・魚醤パウダー（魚介類）・牛肉・さば・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、小麦全粒粉、乳等を主要原料とする食品（はっ酵バター、植物油脂、バターオイル、脱脂粉乳、食塩）、脱脂粉乳、クリームパウダー、食塩／膨脹剤、カラメル色素、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、アーモンド、でん粉、砂糖、オニオンペースト、ポークエキスパウダー、ショートニング、にんにくパウダー、モルトエキス、チキンエキスパウダー、小麦たんぱく、食塩、しょうゆシーズニング、こしょう、乾燥ビール酵母、酵母エキスパウダー、ベーコンエキス、たまねぎシーズニング、イースト／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、くん液、（一部に乳成分・小麦・大豆・鶏肉・豚肉・ごま・アーモンドを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、植物油脂、ゼラチン、濃縮いちご果汁、いちご果汁パウダー、乳酸菌飲料（乳成分を含む）／酸味料、アカキャベツ色素、グリセリン、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、植物油脂、ゼラチン、ぶどう果汁、濃縮ヨーグルト（乳成分を含む）／酸味料、グリセリン、乳化剤、香料、ベニバナ黄色素、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ぶどう糖、植物油脂、ゼラチン、濃縮みかん果汁／ソルビトール、増粘多糖類、酸味料、グリセリン、香料、乳化剤、パプリカ色素、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
+  </si>
+  <si>
+    <t>うるち米（国産）、植物油脂、かつおだし味シーズニング（ぶどう糖、味付けかつおぶし粉末、たん白加水分解物、食塩、その他）、でん粉、えび、その他</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、マーガリン、砂糖、小麦全粒粉、発酵風味液、食塩、殺菌乳酸菌末／香料、カロテン色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、水あめ、でん粉／加工でん粉、乳化剤、カラメル色素、香料</t>
+  </si>
+  <si>
+    <t>水飴（国内製造）、砂糖、植物油脂、ぶどう濃縮果汁／酸味料、香料、着色料（アントシアニン、クチナシ、紅麹、金箔）、チャ抽出物、タンニン（抽出物）、乳化剤</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、加工油脂、乳糖、いちごパウダー、食塩、いちご果汁パウダー／加工デンプン、トレハロース、膨脹剤、紅麹色素、酸味料、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、ホエイパウダー、加工油脂、チーズパウダー、砂糖、ぶどう糖果糖液糖、モルトエキス、食塩、発酵種、モルトフラワー、イースト／膨脹剤、乳化剤、アナトー色素、香料、加工デンプン、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、ホエイパウダー、加工油脂、チーズパウダー、砂糖、ぶどう糖果糖液糖、ガーリックパウダー、オリーブオイル、アヒージョシーズニング、モルトエキス、アンチョビパウダー、食塩、発酵種、モルトフラワー、イースト／膨脹剤、乳化剤、香料、香辛料抽出物、（一部に小麦・乳成分・大豆・魚醤（魚介類）を含む）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 小麦粉（国内製造）、砂糖、加工油脂、乳糖、乳等を主要原料とする食品（加糖練乳、脱脂濃縮乳、濃縮乳、クリーム、脱脂粉乳、乳糖、砂糖）、還元水あめ、卵、植物油脂、脱脂粉乳、マーガリン、食塩、麦芽糖、小麦ファイバー、水あめ／乳化剤（大豆由来）、結晶セルロース、香料</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、ビーフシチュー風味シーズニング、砂糖、食塩／調味料（アミノ酸等）、重曹、香料、酸味料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、酸化防止剤（ビタミンＥ）、香辛料抽出物、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、脱脂粉乳、イチゴ果汁／酸味料、香料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、濃縮果汁（オレンジ、うんしゅうみかん）／酸味料、香料、着色料（紅花黄、パプリカ色素）、（一部にオレンジを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、ぶどう果汁、食塩／酸味料、香料、着色料（アントシアニン、クチナシ）、乳化剤、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、オレンジ濃縮果汁、食塩／酸味料、香料、着色料（パプリカ色素）、乳化剤、（一部に乳成分・オレンジ・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、ココアパウダー、食塩／香料、酸味料、着色料（カラメル）、乳化剤、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道美瑛町産１００％）、植物油、食塩、デキストリン、こんぶエキスパウダー / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道美瑛町産１００％）、植物油、粉末しょうゆ（小麦・大豆を含む）、ぶどう糖、食塩、でん粉、脱脂粉乳、マルチトール、デキストリン、全粉乳、バター、バターミルクパウダー、ホエイパウダー、粉末酒 / 調味料（アミノ酸等）、香料、カラメル色素、酸味料、苦味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道産１００％）、植物油、食塩、デキストリン、でん粉 / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（北海道産１００％）、植物油、砂糖、食塩、脱脂粉乳、たん白加水分解物、ぶどう糖、チーズパウダー（チェダーチーズパウダー、カマンベールチーズパウダー、ゴーダチーズパウダー）、酵母エキスパウダー / 調味料（アミノ酸等）、香料、酸味料、甘味料（ステビア、甘草）、パプリカ色素</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも（アメリカ製造又はドイツ製造）、植物油、食塩、砂糖、デキストリン、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、ブラックペッパー、酵母エキスパウダー、チキンエキスパウダー、ガーリック、ジンジャー、セロリシード、タイム、フェンネル、オールスパイス、クミン、オレガノ、セージ、パプリカ、ナツメグ、コリアンダー / 乳化剤、調味料（アミノ酸等）、香料（卵・ごまを含む）、着色料（カロチノイド、カラメル）、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（アメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、デキストリン、食塩、たんぱく質濃縮ホエイパウダー、バターパウダー、酵母エキスパウダー、バター / 調味料（アミノ酸等）、香料、カラメル色素、酸味料、甘味料（ステビア）、酸化防止剤（Ｖ．Ｃ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、ぶどう糖、食塩、たん白加水分解物（小麦・大豆・鶏肉を含む）、でん粉、デキストリン、ブラックペッパー、ホエイパウダー、ガーリックパウダー、チーズパウダー、酵母エキスパウダー、唐辛子 / 調味料（アミノ酸等）、香料、パプリカ色素、酸味料</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、スイートコーンパウダー、ぶどう糖、食塩、砂糖、チーズパウダー、たん白加水分解物（大豆を含む）、でん粉 / 調味料（アミノ酸等）、香料（小麦を含む）、炭酸カルシウム、酸味料、パプリカ色素、甘味料（ステビア、甘草）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩、クリーミングパウダー、油脂調整粉末、たん白加水分解物（大豆を含む）、オニオンパウダー、チェダーチーズパウダー、乳等を主要原料とする食品 / 調味料（アミノ酸等）、膨脹剤、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、甘草、ステビア）、パプリカ色素</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮いちご果汁、植物油脂</t>
+  </si>
+  <si>
+    <t>米（うるち米（国産）、うるち米粉（国産））、植物油脂、でん粉、砂糖、食塩、ガーリックパウダー、乳等を主要原料とする食品、粉末油脂（乳成分・大豆を含む）、たんぱく加水分解物（豚肉を含む）、チーズパウダー、バターパウダー、粉末しょう油（小麦・大豆を含む）／調味料（アミノ酸等）、香料（卵・乳・鶏由来）、酸味料、甘味料（ステビア）、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、カカオマス、植物油脂、全粉乳、ココアバター、ライ麦粉、ショートニング、脱脂粉乳、麦芽エキス、バターシーズニング、練乳パウダー、カラメルソース、食塩／乳化剤、膨脹剤、香料、カラメル色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、水あめ、ゼラチン、濃縮果汁（レモン、ラズベリー）、植物油脂、でん粉／ソルビトール、酸味料、増粘多糖類、香料、光沢剤、着色料（カラメル、アントシアニン、スピルリナ青、紅麹）、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ、砂糖、ゼラチン、濃縮果汁（バナナ、レモン、すもも）、植物油脂／ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、水あめ、ゼラチン、濃縮果汁（ぶどう、りんご、レモン、ラズベリー）、植物油脂、でん粉／ソルビトール、酸味料、増粘多糖類、光沢剤、香料、着色料（フラボノイド、アントシアニン、クチナシ、紅麹）、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂／ソルビトール、酸味料、骨Ca、着色料（カラメル、フラボノイド、クチナシ、紅麹）、香料、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、でん粉、食塩、植物性たん白、砂糖、しょうゆ、チキンエキス、卵白）、添付調味料（みそ、香辛料、砂糖、ポークエキス、脱脂大豆粉、たん白加水分解物、チキンエキス、香味油脂、食塩、粉末野菜）、かやく（味付豚肉、キャベツ、コーン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、増粘多糖類、かんすい、クチナシ色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香料、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部にえび・小麦・卵・乳成分・いか・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、卵粉、植物油、たん白加水分解物、大豆食物繊維）、添付調味料（チキンエキス、植物油、ポークエキス、でん粉、食塩、鶏脂、デキストリン、香辛料、砂糖、たん白加水分解物、豚脂、酵母エキス）、かやく（チンゲン菜、メンマ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、かんすい、増粘多糖類、乳化剤、ｐＨ調整剤、クチナシ色素、酸化防止剤（ビタミンＥ）、香料、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、卵粉、植物油、たん白加水分解物、大豆食物繊維）、添付調味料（ポークエキス、食塩、香味油脂、ラード、香辛料、しょうゆ、砂糖、チキンエキス、粉末野菜、たん白加水分解物、酵母エキス、植物油）、かやく（味付挽肉、卵、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、乳化剤、クチナシ色素、パプリカ色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香辛料抽出物、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、でん粉、食塩、植物性たん白、砂糖、しょうゆ、チキンエキス、卵白）、添付調味料（ポークエキス、みそ、香辛料、しょうゆ、キムチ風味調味料、食塩、粉末野菜、砂糖、植物油、たん白加水分解物、酵母エキス、魚醤（魚介類））、かやく（味付豚肉、白菜キムチ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、かんすい、着色料（クチナシ、パプリカ色素、カラメル、パプリカ粉末、紅麹）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・卵・乳成分・いか・ごま・大豆・鶏肉・豚</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、植物性たん白、乾燥酵母、卵白）、かやく（あおさてんぷら、あおさ揚玉、かまぼこ）、添付調味料（食塩、しょうゆ、砂糖、粉末かつおぶし、粉末こんぶ、わかめ、粉末煮干し、たん白加水分解物、ねぎ、香辛料、植物油）／加工でん粉、調味料（アミノ酸等）、リン酸塩（Ｎａ）、炭酸カルシウム、カラメル色素、レシチン、増粘多糖類、酸化防止剤（ビタミンＥ）、クチナシ色素、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、カロチン色素、（一部にえび・小麦・卵・乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、そば粉、植物油脂、植物性たん白、食塩、とろろ芋、卵白）、かやく（紅生姜入り小えびてんぷら、かまぼこ）、添付調味料（砂糖、食塩、しょうゆ、粉末かつおぶし、たん白加水分解物、ねぎ、香辛料、香味油脂）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、リン酸塩（Ｎａ）、カラメル色素、増粘多糖類、レシチン、酸化防止剤（ビタミンＥ）、ベニコウジ色素、クチナシ色素、酸味料、香料、アカダイコン色素、ビタミンＢ２、ビタミンＢ１、カロチン色素、香辛料抽出物、（一部にえび・小麦・そば・卵・乳成分・大豆・豚肉・やまいも・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、香辛料）、ソース（たん白加水分解物、豚脂、牛脂、糖類、香味調味料、食塩、しょうゆ、ビーフ調味料、食物繊維、赤ワイン、野菜ペースト）、かやく（にんじん、大豆たん白加工品）／加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、香料、炭酸Ｃａ、かんすい、酸味料、グリセリン、増粘剤（キサンタンガム）、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・牛肉・大豆・鶏肉・豚肉・りんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、こんぶエキス、大豆食物繊維、糖類）、スープ（糖類、食塩、牛脂、たん白加水分解物、乳化油脂、オニオンパウダー、還元水あめ、香辛料、カレー粉、ビーフ調味料、コーヒーパウダー、小麦粉、乳等を主要原料とする食品、植物油脂、赤ワイン）、かやく（大豆たん白加工品、にんじん）／加工でん粉、調味料（アミノ酸等）、カラメル色素、増粘剤（増粘多糖類、加工でん粉）、炭酸Ｃａ、リン酸塩（Ｎａ）、香料、ｐＨ調整剤、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、甘味料（スクラロース、アセスルファムＫ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・牛肉・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、野菜エキス、しょうゆ）、スープ（糖類、食塩、香辛料、ポーク調味料、ポークエキス、たん白加水分解物、酵母エキス）、かやく（フライドポテト、鶏・豚味付肉そぼろ、かまぼこ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、クチナシ色素、香料、かんすい、微粒二酸化ケイ素、レシチン、酸化防止剤（ビタミンＥ）、イカスミ色素、酸味料、ビタミンＢ２、くん液、ビタミンＢ１、（一部に小麦・卵・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、植物性たん白、粉末卵、チキン調味料）、ソース（ソース、豚脂、植物油脂、調味油脂）、かやく（キャベツ）／加工でん粉、カラメル色素、増粘剤（加工でん粉、タマリンド）、調味料（アミノ酸等）、かんすい、焼成カルシウム、香料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香辛料抽出物、パプリカ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（しょうゆ、植物油脂、たん白加水分解物、豚脂、食塩、発酵調味料、チキンエキス、砂糖、カツオ調味料、ニボシエキス、香辛料、酵母エキス）、ふりかけ（ぶどう糖、乳等を主要原料とする食品、明太子加工品、乳化油脂、酵母エキス、魚介エキス、ポークエキス、全卵粉）、かやく（卵、ねぎ）／加工でん粉、調味料（アミノ酸等）、増粘剤（加工でん粉、キサンタンガム）、酒精、炭酸Ｃａ、カロチノイド色素、香料、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、ベニコウジ色素、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・卵・乳成分・さけ・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（みそ、豚脂、ポークエキス、ガーリックペースト、植物油脂、ポーク調味料、食塩、オニオンペースト、魚介エキス、酵母エキス、香味油、ジンジャーペースト、唐辛子）、かやく（キャベツ、コーン、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、ソルビット、炭酸Ｃａ、香料、カラメル色素、かんすい、カロチノイド色素、酸化防止剤（ビタミンＥ）、酒精、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・牛肉・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、植物性たん白、食塩）、スープ（植物油脂、ポークエキス、豚脂、乳化油脂、食塩、豆板醤、ポーク調味料、みそ、香辛料、しょうゆ、たん白加水分解物、酵母エキス、香味調味料、オニオンパウダー、チキンエキス、全卵粉）、かやく（大豆加工品、キクラゲ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、ソルビット、増粘剤（増粘多糖類、アルギン酸エステル）、重曹、酒精、微粒二酸化ケイ素、かんすい、香料、ベニコウジ色素、酸化防止剤（ビタミンＥ）、カラメル色素、甘味料（スクラロース、アセスルファムＫ）、酸味料、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩）、スープ（乳化油脂、食用加工油脂、食塩、糖類、ポーク調味料、香辛料、酵母エキス、乳等を主要原料とする食品、全卵粉）、かやく（大豆加工品、コーン、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、増粘剤（加工でん粉、増粘多糖類）、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、香料、カロチノイド色素、カラメル色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>春雨（中国製造（でん粉、醸造酢））、かやく入りスープ（食塩、キャベツ、乳化油脂、砂糖、大豆加工品、チキン調味料、酵母エキス、人参、ゆず胡椒パウダー、ねぎ、コンブエキス、魚介調味料、たん白加水分解物、オニオンエキス、香辛料）／調味料（アミノ酸等）、増粘剤（加工でん粉、増粘多糖類）、香料、微粒二酸化ケイ素、カラメル色素、酸味料、（一部に小麦・卵・乳成分・ごま・さば・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造、国内製造)、牛乳、全粉乳、脱脂粉乳、デキストリン、ココナッツオイル、バターパウダー、食塩／香料、乳化剤、ビタミンC、カロテン色素、甘味料(ステビア)</t>
+  </si>
+  <si>
+    <t>砂糖､ぶどう糖、水あめ､還元水あめ／ガムベース、酸味料、香料</t>
+  </si>
+  <si>
+    <t>果実(りんご、トマト、たまねぎ、レモン、プルーン、にんじん)、醸造酢、砂糖、食塩、酵母エキス、香辛料、煮干エキス</t>
+  </si>
+  <si>
+    <t>果実類（りんご、もも、うめ）、醤油、砂糖、還元水あめ、アミノ酸液、蜂蜜、りんご酢、食塩、白ごま、オニ オンエキス、ごま油、蛋白加水分解物、にんにく、香辛料／カラメル色素、（一部に小麦・ごま・大豆・もも・ りんごを含む）</t>
+  </si>
+  <si>
+    <t>果実類（りんご、もも、うめ）、醤油、砂糖、アミノ酸液、にんにく、還元水あめ、食塩、蜂蜜、りんご酢、白 ごま、ごま油、蛋白加水分解物、オニオンエキス、香辛料／カラメル色素、（一部に小麦・ごま・大豆・もも・ りんごを含む）</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、香料、Ｌ－アルギニン、カフェイン、ナイアシン、甘味料（スクラロース）、イノシトール、　　　　　ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒、石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、香料、カフェイン、ナイアシン、安定剤（アラビアガム）、甘味料（スクラロース）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、塩化Ｎａ／クエン酸、クエン酸Ｎａ、香料、Ｌ－ロイシン、クエン酸Ｋ、乳酸Ｃａ、Ｌ－イソロイシン、Ｌ－バリン、カフェイン、甘味料（スクラロース）、塩化Ｍｇ、ナイアシン、イノシトール、ビタミンＢ６、着色料（黄色４号、青色１号）</t>
+  </si>
+  <si>
+    <t>醤油、砂糖、みそ、果実類（りんご、レモン）、発酵調味料、食塩、野菜類（玉ねぎ、生姜、にんにく）、果糖ぶどう糖液糖、ラージャン、蜂蜜、ごま油、白ごま</t>
+  </si>
+  <si>
+    <t>醤油、砂糖、りんご、ラージャン、発酵調味料、コチュジャン、食塩、果糖ぶどう糖液糖、野菜類（にんにく、玉ねぎ）、ごま油、りんご酢、白ごま、蜂蜜、香辛料、カラメル色素</t>
+  </si>
+  <si>
+    <t>醤油、砂糖、果実類（りんご、レモン）、食塩、果糖ぶどう糖液糖、黒蜜、発酵調味料、白ごま、ごま油、蜂蜜、もろみ、香辛料、にんにく</t>
+  </si>
+  <si>
+    <t>ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）（国内製造）、乳糖、砂糖、ココアバター、植物油脂、全粉乳、ぶどう糖、紅茶エキス、粉末レモン果汁／加工デンプン、乳化剤（大豆由来）、着色料（アカビート、カラメル、アナトー）、香料、ビタミンＣ、貝カルシウム、膨脹剤、酸味料</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩、青のり、あおさ／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、食塩、ビーフパウダー（鶏肉・ゼラチンを含む）、粉末ソース、酵母エキスパウダー、ガーリックパウダー、唐辛子、オニオンパウダー、ぶどう糖、デキストリン、わさびパウダー／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、酸味料、カゼインナトリウム（乳由来）、カラメル色素、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、粉末しょうゆ（小麦・大豆を含む）、粉末油脂、酵母エキスパウダー、香辛料、調味油、たん白加水分解物、乳糖、バター（北海道産使用）/調味料（アミノ酸等）、香料（ごま由来）、甘味料（ステビア）、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、オニオンパウダー、オニオンエキスパウダー、たん白加水分解物（大豆・豚肉を含む）、酵母エキスパウダー、パセリ、オリゴ糖、サワークリームパウダー（北海道産サワークリーム使用）、乳糖/調味料（アミノ酸等）、酸味料、香料、甘味料（スクラロース、ステビア、カンゾウ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、香辛料、たん白加水分解物（大豆・豚肉を含む）、粉末しょうゆ（小麦を含む）、食塩、マヨネーズ風味パウダー（卵を含む）、乳等を主要原料とする食品、オリゴ糖、デキストリン、明太子パウダー（ゼラチンを含む）、ビーフパウダー（鶏肉を含む）/調味料（アミノ酸等）、香料、酸味料、カロチノイド色素、甘味料（ステビア、スクラロース）、香辛料抽出物、ウコン色素</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆・豚肉を含む）、粉末しょうゆ（小麦を含む）、ビーフパウダー（鶏肉・ゼラチンを含む）、食塩、ガーリックパウダー、デキストリン、わさびパウダー/調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、カゼインナトリウム（乳由来）、香辛料抽出物、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、ぶどう糖、食塩、たん白加水分解物、オニオンパウダー、デキストリン、酵母エキスパウダー、ガーリックパウダー、唐辛子、ねぎパウダー／調味料（アミノ酸）、香料、パプリカ色素、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、香味油、デキストリン、岩塩、酵母エキスパウダー、ブラックペパー／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、香味油、ぶどう糖、食塩、たんぱく加水分解物（大豆・豚肉を含む）、粉末酢、クリーミングパウダー（乳成分を含む）、粉末しょうゆ（小麦・大豆を含む）、チキンブイヨンパウダー、酵母エキス、レモン果汁パウダー、粉末酒／調味料（アミノ酸等）、酸味料、香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油（ごまを含む）、香味油、デキストリン、食塩、焼のり、あおさ、青のり、粉末ごま油、酵母エキスパウダー、香辛料／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、デキストリン、香味油、ぶどう糖、昆布、たんぱく加水分解物（大豆を含む）、酵母エキスパウダー、昆布エキスパウダー、かきパウダー</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料（大豆を含む）、たんぱく加水分解物（大豆を含む）、食塩、ミートエキス調味パウダー（乳成分・小麦・牛肉・ごま・大豆・鶏肉・豚肉を含む）、オリゴ糖、昆布、しいたけエキスパウダー、酵母エキスパウダー、粉末油脂、香味油（小麦・大豆を含む）／調味料（アミノ酸等）、パプリカ色素、香辛料抽出物、甘味料（ステビア）、香料（大豆由来）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、食塩、オニオン、チーズパウダー（乳成分を含む）、たんぱく加水分解物（大豆を含む）、オリゴ糖、レモン果汁パウダー、サワークリームパウダー（乳成分を含む）、酵母エキスパウダー、パセリ／調味料（アミノ酸等）、香料（乳由来）、酸味料、甘味料（ステビア、スクラロース）、カロチノイド色素</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料、食塩、野菜エキスパウダー（乳成分・大豆・豚肉・ゼラチンを含む）、ビーフエキスパウダー、たんぱく加水分解物（大豆を含む）、赤パプリカ、香味油／調味料（アミノ酸等）、香料（乳由来）、着色料（ココア）、香辛料抽出物、カラメル色素、酸味料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、デキストリン／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ガーリックパウダー、ぶどう糖、食塩、砂糖、たんぱく加水分解物(大豆を含む)、野菜エキスパウダー（乳成分・大豆・豚肉・ゼラチンを含む）、オニオン、ホワイトペパー、唐辛子／調味料（アミノ酸等）、香辛料抽出物、甘味料（ステビア、カンゾウ）、香料、カラメル色素、酸味料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、青のり、あおさ、香辛料、酵母エキスパウダー／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料(大豆を含む）、肉エキスパウダー（乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）、たんぱく加水分解物(大豆を含む)、食塩、オリゴ糖、香味油(小麦・大豆を含む)／調味料（アミノ酸等）、酸味料、パプリカ色素、甘味料（ステビア、カンゾウ）、香料、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、粉末しょうゆ（小麦・大豆を含む）、食塩、焼のり、たんぱく加水分解物（大豆・鶏肉・豚肉を含む）、あおさ、香辛料、魚介エキスパウダー（さばを含む）、粉末みりん風味調味料（小麦・大豆を含む）、ごま、青のり、香味油、オリゴ糖／調味料（アミノ酸等）、香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、でん粉分解物、食塩（オホーツクの塩５０％、岩塩５０％）、たんぱく加水分解物（鶏肉を含む）、鶏油／調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、砂糖、たんぱく加水分解物（大豆を含む）、粉末しょうゆ（小麦・大豆を含む）、オリゴ糖、粉末酢（小麦を含む）、香辛料／酸味料、調味料（アミノ酸等）、香料、カラメル色素、甘味料（アセスルファムＫ、カンゾウ）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、食塩、香辛料、ミートエキス調味パウダー、粉末酢、たんぱく加水分解物、酵母エキスパウダー、粉末しょうゆ、粉末油脂／調味料（アミノ酸等）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、酸味料、パプリカ色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・りんごを含む）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、粉末酢（小麦を含む）、食塩、たんぱく加水分解物（鶏肉を含む）、砂糖、粉末しょうゆ（小麦・大豆を含む）、ホエイパウダー（乳成分を含む）、酵母エキス、オリゴ糖、香辛料／調味料（アミノ酸等）、酸味料、香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、梅酢パウダー、食塩、粉末酢、粉末しょうゆ（小麦・大豆を含む）、梅調味パウダー、あおさ、オリゴ糖／調味料（アミノ酸等）、酸味料、甘味料（ステビア）、香料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、岩塩、トリュフエキスチップ、ブラックペッパー、粉末油脂、オニオンエキスパウダー、チーズパウダー、トリュフ／調味料（アミノ酸）、香料、イカスミ色素、カラメル色素、（一部に乳成分・小麦・いか・大豆を含　む）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油（パーム油、米油、ごま油）、ぶどう糖、デキストリン、岩塩、たんぱく加水分解物、粉末油脂、米粉、チキンパウダー、唐辛子、昆布／調味料（アミノ酸等）、香料、酸味料、くん液、（一部に乳成分・ごま・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、デキストリン、岩塩、たんぱく加水分解物（大豆を含む）、ミートエキス調味パウダー（乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）、ブラックペッパー（カンポートペッパー３％）、でん粉、花椒、レモン果汁パウダー、香味油（豚肉を含む）／調味料（アミノ酸等）、酸味料、香辛料抽出物、香料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油、乾燥じゃがいも、ミルクパウダー、粉末植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、食塩、乳糖、でん粉、デキストリン、酵母エキスパウダー、たん白加水分解物、焼きのり、酒粕パウダー、チキンエキスパウダー、混合節エキスパウダー（さばを含む）、わさびパウダー / 調味料（アミノ酸等）、香料、加工デンプン、乳化剤、酸味料、カラメル色素、酸化防止剤（Ｖ．Ｃ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油（パーム油、米油、ごま油）、乾燥じゃがいも、ミルクパウダー、粉末植物油脂、豚そぼろ肉風味フレーク（大豆・鶏肉・ゼラチンを含む）、デキストリン、食塩、ぶどう糖、乳糖、豆板醤パウダー（小麦を含む）、砂糖、唐辛子風味フレーク、たん白加水分解物、ポークエキスパウダー、でん粉、酵母エキスパウダー、粉末みそ、ホエイパウダー、唐辛子、花椒、山椒 / 調味料（アミノ酸等）、香料、加工デンプン、乳化剤、着色料（カラメル、カロチノイド、紅麹）、酸味料、酸化防止剤（Ｖ．Ｃ）、甘味料（ステビア、甘草）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、デキストリン / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、チキンコンソメパウダー（小麦・大豆・豚肉を含む）、食塩、デキストリン、でん粉、粉末しょうゆ、粉末ソース（りんごを含む）、たまねぎエキスパウダー、香辛料パウダー、ビーフコンソメパウダー、野菜パウダー（トマト、にんじん）、発酵トマトエキスパウダー、梅肉パウダー / 調味料（アミノ酸等）、香料（ごまを含む）、カラメル色素、酸味料、パプリカ色素、甘味料（ステビア）、香辛料抽出物、ベニコウジ色素</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、食塩、青のり、あおさ、唐辛子、ごま油 / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、コーンスターチ、ほたてエキスパウダー、こんぶエキスパウダー、ぶどう糖、かつお節エキスパウダー、香味油 / 調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、食塩、チキンコンソメパウダー、コーンスターチ、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、チキンパウダー、粉末ソース（りんごを含む）、はくさいエキスパウダー、香辛料パウダー、トマトパウダー、ミルポワパウダー（豚肉を含む）、オニオンエキスパウダー、マッシュルームエキスパウダー、酵母エキスパウダー、オニオンパウダー、梅肉パウダー / 調味料（アミノ酸等）、香料（ごまを含む）、酸味料、着色料（カロチノイド、紅麹）、甘味料（ステビア（乳成分を含む））、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、ぶどう糖、食塩、デキストリン、焼きのり、でん粉、唐辛子、ごまパウダー、ごま油、たん白加水分解物（大豆を含む）、こしょう / 調味料（アミノ酸等）、香料、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、オニオンパウダー、ポークエキスパウダー（小麦・大豆・鶏肉を含む）、たん白加水分解物、粉末植物油脂、ガーリックパウダー、でん粉、粉末しょうゆ、チリパウダー、唐辛子、酵母エキスパウダー、香味油 / 調味料（アミノ酸等）、酸味料、パプリカ色素、香辛料抽出物、甘味料（ステビア、甘草）、香料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、オニオンエキスパウダー、オニオンパウダー、でん粉、ホエイパウダー、サワークリームパウダー、ガーリックパウダー、脱脂粉乳、パセリ、酵母エキスパウダー / 調味料（アミノ酸等）、香料、酸味料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、チーズ味フレーク、砂糖、ぶどう糖、食塩、ガーリックパウダー、酵母エキスパウダー、ビーフパウダー（小麦・大豆・鶏肉・ゼラチンを含む）、野菜エキスパウダー、粉末植物油脂、たん白加水分解物、チーズパウダー、ミート風味調味料、トマトパウダー、赤唐辛子、パセリ、サラミ風チップ（豚肉を含む）、オレガノ / 調味料（アミノ酸等）、香料（りんごを含む）、酸味料、乳化剤、着色料（カロチノイド、カラメル、紅麹）、香辛料抽出物、くん液、甘味料（ステビア）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）、植物油、食塩、コーンスターチ、こんぶエキスパウダー / 調味料（アミノ酸等）、酸化防止剤（ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）、植物油、食塩、黒こしょう、デキストリン、砂糖、ぶどう糖、オニオンパウダー、コーンスターチ、酵母エキスパウダー（豚肉を含む）、還元水あめ、粉末しょうゆ（小麦・大豆を含む）、シナモン、調味動物油脂 / 調味料（アミノ酸等）、香辛料抽出物、酸味料、香料、酸化防止剤（ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、食塩、バターパウダー、果糖、コーンスターチ、たん白加水分解物（大豆を含む）、マスカルポーネチーズパウダー、クリーミングパウダー、酵母エキスパウダー、パセリ、はちみつパウダー / 調味料（アミノ酸等）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース、ステビア）、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、乳糖、オニオン、でん粉、粉末オリーブオイル、粉末加工油脂、ぶどう糖、砂糖、赤ピーマン、食物繊維、パセリ、粉末酢、ガーリックパウダー、ブラックペッパー、セロリ、トマトパウダー、マスタードパウダー / 酸味料、調味料（アミノ酸等）、香辛料抽出物、着色料（ウコン）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、デキストリン、砂糖、食塩、ポークエキスパウダー、マスタードパウダー、唐辛子パウダー、卵黄パウダー（卵を含む）、マヨネーズ風味パウダー（ごま・鶏肉を含む）、粉末酢 / 香料（乳成分を含む）、調味料（アミノ酸等）、酸味料、甘味料（ステビア、甘草）、着色料（ウコン）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、食塩、デキストリン、麦芽糖、でん粉、マルチトール、ごま、ごま油、全粉乳、たん白加水分解物（大豆を含む）、酵母エキスパウダー、こしょう / 調味料（アミノ酸等）、香料、酸味料、酸化防止剤（ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも（アメリカ製造又はドイツ製造又はその他）、植物油、食塩、デキストリン、でん粉、こんぶエキスパウダー / 乳化剤、調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>乾燥じゃがいも（遺伝子組換えでない）、植物油、食塩、コーンスターチ、砂糖、チキンコンソメパウダー（小麦・大豆・豚肉を含む）、粉末しょうゆ、粉末ソース（りんごを含む）、ビーフコンソメパウダー、香辛料パウダー、オニオンエキスパウダー、トマトパウダー、発酵トマトエキスパウダー、調味動物油脂、キャロットパウダー、梅肉パウダー／乳化剤、調味料（アミノ酸等）、香料（ごまを含む）、酸味料、着色料（カラメル、カロチノイド、紅麹）、甘味料（ステビア）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油、食塩、加工油脂、デキストリン、コーンスターチ、香味油、こんぶエキスパウダー、乳糖 / 糊料（加工デンプン、アルギン酸Ｎａ）、トレハロース、調味料（アミノ酸等）、酸化防止剤（Ｖ．Ｃ）、香料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産）、植物油、砂糖、食塩、チキンコンソメパウダー、コーンスターチ、チキンパウダー、香辛料パウダー、粉末ソース（りんごを含む）、粉末しょうゆ（大豆を含む）、酵母エキスパウダー、マッシュルームエキスパウダー、ミルポワパウダー（豚肉を含む）、オニオンエキスパウダー、トマトパウダー、オニオンパウダー、はくさいエキスパウダー、梅肉パウダー、発酵酵母エキスパウダー / 糊料（加工デンプン、アルギン酸Ｎａ）、トレハロース、調味料（アミノ酸等）、香料、酸味料、酸化防止剤（Ｖ．Ｃ）、着色料（カロチノイド、紅麹）、甘味料（ステビア：乳成分を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂、食塩、昆布調味エキス、かつお節調味エキス、果糖／乳化剤（大豆を含む）、調味料（アミノ酸）酸化防止剤（ビタミンＥ、ビタミンＣ）、香料、微粒酸化ケイ素、増粘剤（グアーガム）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、カカオマス、ココアパウダー、液全卵、植物油脂、バター、油脂加工食品（乳成分を含む）、乳糖、全粉乳、食塩、水飴、シナモン粉末／膨張剤、乳化剤（大豆由来）、香料、カゼインナトリウム（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、小麦粉、マーガリン（乳成分を含む）、液卵白（卵を含む）、全粉乳、植物油脂、ココアパウダー、バター、カカオマス、食塩 ／ 乳化剤（大豆由来）、香料（乳由来）、膨脹剤</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂、食塩、たまねぎ粉末、デキストリン、砂糖、野菜エキス粉末、香辛料、酵母エキス粉末（乳成分・卵・鶏肉を含む）、たんぱく加水分解物（大豆を含む）、ブドウ糖、野菜粉末、チキンオイル、ローストしょうゆ調味料（小麦・大豆を含む）、でん粉、大豆たんぱく、チキン粉末（小麦・大豆を含む）／乳化剤（大豆由を含む）、調味料（アミノ酸）、酸味料、酸化防止剤（ビタミンＥ、ビタミンＣ）、加工デンプン、香料、微粒ケイ素</t>
+  </si>
+  <si>
+    <t>でん粉、植物油脂、米粉、食用加工油脂、えび粉、食塩、香味油（小麦・えび・大豆を含む）、えび調味料粉末、青のり、昆布粉、えびシーズニング（大豆を含む）／ソルビトール、乳化剤（大豆由来）、加工デンプン、調味料（アミノ酸）、香料（えび由来）、セルロース、酸化防止剤（ビタミンＥ、ビタミンＣ）、着色料（カロテノイド、ウコン）、微粒ケイ素</t>
+  </si>
+  <si>
+    <t>砂糖、小麦粉。マーガリン（乳成分を含む）、液卵白（卵を含む）、植物油脂、全粉乳、ホエイパウダー（乳成分を含む）、乳糖、バター、ココアパウダー脱脂粉乳、クリーミングパウダー（乳成分を含む）、食塩／トレハロース、乳化剤（大豆由来）、膨張剤、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂（ごまを含む）、食塩、アオサ粉末、かつお節調味エキス、青のり粉、昆布エキス粉末、酵母エキス粉末、デキストリン／乳化剤（大豆を含む）、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンＣ）リン酸三カルシウム、微粒ケイ素、香料、増粘剤（グアーガム）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト、植物油脂、デキストリン、食塩、ぶどう糖、乳化剤（大豆を含む）、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンＣ、チャ抽出物）</t>
+  </si>
+  <si>
+    <t>砂糖（韓国製造）、ポテトペレット（乾燥ポテト、でん粉、食塩）、植物油脂、カカオマス、全粉乳／乳化剤（大豆由来）、香料、着色料（ウコン）、酸化防止剤（ビタミンＥ、ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>ポテトペレット（乾燥ポテト、でん粉、食塩）（スペイン製造）、植物油脂、砂糖、全粉乳、乳糖、デキストリン、ココアバター、クリーミングパウダー（乳成分を含む）、食塩／乳化剤（大豆由来）、香料（乳由来）、着色料（ウコン）、酸化防止剤（ビタミンＥ、ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>野菜・果実（トマト、たまねぎ、りんご、その他）、糖類（ぶどう糖果糖液糖、砂糖）、醸造酢、醤油、食塩、アミノ酸液、香辛料、オイスターエキス、肉エキス、ホタテエキス、魚肉エキス、昆布、酵母エキス、カラメル色素、増粘剤（加工でんぷん、タマリンド）、調味料（アミノ酸等）、（原材料の一部として小麦、大豆、鶏肉、豚肉、もも、りんごを含む） 　</t>
+  </si>
+  <si>
+    <t>野菜・果実(トマト、りんご、プルーン、レモン、にんじん、たまねぎ)、醸造酢、糖類(ぶどう糖果糖液糖、砂糖)、食塩、澱粉、酵母エキス、香辛料(原材料の一部に大豆を含む)</t>
+  </si>
+  <si>
+    <t>野菜・果実（トマト、プルーン、りんご、レモン、にんじん、たまねぎ、）、醸造酢、砂糖類（ぶどう糖果糖液糖、砂糖）、食塩、澱粉、酵母エキス、香辛料</t>
+  </si>
+  <si>
+    <t>果実（ぶどう、グレープフルーツ、ライチ）、砂糖類（果糖ぶどう糖液糖（国内製造）、果糖）、食塩（沖縄県産）／酸味料、香料</t>
+  </si>
+  <si>
+    <t>めん〔小麦粉（国内製造）、食塩、植物性たん白、還元水飴〕、スープ〔ポークエキス、ポークオイル、食塩、煎りごま、野菜粉末、糖類（砂糖、麦芽糖、ぶどう糖）、粉末油脂、粉末しょうゆ、植物油脂、たん白加水分解物、香辛料、でん粉、ねぎ、すりごま、ホタテエキス、酵母エキス〕／調味料（アミノ酸等）、かんすい、ｐＨ調整剤、クチナシ色素、カラメル色素、香料、酸化防止剤（ビタミンＥ）、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、にんにく醤油シーズニング（ぶどう糖、しょうゆパウダー、食塩、砂糖、たん白加水分解物、でん粉、ビーフエキス調味料、酵母エキスパウダー、ガーリックパウダー）、焦がししょうゆパウダー／調味料（アミノ酸等）、香辛料抽出物、香料、乳化剤、カラメル色素、甘味料（スクラロース）、（一部に小麦・乳成分・牛肉・ごま・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、バターしょうゆシーズニング（乳等を主要原料とする食品、砂糖、しょうゆパウダー、食塩、たん白加水分解物、バターパウダー、チーズパウダー、酵母エキスパウダー、かつお節パウダー）、バターミルクパウダー／調味料（アミノ酸等）、香料、乳化剤、甘味料（カンゾウ、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、食塩（アルペンザルツ８８％使用）、しょうゆパウダー、たん白加水分解物、チキンエキスパウダー、香辛料、鰹節エキスパウダー、香味油、スイートコーンパウダー／加工デンプン、調味料（アミノ酸等）、重曹、香料、（一部に小麦・乳成分・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、ショートニング、乳糖、砂糖、チーズパウダー、食塩、ぶどう糖、たん白加水分解物、乳等を主要原料とする食品、クリーミングパウダー、酵母エキスパウダー、オニオンパウダー、香辛料、デキストリン、みそパウダー／加工デンプン、調味料（アミノ酸等）、香料、重曹、パプリカ色素、乳化剤、甘味料（スクラロース）、香辛料抽出物、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、しょうゆ、しょうゆパウダー、食塩、還元麦芽糖水あめ、たん白加水分解物、スイートコーンパウダー、デキストリン、チキンパウダー／加工デンプン、調味料（アミノ酸等）、重曹、香料、カラメル色素、甘味料（カンゾウ、スクラロース）、（一部に小麦・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、ショートニング、乳糖、食塩、ぶどう糖、スイートコーンパウダー、乳等を主要原料とする食品、果糖、たん白加水分解物、全粉乳、酵母エキスパウダー、オニオンパウダー、バターパウダー、パセリ／加工デンプン、調味料（アミノ酸等）、香料、重曹、紅花黄色素、乳化剤、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖、ぶどう糖果糖液糖(国内製造)/炭酸ガス、酸味料、香料</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（黄色4号、青色1号）</t>
+  </si>
+  <si>
+    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料(黄色4号）</t>
+  </si>
+  <si>
+    <t>砂糖・ぶどう糖果糖液糖/炭酸ガス、カラメル色素、酸味料、香料</t>
+  </si>
+  <si>
+    <t>砂糖・ぶどう糖果糖液糖/炭酸ガス、酸味料、香料 、着色料（黄色4号、 青色1号）</t>
+  </si>
+  <si>
+    <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、香料、酸味料、着色料（黄色4号）</t>
+  </si>
+  <si>
+    <t>糖類（果糖ぶどう糖液糖、砂糖）、酸味料、香料、ビタミンＣ</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、桜の花エキス(国産)、炭酸、香料、酸味料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>エリスリトール、酸味料、香料、甘味料</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、緑茶（静岡県産）、香料、 酸味料、ベニバナ黄色素、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、みそ、炭酸、カラメル色素、香料、酸味料、塩化ナトリウム、エルダベリー色素、カフェイン（抽出物）</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、はるみ果汁（静岡県産）／炭酸、香料、カロテン色素、ビタミンC、酸味料、カフェイン（抽出物）</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、酸味料、香料</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖、香料、酸味料</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、ビスケット（小麦粉、砂糖、ショートニング、食塩）、カカオマス、小麦粉、全粉乳、乳糖、ココアバター、ココアパウダー、キャラメルパウダー、食塩、イースト／乳化剤、膨脹剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、カカオマス、植物油脂、全粉乳、小麦粉、乳糖、ココアバター、乾燥あんず加工品、ココアパウダー、イースト／乳化剤、酸味料、香料、イーストフード、重曹、リンゴ酸、パプリカ色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>焼酎（国内製造）、烏龍茶／香料、ビタミンＣ</t>
+  </si>
+  <si>
+    <t>レモンエキス、グレープフルーツエキス、オレンジエキス、ウォッカ／炭酸、酸味料、香料、甘味料（ステビア）、ビタミンC</t>
+  </si>
+  <si>
+    <t>焼酎、レモン、グレープフルーツ、香料、紅花色素</t>
+  </si>
+  <si>
+    <t>ぶどう、ぶどうエキス、ぶどうスピリッツ（国内製造）、焼酎、糖類／炭酸、香料、酸味料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>もも、ももエキス、ももスピリッツ（国内製造）、焼酎、糖類／炭酸、香料、酸味料</t>
+  </si>
+  <si>
+    <t>グレープフルーツ果汁、スピリッツ（国内製造）／炭酸、酸味料、甘味料（アセスルファムＫ、スクラロース）、香料</t>
+  </si>
+  <si>
+    <t>○ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）○オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素○グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素○コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,425 +1133,1290 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E615D68-CAB4-47E0-941D-23CC2B10D297}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>80</v>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients/ingredients.xlsx
+++ b/ingredients/ingredients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\ingredients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78BD6D8-4DCC-4BFC-A43B-4C0A590979C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34985458-B1C2-44A9-A33E-1A0BC6392276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="247">
   <si>
     <t>ingredients_ori</t>
   </si>
@@ -52,9 +52,6 @@
     <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、カカオマス、全粉乳、植物油脂、ショートニング、マーガリン（乳成分を含む）、乳糖、バター、ココアバター、脱脂粉乳、加糖練乳、液全卵、うるちひえパフ、ごま、ぶどう糖、食塩、乾燥卵白（卵を含む）／リン酸Ca、乳化剤（大豆由来）、膨脹剤、香料（乳由来）、着色料（カロテノイド）、ビタミンＤ</t>
-  </si>
-  <si>
     <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
@@ -97,18 +94,12 @@
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（粉末みそ、みそ、砂糖、食塩、でん粉、香辛料、ポークエキス、ポーク調味料、豚脂、乳化油脂、酵母エキス、みそ加工品、香味調味料、たん白加水分解物、魚介エキス、植物油脂）、かやく（大豆加工品、メンマ、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、酒精、増粘多糖類、カラメル色素、カロチノイド色素、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、甘味料（カンゾウ）、酸味料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、でん粉、食塩、砂糖、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、唐辛子、ガーリックパウダー、酵母エキスパウダー（乳成分を含む）、ビーフパウダー、こしょう、粉末植物油脂 / 調味料（アミノ酸等）、香料（ゼラチンを含む）、酸味料、着色料（カラメル、カロチノイド、炭末、クチナシ）、甘味料（ステビア）、香辛料抽出物</t>
-  </si>
-  <si>
     <t>ぶどう糖、砂糖、イソマルトオリゴ糖、でん粉、乳化剤、酸味料、糊料(プルラン)、乳酸カルシウム、アントシアニン色素、香料</t>
   </si>
   <si>
     <t>ぶどう糖（国内製造）、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、カラメル色素</t>
   </si>
   <si>
-    <t xml:space="preserve"> ぶどう糖、砂糖、イソマルトオリゴ糖、乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、乳酸カルシウム</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、香料、酸味料</t>
   </si>
   <si>
-    <t>めん（小麦粉（国内製造）、小麦全粒粉、食塩、小麦たん白、植物油脂、大豆食物繊維、たん白加水分解物）、スープ（しょうゆ、ポークエキス、動物油脂、唐辛子、糖類、香味油、粉末かつお節、たん白加水分解物、チキンエキス、ポーク調味油、しょうゆ調味料、デキストリン、食塩、ポークパウダー、ガーリックペースト）、かやく（ねぎ）／加工デンプン、調味料（アミノ酸等）、増粘剤（加工デンプン、増粘多糖類）、着色料（カラメル、クチナシ、パプリカ色素）、炭酸カルシウム、かんすい、乳化剤、香辛料抽出物、酸化防止剤（Ｖ.Ｅ）、香料、（一部に卵・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>発泡酒（国内製造）（麦芽、ホップ、大麦）、スピリッツ（大麦）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、しょうゆ、食塩、香辛料）、ソース（糖類、香辛料、食塩、粉末しょうゆ、チキン調味料、ごま、酵母エキス、野菜調味油）／加工でん粉、乳化剤、調味料（アミノ酸等）、炭酸Ｃａ、カラメル色素、かんすい、ベニコウジ色素、カロチノイド色素、香料、香辛料抽出物、酸味料、甘味料（カンゾウ、スクラロース）、増粘剤（グァーガム）、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
   </si>
   <si>
-    <t>【青リンゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮青リンゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（黄色４号、青色１号）、（一部にりんご・ゼラチンを含む）　【レモン】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮レモン果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、着色料（黄色４号）、（一部にゼラチンを含む）　【グレープ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮グレープ果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、甘味料（アセスルファムＫ、ステビア）、着色料（赤色４０号、青色１号）、（一部にゼラチンを含む）　【イチゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮イチゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（赤色４０号）、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
     <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩／乳化剤、調味料（アミノ酸）</t>
   </si>
   <si>
@@ -235,9 +217,6 @@
     <t>砂糖（外国製造、国内製造）、乳糖、小麦粉、全粉乳、植物油脂、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、カカオマス、ココアバター、ココアパウダー、イースト/乳化剤、アラビアガム、膨張剤、光沢剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
   </si>
   <si>
-    <t>コーングリッツ(遺伝子組換えでない)(国内製造)、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、たんぱく質濃縮ホエイパウダー、赤唐辛子パウダー、オニオンパウダー／香料、調味料(アミノ酸等)、着色料(カロチノイド、カラメル)、酸味料、(一部に乳成分・大豆を含む)</t>
-  </si>
-  <si>
     <t>コーン(遺伝子組換えでない)(米国産)、植物油、砂糖、粉末醤油、ぶどう糖、食塩、オニオンパウダー、香辛料、ポークエキスパウダー、酵母エキスパウダー／調味料(アミノ酸等)、香料、着色料(カラメル、カロチノイド)、甘味料(アセスルファムK、ステビア、カンゾウ)、酸味料、(一部に小麦・ごま・大豆・豚肉を含む)</t>
   </si>
   <si>
@@ -245,18 +224,6 @@
   </si>
   <si>
     <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>麦芽（外国製造又は国内製造（５％未満））、ホップ、米、コーン、スターチ</t>
-  </si>
-  <si>
-    <t>麦芽・ホップ</t>
-  </si>
-  <si>
-    <t>発泡酒（国内製造）（麦芽（大麦麦芽・小麦麦芽）、ホップ、大麦、コリアンダーシード、オレンジピール）、スピリッツ（大麦）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）､ぶどう糖、水あめ､還元水あめ ／ガムベース、酸味料、香料</t>
   </si>
   <si>
     <t>（レモン味）砂糖（国内製造）、水飴、濃縮レモン果汁、ハーブエキス（オレンジを含む）
@@ -266,447 +233,27 @@
 （青りんご味）砂糖（国内製造）、水飴、濃縮りんご果汁、ハーブエキス（オレンジを含む）</t>
   </si>
   <si>
-    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ‐カルニチンＬ‐酒石酸塩、塩化Ｎａ、　　　　　　　ガラナ種子エキス、クエン酸、香料、甘味料（Ｄ‐リボース、スクラロース）、Ｌ‐アルギニン、　　　　クエン酸Ｎａ、カフェイン、保存料（安息香酸）、ナイアシン、着色料（アントシアニン）、　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>〈グレープ〉砂糖（国内製造）、水あめ、グレープペースト/酸味料、香料、着色料（アントシアニン、クチナシ）、チャ抽出物 〈オレンジ〉砂糖（国内製造）、水あめ、オレンジペースト/酸味料、香料、着色料（カロテノイド）、チャ抽出物 〈ストロベリー〉砂糖（国内製造）、水あめ、ストロベリーペースト/酸味料、香料、着色料（アントシアニン、カロテノイド）、チャ抽出物 〈メロン〉砂糖（国内製造）、水あめ、濃縮メロン果汁/酸味料、着色料（紅麹、クチナシ）、香料、チャ抽出物</t>
-  </si>
-  <si>
     <t>水あめ（国内製造）、加糖練乳、上白糖、生クリーム（乳成分を含む）、植物油脂、牛乳、食塩／乳化剤</t>
   </si>
   <si>
-    <t>ブドウ糖（国内製造）、澱粉／酸味料、乳化剤、香料</t>
-  </si>
-  <si>
     <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
     <t>小麦粉（国内製造）、植物油脂、ソース(砂糖、野菜・果実、醸造酢、食塩、アミノ酸液、その他)、砂糖、食塩、ソース風味パウダー、香辛料、アオサ粉、野菜パウダー、ミート調味エキス、野菜エキス、魚介エキス、魚醤パウダー（魚介類）／加工デンプン、調味料(アミノ酸等)、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤(ビタミンE)、香辛料抽出物、（一部に小麦・卵・乳成分・魚醤パウダー（魚介類）・牛肉・さば・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
   </si>
   <si>
-    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、小麦全粒粉、乳等を主要原料とする食品（はっ酵バター、植物油脂、バターオイル、脱脂粉乳、食塩）、脱脂粉乳、クリームパウダー、食塩／膨脹剤、カラメル色素、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、アーモンド、でん粉、砂糖、オニオンペースト、ポークエキスパウダー、ショートニング、にんにくパウダー、モルトエキス、チキンエキスパウダー、小麦たんぱく、食塩、しょうゆシーズニング、こしょう、乾燥ビール酵母、酵母エキスパウダー、ベーコンエキス、たまねぎシーズニング、イースト／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、くん液、（一部に乳成分・小麦・大豆・鶏肉・豚肉・ごま・アーモンドを含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、植物油脂、ゼラチン、濃縮いちご果汁、いちご果汁パウダー、乳酸菌飲料（乳成分を含む）／酸味料、アカキャベツ色素、グリセリン、香料、乳化剤</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、植物油脂、ゼラチン、ぶどう果汁、濃縮ヨーグルト（乳成分を含む）／酸味料、グリセリン、乳化剤、香料、ベニバナ黄色素、クチナシ青色素</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ぶどう糖、植物油脂、ゼラチン、濃縮みかん果汁／ソルビトール、増粘多糖類、酸味料、グリセリン、香料、乳化剤、パプリカ色素、ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
-  </si>
-  <si>
-    <t>うるち米（国産）、植物油脂、かつおだし味シーズニング（ぶどう糖、味付けかつおぶし粉末、たん白加水分解物、食塩、その他）、でん粉、えび、その他</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、マーガリン、砂糖、小麦全粒粉、発酵風味液、食塩、殺菌乳酸菌末／香料、カロテン色素、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、水あめ、でん粉／加工でん粉、乳化剤、カラメル色素、香料</t>
-  </si>
-  <si>
-    <t>水飴（国内製造）、砂糖、植物油脂、ぶどう濃縮果汁／酸味料、香料、着色料（アントシアニン、クチナシ、紅麹、金箔）、チャ抽出物、タンニン（抽出物）、乳化剤</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、加工油脂、乳糖、いちごパウダー、食塩、いちご果汁パウダー／加工デンプン、トレハロース、膨脹剤、紅麹色素、酸味料、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ショートニング、ホエイパウダー、加工油脂、チーズパウダー、砂糖、ぶどう糖果糖液糖、モルトエキス、食塩、発酵種、モルトフラワー、イースト／膨脹剤、乳化剤、アナトー色素、香料、加工デンプン、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ショートニング、ホエイパウダー、加工油脂、チーズパウダー、砂糖、ぶどう糖果糖液糖、ガーリックパウダー、オリーブオイル、アヒージョシーズニング、モルトエキス、アンチョビパウダー、食塩、発酵種、モルトフラワー、イースト／膨脹剤、乳化剤、香料、香辛料抽出物、（一部に小麦・乳成分・大豆・魚醤（魚介類）を含む）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 小麦粉（国内製造）、砂糖、加工油脂、乳糖、乳等を主要原料とする食品（加糖練乳、脱脂濃縮乳、濃縮乳、クリーム、脱脂粉乳、乳糖、砂糖）、還元水あめ、卵、植物油脂、脱脂粉乳、マーガリン、食塩、麦芽糖、小麦ファイバー、水あめ／乳化剤（大豆由来）、結晶セルロース、香料</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、ビーフシチュー風味シーズニング、砂糖、食塩／調味料（アミノ酸等）、重曹、香料、酸味料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、酸化防止剤（ビタミンＥ）、香辛料抽出物、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
-  </si>
-  <si>
     <t>砂糖（国内製造）、水飴、脱脂粉乳、イチゴ果汁／酸味料、香料、アントシアニン色素</t>
   </si>
   <si>
-    <t>砂糖（国内製造）、水飴、濃縮果汁（オレンジ、うんしゅうみかん）／酸味料、香料、着色料（紅花黄、パプリカ色素）、（一部にオレンジを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、ぶどう果汁、食塩／酸味料、香料、着色料（アントシアニン、クチナシ）、乳化剤、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、オレンジ濃縮果汁、食塩／酸味料、香料、着色料（パプリカ色素）、乳化剤、（一部に乳成分・オレンジ・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、ココアパウダー、食塩／香料、酸味料、着色料（カラメル）、乳化剤、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>じゃがいも（北海道美瑛町産１００％）、植物油、食塩、デキストリン、こんぶエキスパウダー / 調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>じゃがいも（北海道美瑛町産１００％）、植物油、粉末しょうゆ（小麦・大豆を含む）、ぶどう糖、食塩、でん粉、脱脂粉乳、マルチトール、デキストリン、全粉乳、バター、バターミルクパウダー、ホエイパウダー、粉末酒 / 調味料（アミノ酸等）、香料、カラメル色素、酸味料、苦味料</t>
-  </si>
-  <si>
-    <t>じゃがいも（北海道産１００％）、植物油、食塩、デキストリン、でん粉 / 調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>じゃがいも（北海道産１００％）、植物油、砂糖、食塩、脱脂粉乳、たん白加水分解物、ぶどう糖、チーズパウダー（チェダーチーズパウダー、カマンベールチーズパウダー、ゴーダチーズパウダー）、酵母エキスパウダー / 調味料（アミノ酸等）、香料、酸味料、甘味料（ステビア、甘草）、パプリカ色素</t>
-  </si>
-  <si>
-    <t>乾燥じゃがいも（アメリカ製造又はドイツ製造）、植物油、食塩、砂糖、デキストリン、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、ブラックペッパー、酵母エキスパウダー、チキンエキスパウダー、ガーリック、ジンジャー、セロリシード、タイム、フェンネル、オールスパイス、クミン、オレガノ、セージ、パプリカ、ナツメグ、コリアンダー / 乳化剤、調味料（アミノ酸等）、香料（卵・ごまを含む）、着色料（カロチノイド、カラメル）、酸味料</t>
-  </si>
-  <si>
-    <t>じゃがいも（アメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、デキストリン、食塩、たんぱく質濃縮ホエイパウダー、バターパウダー、酵母エキスパウダー、バター / 調味料（アミノ酸等）、香料、カラメル色素、酸味料、甘味料（ステビア）、酸化防止剤（Ｖ．Ｃ）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、ぶどう糖、食塩、たん白加水分解物（小麦・大豆・鶏肉を含む）、でん粉、デキストリン、ブラックペッパー、ホエイパウダー、ガーリックパウダー、チーズパウダー、酵母エキスパウダー、唐辛子 / 調味料（アミノ酸等）、香料、パプリカ色素、酸味料</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、スイートコーンパウダー、ぶどう糖、食塩、砂糖、チーズパウダー、たん白加水分解物（大豆を含む）、でん粉 / 調味料（アミノ酸等）、香料（小麦を含む）、炭酸カルシウム、酸味料、パプリカ色素、甘味料（ステビア、甘草）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩、クリーミングパウダー、油脂調整粉末、たん白加水分解物（大豆を含む）、オニオンパウダー、チェダーチーズパウダー、乳等を主要原料とする食品 / 調味料（アミノ酸等）、膨脹剤、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、甘草、ステビア）、パプリカ色素</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮いちご果汁、植物油脂</t>
-  </si>
-  <si>
-    <t>米（うるち米（国産）、うるち米粉（国産））、植物油脂、でん粉、砂糖、食塩、ガーリックパウダー、乳等を主要原料とする食品、粉末油脂（乳成分・大豆を含む）、たんぱく加水分解物（豚肉を含む）、チーズパウダー、バターパウダー、粉末しょう油（小麦・大豆を含む）／調味料（アミノ酸等）、香料（卵・乳・鶏由来）、酸味料、甘味料（ステビア）、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、カカオマス、植物油脂、全粉乳、ココアバター、ライ麦粉、ショートニング、脱脂粉乳、麦芽エキス、バターシーズニング、練乳パウダー、カラメルソース、食塩／乳化剤、膨脹剤、香料、カラメル色素、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、外国製造）、水あめ、ゼラチン、濃縮果汁（レモン、ラズベリー）、植物油脂、でん粉／ソルビトール、酸味料、増粘多糖類、香料、光沢剤、着色料（カラメル、アントシアニン、スピルリナ青、紅麹）、（一部にりんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ、砂糖、ゼラチン、濃縮果汁（バナナ、レモン、すもも）、植物油脂／ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、外国製造）、水あめ、ゼラチン、濃縮果汁（ぶどう、りんご、レモン、ラズベリー）、植物油脂、でん粉／ソルビトール、酸味料、増粘多糖類、光沢剤、香料、着色料（フラボノイド、アントシアニン、クチナシ、紅麹）、（一部にりんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂／ソルビトール、酸味料、骨Ca、着色料（カラメル、フラボノイド、クチナシ、紅麹）、香料、光沢剤、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、でん粉、食塩、植物性たん白、砂糖、しょうゆ、チキンエキス、卵白）、添付調味料（みそ、香辛料、砂糖、ポークエキス、脱脂大豆粉、たん白加水分解物、チキンエキス、香味油脂、食塩、粉末野菜）、かやく（味付豚肉、キャベツ、コーン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、増粘多糖類、かんすい、クチナシ色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香料、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部にえび・小麦・卵・乳成分・いか・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、卵粉、植物油、たん白加水分解物、大豆食物繊維）、添付調味料（チキンエキス、植物油、ポークエキス、でん粉、食塩、鶏脂、デキストリン、香辛料、砂糖、たん白加水分解物、豚脂、酵母エキス）、かやく（チンゲン菜、メンマ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、かんすい、増粘多糖類、乳化剤、ｐＨ調整剤、クチナシ色素、酸化防止剤（ビタミンＥ）、香料、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、卵粉、植物油、たん白加水分解物、大豆食物繊維）、添付調味料（ポークエキス、食塩、香味油脂、ラード、香辛料、しょうゆ、砂糖、チキンエキス、粉末野菜、たん白加水分解物、酵母エキス、植物油）、かやく（味付挽肉、卵、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、乳化剤、クチナシ色素、パプリカ色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香辛料抽出物、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、でん粉、食塩、植物性たん白、砂糖、しょうゆ、チキンエキス、卵白）、添付調味料（ポークエキス、みそ、香辛料、しょうゆ、キムチ風味調味料、食塩、粉末野菜、砂糖、植物油、たん白加水分解物、酵母エキス、魚醤（魚介類））、かやく（味付豚肉、白菜キムチ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、かんすい、着色料（クチナシ、パプリカ色素、カラメル、パプリカ粉末、紅麹）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・卵・乳成分・いか・ごま・大豆・鶏肉・豚</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、植物性たん白、乾燥酵母、卵白）、かやく（あおさてんぷら、あおさ揚玉、かまぼこ）、添付調味料（食塩、しょうゆ、砂糖、粉末かつおぶし、粉末こんぶ、わかめ、粉末煮干し、たん白加水分解物、ねぎ、香辛料、植物油）／加工でん粉、調味料（アミノ酸等）、リン酸塩（Ｎａ）、炭酸カルシウム、カラメル色素、レシチン、増粘多糖類、酸化防止剤（ビタミンＥ）、クチナシ色素、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、カロチン色素、（一部にえび・小麦・卵・乳成分・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、そば粉、植物油脂、植物性たん白、食塩、とろろ芋、卵白）、かやく（紅生姜入り小えびてんぷら、かまぼこ）、添付調味料（砂糖、食塩、しょうゆ、粉末かつおぶし、たん白加水分解物、ねぎ、香辛料、香味油脂）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、リン酸塩（Ｎａ）、カラメル色素、増粘多糖類、レシチン、酸化防止剤（ビタミンＥ）、ベニコウジ色素、クチナシ色素、酸味料、香料、アカダイコン色素、ビタミンＢ２、ビタミンＢ１、カロチン色素、香辛料抽出物、（一部にえび・小麦・そば・卵・乳成分・大豆・豚肉・やまいも・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、香辛料）、ソース（たん白加水分解物、豚脂、牛脂、糖類、香味調味料、食塩、しょうゆ、ビーフ調味料、食物繊維、赤ワイン、野菜ペースト）、かやく（にんじん、大豆たん白加工品）／加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、香料、炭酸Ｃａ、かんすい、酸味料、グリセリン、増粘剤（キサンタンガム）、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・牛肉・大豆・鶏肉・豚肉・りんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、こんぶエキス、大豆食物繊維、糖類）、スープ（糖類、食塩、牛脂、たん白加水分解物、乳化油脂、オニオンパウダー、還元水あめ、香辛料、カレー粉、ビーフ調味料、コーヒーパウダー、小麦粉、乳等を主要原料とする食品、植物油脂、赤ワイン）、かやく（大豆たん白加工品、にんじん）／加工でん粉、調味料（アミノ酸等）、カラメル色素、増粘剤（増粘多糖類、加工でん粉）、炭酸Ｃａ、リン酸塩（Ｎａ）、香料、ｐＨ調整剤、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、甘味料（スクラロース、アセスルファムＫ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・牛肉・大豆・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、野菜エキス、しょうゆ）、スープ（糖類、食塩、香辛料、ポーク調味料、ポークエキス、たん白加水分解物、酵母エキス）、かやく（フライドポテト、鶏・豚味付肉そぼろ、かまぼこ）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、クチナシ色素、香料、かんすい、微粒二酸化ケイ素、レシチン、酸化防止剤（ビタミンＥ）、イカスミ色素、酸味料、ビタミンＢ２、くん液、ビタミンＢ１、（一部に小麦・卵・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、植物性たん白、粉末卵、チキン調味料）、ソース（ソース、豚脂、植物油脂、調味油脂）、かやく（キャベツ）／加工でん粉、カラメル色素、増粘剤（加工でん粉、タマリンド）、調味料（アミノ酸等）、かんすい、焼成カルシウム、香料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香辛料抽出物、パプリカ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（しょうゆ、植物油脂、たん白加水分解物、豚脂、食塩、発酵調味料、チキンエキス、砂糖、カツオ調味料、ニボシエキス、香辛料、酵母エキス）、ふりかけ（ぶどう糖、乳等を主要原料とする食品、明太子加工品、乳化油脂、酵母エキス、魚介エキス、ポークエキス、全卵粉）、かやく（卵、ねぎ）／加工でん粉、調味料（アミノ酸等）、増粘剤（加工でん粉、キサンタンガム）、酒精、炭酸Ｃａ、カロチノイド色素、香料、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、ベニコウジ色素、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・卵・乳成分・さけ・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（みそ、豚脂、ポークエキス、ガーリックペースト、植物油脂、ポーク調味料、食塩、オニオンペースト、魚介エキス、酵母エキス、香味油、ジンジャーペースト、唐辛子）、かやく（キャベツ、コーン、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、ソルビット、炭酸Ｃａ、香料、カラメル色素、かんすい、カロチノイド色素、酸化防止剤（ビタミンＥ）、酒精、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・牛肉・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、植物性たん白、食塩）、スープ（植物油脂、ポークエキス、豚脂、乳化油脂、食塩、豆板醤、ポーク調味料、みそ、香辛料、しょうゆ、たん白加水分解物、酵母エキス、香味調味料、オニオンパウダー、チキンエキス、全卵粉）、かやく（大豆加工品、キクラゲ、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、ソルビット、増粘剤（増粘多糖類、アルギン酸エステル）、重曹、酒精、微粒二酸化ケイ素、かんすい、香料、ベニコウジ色素、酸化防止剤（ビタミンＥ）、カラメル色素、甘味料（スクラロース、アセスルファムＫ）、酸味料、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩）、スープ（乳化油脂、食用加工油脂、食塩、糖類、ポーク調味料、香辛料、酵母エキス、乳等を主要原料とする食品、全卵粉）、かやく（大豆加工品、コーン、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、増粘剤（加工でん粉、増粘多糖類）、かんすい、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、香料、カロチノイド色素、カラメル色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>春雨（中国製造（でん粉、醸造酢））、かやく入りスープ（食塩、キャベツ、乳化油脂、砂糖、大豆加工品、チキン調味料、酵母エキス、人参、ゆず胡椒パウダー、ねぎ、コンブエキス、魚介調味料、たん白加水分解物、オニオンエキス、香辛料）／調味料（アミノ酸等）、増粘剤（加工でん粉、増粘多糖類）、香料、微粒二酸化ケイ素、カラメル色素、酸味料、（一部に小麦・卵・乳成分・ごま・さば・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造、国内製造)、牛乳、全粉乳、脱脂粉乳、デキストリン、ココナッツオイル、バターパウダー、食塩／香料、乳化剤、ビタミンC、カロテン色素、甘味料(ステビア)</t>
-  </si>
-  <si>
-    <t>砂糖､ぶどう糖、水あめ､還元水あめ／ガムベース、酸味料、香料</t>
-  </si>
-  <si>
-    <t>果実(りんご、トマト、たまねぎ、レモン、プルーン、にんじん)、醸造酢、砂糖、食塩、酵母エキス、香辛料、煮干エキス</t>
-  </si>
-  <si>
-    <t>果実類（りんご、もも、うめ）、醤油、砂糖、還元水あめ、アミノ酸液、蜂蜜、りんご酢、食塩、白ごま、オニ オンエキス、ごま油、蛋白加水分解物、にんにく、香辛料／カラメル色素、（一部に小麦・ごま・大豆・もも・ りんごを含む）</t>
-  </si>
-  <si>
-    <t>果実類（りんご、もも、うめ）、醤油、砂糖、アミノ酸液、にんにく、還元水あめ、食塩、蜂蜜、りんご酢、白 ごま、ごま油、蛋白加水分解物、オニオンエキス、香辛料／カラメル色素、（一部に小麦・ごま・大豆・もも・ りんごを含む）</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
-  </si>
-  <si>
-    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、香料、Ｌ－アルギニン、カフェイン、ナイアシン、甘味料（スクラロース）、イノシトール、　　　　　ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒、石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、香料、カフェイン、ナイアシン、安定剤（アラビアガム）、甘味料（スクラロース）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、塩化Ｎａ／クエン酸、クエン酸Ｎａ、香料、Ｌ－ロイシン、クエン酸Ｋ、乳酸Ｃａ、Ｌ－イソロイシン、Ｌ－バリン、カフェイン、甘味料（スクラロース）、塩化Ｍｇ、ナイアシン、イノシトール、ビタミンＢ６、着色料（黄色４号、青色１号）</t>
-  </si>
-  <si>
-    <t>醤油、砂糖、みそ、果実類（りんご、レモン）、発酵調味料、食塩、野菜類（玉ねぎ、生姜、にんにく）、果糖ぶどう糖液糖、ラージャン、蜂蜜、ごま油、白ごま</t>
-  </si>
-  <si>
-    <t>醤油、砂糖、りんご、ラージャン、発酵調味料、コチュジャン、食塩、果糖ぶどう糖液糖、野菜類（にんにく、玉ねぎ）、ごま油、りんご酢、白ごま、蜂蜜、香辛料、カラメル色素</t>
-  </si>
-  <si>
-    <t>醤油、砂糖、果実類（りんご、レモン）、食塩、果糖ぶどう糖液糖、黒蜜、発酵調味料、白ごま、ごま油、蜂蜜、もろみ、香辛料、にんにく</t>
-  </si>
-  <si>
-    <t>ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）（国内製造）、乳糖、砂糖、ココアバター、植物油脂、全粉乳、ぶどう糖、紅茶エキス、粉末レモン果汁／加工デンプン、乳化剤（大豆由来）、着色料（アカビート、カラメル、アナトー）、香料、ビタミンＣ、貝カルシウム、膨脹剤、酸味料</t>
-  </si>
-  <si>
     <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩、青のり、あおさ／乳化剤、調味料（アミノ酸）</t>
   </si>
   <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、食塩、ビーフパウダー（鶏肉・ゼラチンを含む）、粉末ソース、酵母エキスパウダー、ガーリックパウダー、唐辛子、オニオンパウダー、ぶどう糖、デキストリン、わさびパウダー／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、酸味料、カゼインナトリウム（乳由来）、カラメル色素、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、粉末しょうゆ（小麦・大豆を含む）、粉末油脂、酵母エキスパウダー、香辛料、調味油、たん白加水分解物、乳糖、バター（北海道産使用）/調味料（アミノ酸等）、香料（ごま由来）、甘味料（ステビア）、酸味料</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、オニオンパウダー、オニオンエキスパウダー、たん白加水分解物（大豆・豚肉を含む）、酵母エキスパウダー、パセリ、オリゴ糖、サワークリームパウダー（北海道産サワークリーム使用）、乳糖/調味料（アミノ酸等）、酸味料、香料、甘味料（スクラロース、ステビア、カンゾウ）</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、香辛料、たん白加水分解物（大豆・豚肉を含む）、粉末しょうゆ（小麦を含む）、食塩、マヨネーズ風味パウダー（卵を含む）、乳等を主要原料とする食品、オリゴ糖、デキストリン、明太子パウダー（ゼラチンを含む）、ビーフパウダー（鶏肉を含む）/調味料（アミノ酸等）、香料、酸味料、カロチノイド色素、甘味料（ステビア、スクラロース）、香辛料抽出物、ウコン色素</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆・豚肉を含む）、粉末しょうゆ（小麦を含む）、ビーフパウダー（鶏肉・ゼラチンを含む）、食塩、ガーリックパウダー、デキストリン、わさびパウダー/調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、カゼインナトリウム（乳由来）、香辛料抽出物、酸味料</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、ぶどう糖、食塩、たん白加水分解物、オニオンパウダー、デキストリン、酵母エキスパウダー、ガーリックパウダー、唐辛子、ねぎパウダー／調味料（アミノ酸）、香料、パプリカ色素、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、香味油、デキストリン、岩塩、酵母エキスパウダー、ブラックペパー／調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、香味油、ぶどう糖、食塩、たんぱく加水分解物（大豆・豚肉を含む）、粉末酢、クリーミングパウダー（乳成分を含む）、粉末しょうゆ（小麦・大豆を含む）、チキンブイヨンパウダー、酵母エキス、レモン果汁パウダー、粉末酒／調味料（アミノ酸等）、酸味料、香料</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油（ごまを含む）、香味油、デキストリン、食塩、焼のり、あおさ、青のり、粉末ごま油、酵母エキスパウダー、香辛料／調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、デキストリン、香味油、ぶどう糖、昆布、たんぱく加水分解物（大豆を含む）、酵母エキスパウダー、昆布エキスパウダー、かきパウダー</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料（大豆を含む）、たんぱく加水分解物（大豆を含む）、食塩、ミートエキス調味パウダー（乳成分・小麦・牛肉・ごま・大豆・鶏肉・豚肉を含む）、オリゴ糖、昆布、しいたけエキスパウダー、酵母エキスパウダー、粉末油脂、香味油（小麦・大豆を含む）／調味料（アミノ酸等）、パプリカ色素、香辛料抽出物、甘味料（ステビア）、香料（大豆由来）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、食塩、オニオン、チーズパウダー（乳成分を含む）、たんぱく加水分解物（大豆を含む）、オリゴ糖、レモン果汁パウダー、サワークリームパウダー（乳成分を含む）、酵母エキスパウダー、パセリ／調味料（アミノ酸等）、香料（乳由来）、酸味料、甘味料（ステビア、スクラロース）、カロチノイド色素</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料、食塩、野菜エキスパウダー（乳成分・大豆・豚肉・ゼラチンを含む）、ビーフエキスパウダー、たんぱく加水分解物（大豆を含む）、赤パプリカ、香味油／調味料（アミノ酸等）、香料（乳由来）、着色料（ココア）、香辛料抽出物、カラメル色素、酸味料</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、デキストリン／調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ガーリックパウダー、ぶどう糖、食塩、砂糖、たんぱく加水分解物(大豆を含む)、野菜エキスパウダー（乳成分・大豆・豚肉・ゼラチンを含む）、オニオン、ホワイトペパー、唐辛子／調味料（アミノ酸等）、香辛料抽出物、甘味料（ステビア、カンゾウ）、香料、カラメル色素、酸味料</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、青のり、あおさ、香辛料、酵母エキスパウダー／調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、香辛料(大豆を含む）、肉エキスパウダー（乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）、たんぱく加水分解物(大豆を含む)、食塩、オリゴ糖、香味油(小麦・大豆を含む)／調味料（アミノ酸等）、酸味料、パプリカ色素、甘味料（ステビア、カンゾウ）、香料、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、粉末しょうゆ（小麦・大豆を含む）、食塩、焼のり、たんぱく加水分解物（大豆・鶏肉・豚肉を含む）、あおさ、香辛料、魚介エキスパウダー（さばを含む）、粉末みりん風味調味料（小麦・大豆を含む）、ごま、青のり、香味油、オリゴ糖／調味料（アミノ酸等）、香料</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、でん粉分解物、食塩（オホーツクの塩５０％、岩塩５０％）、たんぱく加水分解物（鶏肉を含む）、鶏油／調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、食塩、砂糖、たんぱく加水分解物（大豆を含む）、粉末しょうゆ（小麦・大豆を含む）、オリゴ糖、粉末酢（小麦を含む）、香辛料／酸味料、調味料（アミノ酸等）、香料、カラメル色素、甘味料（アセスルファムＫ、カンゾウ）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、食塩、香辛料、ミートエキス調味パウダー、粉末酢、たんぱく加水分解物、酵母エキスパウダー、粉末しょうゆ、粉末油脂／調味料（アミノ酸等）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、酸味料、パプリカ色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・りんごを含む）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、粉末酢（小麦を含む）、食塩、たんぱく加水分解物（鶏肉を含む）、砂糖、粉末しょうゆ（小麦・大豆を含む）、ホエイパウダー（乳成分を含む）、酵母エキス、オリゴ糖、香辛料／調味料（アミノ酸等）、酸味料、香料</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、梅酢パウダー、食塩、粉末酢、粉末しょうゆ（小麦・大豆を含む）、梅調味パウダー、あおさ、オリゴ糖／調味料（アミノ酸等）、酸味料、甘味料（ステビア）、香料、アントシアニン色素</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、岩塩、トリュフエキスチップ、ブラックペッパー、粉末油脂、オニオンエキスパウダー、チーズパウダー、トリュフ／調味料（アミノ酸）、香料、イカスミ色素、カラメル色素、（一部に乳成分・小麦・いか・大豆を含　む）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油（パーム油、米油、ごま油）、ぶどう糖、デキストリン、岩塩、たんぱく加水分解物、粉末油脂、米粉、チキンパウダー、唐辛子、昆布／調味料（アミノ酸等）、香料、酸味料、くん液、（一部に乳成分・ごま・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ぶどう糖、デキストリン、岩塩、たんぱく加水分解物（大豆を含む）、ミートエキス調味パウダー（乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）、ブラックペッパー（カンポートペッパー３％）、でん粉、花椒、レモン果汁パウダー、香味油（豚肉を含む）／調味料（アミノ酸等）、酸味料、香辛料抽出物、香料</t>
-  </si>
-  <si>
     <t>じゃがいも（国産）、植物油、乾燥じゃがいも、ミルクパウダー、粉末植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、食塩、乳糖、でん粉、デキストリン、酵母エキスパウダー、たん白加水分解物、焼きのり、酒粕パウダー、チキンエキスパウダー、混合節エキスパウダー（さばを含む）、わさびパウダー / 調味料（アミノ酸等）、香料、加工デンプン、乳化剤、酸味料、カラメル色素、酸化防止剤（Ｖ．Ｃ）</t>
   </si>
   <si>
-    <t>じゃがいも（国産）、植物油（パーム油、米油、ごま油）、乾燥じゃがいも、ミルクパウダー、粉末植物油脂、豚そぼろ肉風味フレーク（大豆・鶏肉・ゼラチンを含む）、デキストリン、食塩、ぶどう糖、乳糖、豆板醤パウダー（小麦を含む）、砂糖、唐辛子風味フレーク、たん白加水分解物、ポークエキスパウダー、でん粉、酵母エキスパウダー、粉末みそ、ホエイパウダー、唐辛子、花椒、山椒 / 調味料（アミノ酸等）、香料、加工デンプン、乳化剤、着色料（カラメル、カロチノイド、紅麹）、酸味料、酸化防止剤（Ｖ．Ｃ）、甘味料（ステビア、甘草）、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、デキストリン / 調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、チキンコンソメパウダー（小麦・大豆・豚肉を含む）、食塩、デキストリン、でん粉、粉末しょうゆ、粉末ソース（りんごを含む）、たまねぎエキスパウダー、香辛料パウダー、ビーフコンソメパウダー、野菜パウダー（トマト、にんじん）、発酵トマトエキスパウダー、梅肉パウダー / 調味料（アミノ酸等）、香料（ごまを含む）、カラメル色素、酸味料、パプリカ色素、甘味料（ステビア）、香辛料抽出物、ベニコウジ色素</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、食塩、青のり、あおさ、唐辛子、ごま油 / 調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、コーンスターチ、ほたてエキスパウダー、こんぶエキスパウダー、ぶどう糖、かつお節エキスパウダー、香味油 / 調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、食塩、チキンコンソメパウダー、コーンスターチ、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、チキンパウダー、粉末ソース（りんごを含む）、はくさいエキスパウダー、香辛料パウダー、トマトパウダー、ミルポワパウダー（豚肉を含む）、オニオンエキスパウダー、マッシュルームエキスパウダー、酵母エキスパウダー、オニオンパウダー、梅肉パウダー / 調味料（アミノ酸等）、香料（ごまを含む）、酸味料、着色料（カロチノイド、紅麹）、甘味料（ステビア（乳成分を含む））、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、ぶどう糖、食塩、デキストリン、焼きのり、でん粉、唐辛子、ごまパウダー、ごま油、たん白加水分解物（大豆を含む）、こしょう / 調味料（アミノ酸等）、香料、酸味料</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、オニオンパウダー、ポークエキスパウダー（小麦・大豆・鶏肉を含む）、たん白加水分解物、粉末植物油脂、ガーリックパウダー、でん粉、粉末しょうゆ、チリパウダー、唐辛子、酵母エキスパウダー、香味油 / 調味料（アミノ酸等）、酸味料、パプリカ色素、香辛料抽出物、甘味料（ステビア、甘草）、香料</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、オニオンエキスパウダー、オニオンパウダー、でん粉、ホエイパウダー、サワークリームパウダー、ガーリックパウダー、脱脂粉乳、パセリ、酵母エキスパウダー / 調味料（アミノ酸等）、香料、酸味料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、チーズ味フレーク、砂糖、ぶどう糖、食塩、ガーリックパウダー、酵母エキスパウダー、ビーフパウダー（小麦・大豆・鶏肉・ゼラチンを含む）、野菜エキスパウダー、粉末植物油脂、たん白加水分解物、チーズパウダー、ミート風味調味料、トマトパウダー、赤唐辛子、パセリ、サラミ風チップ（豚肉を含む）、オレガノ / 調味料（アミノ酸等）、香料（りんごを含む）、酸味料、乳化剤、着色料（カロチノイド、カラメル、紅麹）、香辛料抽出物、くん液、甘味料（ステビア）</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）、植物油、食塩、コーンスターチ、こんぶエキスパウダー / 調味料（アミノ酸等）、酸化防止剤（ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）、植物油、食塩、黒こしょう、デキストリン、砂糖、ぶどう糖、オニオンパウダー、コーンスターチ、酵母エキスパウダー（豚肉を含む）、還元水あめ、粉末しょうゆ（小麦・大豆を含む）、シナモン、調味動物油脂 / 調味料（アミノ酸等）、香辛料抽出物、酸味料、香料、酸化防止剤（ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、食塩、バターパウダー、果糖、コーンスターチ、たん白加水分解物（大豆を含む）、マスカルポーネチーズパウダー、クリーミングパウダー、酵母エキスパウダー、パセリ、はちみつパウダー / 調味料（アミノ酸等）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース、ステビア）、酸味料</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、乳糖、オニオン、でん粉、粉末オリーブオイル、粉末加工油脂、ぶどう糖、砂糖、赤ピーマン、食物繊維、パセリ、粉末酢、ガーリックパウダー、ブラックペッパー、セロリ、トマトパウダー、マスタードパウダー / 酸味料、調味料（アミノ酸等）、香辛料抽出物、着色料（ウコン）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、デキストリン、砂糖、食塩、ポークエキスパウダー、マスタードパウダー、唐辛子パウダー、卵黄パウダー（卵を含む）、マヨネーズ風味パウダー（ごま・鶏肉を含む）、粉末酢 / 香料（乳成分を含む）、調味料（アミノ酸等）、酸味料、甘味料（ステビア、甘草）、着色料（ウコン）</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、パーム油、米油、食塩、デキストリン、麦芽糖、でん粉、マルチトール、ごま、ごま油、全粉乳、たん白加水分解物（大豆を含む）、酵母エキスパウダー、こしょう / 調味料（アミノ酸等）、香料、酸味料、酸化防止剤（ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>乾燥じゃがいも（アメリカ製造又はドイツ製造又はその他）、植物油、食塩、デキストリン、でん粉、こんぶエキスパウダー / 乳化剤、調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>乾燥じゃがいも（遺伝子組換えでない）、植物油、食塩、コーンスターチ、砂糖、チキンコンソメパウダー（小麦・大豆・豚肉を含む）、粉末しょうゆ、粉末ソース（りんごを含む）、ビーフコンソメパウダー、香辛料パウダー、オニオンエキスパウダー、トマトパウダー、発酵トマトエキスパウダー、調味動物油脂、キャロットパウダー、梅肉パウダー／乳化剤、調味料（アミノ酸等）、香料（ごまを含む）、酸味料、着色料（カラメル、カロチノイド、紅麹）、甘味料（ステビア）、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産）、植物油、食塩、加工油脂、デキストリン、コーンスターチ、香味油、こんぶエキスパウダー、乳糖 / 糊料（加工デンプン、アルギン酸Ｎａ）、トレハロース、調味料（アミノ酸等）、酸化防止剤（Ｖ．Ｃ）、香料</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産）、植物油、砂糖、食塩、チキンコンソメパウダー、コーンスターチ、チキンパウダー、香辛料パウダー、粉末ソース（りんごを含む）、粉末しょうゆ（大豆を含む）、酵母エキスパウダー、マッシュルームエキスパウダー、ミルポワパウダー（豚肉を含む）、オニオンエキスパウダー、トマトパウダー、オニオンパウダー、はくさいエキスパウダー、梅肉パウダー、発酵酵母エキスパウダー / 糊料（加工デンプン、アルギン酸Ｎａ）、トレハロース、調味料（アミノ酸等）、香料、酸味料、酸化防止剤（Ｖ．Ｃ）、着色料（カロチノイド、紅麹）、甘味料（ステビア：乳成分を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト、植物油脂、食塩、昆布調味エキス、かつお節調味エキス、果糖／乳化剤（大豆を含む）、調味料（アミノ酸）酸化防止剤（ビタミンＥ、ビタミンＣ）、香料、微粒酸化ケイ素、増粘剤（グアーガム）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、カカオマス、ココアパウダー、液全卵、植物油脂、バター、油脂加工食品（乳成分を含む）、乳糖、全粉乳、食塩、水飴、シナモン粉末／膨張剤、乳化剤（大豆由来）、香料、カゼインナトリウム（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、小麦粉、マーガリン（乳成分を含む）、液卵白（卵を含む）、全粉乳、植物油脂、ココアパウダー、バター、カカオマス、食塩 ／ 乳化剤（大豆由来）、香料（乳由来）、膨脹剤</t>
-  </si>
-  <si>
-    <t>乾燥ポテト、植物油脂、食塩、たまねぎ粉末、デキストリン、砂糖、野菜エキス粉末、香辛料、酵母エキス粉末（乳成分・卵・鶏肉を含む）、たんぱく加水分解物（大豆を含む）、ブドウ糖、野菜粉末、チキンオイル、ローストしょうゆ調味料（小麦・大豆を含む）、でん粉、大豆たんぱく、チキン粉末（小麦・大豆を含む）／乳化剤（大豆由を含む）、調味料（アミノ酸）、酸味料、酸化防止剤（ビタミンＥ、ビタミンＣ）、加工デンプン、香料、微粒ケイ素</t>
-  </si>
-  <si>
-    <t>でん粉、植物油脂、米粉、食用加工油脂、えび粉、食塩、香味油（小麦・えび・大豆を含む）、えび調味料粉末、青のり、昆布粉、えびシーズニング（大豆を含む）／ソルビトール、乳化剤（大豆由来）、加工デンプン、調味料（アミノ酸）、香料（えび由来）、セルロース、酸化防止剤（ビタミンＥ、ビタミンＣ）、着色料（カロテノイド、ウコン）、微粒ケイ素</t>
-  </si>
-  <si>
-    <t>砂糖、小麦粉。マーガリン（乳成分を含む）、液卵白（卵を含む）、植物油脂、全粉乳、ホエイパウダー（乳成分を含む）、乳糖、バター、ココアパウダー脱脂粉乳、クリーミングパウダー（乳成分を含む）、食塩／トレハロース、乳化剤（大豆由来）、膨張剤、香料（乳由来）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト、植物油脂（ごまを含む）、食塩、アオサ粉末、かつお節調味エキス、青のり粉、昆布エキス粉末、酵母エキス粉末、デキストリン／乳化剤（大豆を含む）、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンＣ）リン酸三カルシウム、微粒ケイ素、香料、増粘剤（グアーガム）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト、植物油脂、デキストリン、食塩、ぶどう糖、乳化剤（大豆を含む）、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンＣ、チャ抽出物）</t>
-  </si>
-  <si>
-    <t>砂糖（韓国製造）、ポテトペレット（乾燥ポテト、でん粉、食塩）、植物油脂、カカオマス、全粉乳／乳化剤（大豆由来）、香料、着色料（ウコン）、酸化防止剤（ビタミンＥ、ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>ポテトペレット（乾燥ポテト、でん粉、食塩）（スペイン製造）、植物油脂、砂糖、全粉乳、乳糖、デキストリン、ココアバター、クリーミングパウダー（乳成分を含む）、食塩／乳化剤（大豆由来）、香料（乳由来）、着色料（ウコン）、酸化防止剤（ビタミンＥ、ビタミンＣ）</t>
-  </si>
-  <si>
-    <t>野菜・果実（トマト、たまねぎ、りんご、その他）、糖類（ぶどう糖果糖液糖、砂糖）、醸造酢、醤油、食塩、アミノ酸液、香辛料、オイスターエキス、肉エキス、ホタテエキス、魚肉エキス、昆布、酵母エキス、カラメル色素、増粘剤（加工でんぷん、タマリンド）、調味料（アミノ酸等）、（原材料の一部として小麦、大豆、鶏肉、豚肉、もも、りんごを含む） 　</t>
-  </si>
-  <si>
-    <t>野菜・果実(トマト、りんご、プルーン、レモン、にんじん、たまねぎ)、醸造酢、糖類(ぶどう糖果糖液糖、砂糖)、食塩、澱粉、酵母エキス、香辛料(原材料の一部に大豆を含む)</t>
-  </si>
-  <si>
-    <t>野菜・果実（トマト、プルーン、りんご、レモン、にんじん、たまねぎ、）、醸造酢、砂糖類（ぶどう糖果糖液糖、砂糖）、食塩、澱粉、酵母エキス、香辛料</t>
-  </si>
-  <si>
-    <t>果実（ぶどう、グレープフルーツ、ライチ）、砂糖類（果糖ぶどう糖液糖（国内製造）、果糖）、食塩（沖縄県産）／酸味料、香料</t>
-  </si>
-  <si>
-    <t>めん〔小麦粉（国内製造）、食塩、植物性たん白、還元水飴〕、スープ〔ポークエキス、ポークオイル、食塩、煎りごま、野菜粉末、糖類（砂糖、麦芽糖、ぶどう糖）、粉末油脂、粉末しょうゆ、植物油脂、たん白加水分解物、香辛料、でん粉、ねぎ、すりごま、ホタテエキス、酵母エキス〕／調味料（アミノ酸等）、かんすい、ｐＨ調整剤、クチナシ色素、カラメル色素、香料、酸化防止剤（ビタミンＥ）、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、にんにく醤油シーズニング（ぶどう糖、しょうゆパウダー、食塩、砂糖、たん白加水分解物、でん粉、ビーフエキス調味料、酵母エキスパウダー、ガーリックパウダー）、焦がししょうゆパウダー／調味料（アミノ酸等）、香辛料抽出物、香料、乳化剤、カラメル色素、甘味料（スクラロース）、（一部に小麦・乳成分・牛肉・ごま・大豆を含む）</t>
-  </si>
-  <si>
     <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、バターしょうゆシーズニング（乳等を主要原料とする食品、砂糖、しょうゆパウダー、食塩、たん白加水分解物、バターパウダー、チーズパウダー、酵母エキスパウダー、かつお節パウダー）、バターミルクパウダー／調味料（アミノ酸等）、香料、乳化剤、甘味料（カンゾウ、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
   </si>
   <si>
-    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、食塩（アルペンザルツ８８％使用）、しょうゆパウダー、たん白加水分解物、チキンエキスパウダー、香辛料、鰹節エキスパウダー、香味油、スイートコーンパウダー／加工デンプン、調味料（アミノ酸等）、重曹、香料、（一部に小麦・乳成分・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、でん粉、ショートニング、乳糖、砂糖、チーズパウダー、食塩、ぶどう糖、たん白加水分解物、乳等を主要原料とする食品、クリーミングパウダー、酵母エキスパウダー、オニオンパウダー、香辛料、デキストリン、みそパウダー／加工デンプン、調味料（アミノ酸等）、香料、重曹、パプリカ色素、乳化剤、甘味料（スクラロース）、香辛料抽出物、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、しょうゆ、しょうゆパウダー、食塩、還元麦芽糖水あめ、たん白加水分解物、スイートコーンパウダー、デキストリン、チキンパウダー／加工デンプン、調味料（アミノ酸等）、重曹、香料、カラメル色素、甘味料（カンゾウ、スクラロース）、（一部に小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、ショートニング、乳糖、食塩、ぶどう糖、スイートコーンパウダー、乳等を主要原料とする食品、果糖、たん白加水分解物、全粉乳、酵母エキスパウダー、オニオンパウダー、バターパウダー、パセリ／加工デンプン、調味料（アミノ酸等）、香料、重曹、紅花黄色素、乳化剤、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
     <t>砂糖、ぶどう糖果糖液糖(国内製造)/炭酸ガス、酸味料、香料</t>
   </si>
   <si>
@@ -725,55 +272,514 @@
     <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、香料、酸味料、着色料（黄色4号）</t>
   </si>
   <si>
-    <t>糖類（果糖ぶどう糖液糖、砂糖）、酸味料、香料、ビタミンＣ</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、桜の花エキス(国産)、炭酸、香料、酸味料、アントシアニン色素</t>
-  </si>
-  <si>
-    <t>エリスリトール、酸味料、香料、甘味料</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、緑茶（静岡県産）、香料、 酸味料、ベニバナ黄色素、クチナシ青色素</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、みそ、炭酸、カラメル色素、香料、酸味料、塩化ナトリウム、エルダベリー色素、カフェイン（抽出物）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、はるみ果汁（静岡県産）／炭酸、香料、カロテン色素、ビタミンC、酸味料、カフェイン（抽出物）</t>
-  </si>
-  <si>
     <t>果糖ぶどう糖液糖、酸味料、香料</t>
   </si>
   <si>
     <t>果糖ぶどう糖液糖、香料、酸味料</t>
   </si>
   <si>
-    <t>植物油脂（国内製造）、砂糖、ビスケット（小麦粉、砂糖、ショートニング、食塩）、カカオマス、小麦粉、全粉乳、乳糖、ココアバター、ココアパウダー、キャラメルパウダー、食塩、イースト／乳化剤、膨脹剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、カカオマス、植物油脂、全粉乳、小麦粉、乳糖、ココアバター、乾燥あんず加工品、ココアパウダー、イースト／乳化剤、酸味料、香料、イーストフード、重曹、リンゴ酸、パプリカ色素、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>焼酎（国内製造）、烏龍茶／香料、ビタミンＣ</t>
-  </si>
-  <si>
-    <t>レモンエキス、グレープフルーツエキス、オレンジエキス、ウォッカ／炭酸、酸味料、香料、甘味料（ステビア）、ビタミンC</t>
-  </si>
-  <si>
-    <t>焼酎、レモン、グレープフルーツ、香料、紅花色素</t>
-  </si>
-  <si>
-    <t>ぶどう、ぶどうエキス、ぶどうスピリッツ（国内製造）、焼酎、糖類／炭酸、香料、酸味料、アントシアニン色素</t>
-  </si>
-  <si>
-    <t>もも、ももエキス、ももスピリッツ（国内製造）、焼酎、糖類／炭酸、香料、酸味料</t>
-  </si>
-  <si>
-    <t>グレープフルーツ果汁、スピリッツ（国内製造）／炭酸、酸味料、甘味料（アセスルファムＫ、スクラロース）、香料</t>
-  </si>
-  <si>
-    <t>○ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）○オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素○グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素○コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
+    <t>小麦粉・ショートニング・砂糖・小麦ﾃﾞﾝﾌﾟﾝ・乳糖を主原料とする食品・油脂加工食品・食塩・乾燥全卵・酵母エキス・膨張剤・ カラメル色素・香料・乳化剤</t>
+  </si>
+  <si>
+    <t>小麦粉・ショートニング・砂糖・全粒粉・乳糖・乳頭を主原料とする食品・乾燥全卵・でんぷん・食塩・膨張剤・香料・乳化剤</t>
+  </si>
+  <si>
+    <t>小麦粉・ショートニング・砂糖・ココアパウダー・乳糖・乳糖を主原料とする食品・乾燥全卵・でんぷん・食塩・炭酸カルシウム 膨張剤・香料・乳化剤</t>
+  </si>
+  <si>
+    <t>小麦粉・ショートニング・砂糖・全粒粉・乳糖・乳糖を主原料とする食品・乾燥全卵・でんぷん・食塩・膨張剤・香料・乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉、ピーチ果汁／ガムベース、酸味料、軟化剤、香料、着色料（カラメル、アントシアニン、紅花黄、クチナシ）</t>
+  </si>
+  <si>
+    <t>砂糖、エリスリトール、ぶどう糖、水飴、でん粉、ガムベース、ソルビトール、酸味料、香料、クチナシ色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉／ガムベース、酸味料、軟化剤、香料、着色料（クチナシ）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉／ガムべース、軟化剤、酸味料、香料、着色料（アナトー）</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
+  </si>
+  <si>
+    <t>砂糖、ぶどう糖、水あめ、還元水あめ／ガムベース、酸味料、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水あめ／ガムベース、酸味料、糊料（アラビアガム）、香料、アントシアニン色素、光沢剤</t>
+  </si>
+  <si>
+    <t>＜れもん＞水あめ（国内製造）、砂糖、ゼラチン、濃縮レモン果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、紅花色素、光沢剤＜コーラ＞水あめ（国内製造）、砂糖、ゼラチン、コーラナッツエキス、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、カラメル色素、香料、乳化剤、光沢剤＜ソーダ＞水あめ（国内製造）、砂糖、ゼラチン、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、クチナシ色素、乳化剤、光沢剤＜ぶどう＞水あめ（国内製造）、砂糖、ゼラチン、濃縮グレープ果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、着色料（ブラックキャロットジュース、クチナシ）、乳化剤、光沢剤</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、乳化剤、香辛料抽出物、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、脱脂粉乳、クリームパウダー、食塩、クリームチーズパウダー、レモン果汁パウダー／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、植物油脂、でん粉、ゼラチン、脱脂粉乳、大豆たんぱく、コーラナッツエキス／加工でん粉、酸味料、乳化剤、着色料（カラメル、アントシアニン、紅花黄）、香料</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）（大豆を含む）、砂糖、砂糖粉乳調製品（砂糖、全粉乳、脱脂粉乳、ココアバター）、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳／乳化剤（大豆由来）、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油（パーム油、米油、オリーブ油）、トマト風味フレーク（乳成分を含む）、食塩、ぶどう糖、でん粉、砂糖、ガーリックパウダー、たん白加水分解物（大豆を含む）、オレガノ、バジル、酵母エキスパウダー、トマトパウダー、唐辛子、にんにく調味料（小麦を含む）、粉末植物油脂 / 調味料（アミノ酸等）、香料（鶏肉を含む）、着色料（野菜色素、カロチノイド）、乳化剤、酸味料、甘味料（ステビア）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩、えびパウダー / 膨脹剤、調味料（アミノ酸等）、甘味料（甘草）</t>
+  </si>
+  <si>
+    <t>えんどう豆（輸入）、植物油、ライスグリッツ、食塩 / 調味料（アミノ酸等）、炭酸カルシウム、香料（小麦・大豆を含む）、酸化防止剤（ビタミンＣ）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、砂糖、チョコレートチップ、でん粉、鶏卵、ココアパウダー、食塩、スパイス／膨張剤、乳化剤、香料、カロテン色素、（一部に小麦・卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>米(うるち米(国産)、うるち米粉(国産))、植物油脂、でん粉、砂糖、食塩、ホエイパウダー（乳成分を含む）、トマトパウダー、チーズパウダー、乾燥パセリ、オレガノ、香味粉末油脂／調味料（アミノ酸等）、香料（乳・大豆由来）、パプリカ色素、甘味料（スクラロース）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>うるち米（国産）、砂糖、植物油脂、食塩／トレハロース、乳化剤、調味料（アミノ酸）、着色料（クチナシ、紅麹）、植物レシチン（大豆由来）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩（美ら海育ち15%）／加工澱粉、調味料（アミノ酸等）、香料、酸化防止剤（ビタミンE）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩、カレー風味シーズニング(乳糖、カレーパウダー、砂糖、食塩、たんぱく加水分解物、クリーム風味パウダー、酵母エキスパウダー、植物油脂)、デキストリン、乳糖、粉末油脂、オニオンパウダー、ブラックペッパーパウダー、唐辛子パウダー、酵母エキスパウダー、ポークエキス調味料／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、酸化防止剤（ビタミンE）、香辛料抽出物、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、落花生、マーガリン、麦芽糖、食塩、カラメルソース、キャラメルペースト／ ソルビトール、カラメル色素、卵殻Ca、乳化剤、香料、調味料（アミノ酸等）、カロチノイド色素、（一部に卵・乳成分・落花生・アーモンド・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、ココアパウダー、カカオマス、食塩、乾燥全卵／ソルビトール、カラメル色素、香料、乳化剤、卵殻Ca、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（アメリカ製造、ドイツ製造）、植物油脂、香辛料、食塩、砂糖、酵母エキス粉末（乳成分・卵・鶏肉を含む）、粉末しょうゆ（小麦・大豆を含む）、デキストリン、たんぱく加水分解物（大豆を含む）、チキンエキス粉末、チキンオイル、香味油（小麦・大豆を含む）、大豆たんぱく、チキン粉末（小麦・大豆を含む）／乳化剤（大豆を含む）、調味料（アミノ酸等）、酸味料、酸化防止剤（ビタミンＥ、ビタミンＣ）、微粒酸化ケイ素、香辛料抽出物、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、砂糖、植物油脂、全粉乳、ぶどう糖、モルトエキス（小麦を含む）、食塩、ココアバター、クリーミングパウダー（乳成分を含む）、いちご粉末／膨脹剤、香料（乳由来）、乳化剤（大豆由来）、酸味料、着色料（ビートレッド）、酵素、酸化防止剤（ビタミンE）、ｐＨ調整剤</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産、タイ産）、植物油脂、砂糖、チーズ粉末、食塩、たまねぎ粉末、トマト粉末、にんにく粉末、酵母エキス粉末、バジル粉末、たんぱく加水分解物（大豆を含む）、チキンエキス粉末、唐辛子粉末、白こしょう粉末、大豆たんぱく、黒こしょう粉末、香味油(小麦・大豆を含む)／加工デンプン、調味料（アミノ酸等）、香料（乳・小麦・大豆・鶏肉由来）、乳化剤(大豆由来)、酸味料、酸化防止剤（ビタミンE）、着色料（カロテノイド）、微粒酸化ケイ素、香辛料抽出物、リン酸三カルシウム</t>
+  </si>
+  <si>
+    <t>でん粉（国内製造）、米粉、植物油脂、食用加工油脂、食塩、にんにく粉末、えび粉、チキンエキス粉末、たまねぎ粉末、乾燥パセリ、唐辛子粉末、香味油（小麦・えび・大豆を含む）／ソルビトール、乳化剤（大豆由来）、加工デンプン、香料（えび由来）、セルロース、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンＣ）、着色料（カロテノイド、ウコン、カラメル）、ビタミンＢ１</t>
+  </si>
+  <si>
+    <t>グルコースシロップ、砂糖、ゼラチン、濃縮果汁（ピーチ）、植物油脂/酸味料、ソルピトール、香料、ゲル化剤（ペクチン）、光沢剤、着色料、（黄4、赤40）、（一部にもも・りんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>レモン（アルゼンチン、イスラエル）、果糖ぶどう糖液糖、レモン果皮エキス／炭酸、ビタミンC、甘味料（アセスルファムK、スクラロース）、香料、紅花色素</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、卵白）、添付調味料（ねりごま、香味油脂、みそ、食塩、ポークエキス、香辛料、ごま、豚脂、砂糖、粉末野菜、たん白加水分解物）、かやく（味付鶏挽肉、チンゲン菜）／加工でん粉、調味料（アミノ酸等）、増粘多糖類、カラメル色素、炭酸カルシウム、かんすい、乳化剤、ｐＨ調整剤、酸化防止剤（ビタミンＥ）、パプリカ色素、クチナシ色素、香料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉）、ソース（糖類、豚脂、しょうゆ、食塩、香味油、牛脂、香味調味料、みりん、ビーフエキス、香辛料）、かやく（キャベツ、味付豚肉）／加工デンプン、カラメル色素、調味料（アミノ酸等）、酒精、トレハロース、炭酸カルシウム、増粘剤（アラビアガム）、リン酸塩（Ｎａ）、香料、酸化防止剤（ビタミンＥ）、酸味料、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･牛肉･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、たん白加水分解物、ポークエキス）、スープ（香辛料（赤唐辛子、七味唐辛子、花椒）、デキストリン、糖類、食塩、たん白加水分解物、香味調味料、かつおエキス、しょうゆ、チキンエキス、香味油、酵母エキス、かつおぶし粉末、ゆず皮粉末）、かやく（味付豚肉、ごま、ねぎ）／加工デンプン、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、増粘多糖類、リン酸塩（Ｎａ）、乳化剤、微粒二酸化ケイ素、酸味料、酸化防止剤（ビタミンＥ）、香料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、たん白加水分解物、しょうゆ、香辛料、香味調味料）、スープ（豚脂、糖類、粉末みそ、でん粉、植物油脂、小麦粉、食塩、粉末しょうゆ、酵母エキス、コチュジャン、香辛料）、かやく（味付豚ミンチ、はくさいキムチ、味付卵、もやし、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、香料、炭酸Ｃａ、かんすい、カロチノイド色素、増粘多糖類、酸化防止剤（ビタミンＥ）、酸味料、甘味料（スクラロース、アセスルファムＫ）、乳化剤、ビタミンＢ２、ビタミンＢ１、くん液、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、香辛料）、ソース（植物油脂、しょうゆ、香味油、にぼし調味油、バターオイル）、ふりかけ（たらこ、のり、粉末しょうゆ、植物油脂、食塩、香辛料）、かやく（キャベツ）／加工でん粉、調味料（アミノ酸等）、香料、炭酸Ｃａ、かんすい、乳化剤、ベニコウジ色素、カラメル色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ２、炭酸Ｍｇ、ビタミンＢ１、（一部にえび・小麦・乳成分・さけ・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、しょうゆ、食塩、香辛料）、添付調味料（からしマヨネーズ、ウスターソース、糖類、たん白加水分解物、食塩、香味油、ビーフエキス、香辛料、ビーフ風味調味料）、かやく（キャベツ、味付け鶏ミンチ、香辛料）/カラメル色素、調味料（アミノ酸等）、増粘剤(グァーガム）、酸味料、かんすい、香辛料抽出物、酸化防止剤（ビタミンE、ローズマリー抽出物)、重曹、ビタミンＢ２、甘味料(カンゾウ）、（一部に小麦・卵・牛肉・ごま・大豆・鶏肉・豚肉・りんごを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、香辛料）、添付調味料（たん白加水分解物、しょうゆ、糖類、かつお節エキス、魚介エキス、食塩、いりこ、かつお節）、かやく（揚げ玉、ねぎ）/加工デンプン、調味料（アミノ酸等）、トレハロース、酒精、増粘多糖類、酸化防止剤（ビタミンE)、膨張剤、香辛料抽出物、（一部に小麦・さば・大豆を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、野菜エキス、しょうゆ）、スープ（食塩、糖類、クリーミングパウダー、トマトパウダー、チキン調味料、乳等を主要原料とする食品、酵母エキス、トマト調味料、にんにく調味料、鶏レバーパウダー）、かやく（キャベツ、えび風味卵白加工品）／加工でん粉、調味料（アミノ酸等）、増粘剤（加工でん粉、増粘多糖類）、炭酸カルシウム、香料、クチナシ色素、乳化剤、微粒二酸化ケイ素、かんすい、カラメル色素、パプリカ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・卵・乳成分・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、野菜エキス、しょうゆ）、スープ（食塩、糖類、たまねぎ加工品、チキン調味料、デキストリン、香辛料、酵母エキス、野菜調味料、たん白加水分解物、香味油）、かやく（キャベツ、鶏・豚味付肉そぼろ、フライドオニオン、にんじん）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、クチナシ色素、香料、かんすい、微粒二酸化ケイ素、レシチン、酸味料、酸化防止剤（ビタミンＥ、ビタミンＣ）、ビタミンＢ２、ビタミンＢ１、パプリカ色素、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩）、スープ（食塩、糖類、魚介調味料、しょうゆ、発酵調味料、酵母エキス、植物油脂）、かやく（味付油揚げ、味付卵、ねぎ、かまぼこ）／調味料（アミノ酸等）、加工でん粉、トレハロース、炭酸カルシウム、リン酸塩（Ｎａ）、レシチン、微粒二酸化ケイ素、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、カロチン色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部に小麦・卵・乳成分・さば・大豆を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（小麦全粒粉１０％）（国内製造）、植物油脂、食塩、粉末卵）、スープ（食塩、糖類、チキン調味料、野菜粉末、香辛料、野菜エキス、油脂加工品、魚介調味料、しいたけ調味料、酵母エキス、植物油脂）、かやく（キャベツ、もやし、キクラゲ、にんじん）／調味料（アミノ酸等）、炭酸カルシウム、かんすい、クチナシ色素、香料、微粒二酸化ケイ素、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・さば・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、野菜エキス、しょうゆ、粉末卵）、スープ（チキン調味料、糖類、食塩、豚脂、植物油脂、酵母エキス、香辛料、ほたて調味料、しいたけ調味料、ゼラチン、こんぶエキス）、かやく（味付鶏肉そぼろ、キャベツ、ねぎ）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、香料、かんすい、クチナシ色素、増粘剤（アルギン酸ナトリウム、増粘多糖類）、微粒二酸化ケイ素、酸化防止剤（ビタミンＥ）、マリーゴールド色素、カラメル色素、ビタミンＢ２、ビタミンＢ１、酸味料、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵）、スープ（糖類、食塩、植物油脂、粉末醸造酢、豚脂、香辛料、ポーク調味料、しょうゆ、みそ、発酵調味料、豆板醤、たん白加水分解物、酵母エキス）、かやく（キャベツ、キクラゲ、唐辛子）／加工でん粉、調味料（アミノ酸等）、増粘剤（加工でん粉、増粘多糖類）、酸味料、炭酸カルシウム、香料、カラメル色素、かんすい、微粒二酸化ケイ素、香辛料抽出物、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（みそ、豚脂、ポークエキス、植物油脂、食塩、香辛料、魚介エキス、鮭調味料、糖類、オニオンペースト、みそ加工品、酵母エキス）、かやく（わかめ、コーン）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、カラメル色素、酒精、かんすい、カロチノイド色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・さけ・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、豚脂、植物油脂、発酵調味料、粉末しょうゆ、ホタテエキス、たん白加水分解物、でん粉、デキストリン、香辛料、砂糖、オニオンエキス、伊勢海老パウダー）、かやく（わかめ、麸、ごま、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、かんすい、カロチノイド色素、酸化防止剤（ビタミンＥ）、酸味料、微粒二酸化ケイ素、カラメル色素、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・ごま・大豆を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（しょうゆ、たん白加水分解物、カツオブシ、魚介パウダー、植物油脂、豚脂、ニボシエキス、砂糖、食塩、チキンエキス、発酵調味料、ポークエキス、酵母エキス、しょうゆ加工品、香辛料、全卵粉）、かやく（ねぎ、鶏・豚味付肉そぼろ、なると）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、酒精、香料、増粘剤（加工でん粉、増粘多糖類）、かんすい、カラメル色素、カロチノイド色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、香辛料抽出物、（一部に小麦・卵・乳成分・さば・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（ポークエキス、植物油脂、ねりごま、豚脂、しょうゆ、みそ、食塩、香辛料、醸造酢、糖類、乳化油脂、発酵調味料、ポーク調味料、たん白加水分解物、酵母エキス、全卵粉）、かやく（ごま、鶏・豚味付肉そぼろ、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、酒精、増粘剤（加工でん粉、キサンタンガム）、カラメル色素、香料、かんすい、カロチノイド色素、重曹、酸味料、酸化防止剤（ビタミンＥ）、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、植物性たん白、食塩、しょうゆ、卵白粉）、スープ（しょうゆ、豚脂、食塩、植物油脂、チキンエキス、チキンパウダー、デキストリン、でん粉、粉末しょうゆ、砂糖、たん白加水分解物、ポーク調味料、オニオンエキス、香味調味料、発酵調味料、唐辛子、ジンジャーパウダー）、かやく（焼豚、玉ねぎ、ねぎ、メンマ）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸Ｃａ、カラメル色素、香辛料抽出物、かんすい、増粘剤（増粘多糖類、加工でん粉）、酸化防止剤（ビタミンＥ、ビタミンＣ）、香料、カロチノイド色素、酸味料、微粒二酸化ケイ素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、乳糖、植物油脂、全粉乳、ココアバター、ホエイパウダー、ショートニング、加糖練乳、いちごパウダー、ブルーベリーパウダー、食塩、イースト／乳化剤、香料、着色料（スピルリナ色素、アカビート色素）、酸味料、調味料（無機塩）、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>馬鈴薯（国産）（遺伝子組換えでない）、植物油脂、ショートニング、乳糖、砂糖、食塩、乳等を主要原料とする食品、粉末油脂、酵母エキスパウダー、バターパウダー／調味料（アミノ酸）、香料、乳化剤、アナトー色素、甘味料（スクラロース）、香辛料抽出物、（一部に乳成分・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、砂糖、たん白加水分解物（鶏肉・豚肉を含む）、こんぶエキスパウダー、ぶどう糖、かつおぶしエキスパウダー、酵母エキスパウダー / 調味料（アミノ酸等）、香料（さばを含む）、甘味料（ステビア・甘草：乳成分を含む）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、粉末しょうゆ（小麦・大豆を含む）、食塩、デキストリン、砂糖、かつおぶしエキスパウダー、みりんパウダー、麦芽糖、ほたてエキスパウダー、こんぶエキスパウダー（乳成分・鶏肉・豚肉を含む）、こんぶパウダー、粉末酢、酵母エキスパウダー、梅パウダー、かつおぶしパウダー / 調味料（アミノ酸等）、香料、甘味料（ステビア）、着色料（カラメル、アントシアニン）、酸味料</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、ぶどう糖、デキストリン、食塩、たん白加水分解物（大豆を含む）、えびエキスパウダー、白えび殻パウダー、香味油、ホワイトペッパー、酵母エキスパウダー、ガーリックパウダー、唐辛子 / 調味料（アミノ酸等）、香料（小麦由来）、ベニコウジ色素</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、砂糖、ぶどう糖、食塩、たん白加水分解物（大豆を含む）、チキンエキスパウダー、粉末みそ、でん粉、ブラックペッパー、粉末しょうゆ（小麦を含む）、オニオンパウダー、酵母エキスパウダー、ホワイトペッパー、香味油、しょうゆ風味調味料、セロリ、粉末植物油脂 / 調味料（アミノ酸等）、香料（乳由来）、酸味料、香辛料抽出物、カラメル色素、甘味料（ステビア、甘草）</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、デキストリン、食塩、砂糖、粉末しょうゆ（小麦・大豆を含む）、粉末植物油脂、たん白加水分解物、粉末酢、赤唐辛子、紅しょうがパウダー / 調味料（アミノ酸等）、野菜色素、香料（ごま由来）、酸味料、カゼインＮａ（乳由来）、甘味料（ステビア）</t>
+  </si>
+  <si>
+    <t>馬鈴薯（遺伝子組換えでない）、植物油、ぶどう糖、食塩、梅酢パウダー、でん粉、梅調味パウダー、粉末赤しそ、かつお節、粉末しょうゆ（小麦、大豆を含む）、酵母エキスパウダー、乳糖/酸味料、調味料（アミノ酸等）、香料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>生地（国内製造）（米粉（米（国産））、でん粉（小麦を含む）、いわし粉、植物油、砂糖、かつお節、食塩）、植物油、ぶどう糖、砂糖、食塩、たんぱく化水分解物（大豆を含む）、オリゴ糖、香辛料、うにパウダー、えびパウダー/加工デンプン、調味料（アミノ酸等）、パプリカ色素、香料（乳・小麦・大豆由来）、カラメル色素</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、粉末油脂、ビーフ風味パウダー（ビーフエキスパウダー、食塩、たんぱく加水分解物、ビーフ風味調味料、乳糖、野菜エキスパウダー、香辛料）、澱粉、酵母エキスパウダー／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、炭酸Ca、香料、甘味料（スクラロース）、酸化防止剤（ビタミンE）、酸味料、（一部に乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、サワークリームオニオン風味パウダー（食塩、ホエイパウダー（乳製品）、砂糖、オニオンパウダー、粉末酢、たんぱく加水分解物、ねぎエキスパウダー、デキストリン、酵母エキスパウダー）、食塩、オニオンパウダー、粉末油脂、砂糖、澱粉／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、酸味料、香料、炭酸Ca、香辛料抽出物、甘味料（スクラロース、ステビア）、酸化防止剤（ビタミンE）、（一部に乳成分を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、コーングリッツ、小麦粉、粉末油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、ビーフオイル、澱粉、酵母エキスパウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳化剤、炭酸Ca、酸味料、（一部に卵・乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、砂糖、えび風味パウダー、おきあみエキスパウダー、デキストリン、食塩、粉末油脂、たんぱく加水分解物、粉末醤油、香味油、澱粉、ホワイトペッパーパウダー／加工澱粉、調味料（アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、香料、ベニコウジ色素、香辛料抽出物、（一部に乳成分・小麦・えび・大豆を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩、デキストリン、砂糖、梅肉パウダー、粉末醤油、酵母エキスパウダー、梅肉エキスパウダー、たんぱく加水分解物、かつお節エキスパウダー／加工澱粉、トレハロース、調味料（アミノ酸等）、酸味料、炭酸Ca、増粘剤（カードラン）、香料、ベニコウジ色素、甘味料（スクラロース）、酸化防止剤（ビタミンE）、カラメル色素、（一部に小麦・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、コーングリッツ、小麦粉、粉末油脂、バター醤油風味シーズニング（砂糖、食塩、粉末醤油、デキストリン、乳糖、たんぱく加水分解物、チーズ風味パウダー、香辛料、酵母エキスパウダー）、食塩、粉末醤油、ブドウ糖、チーズパウダー、バターパウダー、酵母エキスパウダー／トレハロース、セルロース、調味料（アミノ酸等）、卵殻Ca、香料、増粘剤（カードラン）、乳化剤、炭酸Ca、甘味料（スクラロース）、（一部に卵・乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、落花生、マーガリン、麦芽糖、食塩、カラメルソース、キャラメルペースト／ソルビトール、カラメル色素、香料、調味料（アミノ酸等）、カロチノイド色素、（一部に乳成分・落花生・アーモンド・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、ももピューレ、加糖れん乳、食塩／ソルビトール、香料、乳化剤、ベニコウジ色素、甘味料（アドバンテーム）、カロチノイド色素、（一部に乳成分・大豆・ももを含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、牛乳、抹茶、加糖れん乳、食塩、抹茶ペースト／ソルビトール、香料、乳化剤、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、抹茶、抹茶ペースト、食塩／ソルビトール、香料、甘味料（スクラロース）、乳化剤、クチナシ色素、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>えんどう豆グリッツ（カナダ産又はニュージーランド産）、植物油脂、えんどう豆パウダー、砂糖、食塩、澱粉、粉末醤油、梅肉パウダー、梅肉エキスパウダー、たんぱく加水分解物、かつお節エキスパウダー／調味料（アミノ酸等）、酸味料、香料、炭酸Ca、甘味料（スクラロース）、カラメル色素、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>【福豆】大豆（国産、遺伝子組み換えでない）【赤糖豆】砂糖（国内製造）、大豆（カナダ、分別生産流通管理済み）、小麦粉/着色料（クチナシ、ラック色素）、（一部に小麦、大豆を含む）【磯豆】大豆（国産、遺伝子組み換えでない）、しょう油、のり、澱粉分解物、食塩/調味料（アミノ酸等）【青大豆】大豆（中国、遺伝子組み換えでない）</t>
+  </si>
+  <si>
+    <t>【Dengeki Ginger Beans】砂糖（国内製造）、大豆（カナダ、分別生産流通管理済み）、小麦粉/着色料（クチナシ）、（一部に小麦、大豆を含む）【黒豆】大豆（中国、遺伝子組み換えでない）【青大豆】（中国、遺伝子組み換えでない）、植物油脂、食塩、（一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、米麹、酒粕、はちみつ、食塩／香料、酸味料</t>
+  </si>
+  <si>
+    <t>糖類(砂糖(国内製造)、ぶどう糖、果糖ぶどう糖液糖)、パラチノース/炭酸、酸味料、香料、アルギニン、着色料(ベニバナ黄、クチナシ)、保存料(安息香酸Na)、カフェイン、ナイアシンアミド、塩化K、ビタミンB6、甘味料(スクラロース)</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖（国内製造）、もも果汁、脱脂粉乳、乳酸菌飲料、ピーチソース／酸味料、安定剤（大豆多糖類）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、アセスルファムＫ）、ベニバナ黄色素、野菜色素</t>
+  </si>
+  <si>
+    <t>砂糖類（果糖ぶどう糖（国内製造）、砂糖）、もも果汁、ピーチエキス/炭酸、酸味料、香料、ビタミンC、増粘剤（キサンタン）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、卵粉、植物油、たん白加水分解物、大豆食物繊維）、添付調味料（しょうゆ、チキンエキス、植物油、たん白加水分解物、ラード、かつおぶしエキス、粉末かつおぶし、香辛料、食塩、こんぶエキス、砂糖）、かやく（焼豚、メンマ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、かんすい、炭酸カルシウム、カラメル色素、乳化剤、酸化防止剤（ビタミンＣ、ビタミンＥ）、増粘多糖類、クチナシ色素、香料、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部に小麦・卵・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、でん粉、食塩、植物性たん白、砂糖、しょうゆ、チキンエキス、卵白）、添付調味料（粉末野菜、香辛料、乳等を主要原料とする食品、ビーフエキス、砂糖、豚脂、ポークエキス、食塩、植物油、たん白加水分解物、パセリ）、かやく（味付挽肉、チーズ加工品、赤ピーマン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、かんすい、クチナシ色素、カラメル色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、香料、香辛料抽出物、ビタミンＢ２、ビタミンＢ１、パプリカ色素、（一部にえび・小麦・卵・乳成分・いか・牛肉・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、しょうゆ、卵白）、添付調味料（植物油、かつおぶしエキス、砂糖、ポークエキス、しょうゆ、食塩、発酵調味料、粉末かつおぶし、酵母エキス、香辛料）、かやく（キャベツ、味付挽肉）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、乳化剤、酸化防止剤（ビタミンＥ、ビタミンＣ、ローズマリー抽出物）、カラメル色素、クチナシ色素、香料、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、でん粉、食塩、植物性たん白、乾燥酵母、卵白）、添付調味料（でん粉、砂糖、しょうゆ、食塩、こんぶエキス、かつおぶしエキス、粉末かつおぶし、たん白加水分解物、香辛料、ねぎ、植物油）、かやく（味付油揚げ、卵、かまぼこ）／加工でん粉、調味料（アミノ酸等）、リン酸塩（Ｎａ）、炭酸カルシウム、増粘多糖類、レシチン、カラメル色素、酒精、酸化防止剤（ビタミンＥ）、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、カロチン色素、（一部に小麦・卵・乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げワンタン（小麦粉（国内製造）、植物油脂、味付豚肉、粉末野菜、食塩）、添付調味料（食塩、でん粉、粉末かつおぶし、ポークエキス、しょうゆ、砂糖、たん白加水分解物、ねぎ、野菜エキス、粉末こんぶ、植物油）、かやく（卵、しいたけ）／調味料（アミノ酸等）、加工でん粉、カラメル色素、かんすい、炭酸カルシウム、酸化防止剤（ビタミンＥ）、香料、カロチン色素、（一部に小麦・卵・乳成分・大豆・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、しょうゆ、香辛料）、ソース（植物油脂、しょうゆ、香味油、魚介調味油、バターオイル）、ふりかけ（たらこ、のり、粉末しょうゆ、植物油脂、食塩、香辛料）、かやく（キャベツ）／加工でん粉、調味料（アミノ酸等）、香料、炭酸Ｃａ、かんすい、乳化剤、ベニコウジ色素、カラメル色素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、炭酸Ｍｇ、ビタミンＢ２、ビタミンＢ１、（一部にえび・小麦・乳成分・さけ・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>［ひよこチップ入りのりたま］いりごま（国内製造）、鶏卵加工品、乳糖、砂糖、小麦粉、かまぼこ、食塩、のり、大豆加工品、加工油脂、こしあん、さば削り節、みそ、乳製品、エキス（チキン、魚介、昆布、鰹節、酵母）、海藻カルシウム、パーム油、鶏肉粉末、でん粉、醤油、植物性たん白、鶏脂、あおさ、ぶどう糖果糖液糖、抹茶、みりん、イースト、デキストリン、還元水あめ／調味料（アミノ酸）、乳化剤、着色料（カロチノイド、イカ墨）、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・いか・ごま・さば・大豆・鶏肉を含む）［モーくんチップ入りすきやき］小麦粉（国内製造）、砂糖、いりごま、かまぼこ、醤油、食塩、牛肉、鶏卵加工品、こしあん、乳糖、調製ラード、でん粉、牛脂、植物性たん白、パーム油、マーガリン、海藻カルシウム、玉ねぎ粉末、乳製品、エキス（酵母、ビーフ、チキン）、大豆加工品、ぶどう糖果糖液糖、みりん、デキストリン、香味油、イースト、味付のり、すきやき風味シーズニング、みそ、香辛料、鶏肉粉末、鶏脂、ぶどう糖、水あめ／調味料（アミノ酸等）、着色料（赤ビート、カラメル、紅麹、クチナシ、カロチノイド）、セルロー</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（しょうゆ、豚脂、植物油脂、砂糖、醸造酢、食塩、ポークエキス、香辛料、ポーク調味料、チキン調味料、香味調味料、チキンエキス、酵母エキス、オニオンパウダー、でん粉、シイタケパウダー）、かやく（揚げギョーザ、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、酒精、カラメル色素、香料、かんすい、カロチノイド色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、酸味料、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（植物油脂、食塩、香辛料、でん粉、粉末しょうゆ、ポーク調味料、酵母エキス）、かやく（鶏・豚味付肉そぼろ、卵、ねぎ）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、カラメル色素、増粘多糖類、香料、酸味料、かんすい、重曹、カロチノイド色素、微粒二酸化ケイ素、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）／加工でんぷん、乳化剤（大豆由来）貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖／乳化剤、酸味料、糊料（プルラン、加工でん粉）、香料、着色料（アントシアニン、クチナシ）</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（カラメル、フラボノイド）</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（クチナシ、フラボノイド）</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、水あめ、還元水あめ、ガムベース、酸味料、香料、乳酸カルシウム、軟化剤、アントシアニン色素、緑茶抽出物</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
+  </si>
+  <si>
+    <t>砂糖、ぶどう糖、でん粉、水あめ/ガムベース、香料、酸味料、糊料（アラビアガム）、フラボノイド色素、リン酸カルシウム</t>
+  </si>
+  <si>
+    <t>砂糖､加工油脂､水あめ､でん粉､ゼラチン／酸味料､乳化剤､増粘剤(プルラン)､香料､クチナシ色素</t>
+  </si>
+  <si>
+    <t>砂糖、加工油脂、水あめ、でん粉、ゼラチン／酸味料、乳化剤、ソルビトール、増粘剤（プルラン）、香料、カラメル色素</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>緑茶（国産）／ビタミンＣ</t>
+  </si>
+  <si>
+    <t>大麦（六条大麦（カナダ、国産）、二条大麦）/粗製海水塩化マグネシウム、ビタミンＣ</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖､香料､酸味料</t>
+  </si>
+  <si>
+    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［発酵調味料、食塩、たん白加水分解物、しょうゆ、植物油脂、砂糖、クリーミングパウダー、酵母エキス、醸造酢、ハクサイエキスパウダー、ガーリックパウダー、香辛料／カラメル色素、増粘剤（グァーガム）、調味料（有機酸等）、加工デンプン、（一部に大豆・ごま・乳を含む］</t>
+  </si>
+  <si>
+    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［みそ、しょうゆ、植物油脂、発酵調味料、にんにく、砂糖、食塩、すりごま、たん白加水分解物、酵母エキス、香辛料／酒精、カラメル色素、調味料（有機酸等）、酸味料、（一部に大豆・ごまを含む］</t>
+  </si>
+  <si>
+    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［クリーミングパウダー、発酵調味料、食塩、たん白加水分解物、しょうゆ、植物油脂、砂糖、酵母エキス、ハクサイエキスパウダー、ガーリックパウダー、醸造酢、香辛料／カラメル色素、増粘剤（グァーガム）、調味料（有機酸等）、（一部に乳・大豆を含む］</t>
+  </si>
+  <si>
+    <t>準ﾁｮｺﾚｰﾄ（砂糖、乳糖、植物油脂、全粉乳、ココアパウダー）（国内製造）、小麦粉、植物油脂、砂糖、乳糖、もも果汁パウダー、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター/乳化剤、酸味料、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦、乳成分、大豆、ももを含む）</t>
+  </si>
+  <si>
+    <t>発泡酒（国内製造）（麦芽、ホップ、大麦、コーン、スターチ）、スピリッツ（大麦）</t>
+  </si>
+  <si>
+    <t>麦芽（外国製造又は国内製造（5％未満））、ホップ、米、コーン、スターチ</t>
+  </si>
+  <si>
+    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、澱粉、砂糖、植物油脂、ミルクカルシウム、食塩）／乳化剤、香料、カラメル色素、膨脹剤、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（外国製造）、植物油脂、砂糖、フライドポテト風味パウダー、食塩、味付けフリーズドライポテトダイス、こんぶエキス、たんぱく加水分解物、全卵粉末／加工デンプン、乳化剤、酸化防止剤(ビタミンE、ビタミンC）、調味料（アミノ酸等）、香料、糊料（加工デンプン）、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、サワークリームオニオン風味シーズニング（オニオンパウダー、食塩、乳等を主要原料とする食品、砂糖、ぶどう糖、酵母エキスパウダー、でん粉、粉末酢、サワークリームパウダー）、オニオンペースト／調味料（アミノ酸等）、酸味料、香料、乳化剤、香辛料抽出物、甘味料（カンゾウ）、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸味料、酸化防止剤（Ｖ．Ｃ、Ｖ．Ｅ）、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（赤１０６）</t>
+  </si>
+  <si>
+    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（青１、黄４、赤２）</t>
+  </si>
+  <si>
+    <t>水飴、砂糖、でん粉（馬鈴薯）、植物油（パームヤシ）、ソルビトール、乳化剤（パームヤシ）、香料、酸味料、着色料（黄5）</t>
+  </si>
+  <si>
+    <t>たまごボーロ（ばれいしょでん粉、砂糖、鶏卵、ぶどう糖、水あめ、脱脂粉乳）（国内製造）、砂糖、全粉乳、ココアバター、カカオマス、植物油脂、乳糖／光沢剤、乳化剤（大豆由来）、糊料（アラビアガム）、香料</t>
+  </si>
+  <si>
+    <t>砂糖、小麦パフ、植物油脂、乳糖、全粉乳、ココアパウダー、脱脂粉乳、カカオマス、ココアバター、光沢剤、増粘剤（アラビアガム）、乳化剤、香料、（原材料の一部に小麦、乳成分、大豆を含む）</t>
+  </si>
+  <si>
+    <t>アンパンマン：砂糖、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、乳化剤（大豆由来）、香料ばいきんまん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料ドキンちゃん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造)、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、野菜色素、香料(乳・大豆由来)</t>
+  </si>
+  <si>
+    <t>たまごボーロ（ばれいしょでん粉、砂糖、鶏卵、ぶどう糖、水あめ、脱脂粉乳）（国内製造）、乳糖、砂糖、ココアバター、全粉乳、植物油脂、乾燥いちご／光沢剤、香料、乳化剤（大豆由来）、糊料（アラビアガム）</t>
+  </si>
+  <si>
+    <t>（準）チョコレート（砂糖、植物油脂（大豆を含む）、全粉乳、乳糖、カカオマス、ココアパウダー）、小麦粉、鶏卵、砂糖、デキストリン、ショートニング、食塩【添加物】乳化剤（大豆由来）、膨張剤、香料</t>
+  </si>
+  <si>
+    <t>ビスケット（小麦粉、砂糖、植物油脂、その他：乳を含む）、砂糖、カカオマス、全粉乳、植物油脂、ココアバター、水あめ、膨脹剤、乳化剤（大豆由来）、光沢剤、卵殻カルシウム、香料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）						 カカオマス						 乳糖						 植物油脂（大豆を含む）						 全粉乳						 デキストリン						 水あめ					 加工でん粉						 卵殻Ca						 光沢剤						 乳化剤（大豆由来）						 着色料（赤ビート、クチナシ、カラメル、カロテン、紅花黄、フラボノイド）						 増粘剤（アラビアガム）						 香料</t>
+  </si>
+  <si>
+    <t>植物油脂(大豆を含む)、砂糖、砂糖粉乳調整品(砂糖、全粉乳、脱脂粉乳、ココアバター)、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳【添加物】乳化剤(大豆由来)、香料(乳由来)</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、植物油脂（大豆を含む）、全粉乳、乳糖、カカオマス、ココアパウダー）（国内製造）、小麦粉、鶏卵、砂糖、デキストリン、ショートニング、食塩/乳化剤（大豆由来）、膨張剤、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、ぶどう糖、還元パラチノース、グレープ果汁加工品、植物油脂、ウーロン茶抽出物、ゼラチン／ガムベース、酸味料、軟化剤、香料、甘味料（アセスルファムＫ、スクラロース）、クチナシ色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、ぶどう糖、還元パラチノース、植物油脂、ウーロン茶抽出物、ゼラチン／ガムベース、酸味料、軟化剤、香料、甘味料（アセスルファムＫ、スクラロース）、着色料（紅花黄、カロチノイド）</t>
+  </si>
+  <si>
+    <t>水あめ、砂糖、ゼラチン、濃縮果汁（ぶどう、りんご、オレンジ）、でん粉、植物油脂、ソルビット、酸味料、着色料（アントシアニン、カロテノイド、紅麹、クチナシ）、香料、チャ抽出物、乳化剤（大豆由来）、光沢剤</t>
+  </si>
+  <si>
+    <t>【グレープ味】水あめ、砂糖、ゼラチン、ぶどう果汁、粉末オブラート、[添加物]ソルビトール、酸味料、光沢剤、香料、着色料（アントシアニン、クチナシ）、乳化剤　【ピーチ味】水あめ、砂糖、ゼラチン、ピーチ果汁、粉末オブラート、[添加物]ソルビトール、酸味料、光沢剤、香料、着色料（アントシアニン）、乳化剤　【ﾚﾓﾝ味】水あめ、砂糖、ゼラチン、ﾚﾓﾝ果汁、粉末オブラート、[添加物]ソルビトール、酸味料、光沢剤、香料、着色料（紅花黄）、乳化剤</t>
+  </si>
+  <si>
+    <t>水飴（国内製造）、砂糖、ゼラチン、でんぷん／ソルビトール、酸味料、マンニトール、増粘剤（ペクチン）、香料、光沢剤、着色料(アントシアニン、クチナシ、紅麹、カラメル、紅花黄、カロチン)、乳化剤、（一部にゼラチンを含む） 本品製造ラインでは、乳成分を含む製品を生産しています。＜特定原材料を表示＞</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、砂糖、でんぷん粉、デキストリン、食用油脂/酸味料、増粘剤（アラビアガム）、乳化剤、光沢剤、香料、着色料（クチナシ、カロチノイド、野菜色素、紅麹）</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、加糖練乳、ショートニング、砂糖、食塩、イースト、バター加工品、酵母エキス、/炭酸Ca、調味料（無機塩等）、乳化剤、甘味料（スクラロース）、（一部に乳成分、小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、加糖れん乳、食塩、牛乳、クリーム（乳製品）、いちごピューレ、準チョコレート／ソルビトール、未焼成Ca、香料、ベニコウジ色素、乳化剤、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ﾁｮｺﾚｰﾄ（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽糖水あめ）、ココアパウダー、大豆粉、鶏卵加工品（鶏卵、砂糖）、水あめ、脱脂粉乳、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス/加工でん粉、乳化剤（大豆由来）、香料、膨張剤</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、加糖れん乳、ココアパウダー、食塩、準チョコレート、カカオマス／ソルビトール、未焼成Ca、香料、カラメル色素、乳化剤、ピロリン酸鉄、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ビスケット（小麦粉、砂糖、ショートニング、植物油脂、その他）（国内製造）、準チョコレート（砂糖、植物油脂、ココアパウダー、全粉乳、脱脂粉乳、その他）／乳化剤、香料、カラメル色素、膨脹剤、（一部に卵・乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、牛乳、乳等を主要原料とする食品、カカオマス、食塩、カカオ加工品（砂糖、カカオエキス）、酵母エキス、シナモン/膨張剤、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、乳等を主要原料とする食品、油脂加工食品（大豆を含む）、マーガリン、ブドウ糖、食塩、酵母エキス/炭酸カルシウム、膨張剤、乳化剤、香料、アナトー色素</t>
+  </si>
+  <si>
+    <t>小麦粉（韓国製造、シンガポール製造、国内製造）、マーガリン（乳成分、大豆を含む）、砂糖、（準）チョコレート（乳成分を含む）、脱脂粉乳、鶏卵加工品（鶏卵、砂糖）、砂糖混合ぶどう糖果糖液糖、食塩、膨張剤、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳等を主要原料とする食品、食塩、クランベリー濃縮果汁、ブルーベリー濃縮果汁、いちご濃縮果汁、酵母エキス/膨張剤、乳化剤（大豆由来）、コチニール色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、[添加物]酸味料、乳酸Ca、ゲル化剤（増粘多糖類）、香料、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、 添加物：酸味料、ゲル化剤（増粘多糖類）、乳酸Ca、香料、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、植物性乳酸菌末（殺菌）　添加物：酸味料、ゲル化剤（増粘多糖類）、乳酸Ca、香料、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、添加物：酸味料、ゲル化剤（増粘多糖類）、乳酸Ca、香料、野菜色素、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
+  </si>
+  <si>
+    <t>スイートコーンパウダー（アメリカ製造）、でん粉、砂糖、デキストリン、食塩、全粉乳、乳糖、脱脂粉乳、エキス（チキン、酵母、オニオン）、うきみ（クラッカー）／調味料（アミノ酸）、膨張剤、カカオ色素、（一部に乳成分・小麦・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん）、大豆油、豚肉、小麦粉ルウ、砂糖、ソテーオニオン、マーガリン、りんごペースト、食塩、カレー粉、チキンエキス調味料、香辛料／増粘剤（加工でん粉）、調味料（アミノ酸等）、カラメル色素、（一部に乳成分・小麦・大豆・鶏肉・豚肉・りんごを含む）</t>
+  </si>
+  <si>
+    <t>野菜（玉ねぎ（国産）、筍、にんじん、白菜）、豚肉、きくらげ、ごま油、砂糖、エキス（酵母、あさり、チキン）、醤油、にんにくペースト、生姜ペースト、食塩、りんご酢、鶏脂／増粘剤（加工でん粉）、調味料（アミノ酸等）、（一部に小麦・ごま・大豆・鶏肉・豚肉・りんごを含む）</t>
+  </si>
+  <si>
+    <t>鶏肉（国産）、鶏卵、玉ねぎ、砂糖、発酵調味料、食塩、醤油、エキス（チキン、酵母）、鰹節粉、鶏脂／増粘剤（加工でん粉、キサンタン）、調味料（アミノ酸等）、トレハロース、カロチノイド色素、（一部に卵・小麦・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん、コーン）、豚肉、ソテーオニオン、小麦粉ルウ、マーガリン、はちみつ、砂糖、カレー粉、エキス（ポーク、酵母）、かぼちゃペースト、トマトペースト、食塩、チーズパウダー、酵母エキスパウダー、ほうれん草ペースト、／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん）、豚肉、ソテーオニオン、豚肉、砂糖、エキス（ポーク、酵母）、カレー粉、トマトペースト、ポテト粉末、食塩、なたね油、かぼちゃペースト、ほうれん草ペースト、コーンペースト／増粘剤（加工でん粉）、（一部に豚肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん、コーン）、大豆油、豚肉、小麦粉ルウ、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、醤油、トマトペースト、食塩、チキンエキス調味料、ミルポワペースト、チーズパウダー、酵母エキスパウダー／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん）、豚肉、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、カレー粉、かぼちゃペースト、トマトペースト、コーンペースト、ほうれん草ペースト、ポテト粉末、食塩、なたね油、／増粘剤（加工でん粉）、（一部に豚肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも、にんじん、コーン、玉ねぎ、かぼちゃ、グリーンアスパラガス）、豚肉、小麦粉、マーガリン、はちみつ、砂糖、カレー粉、食塩、エキス（ポーク、酵母）、豚脂、トマトペースト、チーズ、コーン油、増粘剤（加工澱粉）、調味料（アミノ酸）、セルロース、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>トマトペースト（ポルトガル製造）、砂糖、ミルポワペースト、ウスターソース、りんごペースト、小麦粉ルウ、ソテーオニオン、チキンエキス、大豆油、食塩、粒状植物性たん白、牛肉、酵母エキスパウダー、かぼちゃペースト、グリーンアスパラガスペースト、コーンペースト／増粘剤（加工でん粉）、調味料（アミノ酸）、カラメル色素、（一部に小麦・牛肉・大豆・鶏肉・りんごを含む）</t>
+  </si>
+  <si>
+    <t>乳糖（アメリカ製造）、いりごま、砂糖、小麦粉、食塩、鮭、かまぼこ、すりごま、大豆加工品、鰹削り節、還元水あめ、エキス（鮭、酵母、チキン、鰹節）、加工油脂、こしあん、卵黄粉末、海藻カルシウム、醤油、鶏肉粉末、みそ、香味油、イースト、みりん、乳製品、ぶどう糖果糖液糖、鶏脂、ＤＨＡ含有精製魚油、デキストリン／調味料（アミノ酸）、着色料（カロチノイド、紅麹）、乳化剤、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・ごま・さけ・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>［たまご］小麦粉（国内製造）、いりごま、砂糖、鶏卵加工品、食塩、乳糖、加工油脂、大豆加工品、すりごま、こしあん、みそ、鰹削り節、乳製品、還元水あめ、エキス（チキン、酵母、鰹節、魚介）、鶏肉粉末、海藻カルシウム、のり、醤油、ぶどう糖果糖液糖、鶏脂、イースト、みりん、あおさ、抹茶、デキストリン／調味料（アミノ酸）、卵殻カルシウム、酸化防止剤（ビタミンＥ）、カロチノイド色素、香料、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉を含む）　　　［鮭］いりごま（国内製造）、大豆加工品、乳糖、砂糖、食塩、小麦粉、加工油脂、鮭、鶏卵加工品、すりごま、還元水あめ、こしあん、みそ、乳製品、海藻カルシウム、エキス（チキン、酵母）、香味油、のり、鶏肉粉末、醤油、ぶどう糖果糖液糖、イースト、鶏脂／調味料（アミノ酸等）、卵殻カルシウム、着色料（紅麹、カロチノイド）、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・ごま・さけ・大豆・鶏肉を含む）　　　［おかか］いりごま（国内製造）、鰹削り節、乳糖、砂糖、食塩、小麦粉、すりごま、加工油脂、醤油、鶏卵加工品、大豆加工品、還元水あめ、鰹節粉、エキス（鰹節、チキン、酵母、魚介）、海藻カルシウム、こしあん、みりん、みそ、のり、乳製品、鶏肉粉末、ぶどう糖果糖液糖、イースト、あおさ、抹茶、鶏脂、デキストリン／調味料（アミノ酸等）、卵殻カルシウム、着色料（カラメル、カロチノイド）、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉を含む）　　　［小魚］いりごま（国内製造）、小麦粉、砂糖、食塩、鰹削り節、醤油、加工油脂、鶏卵加工品、海藻カルシウム、乳糖、こしあん、いわし粉、大豆加工品、あじ粉、すりごま、みそ、鰹節粉、乳製品、エキス（チキン、鰹節、酵母、魚介）、デキストリン、のり、還元水あめ、鶏肉粉末、ぶどう糖果糖液糖、みりん、イースト、ＤＨＡ含有精製魚油、鶏脂、あおさ、抹茶、香辛料／調味料（アミノ酸等）、卵殻カルシウム、着色料（カラメル、カロチノイド）、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>乳糖、胡麻、砂糖、大豆加工品、鶏卵、食塩、小麦粉、こしあん、鮭、マーガリン、鰹削り節、パーム油、海藻カルシウム、海苔、エキス（チキン、鰹、オニオン、酵母）、鶏肉、醤油、鰹節粉、なやね油、脱脂粉乳、鶏脂、ぶどう糖果糖液糖、イースト、卵黄油、醗酵調味料、バター、大豆油、調味料（アミノ酸等）、着色料（紅麹、カラメル、カロチノイド）、酸化防止剤（ビタミンＥ）、香料、甘味料（甘草）</t>
+  </si>
+  <si>
+    <t>ごま、乳糖、砂糖、食塩、鶏卵加工品、小麦粉、大豆加工品、かまぼこ、鮭、加工油脂、こしあん、みそ、海藻カルシウム、鰹削り節、乳製品、エキス（チキン、鰹節、酵母、魚介）、パーム油、鶏肉粉末、還元水あめ、でん粉、醤油、植物性たん白、鶏脂、ぶどう糖果糖液糖、イースト、あおさ、みりん、抹茶、デキストリン／調味料（アミノ酸）、着色料（紅麹、カロチノイド）、乳化剤、酸化防止剤（ビタミンE）、（一部に卵・乳成分・小麦・ごま・さけ・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>【たまご】コーンスターチ（国内製造）、砂糖、いりごま、食塩、鶏卵、乾燥マッシュポテト、小麦粉、乾燥あん、パーム油、麦芽糖、大豆粉、のり、脱脂粉乳、しょうゆ、抹茶、かつお節粉末、魚介エキス、調味料、昆布粉/調味料（アミノ酸等）、加工でん粉、貝カルシウム、着色料（カラメル、パプリカ色素、カロチン、紅麹）、酸化防止剤（ビタミンE）、（一部に卵、乳成分、小麦、ごま、大豆を含む）　【おかか】乳糖（アメリカ製造）、いりごま、しょうゆ、砂糖、かつお削りぶし、乾燥マッシュポテト、まぐろ削りぶし、食塩、コーンスターチ、小麦粉、かつお節エキス、クロレラエキス/貝カルシウム、調味料（アミノ酸等）、加工でん粉、着色料（カラメル、紅麹）、（一部に卵、乳成分、小麦、ごま、大豆を含む）　【さけ】乳糖、いりごま（国内製造）、砂糖、乾燥マッシュポテト、食塩、コーンスターチ、小麦粉、味付たらこ粉末、味付さけ粉末、麦芽糖、のり、さけエキス、魚介エキス調味料、しょう油、かつお節粉末、抹茶、昆布粉/調味料（アミノ酸等）、貝カルシウム、加工でん粉、着色料（カラメル、紅麹、パプリカ色素）、酸化防止剤（ビタミンE）、（一部に卵、乳成分、小麦、ごま、大豆を含む）　【ごまわかめ】いりごま（国内製造）、味付けわかめ（わかめ、砂糖、食塩、魚介エキス）、乳糖、砂糖、食塩、コーンスターチ、小麦粉、しょうゆ、わかめ粉末、酵母エキス、抹茶、昆布粉、青のり/貝カルシウム、調味料（アミノ酸）、加工でん粉、カラメル色素、（一部に卵、乳成分、小麦、ごま、大豆を含む）</t>
+  </si>
+  <si>
+    <t>水あめ、砂糖、植物油脂、ゼラチン、濃縮ストロベリー果汁、加糖練乳、ストロベリージャム、乳酸菌飲料、酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>砂糖、水あめ、植物油脂、ラムネ菓子（エリスリトール、ポリデキストロース）、ゼラチン、デキストリン、濃縮レモン果汁、酸味料、乳化剤、香料、ステアリン酸カルシウム、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮りんご果汁／酸味料、グリセリン、香料、乳化剤、ベニバナ黄色素、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,7 +1139,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E615D68-CAB4-47E0-941D-23CC2B10D297}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A255"/>
+  <dimension ref="A1:A266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1151,1272 +1157,1327 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients/ingredients.xlsx
+++ b/ingredients/ingredients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A0D983-A77F-439D-9066-43119FE9F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4F90E-5404-466A-B5BD-9178911489C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
   </bookViews>
@@ -16,26 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$164</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
   <si>
     <t>ingredients_ori</t>
   </si>
@@ -46,21 +39,9 @@
     <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩（美ら海育ち15%）／加工澱粉、調味料（アミノ酸等）、香料、酸化防止剤（ビタミンE）</t>
-  </si>
-  <si>
     <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
   </si>
   <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、唐辛子パウダー、食塩、ガーリックパウダー、オニオンパウダー、砂糖、酵母エキスパウダー、ガーリック風味パウダー、たんぱく加水分解物、ブドウ糖、野菜エキスパウダー、チリパウダー、チキンパウダー、乳糖、ホワイトペッパーパウダー、クミンパウダー、パプリカパウダー、ハバネロペースト／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、カロチノイド色素、酸化防止剤（ビタミンE）、香辛料抽出物、酸味料、カラメル色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、アーモンド、全粉乳、植物油脂、カカオマス、ココアバター、小麦全粒粉、ショートニング、アーモンドプラリネペースト、小麦たんぱく、食塩、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆・アーモンドを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、アーモンド、でん粉、砂糖、オニオンペースト、ポークエキスパウダー、ショートニング、にんにくパウダー、モルトエキス、チキンエキスパウダー、小麦たんぱく、食塩、しょうゆシーズニング、こしょう、乾燥ビール酵母、酵母エキスパウダー、ベーコンエキス、たまねぎシーズニング、イースト／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、くん液、（一部に乳成分・小麦・大豆・鶏肉・豚肉・ごま・アーモンドを含む）</t>
-  </si>
-  <si>
     <t>砂糖（外国製造又は国内製造）、小麦粉、植物油脂、全粉乳、カカオマス、乳糖、ココアバター、ショートニング、ココアパウダー、加糖脱脂練乳、異性化液糖、生クリーム、食塩／乳化剤、膨脹剤、香料、着色料(カラメル)、（一部に乳成分・小麦・大豆を含む）</t>
   </si>
   <si>
@@ -79,30 +60,9 @@
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、抹茶（京都産宇治抹茶100%）、食塩、乳糖／膨張剤、クチナシ色素、香料、乳化剤（大豆由来）、酸化防止剤（ビタミンE）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、玄米粉、食塩、ココナッツ、梅干しエキスパウダー、コーンスターチ、乳糖/膨張剤、酸味料、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、玄米粉、醤油風味シーズニング（大豆を含む）、ココナッツ、食塩、乳糖/膨張剤、調味料（アミノ酸）、乳化剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、 添加物：酸味料、ゲル化剤（増粘多糖類）、乳酸Ca、香料、V.B2、V.B1、V.B6</t>
-  </si>
-  <si>
-    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
-  </si>
-  <si>
     <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
   </si>
   <si>
-    <t>砂糖（国内製造）／ゲル化剤（増粘多糖類）、香料、酸味料、リン酸Ca、着色料（クチナシ）</t>
-  </si>
-  <si>
     <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（赤１０６）</t>
   </si>
   <si>
@@ -112,51 +72,15 @@
     <t>果糖ぶどう糖液糖､香料､酸味料</t>
   </si>
   <si>
-    <t>果糖ぶどう糖液糖、酸味料、香料</t>
-  </si>
-  <si>
     <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
   </si>
   <si>
-    <t>砂糖（国内製造又は韓国製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
-  </si>
-  <si>
-    <t>水飴（国内製造）、砂糖、植物油脂、ぶどう濃縮果汁／酸味料、香料、着色料（アントシアニン、クチナシ、紅麹、金箔）、チャ抽出物、タンニン（抽出物）、乳化剤</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、植物性たん白、しょうゆ）、スープ（しょうゆ、糖類、食塩、動物油脂、ビーフエキス、たん白加水分解物、昆布エキス、鰹エキス）、かやく（かす入り揚げ玉、とろろ昆布、かまぼこ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、リン酸Na、香料、増粘剤（キサンタン）、酸化防止剤（ビタミンE)、カラメル色素、膨脹剤、紅麹色素、クチナシ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>馬鈴薯（国産）（遺伝子組換えでない）、植物油脂、ショートニング、乳糖、砂糖、食塩、チーズパウダー、デキストリン、クリーミングパウダー、ぶどう糖、オニオンパウダー、酒粕パウダー、酵母エキスパウダー、しょうゆパウダー／調味料（アミノ酸等）、香料、加工デンプン、乳化剤、着色料（カロチノイド、カラメル）、酸味料、甘味料（スクラロース）、香辛料抽出物、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、香辛料）、添付調味料（たん白加水分解物、しょうゆ、糖類、かつお節エキス、魚介エキス、食塩、いりこ、かつお節）、かやく（揚げ玉、ねぎ）/加工デンプン、調味料（アミノ酸等）、トレハロース、酒精、増粘多糖類、酸化防止剤（ビタミンE)、膨張剤、香辛料抽出物、（一部に小麦・さば・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、香料、酸味料</t>
-  </si>
-  <si>
     <t>砂糖、ぶどう糖果糖液糖(国内製造)/炭酸ガス、酸味料、香料</t>
   </si>
   <si>
-    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（赤色40号）</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（黄色4号、青色1号）</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（青色1号）</t>
-  </si>
-  <si>
-    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料（黄色4号、赤色40号）</t>
-  </si>
-  <si>
-    <t>砂糖・ぶどう糖果糖液糖（国内製造）/炭酸ガス、酸味料、香料</t>
-  </si>
-  <si>
-    <t>砂糖・ぶどう糖果糖液糖/炭酸ガス、酸味料、香料 、着色料（黄色4号、 青色1号）</t>
-  </si>
-  <si>
     <t>緑茶（国産）／ビタミンＣ</t>
   </si>
   <si>
@@ -166,9 +90,6 @@
     <t>砂糖、粉末麦芽調製品（混合麦芽エキス、砂糖、ココアパウダー、脱脂粉乳、植物油脂、乳清カルシウム）、モルトエキス、ココアパウダー、脱脂粉乳、乳化剤、炭酸カルシウム、炭酸マグネシウム、ビタミンC、ビタミンD、ｐH調整剤、ピロリン酸鉄、レシチン（大豆由来）、ナイアシン、ビタミンB1、酸化防止剤（ビタミンE）、ビタミンB2、ビタミンA</t>
   </si>
   <si>
-    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、牛乳、抹茶、加糖れん乳、食塩、抹茶ペースト／ソルビトール、香料、乳化剤、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
     <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
   </si>
   <si>
@@ -178,291 +99,33 @@
     <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
   </si>
   <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩、オニオンパウダー、チキンエキスパウダー、ブドウ糖、酵母エキスパウダー、ポークエキス調味料、粉末醤油、砂糖、ミルポアパウダー、香辛料、粉末ソース、粉末みそ、粉末野菜調味料、トマトパウダー、キャロットパウダー／加工澱粉、調味料（アミノ酸等）、甘味料（ステビア、スクラロース）、炭酸Ca、酸味料、酸化防止剤（ビタミンE）、香料、カラメル色素、香辛料抽出物、（一部に乳成分・小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩（焼き塩62％）、粉末油脂、ブドウ糖、オニオンパウダー、焙煎玄米粉、ロースト醤油風味パウダー、ガーリックパウダー、酵母エキスパウダー／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、酸化防止剤（ビタミンE）、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>水あめ、砂糖、ゼラチン、濃縮果汁（バナナ、レモン、すもも）、植物油脂／ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂／ソルビトール、酸味料、骨Ca、着色料（カラメル、フラボノイド、クチナシ、紅麹）、香料、光沢剤、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造、国内製造)、牛乳、全粉乳、メロン果汁、脱脂粉乳、ココナッツオイル、デキストリン、クリーム、食塩／乳化剤、香料、ビタミンC、クチナシ色素、カロテン色素、甘味料(ステビア)、クエン酸</t>
-  </si>
-  <si>
     <t>小麦粉（国内製造）、砂糖、カカオマス、全粉乳、植物油脂、ショートニング、マーガリン（乳成分を含む）、乳糖、バター、ココアバター、脱脂粉乳、加糖練乳、液全卵、うるちひえパフ、ごま、ぶどう糖、食塩、乾燥卵白（卵を含む）／リン酸Ca、乳化剤（大豆由来）、膨脹剤、香料（乳由来）、着色料（カロテノイド）、ビタミンＤ</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、全粉乳、ショートニング、ココアバター、マーガリ（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、カラメル粉末（乳成分を含む）、乳糖、キャラメル粉末（乳成分を含む）、洋酒、うるちひえパフ、食塩、液卵白(卵を含む)、カカオマス、水飴／ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、トレハロース、ビタミンＣ、ビタミンＤ、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、澱粉、砂糖、植物油脂、ミルクカルシウム、食塩）／乳化剤、香料、カラメル色素、膨脹剤、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>ビスケット（小麦粉、砂糖、ショートニング、植物油脂、その他）（国内製造）、準チョコレート（砂糖、植物油脂、ココアパウダー、全粉乳、脱脂粉乳、その他）／乳化剤、香料、カラメル色素、膨脹剤、（一部に卵・乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>ピーナッツ（中国）、澱粉、米（国産）、しょう油、植物油脂、砂糖、デキストリン、食塩、かつおエキス、香辛料／加工でん粉、調味料（アミノ酸等）、着色料（カラメル、カロチノイド、紅麹）、香辛料抽出物、（一部に小麦・落花生・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、ショートニング、ポテトでん粉、青大豆、枝豆パウダー（秋田県産）、チーズ、マルチトール、乾燥ポテト、食塩、バター、クロレラパウダー、香辛料、たん白加水分解物、酵母エキスパウダー、大豆イソフラボン抽出物、デキストリン／加工でん粉、カゼインNa、乳化剤、膨脹剤、炭酸Ca、香料、調味料（アミノ酸）、（一部に小麦・乳成分・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、カカオマス、ショートニング、ココアパウダー、全粉乳、転化糖蜜、加糖れん乳、ごま、食塩、コラーゲン(豚肉を含む)／着色料（カラメル）、膨脹剤、乳化剤（大豆由来）、炭酸Ｃａ、香料</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（外国製造）、植物油脂、砂糖、フライドポテト風味パウダー、食塩、味付けフリーズドライポテトダイス、こんぶエキス、たんぱく加水分解物、全卵粉末／加工デンプン、乳化剤、酸化防止剤(ビタミンE、ビタミンC）、調味料（アミノ酸等）、香料、糊料（加工デンプン）、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、えび粉末、えび塩風味パウダー、食塩、ローストしょうゆパウダー／加工デンプン、炭酸Ca、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンC）、乳化剤、香料、カラメル色素、（一部にえび・小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>コーン(遺伝子組換えでない)(米国産)、植物油、砂糖、粉末醤油、ぶどう糖、食塩、オニオンパウダー、香辛料、ポークエキスパウダー、酵母エキスパウダー／調味料(アミノ酸等)、香料、着色料(カラメル、カロチノイド)、甘味料(アセスルファムK、ステビア、カンゾウ)、酸味料、(一部に小麦・ごま・大豆・豚肉を含む)</t>
-  </si>
-  <si>
     <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（カラメル、フラボノイド）</t>
   </si>
   <si>
-    <t>じゃがいも（国産）、植物油、乾燥じゃがいも、ミルクパウダー、粉末植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、食塩、乳糖、でん粉、デキストリン、酵母エキスパウダー、たん白加水分解物、焼きのり、酒粕パウダー、チキンエキスパウダー、混合節エキスパウダー（さばを含む）、わさびパウダー / 調味料（アミノ酸等）、香料、加工デンプン、乳化剤、酸味料、カラメル色素、酸化防止剤（Ｖ．Ｃ）</t>
-  </si>
-  <si>
     <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
   </si>
   <si>
-    <t>植物油脂、砂糖、コーン（遺伝子組み換えでない）、全粉乳、ココア、カカオマス、パン粉、脱脂粉乳、食塩、乳化剤（大豆由来）、香料、（原材料の一部に小麦を含む）</t>
-  </si>
-  <si>
     <t>小麦粉（国内製造）、植物油脂、ソース(砂糖、野菜・果実、醸造酢、食塩、アミノ酸液、その他)、砂糖、食塩、ソース風味パウダー、香辛料、アオサ粉、野菜パウダー、ミート調味エキス、野菜エキス、魚介エキス、魚醤パウダー（魚介類）／加工デンプン、調味料(アミノ酸等)、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤(ビタミンE)、香辛料抽出物、（一部に小麦・卵・乳成分・魚醤パウダー（魚介類）・牛肉・さば・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
   </si>
   <si>
-    <t>砂糖混合ぶどう糖果糖液糖、酸味料、香料、着色料(黄色4号）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、食塩／炭酸、酸味料、香料</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、梨果汁(広島県産)、酸味料、香料</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、桃果汁（岡山県産）、酸味料、香料</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、マスカット果汁（岡山県産）、酸味料、香料</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、レモン果汁(広島県産)、酸味料、香料</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖、はっさく果汁(広島県産)、酸味料、香料</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖/炭酸、酸味料</t>
-  </si>
-  <si>
     <t>果糖ぶどう糖液糖（国内製造）/炭酸、酸味料、香料</t>
   </si>
   <si>
-    <t>砂糖(国内製造)、ぶどう糖、水飴、でん粉/ガムベース、軟化剤、酸味料、香料、着色料（紅花黄、クチナシ)</t>
-  </si>
-  <si>
     <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉、ピーチ果汁／ガムベース、酸味料、軟化剤、香料、着色料（カラメル、アントシアニン、紅花黄、クチナシ）</t>
   </si>
   <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、ゲル化剤（ペクチン：オレンジ由来）、着色料（カラメル）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、グレープ濃縮果汁、食用油脂／甘味料（ソルビトール）、酸味料、ゲル化剤（ペクチン：オレンジ由来）、香料、着色料（野菜色素、クチナシ）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、りんご濃縮果汁、食用油脂／甘味料（ソルビトール）、酸味料、ゲル化剤（ペクチン：オレンジ由来）、香料、着色料（クチナシ）</t>
-  </si>
-  <si>
-    <t>えんどう豆（輸入）、でん粉、食用油脂、砂糖、小麦粉、水あめ、食塩、ぶどう糖、配合調味料、わさび葉パウダー／香料、調味料（アミノ酸等）、膨脹剤、環状オリゴ糖、乳化剤、着色料（黄4、青1）、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、香辛料、大豆食物繊維）、ソース（豚脂、みそ、糖類、甜麺醤、還元水あめ、食塩、ポークエキス、香辛料、粉末みそ、たん白加水分解物、オニオンエキス）、かやく（キャベツ、大豆たん白加工品、にんじん）／加工でん粉、カラメル色素、調味料（アミノ酸等）、増粘剤（加工でん粉、アラビアガム）、酒精、炭酸Ｃａ、かんすい、酸味料、香料、グリセリン、フラボノイド色素、クチナシ色素、酸化防止剤（ビタミンＥ）、ｐＨ調整剤、乳化剤、甘味料（スクラロース、アセスルファムＫ）、炭酸Ｍｇ、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、そば粉、植物油脂、食塩、植物性たん白、しょうゆ）、スープ（糖類、食塩、かつおぶし調味料、粉末しょうゆ、魚粉（かつお、そうだかつお、いわし）、オニオン調味料、ねぎ、たん白加水分解物、デキストリン、香辛料）、かやく（揚げ玉、味付卵、かまぼこ、わかめ）／加工でん粉、調味料（アミノ酸等）、リン酸塩（Ｎａ）、カラメル色素、炭酸Ｃａ、香料、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、増粘多糖類、ベニコウジ色素、チャ抽出物、カロテン色素、ビタミンＢ２、クチナシ色素、ビタミンＢ１、（一部にえび・小麦・そば・卵・乳成分・さば・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、大豆食物繊維、デキストリン)、スープ（食塩、粉末しょうゆ、かつおぶし調味料、魚粉（かつお、さば、いわし）、にぼし調味料、ねぎ、こんぶ粉末、糖類、香辛料）、かやく（味付油揚げ、味付卵、かまぼこ、わかめ）／加工でん粉、調味料（アミノ酸等）、リン酸塩（Ｎａ）、炭酸Ｃａ、増粘多糖類、乳化剤、香料、ｐＨ調整剤、カラメル色素、酸化防止剤（ビタミンＥ）、微粒二酸化ケイ素、パプリカ色素、クチナシ色素、チャ抽出物、カロテン色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部に小麦・卵・乳成分・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、大豆食物繊維、デキストリン）、スープ（糖類、食塩、粉末しょうゆ、香味調味料、にぼし調味料、ビーフ調味料、魚粉（かつお、そうだかつお）、香辛料、たん白加水分解物）、かやく（大豆たん白加工品、揚げ玉、わかめ、ねぎ）／加工でん粉、調味料（アミノ酸等）、リン酸塩（Ｎａ）、炭酸Ｃａ、増粘剤（アラビアガム）、カラメル色素、香料、乳化剤、酸味料、香辛料抽出物、微粒二酸化ケイ素、ｐＨ調整剤、酸化防止剤（ビタミンＥ）、チャ抽出物、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・卵・乳成分・牛肉・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、大豆食物繊維、デキストリン）、スープ（食塩、ポーク調味料、糖類、魚醤、ごま、クリーミングパウダー、たん白加水分解物、香辛料、粉末みそ、香味調味料、あさり調味料）、かやく（卵、赤唐辛子、わかめ、ねぎ）／加工でん粉、調味料（アミノ酸等）、香料、リン酸塩（Ｎａ）、増粘多糖類、炭酸Ｃａ、乳化剤、カラメル色素、酸味料、微粒二酸化ケイ素、カロチノイド色素、ｐＨ調整剤、香辛料抽出物、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、食塩、ビーフパウダー（鶏肉・ゼラチンを含む）、粉末ソース、酵母エキスパウダー、ガーリックパウダー、レッドペッパー、オニオンパウダー、デキストリン、ぶどう糖、わさびパウダー/調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、酸味料、カゼインナトリウム（乳由来）、カラメル色素、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、粉末しょうゆ（小麦・大豆を含む）、粉末油脂、酵母エキスパウダー、香辛料、調味油、たん白加水分解物、乳糖、バター／調味料（アミノ酸等）、香料（ごま由来）、甘味料（ステビア）、酸味料</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、食塩、オニオンパウダー、オニオンエキスパウダー、たん白加水分解物（大豆・豚肉を含む）、酵母エキスパウダー、パセリ、オリゴ糖、サワークリームパウダー（北海道産サワークリーム使用）、乳糖／調味料（アミノ酸等）、酸味料、香料、甘味料（スクラロース、ステビア、カンゾウ）</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、香辛料、たん白加水分解物（大豆・豚肉を含む）、粉末しょうゆ（小麦を含む）、食塩、マヨネーズ風味パウダー（卵を含む）、乳等を主要原料とする食品、オリゴ糖、デキストリン、明太子パウダー（ゼラチンを含む）、ビーフパウダー（鶏肉を含む）／調味料（アミノ酸等）、香料、酸味料、カロチノイド色素、甘味料（ステビア、スクラロース）、香辛料抽出物、ウコン色素</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、たん白加水分解物（大豆を含む）、粉末しょうゆ（小麦を含む）、ビーフパウダー（鶏肉・ゼラチンを含む）、食塩、ガーリックパウダー、デキストリン、わさびパウダー／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、カゼインナトリウム（乳由来）、香辛料抽出物、酸味料</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、乳糖（乳成分を含む）、砂糖／酸味料、重曹、乳化剤、香料、着色料（カラメル、麦芽エキス）、甘味料（アセスルファムK）</t>
-  </si>
-  <si>
-    <t>果糖ブドウ糖液糖（国内製造）、砂糖、濃縮りんご果汁、寒天／甘味料（ソルビトール）、ゲル化剤（増粘多糖類）、酸味料、香料、乳酸カルシウム、乳化剤、着色料（野菜色素、クチナシ、紅花黄）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、乳等を主要原料とする食品（はっ酵バター、植物油脂、バターオイル、脱脂粉乳、食塩）、脱脂粉乳、クリームパウダー、食塩、レモンピールパウダー／膨脹剤、酸味料、着色料（カラメル、クチナシ）、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
     <t>＜れもん＞水あめ（国内製造）、砂糖、ゼラチン、濃縮レモン果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、紅花色素、光沢剤＜コーラ＞水あめ（国内製造）、砂糖、ゼラチン、コーラナッツエキス、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、カラメル色素、香料、乳化剤、光沢剤＜ソーダ＞水あめ（国内製造）、砂糖、ゼラチン、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、クチナシ色素、乳化剤、光沢剤＜ぶどう＞水あめ（国内製造）、砂糖、ゼラチン、濃縮グレープ果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、着色料（ブラックキャロットジュース、クチナシ）、乳化剤、光沢剤</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、しょうゆ、食塩、たん白加水分解物、チキンエキス、ポークエキス、野菜エキス）、スープ（しょうゆ、食塩、動物油脂、植物油脂、糖類、みそ、たん白加水分解物、チキンエキス、ポークエキス、鰹エキス）、かやく（味付肉そぼろ、ねぎ、赤ピーマン）／加工でん粉、調味料（アミノ酸等）、増粘剤（加工でん粉、増粘多糖類）、カラメル色素、かんすい、香料、酸化防止剤（ビタミンE、ローズマリー抽出物）、カロチノイド色素、香辛料抽出物、酸味料、（一部に卵・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、しょうゆ、食塩、たん白加水分解物、チキンエキス、ポークエキス、野菜エキス）、スープ（しょうゆ、食塩、糖類、動物油脂、デキストリン、野菜粉末、植物油脂、香辛料、ポークエキス、でん粉、チキンエキス、オイスターエキス）、かやく（モヤシ、ニンジン、ニラ）／加工でん粉、調味料（アミノ酸等）、増粘多糖類、カラメル色素、酒精、香料、かんすい、酸化防止剤（ビタミンE)、クチナシ色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、しょうゆ、食塩、たん白加水分解物、チキンエキス、ポークエキス、野菜エキス）、スープ（しょうゆ、食塩、糖類、動物油脂、たん白加水分解物、香辛料、ポークエキス）、かやく（味付豚肉、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、増粘多糖類、かんすい、酸化防止剤（ビタミンE)、香辛料抽出物、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、しょうゆ、食塩、たん白加水分解物、チキンエキス、ポークエキス、野菜エキス）、スープ（食塩、糖類、動物油脂、香辛料、たん白加水分解物、魚醤パウダー（魚介類）、しょうゆ、ポークエキス、酵母エキス、みそ、キムチパウダー、オニオンパウダー、植物油脂）、かやく（白菜キムチ、フライドガーリック、ニラ）／加工でん粉、調味料（アミノ酸等）、増粘多糖類、カラメル色素、かんすい、カロチノイド色素、酸化防止剤（ビタミンE、ビタミンC）、微粒二酸化ケイ素、酸味料、香料、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・魚醤パウダー（魚介類）を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、しょうゆ、食塩、たん白加水分解物、チキンエキス、ポークエキス、野菜エキス）、スープ（しょうゆ、ポークエキス、動物油脂、たん白加水分解物、食塩、糖類、ニンニクペースト、酵母パウダー、食用風味油、香辛料）、かやく（味付豚肉、焼のり、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、増粘多糖類、かんすい、酸化防止剤（ビタミンE）、クチナシ色素、香辛料抽出物、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（国産）（遺伝子組換えでない）、植物油脂、岩塩シーズニング（ぶどう糖、食塩（フランス産岩塩９０％）、砂糖、チキンブイヨンパウダー、粉末油脂、香辛料、マッシュルームエキスパウダー、たん白加水分解物、ホタテエキスパウダー、昆布エキスパウダー、酵母エキスパウダー）／調味料（アミノ酸等）、香料、酸味料、甘味料（スクラロース）、（一部に小麦・乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>原材料名：油揚げめん（小麦粉（国内製造）、植物油脂、ラード、しょうゆ、食塩、香辛料）、添付調味料（糖類、たん白加水分解物、食塩、しょうゆ、醸造酢、植物油脂、りんごピューレ、香辛料、トマトペースト、ポークエキス、野菜エキス）、かやく（キャベツ、唐辛子）/調味料（アミノ酸等）、香辛料抽出物、酒精、カラメル色素、増粘多糖類、かんすい、パプリカ色素、酸化防止剤（ビタミンE）、甘味料（ステビア）、ビタミンB2、（一部に小麦・大豆・豚肉・りんごを含む）</t>
-  </si>
-  <si>
-    <t>うるち米（国内産）、植物油脂、しょうゆ（小麦、大豆を含む）、砂糖、かつおだし粉末、昆布だし/加工デンプン、調味料（アミノ酸等）、貝カルシウム</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、植物油脂（大豆を含む）、全粉乳、乳糖、カカオマス、ココアパウダー）（国内製造）、小麦粉、鶏卵、砂糖、デキストリン、ショートニング、食塩／乳化剤（大豆由来）、膨脹剤、香料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、カカオマス、乳糖、植物油脂（大豆を含む）、全粉乳、デキストリン、水あめ／加工でん粉、卵殻Ｃａ、光沢剤、乳化剤（大豆由来）、着色料（赤ビート、クチナシ、カラメル、カロテン、紅花黄、フラボノイド）、増粘剤（アラビアガム）、香料</t>
-  </si>
-  <si>
-    <t>糖類（異性化液糖、砂糖、果糖）（国内製造）、グレープ濃縮果汁／ゲル化剤（増粘多糖類）、酸味料、香料、着色料（アントシアニン）、酸化防止剤（ビタミンC、酵素処理ルチン）</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）（国内製造）、小麦粉、植物油脂、乳糖、砂糖、紅茶エキスパウダー、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、カラメル色素、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ポテトペレット（じゃがいもでん粉、乾燥じゃがいも、その他）（スペイン産）、植物油、デキストリン、ぶどう糖、たん白加水分解物、食塩、昆布エキスパウダー、でん粉、酵母エキスパウダー、チキンエキスパウダー、オニオンパウダー、香料油/調味料（アミノ酸等）、香料、酸味料、香辛料抽出、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>ポテトペレット（じゃがいもでん粉、乾燥じゃがいも、その他）（スペイン製造）、植物油、砂糖、オニオンパウダー、ローストオニオンパウダー、食塩、コーンスターチ、ビーフエキスパウダー、酵母エキスパウダー、白菜エキスパウダー、たん白加水分解物、ミルポワパウダー、こしょうパウダー、セロリ/調味料（アミノ酸等）、香料、甘味料（アスパルテーム・L-フェニルアラニン化合物、ステビア）、パプリカ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>ひよこ豆ペレット（ひよこ豆粉、じゃがいもでん粉、乾燥じゃがいも、その他）（スペイン製造）、植物油、大豆たんぱく、砂糖、酵母エキスパウダー、食塩、オニオンパウダー、ぶどう糖、ガーリックパウダー、サワークリームパウダー、ライムジュースパウダー、パセリフレーク、粉末油/調味料（アミノ酸等）、香料、酸味料、甘味料（ステビア）、（一部に小麦・乳成分・大豆）</t>
-  </si>
-  <si>
-    <t>ひよこ豆ペレット（ひよこ豆粉、じゃがいもでん粉、乾燥じゃがいも、その他）（スペイン製造）、パーム湯、大豆たんぱく、デキストリン、食塩、ぶどう糖、黒コショウパウダー、たん白加水分解物、チキンエキスパウダー、酵母エキスパウダー、ガーリックパウダー、オリーブオイル、粉末醤油/調味料（アミノ酸等）、香料、（一部に小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、還元水あめ/ソルビトール、酸味料、増粘剤（プルラン）、着色料（アントシアニン、クチナシ、カロチノイド）、香料</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、ゼラチン、パラチニット/酸味料、香料、甘味料（スクラロース）、カロチノイド色素、ナイアシン</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造）、砂糖調製品（砂糖、コーンスターチ）、ばれいしょでん粉、コーンスターチ、デキストリン/酸味料（クエン酸）、香料、アナトー色素、ブドウ果汁色素</t>
-  </si>
-  <si>
-    <t>砂糖、水飴、白桃果汁パウダー/乳化剤、酸味料、香料、果実色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、チョコレートチップ、ショートニング、砂糖、でん粉、鶏卵、ココアパウダー、食塩、スパイス／膨張剤、乳化剤、香料、カロテン色素、（一部に小麦・卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、たんぱく加水分解物（大豆を含む）、香辛料（大豆を含む）、食塩、ミートエキス調味パウダー（乳成分・小麦・牛肉・ごま・大豆・鶏肉・豚肉を含む）、オリゴ糖、酵母エキスパウダー、香味油（小麦・大豆を含む）／調味料（アミノ酸等）、酸味料、パプリカ色素、香辛料抽出物、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物）、香料（小麦・大豆由来）</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、食塩、香辛料（大豆を含む）、ぶどう糖、ミートエキス調味パウダー（乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）、たんぱく加水分解物（大豆を含む）、酵母エキスパウダー、オリゴ糖、香味油（小麦・大豆を含む）、りんご果汁パウダー／調味料（アミノ酸等）、酸味料、パプリカ色素、甘味料（スクラロース、ステビア、カンゾウ）、香料、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、ガーリックパウダー、ぶどう糖、食塩、砂糖、たんぱく加水分解物（大豆を含む）、野菜エキスパウダー（乳成分・大豆・豚肉・ゼラチンを含む）、オニオン、ホワイトペパー、唐辛子／調味料（アミノ酸等）、香辛料抽出物、甘味料（ステビア、カンゾウ）、香料、カラメル色素、酸味料</t>
-  </si>
-  <si>
-    <t>馬鈴薯（日本：遺伝子組換えでない）、植物油、砂糖、ぶどう糖、岩塩、チーズパウダー（乳成分を含む）、クリーミングパウダー（乳成分を含む）、粉末発酵乳、粉末油脂（乳成分を含む）、たんぱく加水分解物（小麦を含む）、乳等を主要原料とする食品、オリゴ糖、香味油（小麦・大豆を含む）／調味料（アミノ酸）、酸味料、香料（乳・小麦・大豆由来）、パプリカ色素、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>とうもろこし（アメリカ：遺伝子組換えの混入を防ぐため分別）、植物油、デキストリン、ぶどう糖、食塩、たんぱく加水分解物（鶏肉を含む）、チーズパウダー（乳成分を含む）、香辛料、乳等を主要原料とする食品、アンチョビパウダー（魚醤（魚介類）を含む）、酒粕パウダー、粉末しょうゆ（小麦・大豆を含む）、トリュフ／調味料（アミノ酸）、香料、カラメル色素、酸味料、カロチノイド色素</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、澱粉、砂糖、ラード、ポテト風味シーズニング（食塩、砂糖、デキストリン、ポテトパウダー、たんぱく加水分解物加工品、たんぱく加水分解物、チキン風味パウダー、昆布エキスパウダー）、食塩、小麦粉／加工澱粉、調味料（アミノ酸等）、乳化剤、香料、酸味料、（一部に乳成分・小麦・牛肉・大豆・鶏肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、澱粉、砂糖、ラード、コンソメ風味シーズニング（オニオンパウダー、ブドウ糖、食塩、チキンエキスパウダー、粉末醤油、ミルポアパウダー、粉末ソース、香辛料、酵母エキスパウダー）、食塩、小麦粉／加工澱粉、調味料（アミノ酸等）、乳化剤、香料、甘味料（ステビア）、炭酸Ca、酸味料、カラメル色素、（一部に乳成分・小麦・牛肉・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、落花生、唐辛子パウダー、食塩、ガーリックパウダー、砂糖、オニオンパウダー、酵母エキスパウダー、たんぱく加水分解物、ブドウ糖、澱粉、チリパウダー、乳糖、チキンパウダー、ホワイトペッパーパウダー、クミンパウダー、醤油風味調味料、チキンエキス調味料、パプリカパウダー、ハバネロピューレ、調味エキス／加工澱粉、調味料（アミノ酸等）、炭酸Ca、香料、酸化防止剤（ビタミンE）、酸味料、香辛料抽出物、カラメル色素、（一部に乳成分・小麦・落花生・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、加糖れん乳、食塩、ハチミツ、バター／ソルビトール、未焼成Ca、香料、乳化剤、甘味料（アドバンテーム）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
   </si>
   <si>
-    <t>果糖ぶどう糖液糖(国内製造)、オレンジエキス／炭酸、酸味料、香料、ビタミンC、カロテン色素</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖(国内製造)、グレープエキス／炭酸、酸味料、カラメル色素、香料、アントシアニン色素</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖(国内製造)、メロンエキス／炭酸、酸味料、香料、ベニバナ色素、クチナシ色素</t>
-  </si>
-  <si>
-    <t>糖類(果糖ぶどう糖液糖(国内製造)、砂糖)／炭酸、香料、酸味料</t>
-  </si>
-  <si>
-    <t>＜ハローキティ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜マイメロディ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜ポチャッコ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来) ＜ポムポムプリン＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、カロテノイド色素 ＜シナモロール＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、濃縮いちご果汁、でん粉／ソルビット、酸味料、香料、着色料（アントシアニン、カロテノイド）、チャ抽出物、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>チョコレート（砂糖、ココアバター、植物油脂、全粉乳、脱脂粉乳、乳糖、カカオマス）（国内製造）、小麦粉、砂糖、バター、カシューナッツ、準チョコレート（砂糖、植物油脂、全粉乳、脱脂粉乳、乳糖、カカオマス、ココアパウダー、食塩）、ココアクッキー、アーモンド、植物油脂、乳等を主要原料とする食品、ショートニング、バターオイル、ホエイパウダー、小麦全粒粉、食塩、コーンスターチ、ぶどう糖、脱脂粉乳、全粉乳／膨脹剤、乳化剤（大豆由来）、香料、甘味料（ソルビトール）</t>
-  </si>
-  <si>
     <t>うるち米粉（国産、タイ産）、植物油脂、砂糖、チーズ粉末、食塩、たまねぎ粉末、トマト粉末、にんにく粉末、酵母エキス粉末、バジル粉末、たんぱく加水分解物（大豆を含む）、チキンエキス粉末、唐辛子粉末、白こしょう粉末、大豆たんぱく、黒こしょう粉末、香味油(小麦・大豆を含む)／加工デンプン、調味料（アミノ酸等）、香料（乳・小麦・大豆・鶏肉由来）、乳化剤(大豆由来)、酸味料、酸化防止剤（ビタミンE）、着色料（カロテノイド）、微粒酸化ケイ素、香辛料抽出物、リン酸三カルシウム</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、ショートニング、砂糖、玄米、米粉、油脂加工食品（乳成分を含む）、液全卵、抹茶、食塩／膨脹剤、着色料(紅花黄、クチナシ)、乳化剤(大豆由来)、香料、カゼインナトリウム(乳由来)</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、カカオマス、ココアパウダー、液全卵、マーガリン（乳成分を含む）、植物油脂、油脂加工食品（乳成分を含む）、乳糖、食塩、シナモン粉末／乳化剤（大豆由来）、膨脹剤、香料、カゼインナトリウム（乳由来）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、白あん（生あん、砂糖、還元水飴、寒天、食塩）、コーンスターチ、異性化液糖、カカオマス、ファットスプレッド (乳成分を含む)、マーガリン (乳成分・大豆を含む)、水飴、植物油脂、液全卵、乳糖、食塩／ソルビトール、加工デンプン、着色料（カラメル、アナトー）、乳化剤（大豆由来）、香料 (乳由来)、膨脹剤、増粘剤（カラギーナン）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、植物油脂、加糖練乳、ぶどう糖、いちご粉末、食塩、ココアバター／膨脹剤、酸味料、乳化剤（大豆由来）、香料、着色料（ビートレッド、カロテン）、卵殻未焼成カルシウム（卵由来）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ショートニング、砂糖、乳糖、デキストリン、チーズ粉末、食塩／膨脹剤、乳化剤（大豆由来）、香料（乳・大豆由来）、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>うるち米（国産、アメリカ産）、植物油脂、砂糖、しょうゆ（小麦・大豆を含む）、果糖ぶどう糖液糖、食塩、調味エキス（大豆を含む）／加工デンプン（小麦由来）、調味料（アミノ酸等）、着色料（カラメル）</t>
-  </si>
-  <si>
-    <t>うるち米粉（国産、タイ産）、植物油脂、粉末醸造酢、砂糖、食塩、酵母エキス粉末、香辛料（ごまを含む）、チキンエキス粉末、粉末しょうゆ（小麦・大豆を含む）、でん粉、デキストリン／加工デンプン、香料（鶏肉由来）、調味料（アミノ酸等）、酸味料、酸化防止剤（ビタミンＥ）、微粒酸化ケイ素、着色料（カロテン）、香辛料抽出物、ビタミンＢ１、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>ピーナッツ（輸入）、小麦粉、砂糖、澱粉、しょう油、焼きとうもろこし風味シーズニング、寒梅粉、醸造調味料、デキストリン、砂糖混合異性化液糖、植物油脂、酵母エキス、食塩／調味料（アミノ酸等）、加工でん粉、膨張剤、香料、増粘剤（加工でん粉）、乳化剤、糊料（プルラン）、甘味料（スクラロース）、　　　　（一部に乳成分・小麦・落花生・大豆を含む）</t>
-  </si>
-  <si>
     <t>○ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）○オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素○グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素○コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
   </si>
   <si>
@@ -475,40 +138,283 @@
     <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、香料、Ｌ－アルギニン、カフェイン、ナイアシン、甘味料（スクラロース）、イノシトール、　　　　　ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
   </si>
   <si>
-    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、水あめ、でん粉／加工でん粉、乳化剤、カラメル色素、香料</t>
-  </si>
-  <si>
-    <t>砂糖、水飴、濃縮果汁（いちご、レモン、オレンジ、パインアップル、りんご、メロン、すもも）、酸味料、香料、着色料（紫コーン色素、パプリカ色素、カロチン、紅麹、クチナシ、紅花黄）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、植物油脂、小麦粉、カカオマス、乳糖、ココアバター、バナナパウダー、キャラメルパウダー、ココアパウダー、イースト／乳化剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆・バナナを含む）</t>
-  </si>
-  <si>
-    <t>糖類（果糖ぶどう糖液糖（国内製造）、砂糖）/ 炭酸、カラメル色素、酸味料、香料、カフェイン</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水あめ、菊花抽出物／香料、カフェイン、着色料（カカオ、クチナシ、カラメル）、ナイアシン、甘味料（アセスルファムＫ、スクラロース）、調味料（アミノ酸）、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、小麦粉、ココアバター、液卵白（卵を含む）、ショートニング、植物油脂、全粉乳、乳糖、マーガリン、ホエイパウダー（乳成分を含む）、抹茶、水飴、食塩／乳化剤（大豆由来）、香料（乳由来）、着色料（カラメル）、膨脹剤</t>
-  </si>
-  <si>
-    <t>緑茶(国産）、ビタミンC</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、乳糖、加工油脂、還元水あめ、卵、抹茶、植物油脂、マーガリン、脱脂粉乳、食塩、桜パウダー（デキストリン、桜ペースト（桜花塩漬、桜葉塩漬）、寒天、砂糖、桜エキス）、麦芽糖、小麦ファイバー、水あめ／乳化剤（大豆由来）、結晶セルロース、香料、着色料（クチナシ、アカビート、アナトー）、安定剤（加工デンプン）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、全粉乳、植物油脂、抹茶、食塩／香料、酸味料、乳化剤、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>【バナナ味キャンディ】砂糖(国内製造)、水あめ、加工油脂、還元水あめ、ゼラチン、でん粉/ソルビトール、乳化剤、香料、酸味料、増粘剤(プルラン)、フラボノイド色素〈チョコクリーム〉チョコレート利用商品(国内製造)(砂糖、加工油脂、ココアパウダー、全粉乳、カカオマス)/乳化剤(大豆由来)、香料【カラフルトッピング】砂糖(国内製造)、でん粉/糊料(アラビアガム)、着色料(クチナシ、アントシアニン、カロチノイド)、酸味料</t>
-  </si>
-  <si>
-    <t>＜りんご味キャンディ＞砂糖、水あめ、加工油脂、還元水あめ、ゼラチン、でん粉／ソルビトール、酸味料、乳化剤、増粘剤（プルラン）、香料、着色料（アントシアニン、カロチノイド）＜りんご味水あめ＞水あめ／酸味料、アントシアニン色素、香料＜カラフルトッピング＞砂糖、でん粉／糊料（アラビアガム）、着色料（アントシアニン、クチナシ、カロチノイド）、酸味料</t>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、スモークチーズパウダー、砂糖、小麦たんぱく、食塩、発酵調味料、こしょう、酵母エキス、デキストリン、麦芽糖／調味料（アミノ酸等）、香料、増粘剤（キサンタンガム）、乳化剤、着色料（アナトー色素）、酸味料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、乾燥ポテト、でん粉、野菜エキスシーズニング、食塩、えだまめパウダー／トレハロース、調味料（アミノ酸等）、香料、乳化剤、クチナシ色素、酸味料、甘味料（スクラロース）、（一部に乳成分・小麦・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>水あめ、砂糖、植物油脂、ゼラチン、濃縮ストロベリー果汁、加糖練乳、ストロベリージャム、乳酸菌飲料、酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>砂糖、水あめ、植物油脂、ラムネ菓子（エリスリトール、ポリデキストロース）、ゼラチン、デキストリン、濃縮レモン果汁、酸味料、乳化剤、香料、ステアリン酸カルシウム、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮りんご果汁／酸味料、グリセリン、香料、乳化剤、ベニバナ黄色素、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、ポークエキス、香辛料、トマトペースト、デキストリン、糖類、しょうゆ、たん白加水分解物、酵母エキス、ローストオニオン粉末、醸造酢、豚脂、香味調味料）、かやく（豚･鶏味付肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、ソルビット、酒精、香料、グリセリン、カロチノイド色素、酸化防止剤（ビタミンＥ）、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、のり、香辛料）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、カラメル色素、酒精、香料、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･いか･さけ･さば･大豆･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［みそ、しょうゆ、植物油脂、発酵調味料、にんにく、砂糖、食塩、すりごま、たん白加水分解物、酵母エキス、香辛料／酒精、カラメル色素、調味料（有機酸等）、酸味料、（一部に大豆・ごまを含む］</t>
+  </si>
+  <si>
+    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［クリーミングパウダー、発酵調味料、食塩、たん白加水分解物、しょうゆ、植物油脂、砂糖、酵母エキス、ハクサイエキスパウダー、ガーリックパウダー、醸造酢、香辛料／カラメル色素、増粘剤（グァーガム）、調味料（有機酸等）、（一部に乳・大豆を含む］</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
+  </si>
+  <si>
+    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）／加工でんぷん、乳化剤（大豆由来）貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
+  </si>
+  <si>
+    <t>小麦粉・ショートニング・砂糖・全粒粉・乳糖・乳頭を主原料とする食品・乾燥全卵・でんぷん・食塩・膨張剤・香料・乳化剤</t>
+  </si>
+  <si>
+    <t>小麦粉・ショートニング・砂糖・ココアパウダー・乳糖・乳糖を主原料とする食品・乾燥全卵・でんぷん・食塩・炭酸カルシウム 膨張剤・香料・乳化剤</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん、コーン）、大豆油、豚肉、小麦粉ルウ、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、醤油、トマトペースト、食塩、チキンエキス調味料、ミルポワペースト、チーズパウダー、酵母エキスパウダー／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>欄外裏面に記載［たまご］小麦粉（国内製造）、いりごま、乳糖、砂糖、卵黄粉末、食塩、加工油脂、すりごま、大豆加工品、鰹削り節、こしあん、還元水あめ、エキス（チキン、酵母、鰹節、魚介）、鶏肉粉末、みそ、海藻カルシウム、のり、醤油、鶏脂、乳製品、ぶどう糖果糖液糖、イースト、みりん、あおさ、抹茶、デキストリン／調味料（アミノ酸）、卵殻カルシウム、酸化防止剤（ビタミンＥ）、カロチノイド色素、香料、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉を含む）［さけ］いりごま（国内製造）、乳糖、大豆加工品、砂糖、食塩、小麦粉、加工油脂、鮭、すりごま、卵黄粉末、還元水あめ、こしあん、海藻カルシウム、エキス（チキン、酵母）、鶏肉粉末、みそ、香味油、のり、鶏脂、醤油、乳製品、ぶどう糖果糖液糖、イースト／調味料（アミノ酸等）、卵殻カルシウム、着色料（紅麹、カロチノイド）、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・ごま・さけ・大豆・鶏肉を含む）［おかか］いりごま（国内製造）、乳糖、鰹削り節、砂糖、食塩、小麦粉、すりごま、加工油脂、醤油、還元水あめ、大豆加工品、卵黄粉末、鰹節粉、エキス（チキン、鰹節、酵母</t>
+  </si>
+  <si>
+    <t>スイートコーンパウダー（アメリカ製造）、でん粉、砂糖、デキストリン、食塩、全粉乳、乳糖、脱脂粉乳、エキス（チキン、酵母、オニオン）、うきみ（クラッカー）／調味料（アミノ酸）、膨張剤、カカオ色素、（一部に乳成分・小麦・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん）、ソテーオニオン、豚肉、砂糖、エキス（ポーク、酵母）、カレー粉、トマトペースト、ポテト粉末、食塩、なたね油、かぼちゃペースト、ほうれん草ペースト、コーンペースト／増粘剤（加工でん粉）、（一部に豚肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも、にんじん、コーン、玉ねぎ、かぼちゃ、グリーンアスパラガス）、豚肉、小麦粉、マーガリン、はちみつ、砂糖、カレー粉、食塩、エキス（ポーク、酵母）、豚脂、トマトペースト、チーズ、コーン油、増粘剤（加工澱粉）、調味料（アミノ酸）、セルロース、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>鶏肉（国産）、鶏卵、玉ねぎ、砂糖、発酵調味料、食塩、醤油、エキス（チキン、酵母）、鰹節粉、鶏脂／増粘剤（加工でん粉、キサンタン）、調味料（アミノ酸等）、トレハロース、カロチノイド色素、（一部に卵・小麦・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>トマトペースト（ポルトガル製造）、砂糖、ミルポワペースト、ウスターソース、りんごペースト、小麦粉ルウ、ソテーオニオン、チキンエキス、大豆油、食塩、粒状植物性たん白、牛肉、酵母エキスパウダー、かぼちゃペースト、グリーンアスパラガスペースト、コーンペースト／増粘剤（加工でん粉）、調味料（アミノ酸）、カラメル色素、（一部に小麦・牛肉・大豆・鶏肉・りんごを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、マーガリン、砂糖、小麦全粒粉、発酵風味液、食塩、殺菌乳酸菌末／香料、カロテン色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、小麦全粒粉、乳等を主要原料とする食品（はっ酵バター、植物油脂、バターオイル、脱脂粉乳、食塩）、脱脂粉乳、クリームパウダー、食塩／膨脹剤、カラメル色素、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>水飴（国内製造）、砂糖、ゼラチン、でんぷん／ソルビトール、酸味料、マンニトール、増粘剤（ペクチン）、香料、光沢剤、着色料(アントシアニン、クチナシ、紅麹、カラメル、紅花黄、カロチン)、乳化剤、（一部にゼラチンを含む） 本品製造ラインでは、乳成分を含む製品を生産しています。</t>
+  </si>
+  <si>
+    <t>【青リンゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮青リンゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（黄色４号、青色１号）、（一部にりんご・ゼラチンを含む）　【レモン】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮レモン果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、着色料（黄色４号）、（一部にゼラチンを含む）　【グレープ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮グレープ果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、甘味料（アセスルファムＫ、ステビア）、着色料（赤色４０号、青色１号）、（一部にゼラチンを含む）　【イチゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮イチゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（赤色４０号）、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸味料、酸化防止剤（Ｖ．Ｃ、Ｖ．Ｅ）、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、植物油脂（大豆を含む）、全粉乳、乳糖、カカオマス、ココアパウダー）（国内製造）、小麦粉、鶏卵、砂糖、デキストリン、ショートニング、食塩/乳化剤（大豆由来）、膨張剤、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、チョコレート（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽糖水あめ）、ココアパウダー、大豆粉、鶏卵加工品（鶏卵、砂糖）、水あめ、脱脂粉乳、卵黄粉末（卵を含む）、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス／加工でん粉、乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）（大豆を含む）、砂糖、砂糖粉乳調製品（砂糖、全粉乳、脱脂粉乳、ココアバター）、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳／乳化剤（大豆由来）、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、小麦粉、植物油脂、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、植物油脂、小麦粉、カカオマス、ココアバター、いちご果汁パウダー、イースト、ココアパウダー／乳化剤、酸味料、アラビアガム、香料、光沢剤、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>カカオマス（コートジボワール製造又は国内製造又はその他）、砂糖、小麦粉、乳糖、植物油脂、ココアバター、カカオニブ、ココアパウダー、全粉乳、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、砂糖、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、砂糖、植物油脂、全粉乳、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤（大豆由来）、膨脹剤、カラメル色素、香料、重曹、イーストフード</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、たんぱく質濃縮ホエイパウダー、赤唐辛子パウダー、、オニオンパウダー/香料、調味料（アミノ酸等）、着色料（カロチノイド、カラメル）、酸味料、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、水あめ、還元水あめ、ガムベース、酸味料、香料、乳酸カルシウム、軟化剤、アントシアニン色素、緑茶抽出物</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（クチナシ、フラボノイド）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）､ぶどう糖、水あめ､還元水あめ ／ガムベース、酸味料、香料</t>
+  </si>
+  <si>
+    <t>砂糖､ぶどう糖、水あめ､還元水あめ／ガムベース、酸味料、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖（国内製造）、もも果汁、脱脂粉乳、乳酸菌飲料、ピーチソース／酸味料、安定剤（大豆多糖類）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、アセスルファムＫ）、ベニバナ黄色素、野菜色素</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（食塩、砂糖、鶏油、香味油、たん白加水分解物、植物油脂、チキンエキス、香辛料、酵母エキス、チキン調味料、ネギエキス）、かやく（大豆加工品、ねぎ、もやし、コリアンダー）／加工でん粉、調味料（アミノ酸等）、酒精、増粘剤（加工でん粉、増粘多糖類）、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンＥ）、（一部に乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（たん白加水分解物、糖類、食塩、香辛料、牛脂、発酵調味料、植物油脂、醸造酢、トマトケチャップ、ビーフエキス、香味油、酵母エキス）、かやく（大豆加工品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、酒精、香料、香辛料抽出物、増粘多糖類、カラメル色素、乳化剤、酸味料、甘味料（スクラロース、アセスルファムＫ）、酸化防止剤（ビタミンＥ）、（一部にえび・牛肉・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、砂糖、チョコレートチップ、でん粉、鶏卵、ココアパウダー、食塩、スパイス／膨張剤、乳化剤、香料、カロテン色素、（一部に小麦・卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ‐カルニチンＬ‐酒石酸塩、塩化Ｎａ、　　　　　　　ガラナ種子エキス、クエン酸、香料、甘味料（Ｄ‐リボース、スクラロース）、Ｌ‐アルギニン、　　　　クエン酸Ｎａ、カフェイン、保存料（安息香酸）、ナイアシン、着色料（アントシアニン）、　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
+  </si>
+  <si>
+    <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、香味油、砂糖、ぶどう糖、ブラックペパー、でん粉、粉末しょうゆ(小麦・大豆を含む)、食塩、オニオン、魚介エキスパウダー、酵母エキスパウダー/調味料(アミノ酸等)、香辛料抽出物、香料</t>
+  </si>
+  <si>
+    <t>生地(国内製造)(小麦粉、でん粉、ほたてエキスパウダー、えびパウダー、あさりエキスパウダー、砂糖、粉末しょうゆ、植物油、しじみペーストパウダー、かきエキスパウダー)、植物油、デキストリン、ぶどう糖、あさりエキスパウダー、粉末しょうゆ、いわしエキスパウダー、酒粕パウダー、食塩、唐辛子、乳糖/加工デンプン、トレハロース、調味料(アミノ酸等)、酸味料、香料、(一部に乳成分・小麦・えび・かに・さば・大豆・ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、サワークリームオニオン風味パウダー（食塩、ホエイパウダー（乳製品）、砂糖、オニオンパウダー、粉末酢、たんぱく加水分解物、ねぎエキスパウダー、デキストリン、酵母エキスパウダー）、食塩、オニオンパウダー、粉末油脂、砂糖、澱粉／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、酸味料、香料、炭酸Ca、香辛料抽出物、甘味料（スクラロース、ステビア）、酸化防止剤（ビタミンE）、（一部に乳成分を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、粉末油脂、ビーフ風味パウダー（ビーフエキスパウダー、食塩、たんぱく加水分解物、ビーフ風味調味料、乳糖、野菜エキスパウダー、香辛料）、澱粉、酵母エキスパウダー／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、炭酸Ca、香料、甘味料（スクラロース）、酸化防止剤（ビタミンE）、酸味料、（一部に乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、コーングリッツ、小麦粉、粉末油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、ビーフオイル、澱粉、酵母エキスパウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳化剤、炭酸Ca、酸味料、（一部に卵・乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、全粉乳、ココアバター、ライ麦粉、ショートニング、脱脂粉乳、麦芽エキス、いちごパウダー、バター風味調味料、練乳加工品、カラメルソース、食塩、乳化剤、膨脹剤、香料、着色料（ビートレッド、カラメル）、酸味料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉／ガムベース、酸味料、軟化剤、香料、着色料（クチナシ）</t>
+  </si>
+  <si>
+    <t>〈グレープ〉砂糖（国内製造）、水あめ、グレープペースト/酸味料、香料、着色料（アントシアニン、クチナシ）、チャ抽出物 〈オレンジ〉砂糖（国内製造）、水あめ、オレンジペースト/酸味料、香料、着色料（カロテノイド）、チャ抽出物 〈ストロベリー〉砂糖（国内製造）、水あめ、ストロベリーペースト/酸味料、香料、着色料（アントシアニン、カロテノイド）、チャ抽出物 〈メロン〉砂糖（国内製造）、水あめ、濃縮メロン果汁/酸味料、着色料（紅麹、クチナシ）、香料、チャ抽出物</t>
+  </si>
+  <si>
+    <t>アンパンマン：砂糖、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、乳化剤（大豆由来）、香料。ばいきんまん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料。ドキンちゃん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料</t>
+  </si>
+  <si>
+    <t>ビスケット（小麦粉、砂糖、植物油脂、その他：乳を含む）、砂糖、カカオマス、全粉乳、植物油脂、ココアバター、水あめ、膨脹剤、乳化剤（大豆由来）、光沢剤、卵殻カルシウム、香料</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造)、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、野菜色素、香料(乳・大豆由来)</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
+  </si>
+  <si>
+    <t>水飴（国内製造）、砂糖、ゼラチン、粉末オブラート／ソルビット、酸味料、糊料（ペクチン）、光沢剤、香料、乳化剤、着色料（クチナシ、野菜色素、紅花黄、パプリカ色素）</t>
   </si>
 </sst>
 </file>
@@ -868,11 +774,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E615D68-CAB4-47E0-941D-23CC2B10D297}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A164"/>
+  <dimension ref="A1:A145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -886,122 +790,117 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -1011,696 +910,565 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A82" xr:uid="{8E615D68-CAB4-47E0-941D-23CC2B10D297}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ingredients/ingredients.xlsx
+++ b/ingredients/ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4F90E-5404-466A-B5BD-9178911489C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F00E5-FF9C-4AFB-9E2A-4225D93DEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
+    <workbookView xWindow="28680" yWindow="1230" windowWidth="29040" windowHeight="16440" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,48 +28,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
   <si>
     <t>ingredients_ori</t>
   </si>
   <si>
-    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、小麦粉、植物油脂、全粉乳、カカオマス、乳糖、ココアバター、ショートニング、ココアパウダー、加糖脱脂練乳、異性化液糖、生クリーム、食塩／乳化剤、膨脹剤、香料、着色料(カラメル)、（一部に乳成分・小麦・大豆を含む）</t>
+    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、全粉乳、でん粉、カカオマス、ショートニング、加糖れん乳、ココアパウダー、クリームパウダー、モルトエキス、食塩、ココアバター、大豆胚芽エキス／膨脹剤、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
+  </si>
+  <si>
+    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、ショートニング、ココアバター、植物油脂、小麦全粒粉、小麦ふすま、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤(大豆由来)、香料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、小麦パフ、全粉乳、カカオマス、ココアパウダー、マルトデキストリン／乳化剤、光沢剤、香料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、コーングリッツ（分別生産流通管理済み）、全粉乳、カカオマス、ココアパウダー、小麦粉、マルトデキストリン／乳化剤、光沢剤、セルロース、香料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、マーガリン、砂糖、植物油脂、乳糖、麦芽糖、ココアバター、全粉乳、ホエイパウダー、クリームパウダー、食塩、チーズパウダー、抹茶、シナモン／乳化剤（大豆由来）、クチナシ色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖、全粉乳、ココアバター、カカオマス、植物油脂、脱脂粉乳、乳化剤、香料、アカビート色素、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、植物油脂、ショートニング、抹茶、小麦たんぱく、食塩、イースト／乳化剤、香料、調味料（無機塩）、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、カカオマス、植物油脂、全粉乳、ショートニング、モルトエキス、でん粉、食塩、イースト、ココアバター、バター、乳化剤、香料、膨張剤、アナトー色素、調味料（無機塩）、（原材料の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、植物油脂、小麦全粒粉、ココアバター、ショートニング、モルトエキス、小麦たんぱく、食塩、発酵バター、小麦胚芽、イースト／加工デンプン、乳化剤、香料、膨脹剤、酸化防止剤（ヤマモモ抽出物）、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、乳糖、全粉乳、いちごパウダー、小麦全粒粉、ココアパウダー、ショートニング、小麦たんぱく、イヌリン、食塩、イースト、キャラメルパウダー／香料、アカビート色素、乳化剤、調味料（無機塩）、膨脹剤、酸味料、V.C、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、アーモンド、全粉乳、植物油脂、カカオマス、ココアバター、小麦全粒粉、ショートニング、アーモンドプラリネペースト、小麦たんぱく、食塩、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆・アーモンドを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ココナッツ、全粉乳、植物油脂、ココアバター、カカオマス、小麦全粒粉、ショートニング、食塩、小麦たんぱく、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、小麦全粒粉、植物油脂、ショートニング、小麦たんぱく、バター加工品、食塩、イースト、岩塩、バニラビーンズシード／乳化剤、香料、調味料（無機塩）、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、でん粉、乾燥ポテト、野菜ペースト・ブイヨン混合品、イースト、小麦たんぱく、食塩、酒かす、コンソメシーズニング、香味油、こしょう／調味料（無機塩等）、加工デンプン、乳化剤、香料、酸味料、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、トマトペースト、でん粉、醸造酢（トマト酢）、イースト、ベジタブルペースト、オニオンシーズニング、食塩、乾燥ほうれんそう、こしょう／加工デンプン、調味料（無機塩等）、香料、乳化剤、酸味料、香辛料抽出物、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、砂糖、加糖練乳、小麦全粒粉、ショートニング、でん粉、発酵バター、イースト、食塩、バター加工品、乾燥卵黄／加工デンプン、調味料（無機塩）、香料、乳化剤、（一部に卵・乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、砂糖、ショートニング、乾燥ポテト、イースト、食塩、しょうゆシーズニング、黒こしょう、レモン果汁パウダー、酵母エキス／加工デンプン、調味料（アミノ酸等）、酸味料、乳化剤、香料、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、粉末しょうゆ、こんぶエキスパウダー、バター加工品、バター、酵母エキス、こしょう、たんぱく加水分解物／加工デンプン、調味料（アミノ酸等）、乳化剤、香料、着色料（カロチノイド）、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、スモークチーズパウダー、砂糖、小麦たんぱく、食塩、発酵調味料、こしょう、酵母エキス、デキストリン、麦芽糖／調味料（アミノ酸等）、香料、増粘剤（キサンタンガム）、乳化剤、着色料（アナトー色素）、酸味料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、チキンエキスパウダー、香辛料、しょうゆシーズニング、ハーブシーズニング、ガーリックパウダー／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド）、酸味料、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、ホタテシーズニング、こんぶエキスパウダー、たんぱく加水分解物、だしパウダー、唐辛子／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド、カラメル色素）、酸味料、（一部に小麦・いか・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、砂糖混合ブドウ糖果糖液糖、食塩、メロンピューレ、準チョコレート／未焼成Ca、香料、乳化剤、ｐH調整剤、クチナシ色素、甘味料（スクラロース）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>もち米（国内産）、つゆ（醤油、砂糖、食塩、かつお節エキス、発酵調味料、魚醤、醸造酢、昆布）、麦芽糖、もち米粉（タイ産）、発酵調味料、澱粉、イソマルトオリゴ糖、水あめ、アミノ酸液、唐辛子パウダー（ハバネロ使用）／トレハロース、加工澱粉、調味料（アミノ酸等）、酸味料、カロチノイド色素、ソルビトール、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、牛乳、ココアパウダー、カラメルソース、食塩、カカオマス、準チョコレート／香料、カラメル色素、未焼成Ca、乳化剤、甘味料（スクラロース）、トレハロース、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
   </si>
   <si>
     <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、食塩、チキンエキス、ラード、砂糖、香味油脂、たん白加水分解物、植物油、粉末野菜、ポークエキス、香辛料、ねぎ、酵母エキス、発酵調味料）、かやく（ワンタン、味付鶏挽肉、コーン）、加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、増粘多糖類、香料、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（赤１０６）</t>
-  </si>
-  <si>
-    <t>水飴、砂糖、澱粉、餅粉、植物油、ソルビトール、乳化剤、香料、酸味料、着色料（青１、黄４、赤２）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖､香料､酸味料</t>
+    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料（赤唐辛子、ガーリック、ペッパー）、デキストリン、糖類、たん白加水分解物、香味油、酵母エキス、しょうゆ、ローストオニオン粉末、香味調味料）、かやく（味付豚肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、くん液、ビタミンＢ２、香辛料抽出物、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、のり、香辛料）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、カラメル色素、酒精、香料、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･いか･さけ･さば･大豆･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、チキンエキス、たん白加水分解物、香辛料、酵母エキス、ねぎ、ローストオニオン粉末、かつおぶし粉末、香味調味料、植物油脂）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、香料、増粘多糖類、乳化剤、酸化防止剤（ビタミンＥ）、カロチノイド色素、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
   </si>
   <si>
     <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
@@ -78,343 +192,308 @@
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、植物性たん白、しょうゆ）、スープ（しょうゆ、糖類、食塩、動物油脂、ビーフエキス、たん白加水分解物、昆布エキス、鰹エキス）、かやく（かす入り揚げ玉、とろろ昆布、かまぼこ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、リン酸Na、香料、増粘剤（キサンタン）、酸化防止剤（ビタミンE)、カラメル色素、膨脹剤、紅麹色素、クチナシ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>砂糖、ぶどう糖果糖液糖(国内製造)/炭酸ガス、酸味料、香料</t>
+    <t>小麦粉（国内製造）、砂糖、乳糖、加工油脂、還元水あめ、さつまいもパウダー、卵、マーガリン、植物油脂、乳等を主要原料とする食品（バター、乳糖、カゼインカルシウム、食塩）、脱脂粉乳、食塩、麦芽糖、小麦ファイバー、水あめ／着色料（クチナシ、アナトー）、乳化剤（大豆由来）、結晶セルロース、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、加工油脂、脱脂粉乳、ぶどう糖果糖液糖、カカオマス、ココアパウダー、卵、加糖脱脂練乳、マーガリン、ココアバター、水あめ、植物油脂、乳糖、食塩、麦芽糖、ぶどう糖／着色料（カラメル、アナトー）、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、加工油脂、乳糖、全粉乳、ぶどう糖果糖液糖、卵、加糖脱脂練乳、マーガリン、いちごパウダー、水あめ、植物油脂、食塩、麦芽糖、ぶどう糖／乳化剤（大豆由来）、酸味料、着色料（紅麹、アカビート、アナトー）、香料</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）、小麦粉、植物油脂、乳糖、砂糖、くりパウダー、ココアパウダー、イースト、全粉乳、カカオマス、ココアバター／乳化剤、香料、カラメル色素、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）（国内製造）、小麦粉、植物油脂、乳糖、砂糖、さつまいもパウダー、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、香料、重曹、イーストフード、クチナシ色素、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、砂糖、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、ココアパウダー、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、カラメル色素、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、砂糖、植物油脂、全粉乳、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤（大豆由来）、膨脹剤、カラメル色素、香料、重曹、イーストフード</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）</t>
   </si>
   <si>
     <t>緑茶（国産）／ビタミンＣ</t>
   </si>
   <si>
-    <t>大麦（六条大麦（カナダ、国産）、二条大麦）/粗製海水塩化マグネシウム、ビタミンＣ</t>
-  </si>
-  <si>
-    <t>砂糖、粉末麦芽調製品（混合麦芽エキス、砂糖、ココアパウダー、脱脂粉乳、植物油脂、乳清カルシウム）、モルトエキス、ココアパウダー、脱脂粉乳、乳化剤、炭酸カルシウム、炭酸マグネシウム、ビタミンC、ビタミンD、ｐH調整剤、ピロリン酸鉄、レシチン（大豆由来）、ナイアシン、ビタミンB1、酸化防止剤（ビタミンE）、ビタミンB2、ビタミンA</t>
-  </si>
-  <si>
-    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、カカオマス、全粉乳、植物油脂、ショートニング、マーガリン（乳成分を含む）、乳糖、バター、ココアバター、脱脂粉乳、加糖練乳、液全卵、うるちひえパフ、ごま、ぶどう糖、食塩、乾燥卵白（卵を含む）／リン酸Ca、乳化剤（大豆由来）、膨脹剤、香料（乳由来）、着色料（カロテノイド）、ビタミンＤ</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（カラメル、フラボノイド）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、ソース(砂糖、野菜・果実、醸造酢、食塩、アミノ酸液、その他)、砂糖、食塩、ソース風味パウダー、香辛料、アオサ粉、野菜パウダー、ミート調味エキス、野菜エキス、魚介エキス、魚醤パウダー（魚介類）／加工デンプン、調味料(アミノ酸等)、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤(ビタミンE)、香辛料抽出物、（一部に小麦・卵・乳成分・魚醤パウダー（魚介類）・牛肉・さば・大豆・鶏肉・豚肉・もも・りんごを含む）</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖（国内製造）/炭酸、酸味料、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉、ピーチ果汁／ガムベース、酸味料、軟化剤、香料、着色料（カラメル、アントシアニン、紅花黄、クチナシ）</t>
-  </si>
-  <si>
-    <t>＜れもん＞水あめ（国内製造）、砂糖、ゼラチン、濃縮レモン果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、紅花色素、光沢剤＜コーラ＞水あめ（国内製造）、砂糖、ゼラチン、コーラナッツエキス、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、カラメル色素、香料、乳化剤、光沢剤＜ソーダ＞水あめ（国内製造）、砂糖、ゼラチン、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、クチナシ色素、乳化剤、光沢剤＜ぶどう＞水あめ（国内製造）、砂糖、ゼラチン、濃縮グレープ果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、着色料（ブラックキャロットジュース、クチナシ）、乳化剤、光沢剤</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、加糖れん乳、食塩、ハチミツ、バター／ソルビトール、未焼成Ca、香料、乳化剤、甘味料（アドバンテーム）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>うるち米粉（国産、タイ産）、植物油脂、砂糖、チーズ粉末、食塩、たまねぎ粉末、トマト粉末、にんにく粉末、酵母エキス粉末、バジル粉末、たんぱく加水分解物（大豆を含む）、チキンエキス粉末、唐辛子粉末、白こしょう粉末、大豆たんぱく、黒こしょう粉末、香味油(小麦・大豆を含む)／加工デンプン、調味料（アミノ酸等）、香料（乳・小麦・大豆・鶏肉由来）、乳化剤(大豆由来)、酸味料、酸化防止剤（ビタミンE）、着色料（カロテノイド）、微粒酸化ケイ素、香辛料抽出物、リン酸三カルシウム</t>
-  </si>
-  <si>
-    <t>○ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）○オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素○グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素○コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
-  </si>
-  <si>
-    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
-  </si>
-  <si>
-    <t>砂糖類（砂糖（国内製造）、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／炭酸、リン酸、クエン酸Ｎａ、カラメル色素、クエン酸、保存料（安息香酸Ｎａ）、香料、Ｌ－アルギニン、カフェイン、ナイアシン、甘味料（スクラロース）、イノシトール、　　　　　ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、スモークチーズパウダー、砂糖、小麦たんぱく、食塩、発酵調味料、こしょう、酵母エキス、デキストリン、麦芽糖／調味料（アミノ酸等）、香料、増粘剤（キサンタンガム）、乳化剤、着色料（アナトー色素）、酸味料、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、乾燥ポテト、でん粉、野菜エキスシーズニング、食塩、えだまめパウダー／トレハロース、調味料（アミノ酸等）、香料、乳化剤、クチナシ色素、酸味料、甘味料（スクラロース）、（一部に乳成分・小麦・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>水あめ、砂糖、植物油脂、ゼラチン、濃縮ストロベリー果汁、加糖練乳、ストロベリージャム、乳酸菌飲料、酸味料、乳化剤、香料、アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>砂糖、水あめ、植物油脂、ラムネ菓子（エリスリトール、ポリデキストロース）、ゼラチン、デキストリン、濃縮レモン果汁、酸味料、乳化剤、香料、ステアリン酸カルシウム、ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮りんご果汁／酸味料、グリセリン、香料、乳化剤、ベニバナ黄色素、クチナシ青色素</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、ポークエキス、香辛料、トマトペースト、デキストリン、糖類、しょうゆ、たん白加水分解物、酵母エキス、ローストオニオン粉末、醸造酢、豚脂、香味調味料）、かやく（豚･鶏味付肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、かんすい、増粘多糖類、ソルビット、酒精、香料、グリセリン、カロチノイド色素、酸化防止剤（ビタミンＥ）、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、のり、香辛料）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、カラメル色素、酒精、香料、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･いか･さけ･さば･大豆･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［みそ、しょうゆ、植物油脂、発酵調味料、にんにく、砂糖、食塩、すりごま、たん白加水分解物、酵母エキス、香辛料／酒精、カラメル色素、調味料（有機酸等）、酸味料、（一部に大豆・ごまを含む］</t>
-  </si>
-  <si>
-    <t>麺［米粉（国産）、馬鈴薯でん粉／加工デンプン、アルギン酸エステル、ビタミンＢ２］、スープ［クリーミングパウダー、発酵調味料、食塩、たん白加水分解物、しょうゆ、植物油脂、砂糖、酵母エキス、ハクサイエキスパウダー、ガーリックパウダー、醸造酢、香辛料／カラメル色素、増粘剤（グァーガム）、調味料（有機酸等）、（一部に乳・大豆を含む］</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
-  </si>
-  <si>
-    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）／加工でんぷん、乳化剤（大豆由来）貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
-  </si>
-  <si>
-    <t>小麦粉・ショートニング・砂糖・全粒粉・乳糖・乳頭を主原料とする食品・乾燥全卵・でんぷん・食塩・膨張剤・香料・乳化剤</t>
-  </si>
-  <si>
-    <t>小麦粉・ショートニング・砂糖・ココアパウダー・乳糖・乳糖を主原料とする食品・乾燥全卵・でんぷん・食塩・炭酸カルシウム 膨張剤・香料・乳化剤</t>
-  </si>
-  <si>
-    <t>野菜（じゃがいも（国産）、にんじん、コーン）、大豆油、豚肉、小麦粉ルウ、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、醤油、トマトペースト、食塩、チキンエキス調味料、ミルポワペースト、チーズパウダー、酵母エキスパウダー／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>欄外裏面に記載［たまご］小麦粉（国内製造）、いりごま、乳糖、砂糖、卵黄粉末、食塩、加工油脂、すりごま、大豆加工品、鰹削り節、こしあん、還元水あめ、エキス（チキン、酵母、鰹節、魚介）、鶏肉粉末、みそ、海藻カルシウム、のり、醤油、鶏脂、乳製品、ぶどう糖果糖液糖、イースト、みりん、あおさ、抹茶、デキストリン／調味料（アミノ酸）、卵殻カルシウム、酸化防止剤（ビタミンＥ）、カロチノイド色素、香料、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉を含む）［さけ］いりごま（国内製造）、乳糖、大豆加工品、砂糖、食塩、小麦粉、加工油脂、鮭、すりごま、卵黄粉末、還元水あめ、こしあん、海藻カルシウム、エキス（チキン、酵母）、鶏肉粉末、みそ、香味油、のり、鶏脂、醤油、乳製品、ぶどう糖果糖液糖、イースト／調味料（アミノ酸等）、卵殻カルシウム、着色料（紅麹、カロチノイド）、酸化防止剤（ビタミンＥ）、香料、（一部に卵・乳成分・小麦・ごま・さけ・大豆・鶏肉を含む）［おかか］いりごま（国内製造）、乳糖、鰹削り節、砂糖、食塩、小麦粉、すりごま、加工油脂、醤油、還元水あめ、大豆加工品、卵黄粉末、鰹節粉、エキス（チキン、鰹節、酵母</t>
-  </si>
-  <si>
-    <t>スイートコーンパウダー（アメリカ製造）、でん粉、砂糖、デキストリン、食塩、全粉乳、乳糖、脱脂粉乳、エキス（チキン、酵母、オニオン）、うきみ（クラッカー）／調味料（アミノ酸）、膨張剤、カカオ色素、（一部に乳成分・小麦・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>野菜（じゃがいも（国産）、にんじん）、ソテーオニオン、豚肉、砂糖、エキス（ポーク、酵母）、カレー粉、トマトペースト、ポテト粉末、食塩、なたね油、かぼちゃペースト、ほうれん草ペースト、コーンペースト／増粘剤（加工でん粉）、（一部に豚肉を含む）</t>
-  </si>
-  <si>
-    <t>野菜（じゃがいも、にんじん、コーン、玉ねぎ、かぼちゃ、グリーンアスパラガス）、豚肉、小麦粉、マーガリン、はちみつ、砂糖、カレー粉、食塩、エキス（ポーク、酵母）、豚脂、トマトペースト、チーズ、コーン油、増粘剤（加工澱粉）、調味料（アミノ酸）、セルロース、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>鶏肉（国産）、鶏卵、玉ねぎ、砂糖、発酵調味料、食塩、醤油、エキス（チキン、酵母）、鰹節粉、鶏脂／増粘剤（加工でん粉、キサンタン）、調味料（アミノ酸等）、トレハロース、カロチノイド色素、（一部に卵・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>トマトペースト（ポルトガル製造）、砂糖、ミルポワペースト、ウスターソース、りんごペースト、小麦粉ルウ、ソテーオニオン、チキンエキス、大豆油、食塩、粒状植物性たん白、牛肉、酵母エキスパウダー、かぼちゃペースト、グリーンアスパラガスペースト、コーンペースト／増粘剤（加工でん粉）、調味料（アミノ酸）、カラメル色素、（一部に小麦・牛肉・大豆・鶏肉・りんごを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、マーガリン、砂糖、小麦全粒粉、発酵風味液、食塩、殺菌乳酸菌末／香料、カロテン色素、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
+  </si>
+  <si>
+    <t>（レモン味）砂糖（国内製造）、水飴、濃縮レモン果汁、ハーブエキス（オレンジを含む）
+（ピーチ味）砂糖（国内製造）、水飴、濃縮ピーチ果汁、ハーブエキス（オレンジを含む）
+（グレープ味）砂糖（国内製造）、水飴、濃縮グレープ果汁、ハーブエキス（オレンジを含む）
+（オレンジ味）砂糖（国内製造）、水飴、濃縮オレンジ果汁、ハーブエキス（オレンジを含む）
+（青りんご味）砂糖（国内製造）、水飴、濃縮りんご果汁、ハーブエキス（オレンジを含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（食塩、砂糖、鶏油、香味油、たん白加水分解物、植物油脂、チキンエキス、香辛料、酵母エキス、チキン調味料、ネギエキス）、かやく（大豆加工品、ねぎ、もやし、コリアンダー）／加工でん粉、調味料（アミノ酸等）、酒精、増粘剤（加工でん粉、増粘多糖類）、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンＥ）、（一部に乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（たん白加水分解物、糖類、食塩、香辛料、牛脂、発酵調味料、植物油脂、醸造酢、トマトケチャップ、ビーフエキス、香味油、酵母エキス）、かやく（大豆加工品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、酒精、香料、香辛料抽出物、増粘多糖類、カラメル色素、乳化剤、酸味料、甘味料（スクラロース、アセスルファムＫ）、酸化防止剤（ビタミンＥ）、（一部にえび・牛肉・大豆を含む）</t>
+  </si>
+  <si>
+    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産、タイ産）、植物油脂、粉末醸造酢、砂糖、食塩、酵母エキス粉末、香辛料（ごまを含む）、チキンエキス粉末、粉末しょうゆ（小麦・大豆を含む）、でん粉、デキストリン／加工デンプン、香料（鶏肉由来）、調味料（アミノ酸等）、酸味料、酸化防止剤（ビタミンＥ）、微粒酸化ケイ素、着色料（カロテン）、香辛料抽出物、ビタミンＢ１、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、えび粉末、えび塩風味パウダー、食塩、ローストしょうゆパウダー／加工デンプン、炭酸Ca、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンC）、乳化剤、香料、カラメル色素、（一部にえび・小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造）、カカオマス、乳糖、全粉乳、ココアバター、植物油脂、/乳化剤、香料、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ（国内製造）、植物油脂、イヌリン(食物繊維)、全粉乳、砂糖、ココアパウダー、カカオマス／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
+  </si>
+  <si>
+    <t>レーズン（アメリカ製造）、カカオマス、砂糖、ココアバター、ココアパウダー、全粉乳、マルトデキストリン、植物油脂／光沢剤、乳化剤、香料、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、カカオマス、小麦全粒粉、全粉乳、でん粉、水あめ、乳糖、小麦胚芽、ココアパウダー、脱脂粉乳、食塩／膨脹剤、乳化剤、香料、（一部に卵・乳成分・小麦・大豆・アーモンドを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、カカオマス、全粉乳、パフ（コーングリッツ、でん粉、砂糖）、乳糖、ココアパウダー／乳化剤、香料、膨脹剤、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、ファットスプレッド、マーガリン、乳等主要原料とする食品、バター、食塩、白ごまペースト、炭酸カルシウム、膨脹剤、加工でん粉、香料、着色料（カラメル、カロチン）調味料（アミノ酸）、（一部に乳成分・小麦・大豆・ごまを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、植物油脂、乳糖、デキストリン、ココアバター、小麦粉、全粉乳、脱脂粉乳、ホエイパウダー、小麦パフ、チーズパウダー、バターオイル、牛乳、マーガリン、ショートニング、ヨーグルトパウダー、レモン果汁パウダー、食塩、ぶどう糖果糖液糖、発酵風味液、たんぱく質濃縮ホエイパウダー／乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>昆布（北海道産）、醸造酢、かつおぶしエキス、発酵調味料、たんぱく加水分解物/調味料（アミノ酸等）、ソルビトール、酸味料、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、着色料（クチナシ、野菜色素）、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、野菜色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴（国内製造）、乾燥ゆず皮、食用油脂／酸味料、香料、クチナシ色素、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、添付調味料（植物油脂、食塩、ビーフ調味料、砂糖、でん粉、ポーク調味料、粉末しょうゆ、チキンエキス、たん白加水分解物、胡椒、酵母エキス）、かやく入り添付調味料（乳化油脂、ぶどう糖、チーズパウダー、にんにく、大豆加工品、乳等を主要原料とする食品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、カラメル色素、かんすい、微粒二酸化ケイ素、酸味料、香辛料抽出物、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、カロチノイド色素、アカビート色素、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ジャム（砂糖、いちご、水あめ）、ショートニング、砂糖、鶏卵、加糖練乳、脱脂粉乳、乳等を主要原料とする食品、澱粉分解物、食塩、チーズパウダー／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、紅麹色素、リン酸Ca、（一部に小麦・卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ジャム（砂糖、水あめ、ブルーベリー）、砂糖、ショートニング、鶏卵、乳等を主要原料とする食品、加糖練乳、プロセスチーズ、食塩／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、（一部に小麦・卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、ぶどうソース、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、紅茶エキスパウダー、脱脂粉乳、酒精飲料/トレハロース、乳化剤（大豆由来）、酸味料、香料（乳・大豆由来）、着色料（カラメル、野菜色素、クチナシ、紅花黄、紅麹）、環状オリゴ糖、増粘剤（ペクチン）</t>
+  </si>
+  <si>
+    <t>大豆（アメリカ）、納豆菌]、植物油脂、しょうゆ風味パウダー（粉末しょうゆ、食塩、コーンスターチ、デキストリン、その他)（小麦・さばを含む）／調味料（アミノ酸等）、香料</t>
+  </si>
+  <si>
+    <t>ブドウ糖（国内製造）、コーンスターチ、澱粉分解物／酸味料、香料、着色料（アントシアニン、クチナシ、アナトー、スピルリナ青）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、マルチトール、麦芽糖、クリーミングパウダー（水あめ、植物油脂、カゼイン（乳成分を含む））、デキストリン、濃縮梅果汁、ゼラチン、梅パウダー、希少糖含有シロップ、梅エキス、食物繊維、梅干エキスパウダー／酸味料、増粘剤（アラビアガム）、アントシアニン色素、香料、光沢剤</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、卵黄、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・卵・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、チェダーチーズパウダー/セルロース、乳化剤、パプリカ色素、香料、（原料の一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ピーナッツ（アメリカ）、砂糖、小麦粉、寒梅粉、澱粉、米粉、食塩、ガラクトオリゴ糖／膨張剤、炭酸カルシウム、着色料（クチナシ）、ピロリン酸鉄、 （一部に乳成分・小麦・落花生を含む）</t>
+  </si>
+  <si>
+    <t>マルトース（国内製造）、水飴、砂糖、もち粉、全粉乳、植物油脂、カカオマス、ココアパウダー、クリーム（乳成分を含む）、デキストリン、洋酒、乳糖 / トレハロース、乳化剤（大豆由来）、着色料（カラメル）、調味料（アミノ酸）、加工デンプン、香料、カゼインNa（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、カカオマス、植物油脂、全粉乳、アーモンド、ココアバター、脱脂粉乳、米パフ、　 乳糖、バターオイル／乳化剤（大豆由来）、香料（アーモンド由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、植物油脂、全粉乳、カカオマス、ココアバター、脱脂粉乳、乳糖、いちご粉末／トレハロース、乳化剤（大豆由来）、香料（アーモンド由来）、着色料（ビートレッド）、酸味料</t>
+  </si>
+  <si>
+    <t>＜ストロベリーチョコレート＞砂糖（外国製造）、植物油脂、乳糖、全粉乳、ココアバター、カカオマス、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）、乾燥いちご／香料、乳化剤（大豆由来）、酸味料、着色料（アカダイコン）、膨脹剤 ＜クリスプチョコレート＞砂糖（外国製造、国内製造）、植物油脂、カカオマス、乳糖、全粉乳、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）／乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、乳糖、砂糖、ココアクッキークランチ（小麦粉、砂糖、ショートニング、ココアパウダー、デキストリン、ぶどう糖果糖液糖、カカオマス、ホエイパウダー、食塩）、ココアバター、全粉乳、小麦粉、ホエイパウダー、クリームチーズパウダー、でん粉、クリームパウダー、モルトエキス、食塩／乳化剤（大豆由来）、トレハロース、香料、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は韓国製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
+  </si>
+  <si>
+    <t>＜きゅんベリー味（丸型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素＜甘ずっぱいきゅんベリー味（ハート型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、砂糖、粉末醤油、デキストリン、粉末みそ、ハバ ネロパウダー、チキンエキスパウダー、食塩、たん白加水分解物、酵母エキスパウダー、乳糖／調味料（アミノ酸等）、香辛料抽出物、香料、パプリカ色素、甘味料（ステビア、カンゾウ）、酸味料、（一部に小麦・乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（食塩、糖類、チキン調味料、たまねぎ加工品、しょうゆ、香辛料、酵母エキス、野菜調味料、発酵調味料）、かやく（キャベツ、鶏・豚味付肉そぼろ、フライドオニオン、にんじん）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、トレハロース、香料、かんすい、レシチン、微粒二酸化ケイ素、酸味料、クチナシ色素、酸化防止剤（ビタミンＥ、ビタミンＣ）、ビタミンＢ２、ビタミンＢ１、パプリカ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（糖類、食塩、チキン調味料、でん粉、粉末レモン果汁、香辛料、酵母エキス、植物油脂、野菜粉末）、かやく（キャベツ、味付鶏肉そぼろ、味付卵、赤ピーマン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、香料、トレハロース、酸味料、微粒二酸化ケイ素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、カラメル色素、カロチン色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>難消化性デキストリン（中国製造）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、ガラナ種子エキス／炭酸、クエン酸、クエン酸Ｎａ、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、カフェイン、甘味料（スクラロース、アセスルファムＫ、ステビア）、ナイアシン、パントテン酸Ｃａ、イノシトール、ビタミンＢ６、着色料（黄色４号、黄色５号）、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、砂糖、ぶどう糖、香辛料、食塩、チキンエキスパウダー、野菜エキスパウダー(乳成分・大豆・豚肉・ゼラチンを含む)、たんぱく加水分解物(大豆を含む)、オリゴ糖/調味料(アミノ酸等)、パプリカ色素、酸味料、香辛料抽出物、カラメル色素、香料</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、麻婆豆腐風味パウダー（グラニュー糖、粉末しょうゆ、粉末みそ、ポーク風味調味料、たんぱく加水分解物、その他）、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、乳化剤、パプリカ色素、酸化防止剤（ビタミンE)、甘味料（ステビア、カンゾウ）、酸味料、香辛料抽出物、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、しょうゆラーメン風味パウダー、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンE)、甘味料（ステビア）、香辛料抽出物、（一部に小麦・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、メロン果汁パウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、クチナシ、紅花黄）、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>還元水飴（国内製造）、還元麦芽糖、砂糖、食物繊維（ポリデキストロース）、水飴、還元麦芽糖水飴、ゼラチン、こんにゃく粉、澱粉／酸味料、香料、炭酸カルシウム、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>澱粉（国内製造）、砂糖、デキストリン、濃縮いちご果汁／甘味料（キシリトール、アスパルテーム・Ｌ‐フェニルアラニン化合物、アセスルファムＫ）、酸味料、香料、増粘剤（アラビアガム）、着色料（赤色４０号）</t>
+  </si>
+  <si>
+    <t>砂糖、水飴、乾燥いちご加工品、いちご果汁、ハーブエキス／酸味料、香料、アントシアニン色素</t>
+  </si>
+  <si>
+    <t>トマト、ハラペーニョ、玉ねぎ、醸造酢、食塩、乾燥玉ねぎ、ガーリックパウダー／香辛料抽出物、塩化カルシウム、クエン酸</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩 / 膨脹剤、調味料（アミノ酸等）、甘味料（甘草）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（濃厚ソース、砂糖、植物油脂、発酵調味料、豚脂、食塩、ポーク調味料、しょうゆ加工品、魚介エキス、カツオ調味料、香味調味料、香味油）、特製ペースト（半固体状ドレッシング、紅しょうが、果糖ぶどう糖液糖、還元水飴、醸造酢、食塩、植物油脂、全卵粉、酵母エキス、でん粉）、かやく（キャベツ）、ふりかけ（カツオブシ、あおさ）／加工でん粉、カラメル色素、調味料（アミノ酸等）、炭酸Ｃａ、増粘剤（加工でん粉、増粘多糖類）、酸化防止剤（ビタミンＥ）、カロチノイド色素、かんすい、乳化剤、甘味料（カンゾウ、スクラロース、アセスルファムＫ）、酸味料、香料、野菜色素、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・りんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ(国内製造)、植物油、砂糖、ぶどう糖、食塩、チーズパウダー、粉末油脂、ホエイパウダー、香辛料、オリゴ糖／調味料(アミノ酸等)、香料、カロチノイド色素、香辛料抽出物、くん液、(一部に乳成分・大豆を含む)</t>
+  </si>
+  <si>
+    <t>生地(国内製造)(小麦粉、でん粉、えびエキスパウダー、えびパウダー、砂糖、 乾燥えび、発酵調味液、植物油、かつお節)、植物油、デキストリン、ぶどう糖、 魚介エキスパウダー、食塩、粉末しょうゆ、唐辛子、酵母エキスパウダー/加工デンプン、 調味料(アミノ酸等)、トレハロース、甘味料(スクラロース)、(一部に乳成分・小麦・えび・大豆・ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、米粉（うるち米（国産、米国産））、でん粉、食塩、魚介エキスパウダー（えびを含む）、砂糖、えび、デキストリン、粉末しょう油（小麦・大豆を含む）、香味油（えびを含む）、酵母エキス粉末／加工でん粉、調味料（アミノ酸等）、着色料（紅麹、カラメル）、酸味料</t>
+  </si>
+  <si>
+    <t>砂糖、カカオマス、全粉乳、ココアバター、植物油脂、乳化剤（大豆を含む）、光沢剤、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、濃縮日本なし果汁、ゼラチン、還元難消化性デキストリン、植物油脂、でん粉／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>うるち米（国産、米国産）、植物油、砂糖、レモンシーズニング、しょうゆ、果糖ぶどう糖液糖、酵母エキス、食塩／加工でん粉、調味料（アミノ酸等）、酸味料、香料、カラメル色素、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、りんごパウダー、脱脂粉乳、エリスリトール、ドライクレープ（乳成分・小麦を含む）、キャラメルパウダー（乳成分を含む）/乳化剤（大豆由来）、香料（乳・大豆由来）、着色料（紅麹、クチナシ）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、植物油脂、ポテトペレット（乾燥ポテト、でん粉、食塩）、カカオマス、ココアパウダー、全粉乳／乳化剤（大豆由来）、香料、着色料（ウコン）、酸化防止剤（ビタミンE、ビタミンC)</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、脱脂粉乳、オレンジ濃縮果汁、洋酒(カシスリキュール）、デキストリン、クリーミングパウダー（乳成分を含む）／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳・アーモンド由来）、酸味料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造）、カカオマス、小麦粉、液全卵、植物油脂、マーガリン（乳成分を含む）、ココアパウダー、ショートニング、加糖練乳、全粉乳、乳糖、ココアバター、食塩、洋酒／ソルビトール、酒精、乳化剤（大豆由来）、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、液全卵、小麦粉、植物油脂、マーガリン（乳成分を含む）、チーズ粉末（カマンベールチーズ粉末、ゴーダチーズ粉末、クリームチーズ粉末）、ショートニング、コーンスターチ、食用加工油脂、クリームチーズ、ミルクシロップ、全粉乳、還元水飴、乾燥全卵、ホエイパウダー（乳成分を含む）、レモン濃縮果汁、水飴、乳糖、洋酒、デキストリン、ココアバター／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳由来）、膨脹剤、増粘剤（ペクチン：りんご由来）、酸味料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、マーガリン（乳成分を含む）、バター、ココナッツ、液全卵、加糖脱脂練乳、食塩、植物油脂　／　香料（乳由来）、膨脹剤、乳化剤（大豆由来）、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、植物油脂、全粉乳、小麦全粒粉、カカオマス、ココアパウダー、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤（大豆由来）、香料、着色料（アナトー）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂 還元水飴、白あん（生あん、砂糖、還元水飴、寒天、食塩）、 カカオマス、水飴、液全卵、ココアパウダー、乳糖、全粉乳 デキストリン、食塩、脱脂粉乳／ソルビトール、 加工デンプン、乳化剤（大豆由来）、着色料（カラメル） 香料、膨張剤、増粘剤（カラギーナン）</t>
+  </si>
+  <si>
+    <t>準チョコレート（植物油脂、砂糖、カカオマス、全粉乳、ココアパウダー）（国内製造）、小麦粉、砂糖、植物油脂、ショートニング、転化糖蜜、加糖れん乳、ココアパウダー、食塩（宮古島産塩38％使用）、全粉乳、ごま、コラーゲン／膨脹剤、着色料（カラメル）、乳化剤、炭酸Ca、香料、（一部に小麦・乳成分・大豆・ごま・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、食用油脂（パーム油、ラード、なたね油）、食塩）、スープ（食塩、砂糖、キムチ風味調味料、粉末しょうゆ、香辛料、ごま、粉末みそ、ポークエキスパウダー、オイスターエキスパウダー、たまねぎ、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、酸味料、かんすい、増粘多糖類、微粒二酸化ケイ素、酸化防止剤（V.E）、（一部に小麦、ごま、大豆、豚肉、魚醤（魚介類）を含む）</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ（国内製造）、砂糖、植物油脂、乳糖、全粉乳、カカオマス、ココアパウダー／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造）、ビスケット（小麦を含む）、カカオマス、植物油脂、全粉乳、ココアバター、水あめ、シーズニングパウダー（デキストリン、黒トリュフ塩、砂糖、食塩、ガーリックパウダー、大豆たんぱく加水分解物、白こしょうパウダー、ナツメグパウダー）、バターオイル、ヘーゼルナッツペースト／乳化剤、膨脹剤、香料、光沢剤、調味料（アミノ酸等）、着色料（金箔）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、加糖練乳、砂糖、加糖脱脂練乳、植物油脂、小麦たんぱく加水分解物、バター、食塩／ソルビトール、香料、乳化剤（大豆由来）、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮すいか果汁／酸味料、香料、グリセリン、乳化剤、ベニバナ黄色素、アカキャベツ色素、クチナシ青色素、パプリカ色素</t>
+  </si>
+  <si>
+    <t>コーンフレーク（コーングリッツ（とうもろこし（アメリカ産））、砂糖、食塩）、砂糖、植物油脂、全粉乳、カカオマス、ココアパウダー／香料、炭酸カルシウム、乳化剤（大豆由来）、ピロリン酸鉄</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、ココナッツ、食塩、レモンパウダー、脱脂粉乳／酸味料、膨張剤、乳化剤（大豆由来）、香料</t>
   </si>
   <si>
     <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
   </si>
   <si>
-    <t>砂糖（国内製造、外国製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、小麦全粒粉、乳等を主要原料とする食品（はっ酵バター、植物油脂、バターオイル、脱脂粉乳、食塩）、脱脂粉乳、クリームパウダー、食塩／膨脹剤、カラメル色素、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>水飴（国内製造）、砂糖、ゼラチン、でんぷん／ソルビトール、酸味料、マンニトール、増粘剤（ペクチン）、香料、光沢剤、着色料(アントシアニン、クチナシ、紅麹、カラメル、紅花黄、カロチン)、乳化剤、（一部にゼラチンを含む） 本品製造ラインでは、乳成分を含む製品を生産しています。</t>
-  </si>
-  <si>
-    <t>【青リンゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮青リンゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（黄色４号、青色１号）、（一部にりんご・ゼラチンを含む）　【レモン】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮レモン果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、着色料（黄色４号）、（一部にゼラチンを含む）　【グレープ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮グレープ果汁／酸味料、香料、ゲル化剤（ペクチン）、光沢剤、甘味料（アセスルファムＫ、ステビア）、着色料（赤色４０号、青色１号）、（一部にゼラチンを含む）　【イチゴ】砂糖（国内製造）、水飴、ゼラチン、果糖ぶどう糖液糖、濃縮イチゴ果汁／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、着色料（赤色４０号）、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸味料、酸化防止剤（Ｖ．Ｃ、Ｖ．Ｅ）、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、植物油脂（大豆を含む）、全粉乳、乳糖、カカオマス、ココアパウダー）（国内製造）、小麦粉、鶏卵、砂糖、デキストリン、ショートニング、食塩/乳化剤（大豆由来）、膨張剤、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、チョコレート（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽糖水あめ）、ココアパウダー、大豆粉、鶏卵加工品（鶏卵、砂糖）、水あめ、脱脂粉乳、卵黄粉末（卵を含む）、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス／加工でん粉、乳化剤（大豆由来）、香料、膨脹剤</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）（大豆を含む）、砂糖、砂糖粉乳調製品（砂糖、全粉乳、脱脂粉乳、ココアバター）、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳／乳化剤（大豆由来）、香料（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、小麦粉、植物油脂、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、植物油脂、小麦粉、カカオマス、ココアバター、いちご果汁パウダー、イースト、ココアパウダー／乳化剤、酸味料、アラビアガム、香料、光沢剤、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>カカオマス（コートジボワール製造又は国内製造又はその他）、砂糖、小麦粉、乳糖、植物油脂、ココアバター、カカオニブ、ココアパウダー、全粉乳、イースト／乳化剤、アラビアガム、光沢剤、重曹、イーストフード、香料、（一部に小麦・乳成分・大豆を含む</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、砂糖、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、砂糖、植物油脂、全粉乳、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤（大豆由来）、膨脹剤、カラメル色素、香料、重曹、イーストフード</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、たんぱく質濃縮ホエイパウダー、赤唐辛子パウダー、、オニオンパウダー/香料、調味料（アミノ酸等）、着色料（カロチノイド、カラメル）、酸味料、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ、ガムベース、酸味料、香料、乳酸カルシウム、軟化剤、アントシアニン色素、緑茶抽出物</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、水あめ、還元水あめ/ガムベース、酸味料、香料、軟化剤、着色料（クチナシ、フラボノイド）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）､ぶどう糖、水あめ､還元水あめ ／ガムベース、酸味料、香料</t>
-  </si>
-  <si>
-    <t>砂糖､ぶどう糖、水あめ､還元水あめ／ガムベース、酸味料、香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
-  </si>
-  <si>
-    <t>果糖ぶどう糖液糖（国内製造）、もも果汁、脱脂粉乳、乳酸菌飲料、ピーチソース／酸味料、安定剤（大豆多糖類）、香料、甘味料（アスパルテーム・Ｌ－フェニルアラニン化合物、アセスルファムＫ）、ベニバナ黄色素、野菜色素</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（食塩、砂糖、鶏油、香味油、たん白加水分解物、植物油脂、チキンエキス、香辛料、酵母エキス、チキン調味料、ネギエキス）、かやく（大豆加工品、ねぎ、もやし、コリアンダー）／加工でん粉、調味料（アミノ酸等）、酒精、増粘剤（加工でん粉、増粘多糖類）、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンＥ）、（一部に乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（たん白加水分解物、糖類、食塩、香辛料、牛脂、発酵調味料、植物油脂、醸造酢、トマトケチャップ、ビーフエキス、香味油、酵母エキス）、かやく（大豆加工品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、酒精、香料、香辛料抽出物、増粘多糖類、カラメル色素、乳化剤、酸味料、甘味料（スクラロース、アセスルファムＫ）、酸化防止剤（ビタミンＥ）、（一部にえび・牛肉・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ショートニング、砂糖、チョコレートチップ、でん粉、鶏卵、ココアパウダー、食塩、スパイス／膨張剤、乳化剤、香料、カロテン色素、（一部に小麦・卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ‐カルニチンＬ‐酒石酸塩、塩化Ｎａ、　　　　　　　ガラナ種子エキス、クエン酸、香料、甘味料（Ｄ‐リボース、スクラロース）、Ｌ‐アルギニン、　　　　クエン酸Ｎａ、カフェイン、保存料（安息香酸）、ナイアシン、着色料（アントシアニン）、　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
-  </si>
-  <si>
-    <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
-  </si>
-  <si>
-    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、香味油、砂糖、ぶどう糖、ブラックペパー、でん粉、粉末しょうゆ(小麦・大豆を含む)、食塩、オニオン、魚介エキスパウダー、酵母エキスパウダー/調味料(アミノ酸等)、香辛料抽出物、香料</t>
-  </si>
-  <si>
-    <t>生地(国内製造)(小麦粉、でん粉、ほたてエキスパウダー、えびパウダー、あさりエキスパウダー、砂糖、粉末しょうゆ、植物油、しじみペーストパウダー、かきエキスパウダー)、植物油、デキストリン、ぶどう糖、あさりエキスパウダー、粉末しょうゆ、いわしエキスパウダー、酒粕パウダー、食塩、唐辛子、乳糖/加工デンプン、トレハロース、調味料(アミノ酸等)、酸味料、香料、(一部に乳成分・小麦・えび・かに・さば・大豆・ゼラチンを含む)</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、サワークリームオニオン風味パウダー（食塩、ホエイパウダー（乳製品）、砂糖、オニオンパウダー、粉末酢、たんぱく加水分解物、ねぎエキスパウダー、デキストリン、酵母エキスパウダー）、食塩、オニオンパウダー、粉末油脂、砂糖、澱粉／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、酸味料、香料、炭酸Ca、香辛料抽出物、甘味料（スクラロース、ステビア）、酸化防止剤（ビタミンE）、（一部に乳成分を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、粉末油脂、ビーフ風味パウダー（ビーフエキスパウダー、食塩、たんぱく加水分解物、ビーフ風味調味料、乳糖、野菜エキスパウダー、香辛料）、澱粉、酵母エキスパウダー／加工澱粉、トレハロース、調味料（アミノ酸等）、増粘剤（カードラン）、炭酸Ca、香料、甘味料（スクラロース）、酸化防止剤（ビタミンE）、酸味料、（一部に乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、コーングリッツ、小麦粉、粉末油脂、食塩、砂糖、ポテト風味パウダー（デキストリン、食塩、ポテトパウダー、醤油風味調味料、酵母エキスパウダー、粉末香味油、ビーフ風味パウダー、香味油）、ブドウ糖、ビーフオイル、澱粉、酵母エキスパウダー／トレハロース、セルロース、調味料（アミノ酸等）、香料、卵殻Ca、増粘剤（カードラン）、乳化剤、炭酸Ca、酸味料、（一部に卵・乳成分・小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、全粉乳、ココアバター、ライ麦粉、ショートニング、脱脂粉乳、麦芽エキス、いちごパウダー、バター風味調味料、練乳加工品、カラメルソース、食塩、乳化剤、膨脹剤、香料、着色料（ビートレッド、カラメル）、酸味料、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、ぶどう糖、水飴、でん粉／ガムベース、酸味料、軟化剤、香料、着色料（クチナシ）</t>
-  </si>
-  <si>
-    <t>〈グレープ〉砂糖（国内製造）、水あめ、グレープペースト/酸味料、香料、着色料（アントシアニン、クチナシ）、チャ抽出物 〈オレンジ〉砂糖（国内製造）、水あめ、オレンジペースト/酸味料、香料、着色料（カロテノイド）、チャ抽出物 〈ストロベリー〉砂糖（国内製造）、水あめ、ストロベリーペースト/酸味料、香料、着色料（アントシアニン、カロテノイド）、チャ抽出物 〈メロン〉砂糖（国内製造）、水あめ、濃縮メロン果汁/酸味料、着色料（紅麹、クチナシ）、香料、チャ抽出物</t>
-  </si>
-  <si>
-    <t>アンパンマン：砂糖、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、乳化剤（大豆由来）、香料。ばいきんまん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料。ドキンちゃん：砂糖、植物油脂、全粉乳、ココアバター、カカオマス、乳糖、脱脂粉乳、乳化剤（大豆由来）、野菜色素、香料</t>
-  </si>
-  <si>
-    <t>ビスケット（小麦粉、砂糖、植物油脂、その他：乳を含む）、砂糖、カカオマス、全粉乳、植物油脂、ココアバター、水あめ、膨脹剤、乳化剤（大豆由来）、光沢剤、卵殻カルシウム、香料</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造)、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、野菜色素、香料(乳・大豆由来)</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
-  </si>
-  <si>
-    <t>水飴（国内製造）、砂糖、ゼラチン、粉末オブラート／ソルビット、酸味料、糊料（ペクチン）、光沢剤、香料、乳化剤、着色料（クチナシ、野菜色素、紅花黄、パプリカ色素）</t>
+    <t>砂糖（国内製造）、澱粉、デキストリン、梅／酸味料、増粘剤（アラビアガム）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮パイナップル果汁、植物油脂</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、小麦粉、ココアバター、液卵白（卵を含む）、ショートニング、全粉乳、植物油脂、乳糖、マーガリン、ホエイパウダー（乳成分を含む）、ココアパウダー、バナナ粉末、食塩、水飴　／　乳化剤（大豆由来）、香料（大豆由来）、着色料（カロテノイド）、膨脹剤</t>
+  </si>
+  <si>
+    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂（ごま・大豆を含む）、カシューナッツ、砂糖、ぶどう糖、小麦粉、食塩、粉末しょうゆ（小麦・大豆を含む）、たんぱく加水分解物（大豆を含む）、デキストリン、昆布エキス粉末/加工デンプン、調味料(アミノ酸等）、ソルビトール、微粒酸化ケイ素、膨脹剤、着色料（カロテノイド）、酸味料、甘味料（アセスルファムＫ、スクラロース）、酸化防止剤（ビタミンＥ）</t>
+  </si>
+  <si>
+    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂、砂糖、カシューナッツ、ピーナッツバター、ぶどう糖、小麦粉、食塩、たんぱく加水分解物（大豆・ゼラチンを含む）、デキストリン/加工デンプン、ソルビトール、調味料（アミノ酸等）、乳化剤（大豆由来）、香料（乳由来）、膨脹剤、着色料（カロテノイド）、甘味料（アセスルファムＫ、スクラロース）、酸味料、酸化防止剤（ビタミンＥ）</t>
+  </si>
+  <si>
+    <t>大豆たんぱく（国内製造）、砂糖、ショートニング、小麦たんぱく、ファットスプレッド（乳成分を含む）、大豆パフ、水飴、ココアパウダー、液卵黄（卵を含む）、カカオマス、植物油脂、全粉乳、乳糖、ぶどう糖、食塩／ソルビトール、グリセリン、炭酸Ca、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、パントテン酸Ca、ピロリン酸第二鉄、V.B1、V.B2、V.B6、V.A、葉酸、着色料(アナトー)、V.D、V.B12</t>
+  </si>
+  <si>
+    <t>大豆たんぱく（国内製造）、ショートニング、砂糖、小麦たんぱく、大豆パフ、ファットスプレッド（乳成分を含む）、キャラメル（乳等を主要原料とする食品、水飴、砂糖）、液卵黄（卵を含む）、植物油脂、全粉乳、乳糖、カカオマス、ぶどう糖、ココアパウダー、食塩／ソルビトール、グリセリン、炭酸Ca、着色料(カラメル、アナトー)、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、ピロリン酸第二鉄、パントテン酸Ca、V.B1、V.B2、V.B6、V.A、葉酸、V.D、V.B12</t>
   </si>
 </sst>
 </file>
@@ -774,9 +853,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E615D68-CAB4-47E0-941D-23CC2B10D297}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A145"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -790,682 +871,782 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients/ingredients.xlsx
+++ b/ingredients/ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F00E5-FF9C-4AFB-9E2A-4225D93DEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D823A-8984-4F5C-83B3-A6BB70CAF0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1230" windowWidth="29040" windowHeight="16440" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
+    <workbookView xWindow="30450" yWindow="5205" windowWidth="27135" windowHeight="9960" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="192">
   <si>
     <t>ingredients_ori</t>
   </si>
@@ -36,99 +36,33 @@
     <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、全粉乳、でん粉、カカオマス、ショートニング、加糖れん乳、ココアパウダー、クリームパウダー、モルトエキス、食塩、ココアバター、大豆胚芽エキス／膨脹剤、乳化剤、香料</t>
-  </si>
-  <si>
     <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
   </si>
   <si>
-    <t>砂糖、植物油脂、コーングリッツ（遺伝子組換えでない）、パン粉、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、クリーム粉末、卵殻未焼成Ｃａ、カラメル色素、香料、乳化剤、トレハロース、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
     <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、ショートニング、ココアバター、植物油脂、小麦全粒粉、小麦ふすま、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤(大豆由来)、香料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、小麦パフ、全粉乳、カカオマス、ココアパウダー、マルトデキストリン／乳化剤、光沢剤、香料、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、コーングリッツ（分別生産流通管理済み）、全粉乳、カカオマス、ココアパウダー、小麦粉、マルトデキストリン／乳化剤、光沢剤、セルロース、香料、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、マーガリン、砂糖、植物油脂、乳糖、麦芽糖、ココアバター、全粉乳、ホエイパウダー、クリームパウダー、食塩、チーズパウダー、抹茶、シナモン／乳化剤（大豆由来）、クチナシ色素、香料</t>
-  </si>
-  <si>
     <t>砂糖、全粉乳、ココアバター、カカオマス、植物油脂、脱脂粉乳、乳化剤、香料、アカビート色素、（原材料の一部に大豆を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、植物油脂、ショートニング、抹茶、小麦たんぱく、食塩、イースト／乳化剤、香料、調味料（無機塩）、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、カカオマス、植物油脂、全粉乳、ショートニング、モルトエキス、でん粉、食塩、イースト、ココアバター、バター、乳化剤、香料、膨張剤、アナトー色素、調味料（無機塩）、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、植物油脂、小麦全粒粉、ココアバター、ショートニング、モルトエキス、小麦たんぱく、食塩、発酵バター、小麦胚芽、イースト／加工デンプン、乳化剤、香料、膨脹剤、酸化防止剤（ヤマモモ抽出物）、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
     <t>小麦粉（国内製造）、砂糖、植物油脂、乳糖、全粉乳、いちごパウダー、小麦全粒粉、ココアパウダー、ショートニング、小麦たんぱく、イヌリン、食塩、イースト、キャラメルパウダー／香料、アカビート色素、乳化剤、調味料（無機塩）、膨脹剤、酸味料、V.C、（一部に乳成分・小麦・大豆を含む）</t>
   </si>
   <si>
     <t>小麦粉（国内製造）、砂糖、アーモンド、全粉乳、植物油脂、カカオマス、ココアバター、小麦全粒粉、ショートニング、アーモンドプラリネペースト、小麦たんぱく、食塩、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆・アーモンドを含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツ、全粉乳、植物油脂、ココアバター、カカオマス、小麦全粒粉、ショートニング、食塩、小麦たんぱく、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、小麦全粒粉、植物油脂、ショートニング、小麦たんぱく、バター加工品、食塩、イースト、岩塩、バニラビーンズシード／乳化剤、香料、調味料（無機塩）、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、でん粉、乾燥ポテト、野菜ペースト・ブイヨン混合品、イースト、小麦たんぱく、食塩、酒かす、コンソメシーズニング、香味油、こしょう／調味料（無機塩等）、加工デンプン、乳化剤、香料、酸味料、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、ショートニング、砂糖、トマトペースト、でん粉、醸造酢（トマト酢）、イースト、ベジタブルペースト、オニオンシーズニング、食塩、乾燥ほうれんそう、こしょう／加工デンプン、調味料（無機塩等）、香料、乳化剤、酸味料、香辛料抽出物、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、砂糖、加糖練乳、小麦全粒粉、ショートニング、でん粉、発酵バター、イースト、食塩、バター加工品、乾燥卵黄／加工デンプン、調味料（無機塩）、香料、乳化剤、（一部に卵・乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、砂糖、ショートニング、乾燥ポテト、イースト、食塩、しょうゆシーズニング、黒こしょう、レモン果汁パウダー、酵母エキス／加工デンプン、調味料（アミノ酸等）、酸味料、乳化剤、香料、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、粉末しょうゆ、こんぶエキスパウダー、バター加工品、バター、酵母エキス、こしょう、たんぱく加水分解物／加工デンプン、調味料（アミノ酸等）、乳化剤、香料、着色料（カロチノイド）、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
     <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
   </si>
   <si>
     <t>小麦粉（国内製造）、植物油脂、でん粉、スモークチーズパウダー、砂糖、小麦たんぱく、食塩、発酵調味料、こしょう、酵母エキス、デキストリン、麦芽糖／調味料（アミノ酸等）、香料、増粘剤（キサンタンガム）、乳化剤、着色料（アナトー色素）、酸味料、（一部に乳成分・小麦・大豆を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、チキンエキスパウダー、香辛料、しょうゆシーズニング、ハーブシーズニング、ガーリックパウダー／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド）、酸味料、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、乾燥ポテト、小麦たんぱく、砂糖、イヌリン、食塩、ホタテシーズニング、こんぶエキスパウダー、たんぱく加水分解物、だしパウダー、唐辛子／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カロチノイド、カラメル色素）、酸味料、（一部に小麦・いか・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
   </si>
   <si>
-    <t>乾燥ポテト（遺伝子組換えでない）、植物油脂、コーンパウダー（遺伝子組換えでない）、砂糖、ショートニング、澱粉、食塩、チーズパウダー、バターパウダー、ブドウ糖、発酵調味パウダー、酵母エキスパウダー、オニオンパウダー、ほうれん草パウダー、デキストリン、キャロットエキスパウダー、小麦粉、キャベツパウダー、粉末醤油、チキンエキスパウダー/加工澱粉、トレハロース、乳化剤、塩化Ca、調味料（アミノ酸等）、炭酸Ca、乳酸Ca、香料、カラメル色素、カロチノイド色素、（一部に乳成分・小麦・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
     <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、砂糖混合ブドウ糖果糖液糖、食塩、メロンピューレ、準チョコレート／未焼成Ca、香料、乳化剤、ｐH調整剤、クチナシ色素、甘味料（スクラロース）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
   </si>
   <si>
-    <t>もち米（国内産）、つゆ（醤油、砂糖、食塩、かつお節エキス、発酵調味料、魚醤、醸造酢、昆布）、麦芽糖、もち米粉（タイ産）、発酵調味料、澱粉、イソマルトオリゴ糖、水あめ、アミノ酸液、唐辛子パウダー（ハバネロ使用）／トレハロース、加工澱粉、調味料（アミノ酸等）、酸味料、カロチノイド色素、ソルビトール、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、砂糖、植物油脂、マーガリン、牛乳、ココアパウダー、カラメルソース、食塩、カカオマス、準チョコレート／香料、カラメル色素、未焼成Ca、乳化剤、甘味料（スクラロース）、トレハロース、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
@@ -165,9 +99,6 @@
     <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料（赤唐辛子、ガーリック、ペッパー）、デキストリン、糖類、たん白加水分解物、香味油、酵母エキス、しょうゆ、ローストオニオン粉末、香味調味料）、かやく（味付豚肉、卵、ニラ、赤唐辛子）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、くん液、ビタミンＢ２、香辛料抽出物、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･豚肉を含む）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
@@ -180,9 +111,6 @@
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、チキンエキス、たん白加水分解物、香辛料、酵母エキス、ねぎ、ローストオニオン粉末、かつおぶし粉末、香味調味料、植物油脂）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、かんすい、香料、増粘多糖類、乳化剤、酸化防止剤（ビタミンＥ）、カロチノイド色素、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
   </si>
   <si>
@@ -192,39 +120,9 @@
     <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、植物性たん白、しょうゆ）、スープ（しょうゆ、糖類、食塩、動物油脂、ビーフエキス、たん白加水分解物、昆布エキス、鰹エキス）、かやく（かす入り揚げ玉、とろろ昆布、かまぼこ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、リン酸Na、香料、増粘剤（キサンタン）、酸化防止剤（ビタミンE)、カラメル色素、膨脹剤、紅麹色素、クチナシ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、乳糖、加工油脂、還元水あめ、さつまいもパウダー、卵、マーガリン、植物油脂、乳等を主要原料とする食品（バター、乳糖、カゼインカルシウム、食塩）、脱脂粉乳、食塩、麦芽糖、小麦ファイバー、水あめ／着色料（クチナシ、アナトー）、乳化剤（大豆由来）、結晶セルロース、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、加工油脂、脱脂粉乳、ぶどう糖果糖液糖、カカオマス、ココアパウダー、卵、加糖脱脂練乳、マーガリン、ココアバター、水あめ、植物油脂、乳糖、食塩、麦芽糖、ぶどう糖／着色料（カラメル、アナトー）、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、加工油脂、乳糖、全粉乳、ぶどう糖果糖液糖、卵、加糖脱脂練乳、マーガリン、いちごパウダー、水あめ、植物油脂、食塩、麦芽糖、ぶどう糖／乳化剤（大豆由来）、酸味料、着色料（紅麹、アカビート、アナトー）、香料</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）、小麦粉、植物油脂、乳糖、砂糖、くりパウダー、ココアパウダー、イースト、全粉乳、カカオマス、ココアバター／乳化剤、香料、カラメル色素、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、乳糖、植物油脂、全粉乳、ココアバター）（国内製造）、小麦粉、植物油脂、乳糖、砂糖、さつまいもパウダー、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、香料、重曹、イーストフード、クチナシ色素、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、ココアパウダー、食塩）、砂糖、小麦粉、カカオマス、乳糖、全粉乳、ココアバター、ココアパウダー、イースト／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
     <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
   </si>
   <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、ココアパウダー、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、カラメル色素、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、植物油脂、砂糖、いちご果汁パウダー、乾燥いちご加工品、イースト、ココアパウダー、全粉乳、カカオマス、ココアバター／乳化剤、酸味料、膨脹剤、香料、着色料（赤ビート、紅麹）、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、全粒粉ビスケット（小麦粉、小麦全粒粉、砂糖、ショートニング、食塩）、小麦粉、乳糖、砂糖、植物油脂、全粉乳、カカオマス、ココアバター、ココアパウダー、イースト／乳化剤（大豆由来）、膨脹剤、カラメル色素、香料、重曹、イーストフード</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、全粉乳、乳糖、カカオマス、小麦粉、植物油脂、ココアバター、オレンジ果汁パウダー、イースト、ココアパウダー／乳化剤、香料、酸味料、重曹、イーストフード、（一部に小麦・乳成分・オレンジ・大豆を含む）</t>
-  </si>
-  <si>
     <t>緑茶（国産）／ビタミンＣ</t>
   </si>
   <si>
@@ -234,16 +132,7 @@
     <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、みそ、糖類）、スープ（豚脂、しょうゆ、食塩、糖類、ポークエキス、チキンエキス、たん白加水分解物、植物油脂、香辛料、酵母エキス）、かやく（チャーシュー、ねぎ）、加工でん粉、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、かんすい、レシチン、クチナシ色素、増粘剤（キサンタン）、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に卵、乳成分を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩）、ソース（ソース、糖類、食塩、豚脂、植物油脂、香辛料、たん白加水分解物、香味調味料）、かやく（キャベツ）、カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、酸化防止剤（ビタミンＥ）、香料、増粘剤（キサンタン）、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、大豆、りんご、ゼラチンを含む）</t>
-  </si>
-  <si>
     <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、大豆食物繊維）、スープ（しょうゆ、食塩、たん白加水分解物、ポークエキス、糖類、豚脂、植物油脂、かつお節エキス、酵母エキス、香辛料、煮干いわし粉末）、かやく（チャーシュー、メンマ、ナルト、ねぎ）、調味料（アミノ酸等）、酒精、カラメル色素、炭酸カルシウム、香料、かんすい、増粘剤（キサンタン）、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（原材料の一部に卵、乳成分を含む）</t>
   </si>
   <si>
     <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
@@ -268,232 +157,457 @@
     <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
   </si>
   <si>
-    <t>砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子エキス／クエン酸、炭酸、香料、クエン酸Ｎａ、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギ二ン、保存料（安息香酸）、カフェイン、ナイアシン、着色料（アントシアニン）、イノシトール、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
-  </si>
-  <si>
     <t>うるち米粉（国産、タイ産）、植物油脂、粉末醸造酢、砂糖、食塩、酵母エキス粉末、香辛料（ごまを含む）、チキンエキス粉末、粉末しょうゆ（小麦・大豆を含む）、でん粉、デキストリン／加工デンプン、香料（鶏肉由来）、調味料（アミノ酸等）、酸味料、酸化防止剤（ビタミンＥ）、微粒酸化ケイ素、着色料（カロテン）、香辛料抽出物、ビタミンＢ１、乳化剤（大豆由来）</t>
   </si>
   <si>
-    <t>小麦粉(国内製造)、植物油脂、えび粉末、えび塩風味パウダー、食塩、ローストしょうゆパウダー／加工デンプン、炭酸Ca、調味料（アミノ酸等）、酸化防止剤（ビタミンＥ、ビタミンC）、乳化剤、香料、カラメル色素、（一部にえび・小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造）、カカオマス、乳糖、全粉乳、ココアバター、植物油脂、/乳化剤、香料、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ローストピーナッツ（国内製造）、植物油脂、イヌリン(食物繊維)、全粉乳、砂糖、ココアパウダー、カカオマス／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
-  </si>
-  <si>
-    <t>レーズン（アメリカ製造）、カカオマス、砂糖、ココアバター、ココアパウダー、全粉乳、マルトデキストリン、植物油脂／光沢剤、乳化剤、香料、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、カカオマス、小麦全粒粉、全粉乳、でん粉、水あめ、乳糖、小麦胚芽、ココアパウダー、脱脂粉乳、食塩／膨脹剤、乳化剤、香料、（一部に卵・乳成分・小麦・大豆・アーモンドを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、カカオマス、全粉乳、パフ（コーングリッツ、でん粉、砂糖）、乳糖、ココアパウダー／乳化剤、香料、膨脹剤、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、ファットスプレッド、マーガリン、乳等主要原料とする食品、バター、食塩、白ごまペースト、炭酸カルシウム、膨脹剤、加工でん粉、香料、着色料（カラメル、カロチン）調味料（アミノ酸）、（一部に乳成分・小麦・大豆・ごまを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、植物油脂、乳糖、デキストリン、ココアバター、小麦粉、全粉乳、脱脂粉乳、ホエイパウダー、小麦パフ、チーズパウダー、バターオイル、牛乳、マーガリン、ショートニング、ヨーグルトパウダー、レモン果汁パウダー、食塩、ぶどう糖果糖液糖、発酵風味液、たんぱく質濃縮ホエイパウダー／乳化剤（大豆由来）、香料、膨脹剤</t>
-  </si>
-  <si>
-    <t>昆布（北海道産）、醸造酢、かつおぶしエキス、発酵調味料、たんぱく加水分解物/調味料（アミノ酸等）、ソルビトール、酸味料、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、着色料（クチナシ、野菜色素）、香料</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、野菜色素、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴（国内製造）、乾燥ゆず皮、食用油脂／酸味料、香料、クチナシ色素、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、添付調味料（植物油脂、食塩、ビーフ調味料、砂糖、でん粉、ポーク調味料、粉末しょうゆ、チキンエキス、たん白加水分解物、胡椒、酵母エキス）、かやく入り添付調味料（乳化油脂、ぶどう糖、チーズパウダー、にんにく、大豆加工品、乳等を主要原料とする食品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、香料、カラメル色素、かんすい、微粒二酸化ケイ素、酸味料、香辛料抽出物、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、カロチノイド色素、アカビート色素、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・乳成分・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ジャム（砂糖、いちご、水あめ）、ショートニング、砂糖、鶏卵、加糖練乳、脱脂粉乳、乳等を主要原料とする食品、澱粉分解物、食塩、チーズパウダー／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、紅麹色素、リン酸Ca、（一部に小麦・卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ジャム（砂糖、水あめ、ブルーベリー）、砂糖、ショートニング、鶏卵、乳等を主要原料とする食品、加糖練乳、プロセスチーズ、食塩／ソルビトール、酸味料、ゲル化剤（増粘多糖類）、香料、膨張剤、乳化剤、（一部に小麦・卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、ぶどうソース、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、紅茶エキスパウダー、脱脂粉乳、酒精飲料/トレハロース、乳化剤（大豆由来）、酸味料、香料（乳・大豆由来）、着色料（カラメル、野菜色素、クチナシ、紅花黄、紅麹）、環状オリゴ糖、増粘剤（ペクチン）</t>
-  </si>
-  <si>
-    <t>大豆（アメリカ）、納豆菌]、植物油脂、しょうゆ風味パウダー（粉末しょうゆ、食塩、コーンスターチ、デキストリン、その他)（小麦・さばを含む）／調味料（アミノ酸等）、香料</t>
-  </si>
-  <si>
-    <t>ブドウ糖（国内製造）、コーンスターチ、澱粉分解物／酸味料、香料、着色料（アントシアニン、クチナシ、アナトー、スピルリナ青）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、マルチトール、麦芽糖、クリーミングパウダー（水あめ、植物油脂、カゼイン（乳成分を含む））、デキストリン、濃縮梅果汁、ゼラチン、梅パウダー、希少糖含有シロップ、梅エキス、食物繊維、梅干エキスパウダー／酸味料、増粘剤（アラビアガム）、アントシアニン色素、香料、光沢剤</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、卵黄、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・卵・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、チェダーチーズパウダー/セルロース、乳化剤、パプリカ色素、香料、（原料の一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、ココア、カカオマス/セルロース、乳化剤、香料、（原料の一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ピーナッツ（アメリカ）、砂糖、小麦粉、寒梅粉、澱粉、米粉、食塩、ガラクトオリゴ糖／膨張剤、炭酸カルシウム、着色料（クチナシ）、ピロリン酸鉄、 （一部に乳成分・小麦・落花生を含む）</t>
-  </si>
-  <si>
-    <t>マルトース（国内製造）、水飴、砂糖、もち粉、全粉乳、植物油脂、カカオマス、ココアパウダー、クリーム（乳成分を含む）、デキストリン、洋酒、乳糖 / トレハロース、乳化剤（大豆由来）、着色料（カラメル）、調味料（アミノ酸）、加工デンプン、香料、カゼインNa（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、カカオマス、植物油脂、全粉乳、アーモンド、ココアバター、脱脂粉乳、米パフ、　 乳糖、バターオイル／乳化剤（大豆由来）、香料（アーモンド由来）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、植物油脂、全粉乳、カカオマス、ココアバター、脱脂粉乳、乳糖、いちご粉末／トレハロース、乳化剤（大豆由来）、香料（アーモンド由来）、着色料（ビートレッド）、酸味料</t>
-  </si>
-  <si>
-    <t>＜ストロベリーチョコレート＞砂糖（外国製造）、植物油脂、乳糖、全粉乳、ココアバター、カカオマス、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）、乾燥いちご／香料、乳化剤（大豆由来）、酸味料、着色料（アカダイコン）、膨脹剤 ＜クリスプチョコレート＞砂糖（外国製造、国内製造）、植物油脂、カカオマス、乳糖、全粉乳、ホエイパウダー、小麦パフ（でんぷん、小麦粉、食塩）／乳化剤（大豆由来）、香料、膨脹剤</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、乳糖、砂糖、ココアクッキークランチ（小麦粉、砂糖、ショートニング、ココアパウダー、デキストリン、ぶどう糖果糖液糖、カカオマス、ホエイパウダー、食塩）、ココアバター、全粉乳、小麦粉、ホエイパウダー、クリームチーズパウダー、でん粉、クリームパウダー、モルトエキス、食塩／乳化剤（大豆由来）、トレハロース、香料、膨脹剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造又は韓国製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
-  </si>
-  <si>
-    <t>＜きゅんベリー味（丸型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素＜甘ずっぱいきゅんベリー味（ハート型）＞ぶどう糖（国内製造）、いちご果汁パウダー、でん粉／乳化剤、加工でん粉、酸味料、ビタミンＣ、香料、野菜色素</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、砂糖、粉末醤油、デキストリン、粉末みそ、ハバ ネロパウダー、チキンエキスパウダー、食塩、たん白加水分解物、酵母エキスパウダー、乳糖／調味料（アミノ酸等）、香辛料抽出物、香料、パプリカ色素、甘味料（ステビア、カンゾウ）、酸味料、（一部に小麦・乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（食塩、糖類、チキン調味料、たまねぎ加工品、しょうゆ、香辛料、酵母エキス、野菜調味料、発酵調味料）、かやく（キャベツ、鶏・豚味付肉そぼろ、フライドオニオン、にんじん）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、トレハロース、香料、かんすい、レシチン、微粒二酸化ケイ素、酸味料、クチナシ色素、酸化防止剤（ビタミンＥ、ビタミンＣ）、ビタミンＢ２、ビタミンＢ１、パプリカ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、粉末卵、野菜エキス、しょうゆ）、スープ（糖類、食塩、チキン調味料、でん粉、粉末レモン果汁、香辛料、酵母エキス、植物油脂、野菜粉末）、かやく（キャベツ、味付鶏肉そぼろ、味付卵、赤ピーマン）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、香料、トレハロース、酸味料、微粒二酸化ケイ素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、カラメル色素、カロチン色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>難消化性デキストリン（中国製造）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、ガラナ種子エキス／炭酸、クエン酸、クエン酸Ｎａ、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、カフェイン、甘味料（スクラロース、アセスルファムＫ、ステビア）、ナイアシン、パントテン酸Ｃａ、イノシトール、ビタミンＢ６、着色料（黄色４号、黄色５号）、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、砂糖、ぶどう糖、香辛料、食塩、チキンエキスパウダー、野菜エキスパウダー(乳成分・大豆・豚肉・ゼラチンを含む)、たんぱく加水分解物(大豆を含む)、オリゴ糖/調味料(アミノ酸等)、パプリカ色素、酸味料、香辛料抽出物、カラメル色素、香料</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、麻婆豆腐風味パウダー（グラニュー糖、粉末しょうゆ、粉末みそ、ポーク風味調味料、たんぱく加水分解物、その他）、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、乳化剤、パプリカ色素、酸化防止剤（ビタミンE)、甘味料（ステビア、カンゾウ）、酸味料、香辛料抽出物、（一部に小麦・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、しょうゆラーメン風味パウダー、食塩、砂糖、ミート調味エキス、たんぱく加水分解物、しょうゆ／調味料（アミノ酸等）、炭酸Ca、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンE)、甘味料（ステビア）、香辛料抽出物、（一部に小麦・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、メロン果汁パウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、クチナシ、紅花黄）、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>還元水飴（国内製造）、還元麦芽糖、砂糖、食物繊維（ポリデキストロース）、水飴、還元麦芽糖水飴、ゼラチン、こんにゃく粉、澱粉／酸味料、香料、炭酸カルシウム、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>澱粉（国内製造）、砂糖、デキストリン、濃縮いちご果汁／甘味料（キシリトール、アスパルテーム・Ｌ‐フェニルアラニン化合物、アセスルファムＫ）、酸味料、香料、増粘剤（アラビアガム）、着色料（赤色４０号）</t>
-  </si>
-  <si>
-    <t>砂糖、水飴、乾燥いちご加工品、いちご果汁、ハーブエキス／酸味料、香料、アントシアニン色素</t>
-  </si>
-  <si>
-    <t>トマト、ハラペーニョ、玉ねぎ、醸造酢、食塩、乾燥玉ねぎ、ガーリックパウダー／香辛料抽出物、塩化カルシウム、クエン酸</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油、でん粉、えび、砂糖、食塩 / 膨脹剤、調味料（アミノ酸等）、甘味料（甘草）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（濃厚ソース、砂糖、植物油脂、発酵調味料、豚脂、食塩、ポーク調味料、しょうゆ加工品、魚介エキス、カツオ調味料、香味調味料、香味油）、特製ペースト（半固体状ドレッシング、紅しょうが、果糖ぶどう糖液糖、還元水飴、醸造酢、食塩、植物油脂、全卵粉、酵母エキス、でん粉）、かやく（キャベツ）、ふりかけ（カツオブシ、あおさ）／加工でん粉、カラメル色素、調味料（アミノ酸等）、炭酸Ｃａ、増粘剤（加工でん粉、増粘多糖類）、酸化防止剤（ビタミンＥ）、カロチノイド色素、かんすい、乳化剤、甘味料（カンゾウ、スクラロース、アセスルファムＫ）、酸味料、香料、野菜色素、ビタミンＢ２、ビタミンＢ１、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・りんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ(国内製造)、植物油、砂糖、ぶどう糖、食塩、チーズパウダー、粉末油脂、ホエイパウダー、香辛料、オリゴ糖／調味料(アミノ酸等)、香料、カロチノイド色素、香辛料抽出物、くん液、(一部に乳成分・大豆を含む)</t>
-  </si>
-  <si>
-    <t>生地(国内製造)(小麦粉、でん粉、えびエキスパウダー、えびパウダー、砂糖、 乾燥えび、発酵調味液、植物油、かつお節)、植物油、デキストリン、ぶどう糖、 魚介エキスパウダー、食塩、粉末しょうゆ、唐辛子、酵母エキスパウダー/加工デンプン、 調味料(アミノ酸等)、トレハロース、甘味料(スクラロース)、(一部に乳成分・小麦・えび・大豆・ゼラチンを含む)</t>
-  </si>
-  <si>
     <t>植物油脂（国内製造）、米粉（うるち米（国産、米国産））、でん粉、食塩、魚介エキスパウダー（えびを含む）、砂糖、えび、デキストリン、粉末しょう油（小麦・大豆を含む）、香味油（えびを含む）、酵母エキス粉末／加工でん粉、調味料（アミノ酸等）、着色料（紅麹、カラメル）、酸味料</t>
   </si>
   <si>
-    <t>砂糖、カカオマス、全粉乳、ココアバター、植物油脂、乳化剤（大豆を含む）、光沢剤、香料</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、濃縮日本なし果汁、ゼラチン、還元難消化性デキストリン、植物油脂、でん粉／酸味料、ゲル化剤（ペクチン）、香料、光沢剤、（一部にりんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>うるち米（国産、米国産）、植物油、砂糖、レモンシーズニング、しょうゆ、果糖ぶどう糖液糖、酵母エキス、食塩／加工でん粉、調味料（アミノ酸等）、酸味料、香料、カラメル色素、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造又は国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、乳等を主要原料とする食品、りんごパウダー、脱脂粉乳、エリスリトール、ドライクレープ（乳成分・小麦を含む）、キャラメルパウダー（乳成分を含む）/乳化剤（大豆由来）、香料（乳・大豆由来）、着色料（紅麹、クチナシ）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造、国内製造）、植物油脂、ポテトペレット（乾燥ポテト、でん粉、食塩）、カカオマス、ココアパウダー、全粉乳／乳化剤（大豆由来）、香料、着色料（ウコン）、酸化防止剤（ビタミンE、ビタミンC)</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、植物油脂、全粉乳、カカオマス、ココアバター、乳糖、脱脂粉乳、オレンジ濃縮果汁、洋酒(カシスリキュール）、デキストリン、クリーミングパウダー（乳成分を含む）／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳・アーモンド由来）、酸味料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造）、カカオマス、小麦粉、液全卵、植物油脂、マーガリン（乳成分を含む）、ココアパウダー、ショートニング、加糖練乳、全粉乳、乳糖、ココアバター、食塩、洋酒／ソルビトール、酒精、乳化剤（大豆由来）、香料（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造、国内製造）、液全卵、小麦粉、植物油脂、マーガリン（乳成分を含む）、チーズ粉末（カマンベールチーズ粉末、ゴーダチーズ粉末、クリームチーズ粉末）、ショートニング、コーンスターチ、食用加工油脂、クリームチーズ、ミルクシロップ、全粉乳、還元水飴、乾燥全卵、ホエイパウダー（乳成分を含む）、レモン濃縮果汁、水飴、乳糖、洋酒、デキストリン、ココアバター／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳由来）、膨脹剤、増粘剤（ペクチン：りんご由来）、酸味料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、マーガリン（乳成分を含む）、バター、ココナッツ、液全卵、加糖脱脂練乳、食塩、植物油脂　／　香料（乳由来）、膨脹剤、乳化剤（大豆由来）、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、砂糖、ショートニング、植物油脂、全粉乳、小麦全粒粉、カカオマス、ココアパウダー、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤（大豆由来）、香料、着色料（アナトー）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂 還元水飴、白あん（生あん、砂糖、還元水飴、寒天、食塩）、 カカオマス、水飴、液全卵、ココアパウダー、乳糖、全粉乳 デキストリン、食塩、脱脂粉乳／ソルビトール、 加工デンプン、乳化剤（大豆由来）、着色料（カラメル） 香料、膨張剤、増粘剤（カラギーナン）</t>
-  </si>
-  <si>
-    <t>準チョコレート（植物油脂、砂糖、カカオマス、全粉乳、ココアパウダー）（国内製造）、小麦粉、砂糖、植物油脂、ショートニング、転化糖蜜、加糖れん乳、ココアパウダー、食塩（宮古島産塩38％使用）、全粉乳、ごま、コラーゲン／膨脹剤、着色料（カラメル）、乳化剤、炭酸Ca、香料、（一部に小麦・乳成分・大豆・ごま・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、食用油脂（パーム油、ラード、なたね油）、食塩）、スープ（食塩、砂糖、キムチ風味調味料、粉末しょうゆ、香辛料、ごま、粉末みそ、ポークエキスパウダー、オイスターエキスパウダー、たまねぎ、ねぎ）／加工でん粉、調味料（アミノ酸等）、カラメル色素、酸味料、かんすい、増粘多糖類、微粒二酸化ケイ素、酸化防止剤（V.E）、（一部に小麦、ごま、大豆、豚肉、魚醤（魚介類）を含む）</t>
-  </si>
-  <si>
-    <t>ローストピーナッツ（国内製造）、砂糖、植物油脂、乳糖、全粉乳、カカオマス、ココアパウダー／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、ビスケット（小麦を含む）、カカオマス、植物油脂、全粉乳、ココアバター、水あめ、シーズニングパウダー（デキストリン、黒トリュフ塩、砂糖、食塩、ガーリックパウダー、大豆たんぱく加水分解物、白こしょうパウダー、ナツメグパウダー）、バターオイル、ヘーゼルナッツペースト／乳化剤、膨脹剤、香料、光沢剤、調味料（アミノ酸等）、着色料（金箔）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、加糖練乳、砂糖、加糖脱脂練乳、植物油脂、小麦たんぱく加水分解物、バター、食塩／ソルビトール、香料、乳化剤（大豆由来）、ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、水あめ、植物油脂、デキストリン、ゼラチン、濃縮すいか果汁／酸味料、香料、グリセリン、乳化剤、ベニバナ黄色素、アカキャベツ色素、クチナシ青色素、パプリカ色素</t>
-  </si>
-  <si>
-    <t>コーンフレーク（コーングリッツ（とうもろこし（アメリカ産））、砂糖、食塩）、砂糖、植物油脂、全粉乳、カカオマス、ココアパウダー／香料、炭酸カルシウム、乳化剤（大豆由来）、ピロリン酸鉄</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ココナッツオイル、ショートニング、ココナッツ、食塩、レモンパウダー、脱脂粉乳／酸味料、膨張剤、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
     <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
   </si>
   <si>
-    <t>砂糖（国内製造）、澱粉、デキストリン、梅／酸味料、増粘剤（アラビアガム）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮パイナップル果汁、植物油脂</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造、タイ製造）、小麦粉、ココアバター、液卵白（卵を含む）、ショートニング、全粉乳、植物油脂、乳糖、マーガリン、ホエイパウダー（乳成分を含む）、ココアパウダー、バナナ粉末、食塩、水飴　／　乳化剤（大豆由来）、香料（大豆由来）、着色料（カロテノイド）、膨脹剤</t>
-  </si>
-  <si>
-    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂（ごま・大豆を含む）、カシューナッツ、砂糖、ぶどう糖、小麦粉、食塩、粉末しょうゆ（小麦・大豆を含む）、たんぱく加水分解物（大豆を含む）、デキストリン、昆布エキス粉末/加工デンプン、調味料(アミノ酸等）、ソルビトール、微粒酸化ケイ素、膨脹剤、着色料（カロテノイド）、酸味料、甘味料（アセスルファムＫ、スクラロース）、酸化防止剤（ビタミンＥ）</t>
-  </si>
-  <si>
-    <t>でん粉（国内製造）、うるち米（国産）、もち米（タイ産）、植物油脂、砂糖、カシューナッツ、ピーナッツバター、ぶどう糖、小麦粉、食塩、たんぱく加水分解物（大豆・ゼラチンを含む）、デキストリン/加工デンプン、ソルビトール、調味料（アミノ酸等）、乳化剤（大豆由来）、香料（乳由来）、膨脹剤、着色料（カロテノイド）、甘味料（アセスルファムＫ、スクラロース）、酸味料、酸化防止剤（ビタミンＥ）</t>
-  </si>
-  <si>
-    <t>大豆たんぱく（国内製造）、砂糖、ショートニング、小麦たんぱく、ファットスプレッド（乳成分を含む）、大豆パフ、水飴、ココアパウダー、液卵黄（卵を含む）、カカオマス、植物油脂、全粉乳、乳糖、ぶどう糖、食塩／ソルビトール、グリセリン、炭酸Ca、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、パントテン酸Ca、ピロリン酸第二鉄、V.B1、V.B2、V.B6、V.A、葉酸、着色料(アナトー)、V.D、V.B12</t>
-  </si>
-  <si>
-    <t>大豆たんぱく（国内製造）、ショートニング、砂糖、小麦たんぱく、大豆パフ、ファットスプレッド（乳成分を含む）、キャラメル（乳等を主要原料とする食品、水飴、砂糖）、液卵黄（卵を含む）、植物油脂、全粉乳、乳糖、カカオマス、ぶどう糖、ココアパウダー、食塩／ソルビトール、グリセリン、炭酸Ca、着色料(カラメル、アナトー)、乳化剤(大豆由来)、ロイシン、トレハロース、バリン、イソロイシン、香料(乳由来)、V.E、ナイアシン、ピロリン酸第二鉄、パントテン酸Ca、V.B1、V.B2、V.B6、V.A、葉酸、V.D、V.B12</t>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、イヌリン、全粉乳、いちごパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、酸味料、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、植物油脂、全粉乳、イヌリン、食塩、でん粉、小麦たんぱく、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、全粉乳、イヌリン、メープルシュガー、キャラメルパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、植物油脂、発酵バター、乳糖、イヌリン、食塩、バターミルクパウダー、小麦たんぱく、乳酸菌、バニラビーンズシード／炭酸Ca、膨脹剤、乳化剤、香料、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>水あめ、砂糖、植物油脂、ゼラチン、濃縮ストロベリー果汁、加糖練乳、ストロベリージャム、乳酸菌飲料、酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>砂糖、水あめ、植物油脂、ラムネ菓子（エリスリトール、ポリデキストロース）、ゼラチン、デキストリン、濃縮レモン果汁、酸味料、乳化剤、香料、ステアリン酸カルシウム、ベニバナ黄色素</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、水あめ、砂糖、植物油脂、ゼラチン／グリセリン、ソルビトール、増粘多糖類、酸味料、香料、乳化剤、クチナシ青色素</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素、クチナシ青色素、増粘剤（アラビアガム）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（チキンエキス、食塩、ポークエキス、香味油脂、しょうゆ、野菜エキス、植物油、砂糖、香辛料、魚介エキス、たん白加水分解物、豚脂）／加工でん粉、調味料（アミノ酸等）、酒精、トレハロース、かんすい、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、増粘多糖類、香料、クチナシ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造又は韓国製造）、生あん、水あめ、カカオマス、寒天／甘味料（ソルビトール）、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、せとか果汁/酸味料、香料、アナトー色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮マスカット果汁、濃縮ぶどう果汁、植物油脂、でん粉/ソルビトール、酸味料、加工デンプン、香料、着色料（クチナシ、フラボノイド）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂、でん粉、ソルビトール、酸味料、加工デンプン、香料、着色料（カラメル、クチナシ）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮ぶどう果汁、濃縮マスカット果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（フラボノイド、アントシアニン、クチナシ、紅麹）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮バナナ果汁、濃縮レモン果汁、濃縮すもも果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、でん粉、濃縮オレンジ果汁、濃縮レモン果汁、植物油脂/ソルビトール、酸味料、増粘剤（増粘多糖類、CMC-Na）、香料、着色料（フラボノイド、カロチノイド）、光沢剤、（一部にオレンジ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、植物油脂、ゼラチン、濃縮マスカット果汁、加糖練乳、でん粉/乳化剤、ソルビトール、増粘多糖類、加工デンプン、酸味料、香料、着色料（フラボノイド、クチナシ）、（一部に乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉(国内製造）、食塩、植物油脂、植物性たん白、卵粉、米麹調味料（でん粉、米麹加工品、塩麹、食塩）、ポークエキス）、スープ（食塩、糖類、香辛料、豚脂、香味調味料、豚･鶏エキス、しょうゆ、デキストリン、たん白加水分解物、酵母エキス、しょうゆもろみ、ローストオニオン粉末、植物油脂）／加工デンプン、膨張剤、調味料（アミノ酸等）、酒精、かんすい、炭酸カルシウム、増粘剤（加工デンプン、増粘多糖類）、香料、カラメル色素、炭酸マグネシウム、カロチノイド色素、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（砂糖、植物油脂、ココアパウダー）、小麦粉、砂糖、鶏卵、ぶどう糖果糖液糖、その他</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、カレー粉、しょうゆ、食塩、チキンエキス、植物性たん白、卵粉、香辛料、香味調味料、砂糖、デキストリン、オニオンパウダー／加工でん粉、調味料（アミノ酸等）、かんすい、炭酸Ｃａ、カロチノイド色素、増粘剤（アルギン酸エステル）、酸化防止剤（ビタミンＥ）、香辛料抽出物、甘味料（アセスルファムＫ、スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖／酸味料、乳酸Ca、ゲル化剤（増粘多糖類）、香料、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、植物性乳酸菌末（殺菌）／酸味料、乳酸Ca、ゲル化剤（増粘多糖類）、香料、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、添加物：酸味料、ゲル化剤（増粘多糖類）、乳酸Ca、香料、野菜色素、V.B2、V.B1、V.B6</t>
+  </si>
+  <si>
+    <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
+  </si>
+  <si>
+    <t>ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）（国内製造）、乳糖、ココアバター、砂糖、植物油脂、全粉乳、脱脂粉乳、発酵乳パウダー、殺菌乳酸菌粉末／加工デンプン、貝カルシウム、乳化剤（大豆由来）、香料、着色料（カラメル、クチナシ）、膨脹剤</t>
+  </si>
+  <si>
+    <t>ぶどう味グミ（水あめ、砂糖、ゼラチン、濃縮ぶどう果汁、その他）（国内製造）、砂糖、全粉乳、ココアバター、カカオマス、植物油脂、乳糖／香料、ソルビトール、光沢剤、酸味料、乳化剤（大豆由来）、着色料（アカキャベツ、クチナシ）</t>
+  </si>
+  <si>
+    <t>カカオマス（カカオ豆（ガーナ、エクアドル））、砂糖、ココアパウダー、ココアバター、カカオニブ加工品、全粉乳／乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造）、全粉乳、カカオマス、乳糖、ココアバター、植物油脂、還元水あめ、酒精、ラム酒、ラム酒漬けレーズン／乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>＜コーラ＞砂糖（国内製造）、水あめ／酸味料、重曹、着色料（カラメル）、香料＜ラムネ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（クチナシ）＜グレープソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（アカキャベツ、クチナシ）＜ヨーグルトソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料＜メロンクリームソーダ＞砂糖（国内製造）、水あめ、加糖れん乳、乳等を主要原料とする食品／酸味料、重曹、香料、着色料（紅麹、クチナシ）、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、食塩（ぬちまーす100%）、植物油脂、濃縮レモン果汁／酸味料（クエン酸）、ビタミンC、香料、乳化剤、着色料（クチナシ、紅麹）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、しょうゆ、わさび風味シーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、粉末わさび／調味料（アミノ酸等）、加工でん粉、ソルビトール、着色料（カラメル、パプリカ色素）、香料、香辛料抽出物、チャ抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、香辛料抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、しょうゆ、梅しそシーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、乾燥梅肉／調味料（アミノ酸等）、加工でん粉、酸味料、ソルビトール、香料、着色料（カラメル、パプリカ色素、ムラサキトウモロコシ色素）、甘味料（スクラロース、ネオテーム）、香辛料抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、わさび風味シーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、粉末わさび／調味料（アミノ酸等）、加工でん粉、ソルビトール、着色料（カラメル、パプリカ色素）、香料、香辛料抽出物、チャ抽出物、乳化剤、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>原材料：うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、乳化剤、香辛料抽出物、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>野菜（じゃがいも（国産）、にんじん、コーン）、大豆油、豚肉、小麦粉ルウ、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、醤油、トマトペースト、食塩、チキンエキス調味料、ミルポワペースト、チーズパウダー、酵母エキスパウダー／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>昆布（国内産）、醸造酢、かつおぶしエキス、食塩、たんぱく加水分解物、発酵調味料/調味料（アミノ酸等）、酸味料、ソルビトール、加工でん粉、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>米（国産）、ホエイパウダー（乳成分を含む）、砂糖、チーズ風味シーズニング（乳成分を含む）、乳糖、食塩、オニオンエキスパウダー、しょうゆ（小麦・大豆を含む）、ピザ風味シーズニング（小麦・乳成分・大豆・豚肉を含む）、チーズパウダー（チェダーチーズ45%、カマンベールチーズ30%、ゴーダチーズ1%）、植物油脂、唐辛子、たんぱく加水分解物（大豆を含む）／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、乳化剤、パプリカ色素、くん液、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>＜れもん＞水あめ（国内製造）、砂糖、ゼラチン、濃縮レモン果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、紅花色素、光沢剤＜コーラ＞水あめ（国内製造）、砂糖、ゼラチン、コーラナッツエキス、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、カラメル色素、香料、乳化剤、光沢剤＜ソーダ＞水あめ（国内製造）、砂糖、ゼラチン、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、クチナシ色素、乳化剤、光沢剤＜ぶどう＞水あめ（国内製造）、砂糖、ゼラチン、濃縮グレープ果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、着色料（ブラックキャロットジュース、クチナシ）、乳化剤、光沢剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、植物油脂、乳糖、全粉乳、カカオマス、ココアバター、れん乳パウダー、ストロベリーパウダー／乳化剤（大豆由来）、アカビート色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、植物性加工油脂、水飴、ゼラチン、濃縮りんご果汁／セルロース、酸味料、乳化剤、香料、甘味料（アスパルテーム・Ｌ‐フェニルアラニン化合物、アセスルファムＫ）、着色料（青色１号）、（一部にりんご・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ピーナッツ（中国）、植物油脂、食塩、香味食用油、唐辛子、花椒、豆板醤、水飴、ネギ、ガーリック／調味料（アミノ酸等）、香辛料抽出物、（一部に小麦・ピーナッツ・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、コンソメシーズニング（チキンエキスパウダー、砂糖、ぶどう糖、食塩、オニオンパウダー、野菜エキスパウダー、酵母エキスパウダー、デキストリン、乳糖、香辛料、たん白加水分解物、植物油脂）、砂糖、オニオンパウダー、食塩、香辛料／調味料（アミノ酸等）、乳化剤、着色料（パプリカ粉末、パプリカ色素）、加工デンプン、香料、酸味料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩、青のり、あおさ／乳化剤、調味料（アミノ酸）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、サワークリームオニオン風味シーズニング（オニオンパウダー、食塩、乳等を主要原料とする食品、砂糖、ぶどう糖、酵母エキスパウダー、でん粉、粉末酢、サワークリームパウダー）、オニオンペースト／調味料（アミノ酸等）、酸味料、香料、乳化剤、香辛料抽出物、甘味料（カンゾウ）、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、バターしょうゆシーズニング（乳等を主要原料とする食品、砂糖、しょうゆパウダー、食塩、たん白加水分解物、バターパウダー、チーズパウダー、酵母エキスパウダー、かつお節パウダー）、バターミルクパウダー／調味料（アミノ酸等）、香料、乳化剤、甘味料（カンゾウ、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、ショートニング、乳糖、しょうゆパウダー、食塩、ブラックペッパー、たん白加水分解物、ガーリックパウダー、コーンスターチ、香味粉末油脂、ローストしょうゆ調味料、乳等を主要原料とする食品、ビーフエキスパウダー、ナツメグパウダー／加工デンプン、調味料（アミノ酸等）、香料、重曹、香辛料抽出物、乳化剤、カラメル色素、甘味料（スクラロース）、（一部に小麦・乳成分・牛肉・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸味料、酸化防止剤（Ｖ．Ｃ、Ｖ．Ｅ）、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩/膨張剤、卵殻カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩、アオサ粉/膨張剤、卵殻カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>うるち米（国内産、米国産）、植物油脂、しょうゆ（小麦・大豆を含む）、砂糖、かつおだし粉末、昆布だし/加工デンプン、調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>もち米（国内産、米国産）、植物油脂、ピーナッツ、食塩、砂糖、かつおだし粉末、昆布粉末、チキンコンソメシーズニング、調味料（アミノ酸等）、香料、（原材料の一部に小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）（大豆を含む）、砂糖、砂糖粉乳調製品（砂糖、全粉乳、脱脂粉乳、ココアバター）、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳／乳化剤（大豆由来）、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、アーモンド、カカオマス、全粉乳、植物油脂、ココアバター、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、乳糖／乳化剤、香料、膨脹剤、（一部にアーモンド・乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖粉乳調製品（砂糖、全粉乳、ココアバター）（シンガポール製造）、乳糖、アーモンド、ココアバター、植物油脂、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、脱脂粉乳、全粉乳／乳化剤、香料、膨脹剤、（一部に乳成分・アーモンド・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>じゃがいもでんぷん（じゃがいも（北海道））、コーンスターチ／増粘剤（ＣＭＣ、増粘多糖類）</t>
+  </si>
+  <si>
+    <t>【ミルク】砂糖(外国製造)、全粉乳、カカオマス、ココアバター、植物油脂／乳化剤(大豆由来)、香料【いちご】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター／乳化剤(大豆由来)、酸味料、野菜色素、香料【きなこ】植物油脂(国内製造)、砂糖、乳糖、きなこ(大豆を含む)、全粉乳、ココアバター、脱脂粉乳／乳化剤、香料【バナナ】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター、バナナパウダー／乳化剤(大豆由来)、香料、カロチノイド色素【メロン】砂糖(外国製造)、乳糖、植物油脂、ココアバター、全粉乳／乳化剤(大豆由来)、酸味料、着色料(スピルリナ青、クチナシ)、香料</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、チーズパウダー、食塩、砂糖、デキストリン、クリーミングパウダー、たん白加水分解物、酵母エキスパウダー、オニオンパウダー、粉末醤油／調味料（アミノ酸等）、香料、カロチノイド色素、甘味料（ステビア、スクラロース、カンゾウ）、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、オニオンパウダー、ハラペーニョパウダー、パセリフレーク／香料、調味料（アミノ酸等）、酸味料、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、砂糖、粉末醤油、たん白加水分解物、でん粉、食塩、ガーリックパウダー、オニオンパウダー、酵母エキスパウダー、ビーフエキス調味料、香味粉末油脂、ブラックペッパー／調味料（アミノ酸等）、着色料（カラメル、カロチノイド）、香料、酸味料、甘味料（アスパルテーム・L-フェニルアラニン化合物、スクラロース）、香辛料抽出物、（一部に小麦・牛肉・ごま・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>牛乳（国内製造）、コーヒー（エチオピア産コーヒー豆51%）、砂糖、全粉乳、 脱脂粉乳、デキストリン／カゼインNa、乳化剤、香料、甘味料（アセスルファムK）</t>
+  </si>
+  <si>
+    <t>砂糖、水飴、濃縮果汁（いちご、レモン、オレンジ、パインアップル、りんご、メロン、すもも）、酸味料、香料、着色料（紫コーン色素、パプリカ色素、カロチン、紅麹、クチナシ、紅花黄）</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、ゼラチン、パラチニット/酸味料、香料、着色料（クチナシ、アントシアニン、カロチノイド）、甘味料（スクラロース）</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、粉末ソース、砂糖、トマト風味パウダー、たん白加水分解物（大 豆を含む）、小麦粉、粉末鰹節、あおさ、食塩、たこパウダー / 調味料（アミノ酸等）、酸味料、炭酸 カルシウム、着色料（カラメル、カロチノイド）、香料（鶏肉・りんご由来）、甘味料（スクラロース、 ステビア：乳由来、甘草）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、でん粉、香辛料パウダー、たん白加水分解物（大豆を含む）、粉末ソース、オニオンパウダー、ビーフパウダー、トマトパウダー、酵母エキスパウダー、調味動物油脂（豚肉を含む） / 調味料（アミノ酸等）、酸味料、香料（小麦・いか・ゼラチン由来）、着色料（カラメル、クチナシ）、甘味料（ステビア、スクラロース）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮ぶどう果汁、植物油脂</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、小麦粉、植物油脂、全粉乳、ココアバター、カカオマス、マーガリン、ショートニング、鶏卵、乳糖、ホエイパウダー、ココアパウダー、キャラメルパウダー、乾燥全卵、食塩、バター</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
+  </si>
+  <si>
+    <t>コーヒー（コーヒー豆（ブラジル産、エチオピア産、その他））</t>
+  </si>
+  <si>
+    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造）、乳糖、ワッフルクランチ（小麦粉、砂糖、でん粉、その他）、植物油脂、小麦粉、全粉乳、ココアバター、レモン果汁パウダー、ショートニング、異性化液糖、食塩／乳化剤、着色料（カロテノイド、アナトー）、香料、酸味料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ワッフルクランチ（国内製造）（小麦粉、砂糖、でん粉、その他）、砂糖、乳糖、植物油脂、全粉乳、ココアバター、糖漬け乾燥いちご(いちご、砂糖、ぶどう糖)、糖漬け乾燥クランベリー（クランベリー、砂糖、植物油脂）、いちごパウダー、ぶどう糖、いちごパウダー（乳糖、いちご、デキストリン）、コーンスターチ／乳化剤、着色料（野菜色素、アナトー、紅麹）、香料、酸味料、膨脹剤、糊料(ペクチン)、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>うるち米（国産）、植物油脂、米粉（うるち米（国産））、でん粉、食物繊維（イヌリン）、食塩、野菜粉末（ほうれん草、オニオン、にんじん、トマト、かぼちゃ、コーン）、発酵調味料（小麦・大豆を含む）、たんぱく加水分解物（大豆を含む）、粉末しょう油（小麦・大豆を含む）、ガーリックパウダー（大豆を含む）、チキンブイヨンパウダー（乳成分を含む)、チーズパウダー、黒胡椒、黒糖パウダー、ココアパウダー、酵母エキスパウダー</t>
+  </si>
+  <si>
+    <t>米粉（うるち米（国産））、砂糖、食塩、フラクトオリゴ糖／加工でん粉</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩、唐辛子パウダー（ブート・ジョロキアパウダー2%使用）、砂糖、ガーリックパウダー、酵母エキスパウダー、たんぱく加水分解物、ブドウ糖、オニオンパウダー、レモングラスパウダー、澱粉、乳糖、チリパウダー、チキンパウダー、香味油、ホワイトペッパーパウダー、醤油風味調味料、唐辛子ピューレ、チキンエキス調味料、クミンパウダー、パプリカパウダー、調味エキス／加工澱粉、調味料（アミノ酸等）、酸味料、炭酸Ca、香料、酸化防止剤（ビタミンE）、香辛料抽出物、カラメル色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造、国内製造)、牛乳、全粉乳、メロン果汁、脱脂粉乳、ココナッツオイル、デキストリン、クリーム、食塩／乳化剤、香料、ビタミンC、クチナシ色素、カロテン色素、甘味料(ステビア)、クエン酸</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、酒粕、デキストリン、はちみつ、食塩、米糀粉末／酸味料、香料、着色料（アントシアニン､ウコン）、Ｌ‐ロイシン、Ｌ‐バリン、Ｌ‐イソロイシン、安定剤（キサンタンガム）、甘味料（アスパルテーム・Ｌ‐フェニルアラニン化合物）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、マヌカハニー、カラメルソース（砂糖）、ハーブエキス／香料、酸味料、着色料（カラメル）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、濃縮果汁（マスカット、アセロラ、レモン）、ハーブエキス／酸味料、ビタミンＣ、香料、着色料（アントシアニン、クチナシ、ウコン）、抽出ビタミンＥ、ナイアシン、パントテン酸Ｃａ、ビタミンＢ１、ビタミンＢ６、ビタミンＢ２、ビタミンＡ、葉酸、ビタミンＤ、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、巨峰濃縮果汁／酸味料、香料、着色料（アントシアニン）</t>
+  </si>
+  <si>
+    <t>ばれいしょでん粉（ばれいしょ（北海道））、砂糖、加糖卵黄（卵黄（卵を含む）、砂糖）、水飴、ぶどう糖、小麦粉、寒梅粉ミックス（とうもろこしでん粉、もち米）、脱脂粉乳／卵殻カルシウム、膨張剤</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造)、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、野菜色素、香料(乳・大豆由来)</t>
+  </si>
+  <si>
+    <t>＜ハローキティ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜マイメロディ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜ポチャッコ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来) ＜ポムポムプリン＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、カロテノイド色素 ＜シナモロール＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
+  </si>
+  <si>
+    <t>含蜜糖（国内製造)、黒砂糖、砂糖、小麦粉、小麦蛋白（グルテン）／カラメル色素、膨張剤</t>
+  </si>
+  <si>
+    <t>グルコースシロップ、砂糖、ゼラチン、植物油脂/ソルビトール、酸味料、増　剤（寒天）、香料、着色料（黄4、黄5、赤40、青1）、光沢剤</t>
+  </si>
+  <si>
+    <t>うるち米（国産、アメリカ産）、植物油脂、砂糖、しょうゆ（小麦・大豆を含む）、果糖ぶどう糖液糖、食塩、調味エキス（大豆を含む）／加工デンプン（小麦由来）、調味料（アミノ酸等）、着色料（カラメル）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、ココアバター、マーガリン（乳成分を含む）、デキストリン、ホエイパウダー（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、練乳粉末、カラメル粉末（乳成分を含む）、洋酒、キャラメル粉末（乳成分を含む）、うるちひえパフ、食塩、水飴、乾燥卵白（卵を含む）、バニラシード／ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、トレハロース、ビタミンC、ビタミンD、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>でん粉(国内製造)、植物油脂、米粉、えび粉、食塩、香味油（小麦・えび・大豆を含む）、小麦たんぱく、えびシーズニング(大豆を含む)、昆布粉、青のり粉　/加工デンプン　乳化剤（大豆由来）、ソルビトール、調味料(アミノ酸等)、着色料（カロテノイド）、酸化防止剤（ビタミンE、ビタミンC）、香料（えび由来）、微粒酸化ケイ素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、小麦全粒粉、乳糖、異性化液糖、ホエイパウダー（乳成分を含む）、デキストリン、食塩　／　膨脹剤、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、砂糖、加糖練乳、乳糖、ぶどう糖、全粉乳、いちご粉末、食塩、クリーミングパウダー（乳成分を含む）、ココアバター ／ 膨脹剤、酸味料、乳化剤（大豆由来）、香料、着色料（ビートレッド、カロテン）、卵殻未焼成カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>原材料：小麦粉（国内製造）、砂糖、液全卵、ショートニング、植物油脂、カカオマス、水飴、ほうじ茶粉末、加糖練乳、クリーミングパウダー（乳成分を含む）、食塩、洋酒/ソルビトール、酒精、乳化剤（大豆由来）、加工デンプン、香料、膨張剤</t>
+  </si>
+  <si>
+    <t>原材料：小麦粉（国内製造）、砂糖、液全卵、マーガリン（乳成分を含む）、ごまペースト、水飴、ココアバター、食塩、洋酒/ ソルビトール、酒精、加工デンプン、乳化剤（大豆由来）、香料（ごま由来）、膨張剤</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、小麦全粒粉、全粉乳、ココアパウダー、カカオマス、デキストリン、乳糖、食塩／膨脹剤、乳化剤（大豆由来）、着色料（カラメル）、香料</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、カカオマス、液全卵、小麦粉、植物油脂、ショートニング、ココアパウダー、洋酒、水飴、異性化液糖、加糖練乳、全粉乳、還元水飴、クリーム（乳成分を含む）、ココアバター、乳糖、バター、脱脂粉乳、ぶどう糖、デキストリン、食塩／ソルビトール、酒精、乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、カカオマス、全粉乳、マーガリン（乳成分を含む）、ココアパウダー、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、洋酒、うるちひえパフ、食塩、水飴、乾燥卵白（卵を含む）　／　ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、ビタミンC、ビタミンD、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、エリスリトール、マーガリン（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、デキストリン、脱脂粉乳、洋酒、ココアバター、うるちひえパフ、食塩、クリーミングパウダー（乳成分を含む）、水飴、乾燥卵白（卵を含む）　/　ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、ビタミンC、ビタミンD、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>チョコレート（砂糖、乳糖、ココアバター、全粉乳、カカオマス、植物油脂、その他）（国内製造）、小麦パフ（小麦粉、コーンスターチ、その他）、植物油脂、砂糖、乳糖、澱粉／トレハロース、乳化剤、香料、着色料（紅麹、野菜色素）、膨脹剤、酸味料、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）、オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素、グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素、コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
+  </si>
+  <si>
+    <t>準チョコレート（砂糖、植物油脂、ココアパウダー、全粉乳、脱脂粉乳、その他）（国内製造）、チョコレート（砂糖、ココアバター、乳糖、植物油脂、全粉乳、その他）、小麦パフ（小麦粉、コーンスターチ、その他）／乳化剤、香料、膨脹剤、着色料（紅花黄、カロチノイド）、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、ココアパウダー、カラメルソース、食塩、準チョコレート、牛乳／未焼成Ca、カラメル色素、香料、乳化剤、トレハロース、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、ショートニング、ポテトでん粉、青大豆、枝豆パウダー（秋田県産）、チーズ、マルチトール、乾燥ポテト、食塩、バター、クロレラパウダー、香辛料、たん白加水分解物、酵母エキスパウダー、大豆イソフラボン抽出物、デキストリン／加工でん粉、カゼインNa、乳化剤、膨脹剤、炭酸Ca、香料、調味料（アミノ酸）、（一部に小麦・乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、カカオマス、ショートニング、ココアパウダー、全粉乳、転化糖蜜、加糖れん乳、ごま、食塩、コラーゲン(豚肉を含む)／着色料（カラメル）、膨脹剤、乳化剤（大豆由来）、炭酸Ｃａ、香料</t>
+  </si>
+  <si>
+    <t>準チョコレート（植物油脂、砂糖、カカオマス、全粉乳、ココアパウダー）（国内製造）、コーングリッツ、小麦全粒粉、砂糖、ココアパウダー、食塩／乳化剤、炭酸Ca、香料、（一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、植物油脂、わさびビーフ風味パウダー、食塩、粉末卵、ビーフエキスパウダー、粉末油脂、砂糖、しょうゆ、わさびペースト、ミート調味エキス、ガーリックパウダー、野菜エキス、たんぱく加水分解物、ミート調味パウダー／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カラメル、紅麹、クチナシ）、酸化防止剤（ビタミンＥ）、甘味料（ステビア、スクラロース）、酸味料、香辛料抽出物、（一部に小麦・卵・乳成分・牛肉・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ（遺伝子組換えでない）、イソマルトオリゴ糖、乳製品（殺菌乳酸菌飲料）、はちみつ、発酵乳パウダー、レモンリキュール、大豆たんぱく（遺伝子組換えでない）、有胞子性乳酸菌／ソルビトール、ゲル化剤（ペクチン：りんご由来）、酸味料、香料、着色料（紅花黄）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、コーンスターチ、大豆たんぱく／香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮ブルーベリー果汁、大豆たんぱく／ソルビトール、ゲル化剤（ペクチン：りんご由来）、酸味料、着色料（ビートレッド、クチナシ）、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮イチゴ果汁、濃縮リンゴ果汁、大豆たんぱく、イチゴパウダー、砂糖混合ぶどう糖果糖液糖／ソルビトール、酸味料、ゲル化剤（ペクチン）、着色料（ビートレッド）、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、乳製品（殺菌乳酸菌飲料）、発酵乳パウダー、大豆たんぱく／ソルビトール、酸味料、ゲル化剤（ペクチン：りんご由来）、香料</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、乳糖、ココアバター、砂糖、アップルソース、マルトデキストリン、ビスケット（小麦粉、砂糖、植物油脂、シュガーシロップ、大豆粉、食塩、シナモン）、脱脂粉乳、全粉乳、乾燥パン粉／乳化剤、香料、酸味料、着色料（カラメル、クチナシ、カロチノイド、フラボノイド）、膨脹剤、増粘剤（ペクチン）</t>
+  </si>
+  <si>
+    <t>粉糖（国内製造）、コーンスターチ（遺伝子組換えでない）／酸味料、香料、着色料（青1）</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、乳製品、デキストリン、カゼインＮａ、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>牛乳、コーヒー、砂糖、全粉乳、脱脂粉乳、カゼインＮａ、乳化剤、香料、甘味料（アセスルファムＫ）</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳、クリーム、脱脂濃縮乳、全粉乳、デキストリン、カゼインＮａ、香料、乳化剤、安定剤（カラギナン）</t>
+  </si>
+  <si>
+    <t>牛乳、コーヒー、砂糖、ぶどう糖、乳加工品、カゼインＮａ、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖(タイ製造、国内製造)、水あめ、ゼラチン、乳糖、乳酸菌乾燥粉末（殺菌）、ビフィズス菌乾燥粉末(殺菌)／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、アラビアガム、光沢剤、着色料(赤キャベツ、紅花黄、クチナシ)、乳化剤、（一部に乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉、食塩／香料、重曹、酸味料、糊料（プルラン）、赤キャベツ色素</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮マスカット果汁、紅茶エキスパウダー、オブラートパウダー／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、乳化剤、光沢剤、（一部に大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ(国内製造)、砂糖、ゼラチン、濃縮レモン果汁、カルダモン末、シナモン末、クローブ末、バニラシロップ、オブラートパウダー／ソルビトール、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、光沢剤、（一部に大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、水あめ、ゼラチン、乳糖／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、着色料（カラメル、赤キャベツ、クチナシ、カロチン）、アラビアガム、光沢剤、乳化剤、（一部に乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、抹茶(京都産宇治抹茶100%)、食塩、乳糖/膨張剤、クチナシ色素、香料、乳化剤(大豆由来)、酸化防止剤(ビタミンE)</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、食塩、でん粉、かつお節パウダー、唐辛子、ごま、しょうがパウダー、あおさ、昆布パウダー、花椒、陳皮パウダー、赤しそパウダー、ぶどう糖、デキストリン、ビーフエキス調味料／調味料（アミノ酸等）、香料、甘味料（ステビア）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、ショートニング、砂糖、全粒粉、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>小麦粉(国内製造)、砂糖、ショートニング、ココアパウダー、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤(大豆由来)</t>
+  </si>
+  <si>
+    <t>〈ミルク味〉小麦粉（国内製造）、ショートニング、砂糖、全粒粉、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤（大豆由来）　〈チョコ味〉小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂糖（国内製造）、砂糖（国内製造）、菜種油/pH調整剤、ゲル化剤(アルギン酸Na)、甘味料(アスパルテーム・L-フェニルアラニン化合物、スクラロース、アセスルファムK)、香料、リン酸Ca、着色料（赤40） </t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ／酸味料、香料、着色料（アカキャベツ）</t>
+  </si>
+  <si>
+    <t>砂糖、澱粉（遺伝子組換えでない）、酸味料、香料、重曹</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
   </si>
 </sst>
 </file>
@@ -853,10 +967,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E615D68-CAB4-47E0-941D-23CC2B10D297}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A157"/>
+  <dimension ref="A1:A196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,782 +985,977 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/ingredients/ingredients.xlsx
+++ b/ingredients/ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\ingredients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D823A-8984-4F5C-83B3-A6BB70CAF0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC51F22-6204-4278-8FF5-9B741633E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30450" yWindow="5205" windowWidth="27135" windowHeight="9960" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{277A9B31-7E86-49C3-9996-15C89BA3B75E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,586 +28,489 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
   <si>
     <t>ingredients_ori</t>
   </si>
   <si>
-    <t>チョコレート（砂糖、全粉乳、植物油脂、ココアバター、カカオマス、乳糖）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、乳化剤（大豆由来）、貝カルシウム、香料、着色料（カラメル）、膨張剤</t>
-  </si>
-  <si>
-    <t>牛乳（国内製造）、砂糖、コーヒー、脱脂粉乳、全粉乳、デキストリン／乳化剤、香料、セルロース</t>
-  </si>
-  <si>
     <t>コーングリッツ（遺伝子組換えでない）、砂糖、植物油脂、マーガリン、ココアパウダー、加糖れん乳、カラメルソース、食塩、クリーム（乳製品）、発酵風味パウダー、乳糖、カカオマス、全粉乳、たんぱく加水分解物、クリーム粉末、カラメル色素、卵殻未焼成Ca、香料、乳化剤、トレハロース、（原材料の一部に小麦、大豆を含む）</t>
   </si>
   <si>
-    <t>砂糖、全粉乳、ココアバター、カカオマス、植物油脂、脱脂粉乳、乳化剤、香料、アカビート色素、（原材料の一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、乳糖、全粉乳、いちごパウダー、小麦全粒粉、ココアパウダー、ショートニング、小麦たんぱく、イヌリン、食塩、イースト、キャラメルパウダー／香料、アカビート色素、乳化剤、調味料（無機塩）、膨脹剤、酸味料、V.C、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、アーモンド、全粉乳、植物油脂、カカオマス、ココアバター、小麦全粒粉、ショートニング、アーモンドプラリネペースト、小麦たんぱく、食塩、イースト／乳化剤、香料、膨脹剤、（一部に乳成分・小麦・大豆・アーモンドを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、砂糖、小麦たんぱく、ポークエキス、オニオンペースト、食塩、しょうゆシーズニング、たんぱく加水分解物、にんにくパウダー、酵母エキス、こしょう、ベーコンエキス／調味料（アミノ酸等）、香料、乳化剤、増粘剤（キサンタンガム）、着色料（アナトー色素、カラメル）、酸味料、くん液、（一部に乳成分・小麦・大豆・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、でん粉、スモークチーズパウダー、砂糖、小麦たんぱく、食塩、発酵調味料、こしょう、酵母エキス、デキストリン、麦芽糖／調味料（アミノ酸等）、香料、増粘剤（キサンタンガム）、乳化剤、着色料（アナトー色素）、酸味料、（一部に乳成分・小麦・大豆を含む）</t>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、ココアパウダー、カラメルソース、食塩、準チョコレート、牛乳／未焼成Ca、カラメル色素、香料、乳化剤、トレハロース、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>乾燥ポテト（外国製造）、植物油脂、食塩、唐辛子パウダー（ブート・ジョロキアパウダー2%使用）、砂糖、ガーリックパウダー、酵母エキスパウダー、たんぱく加水分解物、ブドウ糖、オニオンパウダー、レモングラスパウダー、澱粉、乳糖、チリパウダー、チキンパウダー、香味油、ホワイトペッパーパウダー、醤油風味調味料、唐辛子ピューレ、チキンエキス調味料、クミンパウダー、パプリカパウダー、調味エキス／加工澱粉、調味料（アミノ酸等）、酸味料、炭酸Ca、香料、酸化防止剤（ビタミンE）、香辛料抽出物、カラメル色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、植物油脂、ココアバター、ショートニング、ココアパウダー、食塩／乳化剤、香料、調味料（無機塩）、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、乳糖、ココアバター、全粉乳、植物油脂、キャラメルパウダー、ショートニング、バター加工品、小麦たんぱく、食塩、イースト／乳化剤、香料、膨脹剤、カロチン色素、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、植物油脂、全粉乳、イヌリン、食塩、でん粉、小麦たんぱく、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、イヌリン、全粉乳、いちごパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、酸味料、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、全粉乳、イヌリン、メープルシュガー、キャラメルパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、植物油脂、発酵バター、乳糖、イヌリン、食塩、バターミルクパウダー、小麦たんぱく、乳酸菌、バニラビーンズシード／炭酸Ca、膨脹剤、乳化剤、香料、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
   </si>
   <si>
     <t>小麦粉、植物油脂、ショートニング、砂糖、食塩、イースト、果糖ぶどう糖液糖、モルトエキス、コンソメシーズニング、しょうゆシーズニング、調味料（無機塩等）、香料、（原材料の一部に乳成分、大豆、鶏肉を含む）</t>
   </si>
   <si>
-    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、砂糖混合ブドウ糖果糖液糖、食塩、メロンピューレ、準チョコレート／未焼成Ca、香料、乳化剤、ｐH調整剤、クチナシ色素、甘味料（スクラロース）、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、かやく（ワンタン、味付鶏挽肉）、添付調味料（チキンエキス、香辛料、砂糖、食塩、粉末野菜、しょうゆ、ねぎ、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、レシチン、クチナシ色素、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（チキンエキス、しょうゆ、食塩、植物油、発酵調味料、砂糖、野菜エキス、こんぶエキス、香辛料、酵母エキス、鶏脂、ラード、魚介エキス）、かやく（ワンタン、卵）／加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、かんすい、酸化防止剤（ビタミンＣ、ビタミンＥ）、レシチン、クチナシ色素、カラメル色素、増粘多糖類、カロチン色素、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、ポークエキス、食塩、ラード、でん粉、植物油、香味油脂、砂糖、たん白加水分解物、香辛料、ねぎ、粉末煮干し）、かやく（焼豚、なると）、加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、増粘多糖類、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ、ビタミンＣ）、クチナシ色素、ｐＨ調整剤、カラメル色素、香料、ベニコウジ色素、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、鶏肉、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（みそ、ポークエキス、醤油、香味油脂、ラード、香辛料、植物油、砂糖、食塩、たん白加水分解物、酵母エキス、ねぎ、発酵調味料）、かやく（コーン、味付鶏挽肉）、加工でん粉、調味料（アミノ酸等）、カラメル色素、酒精、炭酸カルシウム、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、ｐＨ調整剤、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、食塩、香辛料、粉末野菜、卵白）、添付調味料（醤油、食塩、チキンエキス、ラード、砂糖、香味油脂、たん白加水分解物、植物油、粉末野菜、ポークエキス、香辛料、ねぎ、酵母エキス、発酵調味料）、かやく（ワンタン、味付鶏挽肉、コーン）、加工でん粉、調味料（アミノ酸等）、カラメル色素、炭酸カルシウム、酒精、かんすい、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、増粘多糖類、香料、ビタミンＢ２、ビタミンＢ１、（原材料の一部に乳成分、ごま、ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（しょうゆ、チキンエキス、食塩、植物油、鶏脂、ポークエキス、香辛料、砂糖、野菜エキス、発酵調味料、たん白加水分解物、酵母エキス、ミート風味パウダー、香味油脂）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩、植物性たん白）、添付調味料（食塩、香辛料、チキンエキス、しょうゆ、酵母エキス、砂糖、植物油）／加工でん粉、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、酸化防止剤（ビタミンＥ）、酸味料、クチナシ色素、（一部に小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（ポークエキス、しょうゆ、鶏脂、食塩、でん粉、砂糖、香辛料、たん白加水分解物、野菜エキス、植物油）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、カラメル色素、炭酸カルシウム、増粘多糖類、酒精、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、植物油脂、食塩、植物性たん白、卵白）、添付調味料（しょうゆ、ラード、魚介エキス、食塩、チキンエキス、ポークエキス、香味油脂、砂糖、香辛料、酵母エキス）／加工でん粉、調味料（アミノ酸等）、トレハロース、かんすい、酒精、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、カラメル色素、クチナシ色素、増粘多糖類、香料、（一部に小麦・卵・さば・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物性たん白、植物油脂、卵白）、添付調味料（みそ、ポークエキス、食塩、香辛料、香味油脂、野菜エキス、植物油、ラード、砂糖、発酵調味料、デーツ果汁、たん白加水分解物）／加工でん粉、調味料（アミノ酸等）、トレハロース、酒精、かんすい、炭酸カルシウム、カラメル色素、レシチン、酸化防止剤（ビタミンＥ）、クチナシ色素、（一部に小麦・卵・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、精製ラード、食塩）、添付調味料（食塩、しょうゆ、デキストリン、チキンエキス、ポークエキス、香辛料（黒こしょう、ガーリックパウダー））／加工でん粉、カラメル色素、炭酸カルシウム、調味料（アミノ酸等）、かんすい、酸化防止剤（ビタミンＥ）、クチナシ色素、香料、香辛料抽出物、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造）、水あめ、ゼラチン、食用油脂／甘味料（ソルビトール）、酸味料、香料、ゲル化剤（ペクチン：オレンジ由来）、着色料（クチナシ、野菜色素）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、卵粉、しょうゆ）、スープ（食塩、豚脂、ポークエキス、香辛料、香味油、たん白加水分解物、酵母エキス、しょうゆ、デキストリン、糖類、ローストオニオン粉末、香味調味料、植物油脂）、かやく（卵、豚・鶏味付肉、ニラ）/加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、香料、増粘多糖類、ソルビット、グリセリン、カロチノイド色素、微粒二酸化ケイ素、乳化剤、酸化防止剤（ビタミンE）、酸味料、甘味料（スクラロース）、香辛料抽出物、ビタミンB2、ビタミンB1、（一部に卵・乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（半固体状ドレッシング、しょうゆ、糖類、豚脂、食塩、ポークエキス、魚醤、魚介エキス、たん白加水分解物、香味調味料、香辛料）、かやく（キャベツ）、ふりかけ（たらこ加工品、のり、香辛料）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、カラメル色素、酒精、香料、増粘剤（加工デンプン、キサンタンガム）、乳化剤、酸味料、カロチノイド色素、ベニコウジ色素、酸化防止剤（ビタミンＥ）、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･いか･さけ･さば･大豆･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、オニオン粉末）、ソース（ペッパーガーリックマヨネーズ、しょうゆ、糖類、豚脂、植物油脂、食塩、ポークエキス、香味油、たん白加水分解物、香味調味料、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（香辛料、アオサ、赤唐辛子）／調味料（アミノ酸等）、かんすい、炭酸カルシウム、酒精、香料、増粘剤（キサンタンガム）、乳化剤、酸味料、カロチノイド色素、酸化防止剤（ビタミンＥ）、カラメル色素、香辛料抽出物、炭酸マグネシウム、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ソース、糖類）、ソース（ソース、からしマヨネーズ、糖類、植物油脂、食塩、香味油、たん白加水分解物、ソース加工品、香味調味料、ポークエキス、香辛料、醸造酢）、かやく（キャベツ）、ふりかけ（ソース加工品、マヨネーズ風ソースフレーク、アオサ、紅しょうが）／カラメル色素、調味料（アミノ酸等）、炭酸カルシウム、かんすい、酸味料、乳化剤、香料、香辛料抽出物、酸化防止剤（ビタミンＥ）、炭酸マグネシウム、カロチノイド色素、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･オレンジ･ごま･大豆･豚肉･りんごを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ）、ソース（砂糖、食塩、ソース、香辛料、デキストリン、たん白加水分解物）、かやく（キャベツ）/加工でんぷん、調味料（アミノ酸等）、カラメル色素、炭酸Ca、かんすい、酸味料、増粘多糖類、炭酸Mg、酸化防止剤（ビタミンE）、香料、ビタミンB2、ビタミンB1、（一部に小麦・大豆・ごまを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、植物油脂、乳糖、でん粉、ショートニング、ココアバター、全粉乳、ホエイパウダー、液卵、マルチトール、ストロベリーパウダー、クリームパウダー、食塩／炭酸Ｃａ、膨脹剤、着色料（カラメル、紅麹、アカビート）、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、ラード、食塩、植物性たん白、しょうゆ）、スープ（しょうゆ、糖類、食塩、動物油脂、ビーフエキス、たん白加水分解物、昆布エキス、鰹エキス）、かやく（かす入り揚げ玉、とろろ昆布、かまぼこ、ねぎ）／加工でん粉、調味料（アミノ酸等）、酒精、リン酸Na、香料、増粘剤（キサンタン）、酸化防止剤（ビタミンE)、カラメル色素、膨脹剤、紅麹色素、クチナシ色素、（一部に小麦・牛肉・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（植物油脂、砂糖、乳糖、全粉乳、ココアバター）（国内製造）、ビスケット（小麦粉、砂糖、ショートニング、食塩）、小麦粉、植物油脂、乳糖、抹茶、砂糖、ココアパウダー、緑茶、全粉乳、カカオマス、イースト、ココアバター／乳化剤、膨脹剤、香料、重曹、イーストフード、（一部に小麦・乳成分・大豆を含む）</t>
+    <t>砂糖（タイ製造）、水あめ、ゼラチン、ぶどう糖、オブラート、食用油脂／ソルビトール、酸味料、香料、クチナシ青色素、乳化剤（大豆由来）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造）、ビスケット（小麦を含む）、植物油脂、カカオマス、全粉乳、ホエイパウダー、乳糖、水あめ、ミルクカルシウム／乳化剤（大豆由来）、膨脹剤、香料、光沢剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、でん粉、食塩、植物性たん白、こんにゃく、大豆食物繊維、植物油脂、乳糖）、添付調味料（ポークエキス、しょうゆ、チキンエキス、発酵調味料、植物油、豚脂、でん粉、野菜エキス、香味油脂、砂糖、たん白加水分解物、ゼラチン、香辛料、ねぎ）、かやく（焼豚、メンマ、ねぎ）／調味料（アミノ酸等）、カラメル色素、酒精、かんすい、トレハロース、炭酸カルシウム、レシチン、ｐＨ調整剤、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造又は韓国製造）、生あん、水あめ、カカオマス、寒天／甘味料（ソルビトール）、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>準チョコレート(砂糖、植物油脂、全粉乳、脱脂粉乳、乳糖、カカオマス、ココアパウダー、食塩)(国内製造)、小麦粉、チョコレート(砂糖、カカオマス、全粉乳、ココアバター、植物油脂、脱脂粉乳、ココアパウダー)、アーモンド、ココアクッキー、油脂加工食品(植物油脂、砂糖、乳糖、脱脂粉乳)、砂糖、ショートニング、植物油脂、アーモンドプラリネ、アーモンドペースト、小麦全粒粉、乳等を主要原料とする食品、食塩、ぶどう糖、ホエイパウダー、脱脂粉乳、コーヒー粉末、全粉乳／膨脹剤、乳化剤(大豆由来)、甘味料(ソルビトール)、香料</t>
+  </si>
+  <si>
+    <t>えんどう豆（輸入）、食用油脂、でん粉、砂糖、小麦粉、食塩、配合調味料／調味料（アミノ酸等）、膨脹剤、着色料（黄4、青1）、（一部に小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、乳糖、でん粉/酸味料、乳化剤、着色料(カラメル、アントシアニン、フラボノイド）、香料、炭酸ガス</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、乳糖、でん粉/酸味料、乳化剤、着色料(アントシアニン、クチナシ、フラボノイド）、香料、炭酸ガス</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、乳糖、でん粉/酸味料、乳化剤、香料、着色料(クチナシ、アントシアニン、フラボノイド）、炭酸ガス</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、せとか果汁/酸味料、香料、アナトー色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、植物油脂、ゼラチン、濃縮マスカット果汁、加糖練乳、でん粉/乳化剤、ソルビトール、増粘多糖類、加工デンプン、酸味料、香料、着色料（フラボノイド、クチナシ）、（一部に乳成分・大豆・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、でん粉、濃縮オレンジ果汁、濃縮レモン果汁、植物油脂/ソルビトール、酸味料、増粘剤（増粘多糖類、CMC-Na）、香料、着色料（フラボノイド、カロチノイド）、光沢剤、（一部にオレンジ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮ぶどう果汁、濃縮マスカット果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（フラボノイド、アントシアニン、クチナシ、紅麹）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮バナナ果汁、濃縮レモン果汁、濃縮すもも果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮マスカット果汁、濃縮ぶどう果汁、植物油脂、でん粉/ソルビトール、酸味料、加工デンプン、香料、着色料（クチナシ、フラボノイド）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂、でん粉、ソルビトール、酸味料、加工デンプン、香料、着色料（カラメル、クチナシ）、光沢剤、（一部にゼラチンを含む）</t>
+  </si>
+  <si>
+    <t>チョコレートコーチング（砂糖、植物油脂、ココアパウダー）、小麦粉、砂糖、鶏卵、ぶどう糖果糖液糖、その他</t>
+  </si>
+  <si>
+    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、抹茶（京都産宇治抹茶100%）、食塩、乳糖／膨張剤、クチナシ色素、香料、乳化剤（大豆由来）、酸化防止剤（ビタミンE）</t>
+  </si>
+  <si>
+    <t>粉糖（国内製造）、コーンスターチ（遺伝子組換えでない）／酸味料、香料、着色料（青1）</t>
+  </si>
+  <si>
+    <t>砂糖、澱粉（遺伝子組換えでない）、酸味料、香料、重曹</t>
+  </si>
+  <si>
+    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、食塩、でん粉、かつお節パウダー、唐辛子、ごま、しょうがパウダー、あおさ、昆布パウダー、花椒、陳皮パウダー、赤しそパウダー、ぶどう糖、デキストリン、ビーフエキス調味料／調味料（アミノ酸等）、香料、甘味料（ステビア）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>ブドウ糖（国内製造）、コーンスターチ、澱粉分解物／酸味料、香料、着色料（アントシアニン、クチナシ、アナトー、スピルリナ青）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、植物油脂、ハーブエキス（オレンジを含む）／ビタミンC、酸味料、香料、乳化剤、着色料（クチナシ）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、ハーブエキス、ペパーミントエキス／香料、着色料（クチナシ）</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、植物油脂、生クリーム（北海道産）、バター、クリーミングパウダー、たんぱく質 濃縮ホエイパウダー、全粉乳、食塩、ハーブエキス／香料、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、黒糖、はちみつ、粉末乾燥生姜/香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、はちみつ、ハーブエキス（オレンジを含む）／香料、着色料（カラメル）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、抹茶、植物油脂、粉末小豆／香料、着色料（アカダイコン、クロレラ末、クチナシ）、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、バター、加糖れん乳、食塩、たんぱく質濃縮ホエイパウダー／香料、乳化剤、着色料（クチナシ、β-カロテン）</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)、水あめ／酸味料、香料、着色料（アントシアニン、クチナシ、紅麹)</t>
+  </si>
+  <si>
+    <t>ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）（国内製造）、乳糖、ココアバター、砂糖、植物油脂、全粉乳、脱脂粉乳、発酵乳パウダー、殺菌乳酸菌粉末／加工デンプン、貝カルシウム、乳化剤（大豆由来）、香料、着色料（カラメル、クチナシ）、膨脹剤</t>
+  </si>
+  <si>
+    <t>＜コーラ＞砂糖（国内製造）、水あめ／酸味料、重曹、着色料（カラメル）、香料＜ラムネ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（クチナシ）＜グレープソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（アカキャベツ、クチナシ）＜ヨーグルトソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料＜メロンクリームソーダ＞砂糖（国内製造）、水あめ、加糖れん乳、乳等を主要原料とする食品／酸味料、重曹、香料、着色料（紅麹、クチナシ）、乳化剤</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、食塩（ぬちまーす100%）、植物油脂、濃縮レモン果汁／酸味料（クエン酸）、ビタミンC、香料、乳化剤、着色料（クチナシ、紅麹）</t>
+  </si>
+  <si>
+    <t>うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、わさび風味シーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、粉末わさび／調味料（アミノ酸等）、加工でん粉、ソルビトール、着色料（カラメル、パプリカ色素）、香料、香辛料抽出物、チャ抽出物、乳化剤、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>原材料：うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、乳化剤、香辛料抽出物、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>昆布（北海道産）、醸造酢、かつおぶしエキス、発酵調味料、たんぱく加水分解物/調味料（アミノ酸等）、ソルビトール、酸味料、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>昆布（国内産）、醸造酢、かつおぶしエキス、食塩、たんぱく加水分解物、発酵調味料/調味料（アミノ酸等）、酸味料、ソルビトール、加工でん粉、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、ココア、マーガリン、パン酵母、大豆ペースト、脱脂粉乳、全粉乳、ココアバター、食塩、酵母エキス／乳化剤、香料</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、米、砂糖、デキストリン、カレーシーズニング（大豆・鶏肉・豚肉を含む）、食塩、ビーフエキス調味料（小麦・牛肉・大豆・豚肉・りんごを含む）、香辛料、カレーパウダー、パン粉（小麦を含む）、香味油／加工でん粉、調味料（アミノ酸等）、ソルビトール、乳化剤、香料、酸化防止剤（ローズマリー抽出物）、香辛料抽出物、甘味料（ステビア）</t>
+  </si>
+  <si>
+    <t>米（国産）、ホエイパウダー（乳成分を含む）、砂糖、チーズ風味シーズニング（乳成分を含む）、乳糖、食塩、オニオンエキスパウダー、しょうゆ（小麦・大豆を含む）、ピザ風味シーズニング（小麦・乳成分・大豆・豚肉を含む）、チーズパウダー（チェダーチーズ45%、カマンベールチーズ30%、ゴーダチーズ1%）、植物油脂、唐辛子、たんぱく加水分解物（大豆を含む）／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、乳化剤、パプリカ色素、くん液、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水あめ、濃縮りんご果汁、カリンエキス、植物油脂、ハーブエキス／酸味料、香料、着色料（紅花黄、カラメル）、乳化剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、着色料（クチナシ、野菜色素）、香料</t>
+  </si>
+  <si>
+    <t>ぶどう糖（国内製造）、でん粉／加工でん粉、酸味料、乳化剤、野菜色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、植物油脂、乳糖、全粉乳、カカオマス、ココアバター、れん乳パウダー、ストロベリーパウダー／乳化剤（大豆由来）、アカビート色素、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造又は韓国製造又はその他）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩/膨張剤、卵殻カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩、アオサ粉/膨張剤、卵殻カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>うるち米（国内産、米国産）、植物油脂、しょうゆ（小麦・大豆を含む）、砂糖、かつおだし粉末、昆布だし/加工デンプン、調味料（アミノ酸等）</t>
+  </si>
+  <si>
+    <t>もち米（国内産、米国産）、植物油脂、ピーナッツ、食塩、砂糖、かつおだし粉末、昆布粉末、チキンコンソメシーズニング、調味料（アミノ酸等）、香料、（原材料の一部に小麦、大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（韓国製造、シンガポール製造、国内製造）、マーガリン（乳成分を含む）、砂糖、準チョコレート（乳成分を含む）、脱脂粉乳、鶏卵加工品（鶏卵、砂糖）、砂糖混合ぶどう糖果糖液糖、食塩／膨脹剤、乳化剤（大豆由来）、香料、着色料（カロテン）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、チョコレート（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽糖水あめ）、鶏卵加工品（鶏卵、砂糖）、大豆粉、脱脂粉乳、水あめ、ココアパウダー、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス／加工でん粉、乳化剤（大豆由来）、膨脹剤、香料着、色料（カラメル）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、チョコレート（乳成分を含む）、ショートニング（大豆を含む）、還元水あめ、白練餡（生餡、砂糖、水あめ、還元麦芽糖水あめ）、ココアパウダー、大豆粉、鶏卵加工品（鶏卵、砂糖）、水あめ、脱脂粉乳、卵黄粉末（卵を含む）、全粉乳、でん粉分解物、カカオマス、食塩、酵母エキス／加工でん粉、乳化剤（大豆由来）、香料、膨脹剤</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）（分別生産流通管理済み）、砂糖、植物油脂（大豆を含む）、ピーナッツ、ココアパウダー、カカオマス、ココアバター、乳糖／乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（韓国製造、シンガポール製造、国内製造）、マーガリン（乳成分を含む）、砂糖、乳等を主要原料とする食品（クリーム（乳成分を含む）、植物油脂、その他（乳成分を含む））、クリーム（乳成分を含む）、脱脂粉乳、ホエイパウダー（乳成分を含む）、酵母エキス／膨脹剤、乳化剤（大豆由来）、香料（乳由来）、セルロース、ホエイソルト（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、アーモンド加工品（アーモンド、砂糖、水あめ、植物油脂）、カカオマス、全粉乳、ココアバター、植物油脂（大豆を含む）、脱脂粉乳、乳糖、デキストリン／光沢剤、乳化剤、増粘剤（アラビアガム）、香料、着色料（カラメル）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造、国内製造）、アーモンド、カカオマス、全粉乳、植物油脂、ココアバター、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、乳糖／乳化剤、香料、膨脹剤、（一部にアーモンド・乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖粉乳調製品（砂糖、全粉乳、ココアバター）（シンガポール製造）、乳糖、アーモンド、ココアバター、植物油脂、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、脱脂粉乳、全粉乳／乳化剤、香料、膨脹剤、（一部に乳成分・アーモンド・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖・ぶどう糖果糖液糖（国内製造）／炭酸ガス、酸味料、香料</t>
+  </si>
+  <si>
+    <t>【ミルク】砂糖(外国製造)、全粉乳、カカオマス、ココアバター、植物油脂／乳化剤(大豆由来)、香料【いちご】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター／乳化剤(大豆由来)、酸味料、野菜色素、香料【きなこ】植物油脂(国内製造)、砂糖、乳糖、きなこ(大豆を含む)、全粉乳、ココアバター、脱脂粉乳／乳化剤、香料【バナナ】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター、バナナパウダー／乳化剤(大豆由来)、香料、カロチノイド色素【メロン】砂糖(外国製造)、乳糖、植物油脂、ココアバター、全粉乳／乳化剤(大豆由来)、酸味料、着色料(スピルリナ青、クチナシ)、香料</t>
   </si>
   <si>
     <t>緑茶（国産）／ビタミンＣ</t>
   </si>
   <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、香辛料、チキンエキス、ポークエキス、えびエキス、たん白加水分解物）、かやく（かまぼこ、コーン、ねぎ）、調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ベニコウジ色素、ビタミンＢ１</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉、植物油脂、でん粉、食塩、粉末卵、糖類）、スープ（みそ、食塩、糖類、ポークエキス、コチュジャン、植物油脂、豚脂、豆板醤、香辛料、香味食用油、調味油脂、たん白加水分解物）、かやく（ねぎ、鶏・豚味付肉そぼろ、コーン）、加工でん粉、調味料（アミノ酸等）、酒精、炭酸カルシウム、カラメル色素、香料、クチナシ色素、かんすい、増粘剤（キサンタン）、酸味料、酸化防止剤（ビタミンＥ、ローズマリー抽出物）、ビタミンＢ2、ビタミンＢ１、香辛料抽出物、（原材料の一部にごまを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉(国内製造)、植物油脂、でん粉、食塩、しょうゆ、たん白加水分解物）、スープ（糖類、食塩、しょうゆ、貝エキス、野菜粉末、チキンエキス、ポークエキス、えびエキス、香辛料、たん白加水分解物）、かやく（かまぼこ、コーン）／調味料（アミノ酸等）、加工でん粉、炭酸カルシウム、カラメル色素、かんすい、増粘多糖類、酸味料、酸化防止剤（ビタミンＥ）、クチナシ色素、イカスミ色素、ビタミンＢ２、ビタミンＢ１、ベニコウジ色素、（一部にえび・小麦・乳成分・いか・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、果汁（いちご、パインアップル、レモン、オレンジ、りんご、メロン、ぶどう、もも）/酸味料、香料、着色料（アントシアニン、パプリカ色素、カロチン、クチナシ、紅麹、紅花黄）、（一部にオレンジ・もも・りんごを含む）</t>
-  </si>
-  <si>
-    <t>（レモン味）砂糖（国内製造）、水飴、濃縮レモン果汁、ハーブエキス（オレンジを含む）
-（ピーチ味）砂糖（国内製造）、水飴、濃縮ピーチ果汁、ハーブエキス（オレンジを含む）
-（グレープ味）砂糖（国内製造）、水飴、濃縮グレープ果汁、ハーブエキス（オレンジを含む）
-（オレンジ味）砂糖（国内製造）、水飴、濃縮オレンジ果汁、ハーブエキス（オレンジを含む）
-（青りんご味）砂糖（国内製造）、水飴、濃縮りんご果汁、ハーブエキス（オレンジを含む）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（食塩、砂糖、鶏油、香味油、たん白加水分解物、植物油脂、チキンエキス、香辛料、酵母エキス、チキン調味料、ネギエキス）、かやく（大豆加工品、ねぎ、もやし、コリアンダー）／加工でん粉、調味料（アミノ酸等）、酒精、増粘剤（加工でん粉、増粘多糖類）、香料、カラメル色素、乳化剤、酸味料、酸化防止剤（ビタミンＥ）、（一部に乳成分・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、スープ（たん白加水分解物、糖類、食塩、香辛料、牛脂、発酵調味料、植物油脂、醸造酢、トマトケチャップ、ビーフエキス、香味油、酵母エキス）、かやく（大豆加工品、ねぎ、唐辛子）／加工でん粉、調味料（アミノ酸等）、酒精、香料、香辛料抽出物、増粘多糖類、カラメル色素、乳化剤、酸味料、甘味料（スクラロース、アセスルファムＫ）、酸化防止剤（ビタミンＥ）、（一部にえび・牛肉・大豆を含む）</t>
-  </si>
-  <si>
-    <t>米めん（ベトナム製造（米、でん粉、食塩））、かやく入りスープ（食塩、チンゲン菜、砂糖、トムヤムシーズニングパウダー、大豆加工品、香辛料、ねぎ、酵母エキス、たん白加水分解物、蝦醤、チキン調味料、エビエキス、コリアンダー、唐辛子）／加工でん粉、調味料（アミノ酸等）、酸味料、香料、微粒二酸化ケイ素、カロチノイド色素、甘味料（スクラロース、アセスルファムＫ）、乳化剤、増粘剤（グァーガム）、（一部にえび・大豆・鶏肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、グァバ、パインアップル、パッションフルーツ）、砂糖類（砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、植物油、塩化Ｎａ、ガラナ種子エキス／炭酸、クエン酸、香料、保存料（安息香酸Ｎａ）、Ｌ－アルギニン、クエン酸Ｎａ、カフェイン、甘味料（スクラロース）、ナイアシン、イノシトール、ビタミンＢ６、ビタミンＢ２、着色料（β－カロテン）、ビタミンＢ１２</t>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
+  </si>
+  <si>
+    <t>牛乳（国内製造）、コーヒー、砂糖、全粉乳、脱脂粉乳、デキストリン／カゼインNa、乳化剤、香料、甘味料（アセスルファムK）</t>
+  </si>
+  <si>
+    <t>牛乳（国内製造）、コーヒー（エチオピア産コーヒー豆51%）、砂糖、全粉乳、 脱脂粉乳、デキストリン／カゼインNa、乳化剤、香料、甘味料（アセスルファムK）</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、乳製品、デキストリン、カゼインＮａ、乳化剤、香料</t>
+  </si>
+  <si>
+    <t>牛乳、コーヒー、砂糖、全粉乳、脱脂粉乳、カゼインＮａ、乳化剤、香料、甘味料（アセスルファムＫ）</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>牛乳、砂糖、コーヒー、脱脂粉乳、クリーム、脱脂濃縮乳、全粉乳、デキストリン、カゼインＮａ、香料、乳化剤、安定剤（カラギナン）</t>
+  </si>
+  <si>
+    <t>牛乳、コーヒー、砂糖、ぶどう糖、乳加工品、カゼインＮａ、香料、乳化剤</t>
+  </si>
+  <si>
+    <t>ぶどう、砂糖、パラチノース／酸味料、炭酸、香料、アルギニン、着色料（アントシアニン、カラメル）、甘味料（アセスルファムＫ、スクラロース）、カフェイン、ナイアシンアミド、ビタミンB6 原料原産地名：ブラジル製造（ぶどう果汁）</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
+  </si>
+  <si>
+    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
+  </si>
+  <si>
+    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
+  </si>
+  <si>
+    <t>コーングリッツ（国内製造）、植物油、粉末ソース、砂糖、トマト風味パウダー、たん白加水分解物（大 豆を含む）、小麦粉、粉末鰹節、あおさ、食塩、たこパウダー / 調味料（アミノ酸等）、酸味料、炭酸 カルシウム、着色料（カラメル、カロチノイド）、香料（鶏肉・りんご由来）、甘味料（スクラロース、 ステビア：乳由来、甘草）、香辛料抽出物</t>
+  </si>
+  <si>
+    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
+  </si>
+  <si>
+    <t>めん（小麦粉（国内製造）、食塩、たん白加水分解物、大豆食物繊維、卵白粉）、スープ（背脂加工品、豚脂、ポークエキス、たん白加水分解物、しょうゆ、砂糖、香辛料、酵母エキス）、かやく入りスープ（ポーク調味料、食塩、乳化油脂、粉末しょうゆ、香辛料、ポークエキス、背脂加工品、揚げ玉、たん白加水分解物、砂糖、酵母エキス、ねぎ、カツオブシパウダー）／加工でん粉、調味料（アミノ酸等）、炭酸Ｃａ、乳化剤、増粘剤（キサンタンガム、加工でん粉）、カラメル色素、かんすい、香料、酸化防止剤（ビタミンＥ）、酸味料、甘味料（カンゾウ、スクラロース、アセスルファムＫ）、微粒二酸化ケイ素、カロチノイド色素、（一部に小麦・卵・乳成分・大豆・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>砂糖、植物油脂、ホエイパウダー、ライスシリアル（米、大麦、砂糖、食塩）、ココアパウダー、麦芽、脱脂粉乳／乳化剤(大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉、植物油脂、砂糖、ブドウ糖、タピオカでんぷん、イースト、食塩、脱脂粉乳、麦芽抽出物／膨張剤、ビタミンＢ１、ビタミンＢ６、ビタミンＢ２、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、風味オイル(乳成分を含む)、 ぶどう糖、デキストリン、岩塩、たんぱく加水分解物(大豆を含む)、ミートエキ ス調味パウダー(乳成分・小麦・ごま・大豆・鶏肉・豚肉を含む)、ブラックペッ パー(カンポートペッパー3%)、でん粉、花椒、レモン果汁パウダー、香味油 (豚肉を含む)/調味料(アミノ酸等)、酸味料、香辛料抽出物、香料</t>
+  </si>
+  <si>
+    <t>馬鈴薯(日本:遺伝子組換えでない)、植物油、風味オイル(乳成分を含む)、でん粉分解物、食塩(オホーツクの塩50%、岩塩50%)、たんぱく加水分解物(鶏肉を含む)、鶏油/調味料(アミノ酸等)</t>
+  </si>
+  <si>
+    <t>生地(国内製造)(小麦粉、でん粉、えびエキスパウダー、えびパウダー、砂糖、 乾燥えび、発酵調味液、植物油、かつお節)、植物油、デキストリン、ぶどう糖、 魚介エキスパウダー、食塩、粉末しょうゆ、唐辛子、酵母エキスパウダー/加工デンプン、 調味料(アミノ酸等)、トレハロース、甘味料(スクラロース)、(一部に乳成分・小麦・えび・大豆・ゼラチンを含む)</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、カカオマス、全粉乳、パフ（コーングリッツ、でん粉、砂糖）、乳糖、ココアパウダー／乳化剤、香料、膨脹剤、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ローストピーナッツ（国内製造）、砂糖、植物油脂、乳糖、全粉乳、カカオマス、ココアパウダー／乳化剤、香料、（一部に乳成分・落花生・大豆を含む）</t>
+  </si>
+  <si>
+    <t>レーズン（アメリカ製造）、カカオマス、砂糖、ココアバター、ココアパウダー、全粉乳、マルトデキストリン、植物油脂／光沢剤、乳化剤、香料、（一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、小麦パフ、全粉乳、カカオマス、ココアパウダー、マルトデキストリン／乳化剤、光沢剤、香料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造又は国内製造）、植物油脂、コーングリッツ（分別生産流通管理済み）、全粉乳、カカオマス、ココアパウダー、小麦粉、マルトデキストリン／乳化剤、光沢剤、セルロース、香料、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、カカオマス、小麦全粒粉、全粉乳、でん粉、水あめ、乳糖、小麦胚芽、ココアパウダー、脱脂粉乳、食塩／膨脹剤、乳化剤、香料、（一部に卵・乳成分・小麦・大豆・アーモンドを含む）</t>
+  </si>
+  <si>
+    <t>砂糖(外国製造又は国内製造）、乳糖、ワッフルクランチ（小麦粉、砂糖、でん粉、その他）、植物油脂、小麦粉、全粉乳、ココアバター、レモン果汁パウダー、ショートニング、異性化液糖、食塩／乳化剤、着色料（カロテノイド、アナトー）、香料、酸味料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ワッフルクランチ（国内製造）（小麦粉、砂糖、でん粉、その他）、砂糖、乳糖、植物油脂、全粉乳、ココアバター、糖漬け乾燥いちご(いちご、砂糖、ぶどう糖)、糖漬け乾燥クランベリー（クランベリー、砂糖、植物油脂）、いちごパウダー、ぶどう糖、いちごパウダー（乳糖、いちご、デキストリン）、コーンスターチ／乳化剤、着色料（野菜色素、アナトー、紅麹）、香料、酸味料、膨脹剤、糊料(ペクチン)、（一部に乳成分・小麦・大豆を含む）</t>
+  </si>
+  <si>
+    <t>米（うるち米粉（米国産、豪州産、国産）、うるち米（国産、米国産））、植物油脂、砂糖、しょう油（小麦・大豆を含む）、ごま、でん粉、はちみつ、発酵調味料（小麦・大豆を含む）、調味エキス（小麦・大豆を含む）、アミノ酸液（大豆を含む）、ペパーソース（食酢、唐辛子、食塩）／加工でん粉、調味料（アミノ酸等）、カラメル色素、香料（ごま由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、酒粕、デキストリン、はちみつ、食塩、米糀粉末／酸味料、香料、着色料（アントシアニン､ウコン）、Ｌ‐ロイシン、Ｌ‐バリン、Ｌ‐イソロイシン、安定剤（キサンタンガム）、甘味料（アスパルテーム・Ｌ‐フェニルアラニン化合物）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、マヌカハニー、カラメルソース（砂糖）、ハーブエキス／香料、酸味料、着色料（カラメル）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、濃縮果汁（マスカット、アセロラ、レモン）、ハーブエキス／酸味料、ビタミンＣ、香料、着色料（アントシアニン、クチナシ、ウコン）、抽出ビタミンＥ、ナイアシン、パントテン酸Ｃａ、ビタミンＢ１、ビタミンＢ６、ビタミンＢ２、ビタミンＡ、葉酸、ビタミンＤ、ビタミンＢ１２</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴、巨峰濃縮果汁／酸味料、香料、着色料（アントシアニン）</t>
+  </si>
+  <si>
+    <t>ばれいしょでん粉（ばれいしょ（北海道））、砂糖、加糖卵黄（卵黄（卵を含む）、砂糖）、水飴、ぶどう糖、小麦粉、寒梅粉ミックス（とうもろこしでん粉、もち米）、脱脂粉乳／卵殻カルシウム、膨張剤</t>
+  </si>
+  <si>
+    <t>植物油脂（国内製造）、砂糖、全粉乳、乳糖、ココアバター、チェダーチーズパウダー/セルロース、乳化剤、パプリカ色素、香料、（原料の一部に乳成分・大豆を含む）</t>
+  </si>
+  <si>
+    <t>＜ハローキティ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜マイメロディ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜ポチャッコ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来) ＜ポムポムプリン＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、カロテノイド色素 ＜シナモロール＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
+  </si>
+  <si>
+    <t>鶏肉（国産）、畜肉（豚肉、牛肉）、豚脂肪、糖類（麦芽糖、砂糖）、結着材料（大豆たん白、でん粉）、食塩、香辛料、豚コラーゲン、ビーフエキス/調味料（アミノ酸等）、リン酸塩（Na、K)、酸化防止剤（V.C)、ｐH調整剤、保存料（ソルビン酸K)、発色剤（亜硝酸Na）、（一部に牛肉・大豆・鶏肉・豚肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、植物油脂、ココアパウダー、脱脂粉乳、ホエイパウダー（乳成分）、カカオマス、ヘーゼルシロップ、全粉乳、食塩、グルコースパウダー／膨張剤、香料、乳化剤（大豆由来）、酵素</t>
+  </si>
+  <si>
+    <t>準チョコレート(砂糖、植物油脂、全粉乳、カカオマス、ココアパウダー)(国内製造)、コーングリッツ(分別生産流通管理済み)、ピーナッツ、パン粉、ココアパウダー、脱脂粉乳、食塩／乳化剤、卵殻カルシウム、香料、(一部に乳成分･落花生･小麦･卵･大豆を含む)</t>
+  </si>
+  <si>
+    <t>コーンシロップ、砂糖、コーンスターチ、マルチトールシロップ、全粉乳、デキストリン、ショートニング、もち米、植物油脂、乳糖、カカオマス、ココア粉末、クリームパウダー、アーモンドペースト、小麦粉、乳清、食塩、醗酵酒精、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉、砂糖、ココアバター、ココアパウダー、全粉乳、麦芽エキス、ホエイパウダー、コーンフラワー、コーンスターチ、大豆プロテインパウダー、米パフ、ヘーゼルナッツペースト、食塩／乳化剤、香料、膨張剤、カラメル色素</t>
+  </si>
+  <si>
+    <t>グルコースシロップ、砂糖、ゼラチン、植物油脂/ソルビトール、酸味料、増　剤（寒天）、香料、着色料（黄4、黄5、赤40、青1）、光沢剤</t>
+  </si>
+  <si>
+    <t>含蜜糖（国内製造)、黒砂糖、砂糖、小麦粉、小麦蛋白（グルテン）／カラメル色素、膨張剤</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、砂糖、パラチノース、植物油脂、ココアパウダー、全粉乳、カカオマス、液卵黄（卵を含む）、乳糖、食塩／ソルビトール、加工デンプン（小麦由来）、グリセリン、炭酸カルシウム、乳化剤（大豆由来）、香料、V.E、ピロリン酸第二鉄、ナイアシン、パントテン酸Ca、V.B1、V.B2、V.B6、V.A、葉酸、V.D、V.B12</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、パラチノース、砂糖、植物油脂、バナナピューレ、全粉乳、液卵黄（卵を含む）、乳糖、　　カカオマス、バナナ濃縮果汁、ココアパウダー、食塩／ソルビトール、加工デンプン（小麦由来）、グリセリン、炭酸カルシウム、乳化剤（大豆由来）、香料、V.E、ピロリン酸第二鉄、ナイアシン、パントテン酸Ca、酸化防止剤（ビタミンC）、V.B1、V.B2、V.B6、V.A、着色料（カロテン）、葉酸、V.D、V.B12</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ココナッツ、砂糖、パラチノース、ココナッツミルク粉末、ショートニング、マーガリン（乳成分を含む）、植物油脂、液卵黄（卵を含む）、全粉乳、乳糖、カカオマス、ココアパウダー、食塩／ソルビトール、加工デンプン(小麦由来）、　　グリセリン、炭酸カルシウム、乳化剤(大豆由来）、カゼインNa（乳由来）、香料、膨脹剤、ピロリン酸第二鉄、V.E、ナイアシン、　　パントテン酸Ca、V.B1、V.B2、V.B6、V.A、葉酸、着色料（カロテン）、V.D、V.B12</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、全粉乳、カカオマス、ショートニング、ココアバター、植物油脂、小麦全粒粉、小麦ふすま、食塩、脱脂小麦胚芽 ／ 膨脹剤、乳化剤(大豆由来)、香料</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、カカオマス、植物油脂、全粉乳、アーモンド、ココアバター、脱脂粉乳、米パフ、　 乳糖、バターオイル／乳化剤（大豆由来）、香料（アーモンド由来）</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造、タイ製造）、植物油脂、全粉乳、カカオマス、ココアバター、脱脂粉乳、乳糖、いちご粉末／トレハロース、乳化剤（大豆由来）、香料（アーモンド由来）、着色料（ビートレッド）、酸味料</t>
+  </si>
+  <si>
+    <t>砂糖（外国製造）、カカオマス、小麦粉、液全卵、植物油脂、マーガリン（乳成分を含む）、ココアパウダー、ショートニング、加糖練乳、全粉乳、乳糖、ココアバター、食塩、洋酒／ソルビトール、酒精、乳化剤（大豆由来）、香料（乳由来）</t>
+  </si>
+  <si>
+    <t>砂糖（タイ製造、国内製造）、液全卵、小麦粉、植物油脂、マーガリン（乳成分を含む）、チーズ粉末（カマンベールチーズ粉末、ゴーダチーズ粉末、クリームチーズ粉末）、ショートニング、コーンスターチ、食用加工油脂、クリームチーズ、ミルクシロップ、全粉乳、還元水飴、乾燥全卵、ホエイパウダー（乳成分を含む）、レモン濃縮果汁、水飴、乳糖、洋酒、デキストリン、ココアバター／ソルビトール、乳化剤（大豆由来）、酒精、香料（乳由来）、膨脹剤、増粘剤（ペクチン：りんご由来）、酸味料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、小麦全粒粉、乳糖、異性化液糖、ホエイパウダー（乳成分を含む）、デキストリン、食塩　／　膨脹剤、乳化剤（大豆由来）、香料</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ショートニング、砂糖、加糖練乳、乳糖、ぶどう糖、全粉乳、いちご粉末、食塩、クリーミングパウダー（乳成分を含む）、ココアバター ／ 膨脹剤、酸味料、乳化剤（大豆由来）、香料、着色料（ビートレッド、カロテン）、卵殻未焼成カルシウム（卵由来）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、小麦全粒粉、全粉乳、ココアパウダー、カカオマス、デキストリン、乳糖、食塩／膨脹剤、乳化剤（大豆由来）、着色料（カラメル）、香料</t>
+  </si>
+  <si>
+    <t>うるち米（国産、アメリカ産）、植物油脂、砂糖、しょうゆ（小麦・大豆を含む）、果糖ぶどう糖液糖、食塩、調味エキス（大豆を含む）／加工デンプン（小麦由来）、調味料（アミノ酸等）、着色料（カラメル）</t>
   </si>
   <si>
     <t>うるち米粉（国産、タイ産）、植物油脂、粉末醸造酢、砂糖、食塩、酵母エキス粉末、香辛料（ごまを含む）、チキンエキス粉末、粉末しょうゆ（小麦・大豆を含む）、でん粉、デキストリン／加工デンプン、香料（鶏肉由来）、調味料（アミノ酸等）、酸味料、酸化防止剤（ビタミンＥ）、微粒酸化ケイ素、着色料（カロテン）、香辛料抽出物、ビタミンＢ１、乳化剤（大豆由来）</t>
   </si>
   <si>
-    <t>植物油脂（国内製造）、米粉（うるち米（国産、米国産））、でん粉、食塩、魚介エキスパウダー（えびを含む）、砂糖、えび、デキストリン、粉末しょう油（小麦・大豆を含む）、香味油（えびを含む）、酵母エキス粉末／加工でん粉、調味料（アミノ酸等）、着色料（紅麹、カラメル）、酸味料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、小麦粉、植物油脂、全粉乳、乳糖、カカオマス、ホエイパウダー、クッキークランチ、ココアパウダー、でん粉、ショートニング、食塩／乳化剤（大豆由来）、カラメル色素、膨脹剤、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、イヌリン、全粉乳、いちごパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、酸味料、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、植物油脂、全粉乳、イヌリン、食塩、でん粉、小麦たんぱく、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、乳糖、小麦全粒粉、植物油脂、全粉乳、イヌリン、メープルシュガー、キャラメルパウダー、食塩、小麦たんぱく、でん粉、乳酸菌／炭酸Ca、膨脹剤、香料、乳化剤、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、植物油脂、発酵バター、乳糖、イヌリン、食塩、バターミルクパウダー、小麦たんぱく、乳酸菌、バニラビーンズシード／炭酸Ca、膨脹剤、乳化剤、香料、調味料（アミノ酸）、V.B1、V.B2、V.D、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>水あめ、砂糖、植物油脂、ゼラチン、濃縮ストロベリー果汁、加糖練乳、ストロベリージャム、乳酸菌飲料、酸味料、乳化剤、香料、アカキャベツ色素</t>
-  </si>
-  <si>
-    <t>砂糖、水あめ、植物油脂、ラムネ菓子（エリスリトール、ポリデキストロース）、ゼラチン、デキストリン、濃縮レモン果汁、酸味料、乳化剤、香料、ステアリン酸カルシウム、ベニバナ黄色素</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、水あめ、砂糖、植物油脂、ゼラチン／グリセリン、ソルビトール、増粘多糖類、酸味料、香料、乳化剤、クチナシ青色素</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、タピオカでん粉／酸味料、乳化剤、香料、アカキャベツ色素、クチナシ青色素、増粘剤（アラビアガム）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉（国内製造）、食塩、植物油脂、植物性たん白、卵白）、添付調味料（チキンエキス、食塩、ポークエキス、香味油脂、しょうゆ、野菜エキス、植物油、砂糖、香辛料、魚介エキス、たん白加水分解物、豚脂）／加工でん粉、調味料（アミノ酸等）、酒精、トレハロース、かんすい、炭酸カルシウム、レシチン、酸化防止剤（ビタミンＣ、ビタミンＥ）、増粘多糖類、香料、クチナシ色素、（一部に小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造又は韓国製造）、生あん、水あめ、カカオマス、寒天／甘味料（ソルビトール）、香料、乳化剤</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水あめ、せとか果汁/酸味料、香料、アナトー色素</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮マスカット果汁、濃縮ぶどう果汁、植物油脂、でん粉/ソルビトール、酸味料、加工デンプン、香料、着色料（クチナシ、フラボノイド）、光沢剤、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、植物油脂、でん粉、ソルビトール、酸味料、加工デンプン、香料、着色料（カラメル、クチナシ）、光沢剤、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮ぶどう果汁、濃縮マスカット果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（フラボノイド、アントシアニン、クチナシ、紅麹）、光沢剤、（一部にゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮バナナ果汁、濃縮レモン果汁、濃縮すもも果汁、植物油脂/ソルビトール、酸味料、骨Ca、香料、着色料（アントシアニン、クチナシ）、光沢剤、（一部にバナナ・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、でん粉、濃縮オレンジ果汁、濃縮レモン果汁、植物油脂/ソルビトール、酸味料、増粘剤（増粘多糖類、CMC-Na）、香料、着色料（フラボノイド、カロチノイド）、光沢剤、（一部にオレンジ・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水あめ、植物油脂、ゼラチン、濃縮マスカット果汁、加糖練乳、でん粉/乳化剤、ソルビトール、増粘多糖類、加工デンプン、酸味料、香料、着色料（フラボノイド、クチナシ）、（一部に乳成分・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>めん（小麦粉(国内製造）、食塩、植物油脂、植物性たん白、卵粉、米麹調味料（でん粉、米麹加工品、塩麹、食塩）、ポークエキス）、スープ（食塩、糖類、香辛料、豚脂、香味調味料、豚･鶏エキス、しょうゆ、デキストリン、たん白加水分解物、酵母エキス、しょうゆもろみ、ローストオニオン粉末、植物油脂）／加工デンプン、膨張剤、調味料（アミノ酸等）、酒精、かんすい、炭酸カルシウム、増粘剤（加工デンプン、増粘多糖類）、香料、カラメル色素、炭酸マグネシウム、カロチノイド色素、酸味料、酸化防止剤（ビタミンＥ）、乳化剤、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉･ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、ホタテエキス、乳たん白）、スープ（食塩、ポークエキス、香辛料、たん白加水分解物、糖類、香味調味料、酵母エキス、しょうゆ、ローストオニオン粉末）／加工デンプン、調味料（アミノ酸等）、炭酸カルシウム、カラメル色素、かんすい、炭酸マグネシウム、増粘多糖類、香料、酸化防止剤（ビタミンＥ）、カロチノイド色素、酸味料、甘味料（スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に卵･乳成分･小麦･えび･ごま･大豆･鶏肉･豚肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖、マルトース、ゼラチン、濃縮リンゴ果汁、食塩、その他</t>
-  </si>
-  <si>
-    <t>チョコレートコーチング（砂糖、植物油脂、ココアパウダー）、小麦粉、砂糖、鶏卵、ぶどう糖果糖液糖、その他</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、カレー粉、しょうゆ、食塩、チキンエキス、植物性たん白、卵粉、香辛料、香味調味料、砂糖、デキストリン、オニオンパウダー／加工でん粉、調味料（アミノ酸等）、かんすい、炭酸Ｃａ、カロチノイド色素、増粘剤（アルギン酸エステル）、酸化防止剤（ビタミンＥ）、香辛料抽出物、甘味料（アセスルファムＫ、スクラロース）、ビタミンＢ２、ビタミンＢ１、（一部に小麦・卵・乳成分・大豆・鶏肉を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖／酸味料、乳酸Ca、ゲル化剤（増粘多糖類）、香料、V.B2、V.B1、V.B6</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、植物性乳酸菌末（殺菌）／酸味料、乳酸Ca、ゲル化剤（増粘多糖類）、香料、V.B2、V.B1、V.B6</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、果糖ぶどう糖液糖、パラチノース、ぶどう糖、添加物：酸味料、ゲル化剤（増粘多糖類）、乳酸Ca、香料、野菜色素、V.B2、V.B1、V.B6</t>
-  </si>
-  <si>
-    <t>チョコレート（乳糖、ココアバター、砂糖、植物油脂、全粉乳、乾燥いちご）、ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）/加工でんぷん、香料、乳化剤（大豆由来）、着色料（アカビート、紅麹）貝カルシウム、膨張剤、酸味料</t>
-  </si>
-  <si>
-    <t>ウエハース（小麦粉、砂糖、でんぷん、植物油脂、食塩）（国内製造）、乳糖、ココアバター、砂糖、植物油脂、全粉乳、脱脂粉乳、発酵乳パウダー、殺菌乳酸菌粉末／加工デンプン、貝カルシウム、乳化剤（大豆由来）、香料、着色料（カラメル、クチナシ）、膨脹剤</t>
-  </si>
-  <si>
-    <t>ぶどう味グミ（水あめ、砂糖、ゼラチン、濃縮ぶどう果汁、その他）（国内製造）、砂糖、全粉乳、ココアバター、カカオマス、植物油脂、乳糖／香料、ソルビトール、光沢剤、酸味料、乳化剤（大豆由来）、着色料（アカキャベツ、クチナシ）</t>
-  </si>
-  <si>
-    <t>カカオマス（カカオ豆（ガーナ、エクアドル））、砂糖、ココアパウダー、ココアバター、カカオニブ加工品、全粉乳／乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造）、全粉乳、カカオマス、乳糖、ココアバター、植物油脂、還元水あめ、酒精、ラム酒、ラム酒漬けレーズン／乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>＜コーラ＞砂糖（国内製造）、水あめ／酸味料、重曹、着色料（カラメル）、香料＜ラムネ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（クチナシ）＜グレープソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料、着色料（アカキャベツ、クチナシ）＜ヨーグルトソーダ＞砂糖（国内製造）、水あめ／酸味料、重曹、香料＜メロンクリームソーダ＞砂糖（国内製造）、水あめ、加糖れん乳、乳等を主要原料とする食品／酸味料、重曹、香料、着色料（紅麹、クチナシ）、乳化剤</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水あめ、食塩（ぬちまーす100%）、植物油脂、濃縮レモン果汁／酸味料（クエン酸）、ビタミンC、香料、乳化剤、着色料（クチナシ、紅麹）</t>
-  </si>
-  <si>
-    <t>うるち米粉（国産）、でん粉、しょうゆ、わさび風味シーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、粉末わさび／調味料（アミノ酸等）、加工でん粉、ソルビトール、着色料（カラメル、パプリカ色素）、香料、香辛料抽出物、チャ抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>うるち米粉（国産）、でん粉、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、香辛料抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>うるち米粉（国産）、でん粉、しょうゆ、梅しそシーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、乾燥梅肉／調味料（アミノ酸等）、加工でん粉、酸味料、ソルビトール、香料、着色料（カラメル、パプリカ色素、ムラサキトウモロコシ色素）、甘味料（スクラロース、ネオテーム）、香辛料抽出物、（一部に小麦・卵・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、わさび風味シーズニング、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、粉末わさび／調味料（アミノ酸等）、加工でん粉、ソルビトール、着色料（カラメル、パプリカ色素）、香料、香辛料抽出物、チャ抽出物、乳化剤、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>原材料：うるち米粉（国産）、でん粉、ピーナッツ（ピーナッツ、植物油脂、食塩）、しょうゆ、砂糖、魚介エキス調味料、たん白加水分解物、こんぶエキス、食塩／加工でん粉、調味料（アミノ酸等）、ソルビトール、着色料（カラメル、パプリカ色素）、乳化剤、香辛料抽出物、（一部に小麦・卵・落花生・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>野菜（じゃがいも（国産）、にんじん、コーン）、大豆油、豚肉、小麦粉ルウ、ソテーオニオン、砂糖、カレー粉、エキス（ポーク、酵母）、醤油、トマトペースト、食塩、チキンエキス調味料、ミルポワペースト、チーズパウダー、酵母エキスパウダー／増粘剤（加工でん粉）、調味料（アミノ酸等）、セルロース、（一部に乳成分・小麦・大豆・鶏肉・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>昆布（国内産）、醸造酢、かつおぶしエキス、食塩、たんぱく加水分解物、発酵調味料/調味料（アミノ酸等）、酸味料、ソルビトール、加工でん粉、甘味料（ステビア抽出物）、（一部に大豆を含む）</t>
-  </si>
-  <si>
-    <t>米（国産）、ホエイパウダー（乳成分を含む）、砂糖、チーズ風味シーズニング（乳成分を含む）、乳糖、食塩、オニオンエキスパウダー、しょうゆ（小麦・大豆を含む）、ピザ風味シーズニング（小麦・乳成分・大豆・豚肉を含む）、チーズパウダー（チェダーチーズ45%、カマンベールチーズ30%、ゴーダチーズ1%）、植物油脂、唐辛子、たんぱく加水分解物（大豆を含む）／調味料（アミノ酸等）、香料、甘味料（ステビア、スクラロース）、乳化剤、パプリカ色素、くん液、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>＜れもん＞水あめ（国内製造）、砂糖、ゼラチン、濃縮レモン果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、紅花色素、光沢剤＜コーラ＞水あめ（国内製造）、砂糖、ゼラチン、コーラナッツエキス、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、カラメル色素、香料、乳化剤、光沢剤＜ソーダ＞水あめ（国内製造）、砂糖、ゼラチン、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、クチナシ色素、乳化剤、光沢剤＜ぶどう＞水あめ（国内製造）、砂糖、ゼラチン、濃縮グレープ果汁、オブラートパウダー／ソルビトール、グリセリン、酸味料、ゲル化剤（ペクチン）、香料、着色料（ブラックキャロットジュース、クチナシ）、乳化剤、光沢剤</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造又は外国製造）、小麦粉、植物油脂、カカオマス、でん粉、ショートニング、乳糖、全粉乳、液卵、ホエイパウダー、クリームパウダー、脱脂粉乳、食塩、ココアパウダー、ココアバター／炭酸Ｃａ、膨脹剤、カラメル色素、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>コーンパフ（コーングリッツ、砂糖、植物油脂、水あめ、ココアパウダー、食塩）（国内製造）、砂糖、植物油脂、カカオマス、乳糖、全粉乳、ココアバター、水あめ　／　光沢剤、増粘剤（アラビアガム）、乳化剤（大豆由来）、香料、カラメル色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、植物油脂、乳糖、全粉乳、カカオマス、ココアバター、れん乳パウダー、ストロベリーパウダー／乳化剤（大豆由来）、アカビート色素、香料</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、植物性加工油脂、水飴、ゼラチン、濃縮りんご果汁／セルロース、酸味料、乳化剤、香料、甘味料（アスパルテーム・Ｌ‐フェニルアラニン化合物、アセスルファムＫ）、着色料（青色１号）、（一部にりんご・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>ピーナッツ（中国）、植物油脂、食塩、香味食用油、唐辛子、花椒、豆板醤、水飴、ネギ、ガーリック／調味料（アミノ酸等）、香辛料抽出物、（一部に小麦・ピーナッツ・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩／乳化剤、調味料（アミノ酸）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、コンソメシーズニング（チキンエキスパウダー、砂糖、ぶどう糖、食塩、オニオンパウダー、野菜エキスパウダー、酵母エキスパウダー、デキストリン、乳糖、香辛料、たん白加水分解物、植物油脂）、砂糖、オニオンパウダー、食塩、香辛料／調味料（アミノ酸等）、乳化剤、着色料（パプリカ粉末、パプリカ色素）、加工デンプン、香料、酸味料、甘味料（カンゾウ）、香辛料抽出物、（一部に小麦・卵・乳成分・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、食塩、青のり、あおさ／乳化剤、調味料（アミノ酸）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、サワークリームオニオン風味シーズニング（オニオンパウダー、食塩、乳等を主要原料とする食品、砂糖、ぶどう糖、酵母エキスパウダー、でん粉、粉末酢、サワークリームパウダー）、オニオンペースト／調味料（アミノ酸等）、酸味料、香料、乳化剤、香辛料抽出物、甘味料（カンゾウ）、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、バターしょうゆシーズニング（乳等を主要原料とする食品、砂糖、しょうゆパウダー、食塩、たん白加水分解物、バターパウダー、チーズパウダー、酵母エキスパウダー、かつお節パウダー）、バターミルクパウダー／調味料（アミノ酸等）、香料、乳化剤、甘味料（カンゾウ、スクラロース）、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ポテトフレーク（アメリカ製造又はドイツ製造又はその他）、植物油脂、甘えびパウダー、食塩／加工デンプン、乳化剤、調味料（アミノ酸）、（一部にえびを含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、でん粉、砂糖、ショートニング、乳糖、しょうゆパウダー、食塩、ブラックペッパー、たん白加水分解物、ガーリックパウダー、コーンスターチ、香味粉末油脂、ローストしょうゆ調味料、乳等を主要原料とする食品、ビーフエキスパウダー、ナツメグパウダー／加工デンプン、調味料（アミノ酸等）、香料、重曹、香辛料抽出物、乳化剤、カラメル色素、甘味料（スクラロース）、（一部に小麦・乳成分・牛肉・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸化防止剤（V．Ｅ、V．Ｃ）、（原材料の一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、ココアパウダー、コーンスターチ、食塩／膨張剤、乳化剤、香料、酸味料、酸化防止剤（Ｖ．Ｃ、Ｖ．Ｅ）、（一部に小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩/膨張剤、卵殻カルシウム（卵由来）</t>
-  </si>
-  <si>
-    <t>生地（小麦粉、コーンスターチ、食塩）（国内製造）、植物油脂、砂糖、水あめ、しょうゆ（小麦・大豆を含む）、食塩、アオサ粉/膨張剤、卵殻カルシウム（卵由来）</t>
-  </si>
-  <si>
-    <t>うるち米（国内産、米国産）、植物油脂、しょうゆ（小麦・大豆を含む）、砂糖、かつおだし粉末、昆布だし/加工デンプン、調味料（アミノ酸等）</t>
-  </si>
-  <si>
-    <t>もち米（国内産、米国産）、植物油脂、ピーナッツ、食塩、砂糖、かつおだし粉末、昆布粉末、チキンコンソメシーズニング、調味料（アミノ酸等）、香料、（原材料の一部に小麦、大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）（大豆を含む）、砂糖、砂糖粉乳調製品（砂糖、全粉乳、脱脂粉乳、ココアバター）、乳糖、カカオマス、全粉乳、ココアバター、脱脂粉乳／乳化剤（大豆由来）、香料（乳由来）</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、アーモンド、カカオマス、全粉乳、植物油脂、ココアバター、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、乳糖／乳化剤、香料、膨脹剤、（一部にアーモンド・乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>砂糖粉乳調製品（砂糖、全粉乳、ココアバター）（シンガポール製造）、乳糖、アーモンド、ココアバター、植物油脂、小麦パフ（小麦粉、コーンスターチ、甘藷でん粉、モルトエキス、食塩）、脱脂粉乳、全粉乳／乳化剤、香料、膨脹剤、（一部に乳成分・アーモンド・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>じゃがいもでんぷん（じゃがいも（北海道））、コーンスターチ／増粘剤（ＣＭＣ、増粘多糖類）</t>
-  </si>
-  <si>
-    <t>【ミルク】砂糖(外国製造)、全粉乳、カカオマス、ココアバター、植物油脂／乳化剤(大豆由来)、香料【いちご】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター／乳化剤(大豆由来)、酸味料、野菜色素、香料【きなこ】植物油脂(国内製造)、砂糖、乳糖、きなこ(大豆を含む)、全粉乳、ココアバター、脱脂粉乳／乳化剤、香料【バナナ】砂糖(外国製造)、植物油脂、乳糖、全粉乳、ココアバター、バナナパウダー／乳化剤(大豆由来)、香料、カロチノイド色素【メロン】砂糖(外国製造)、乳糖、植物油脂、ココアバター、全粉乳／乳化剤(大豆由来)、酸味料、着色料(スピルリナ青、クチナシ)、香料</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳／乳化剤</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、チーズパウダー、食塩、砂糖、デキストリン、クリーミングパウダー、たん白加水分解物、酵母エキスパウダー、オニオンパウダー、粉末醤油／調味料（アミノ酸等）、香料、カロチノイド色素、甘味料（ステビア、スクラロース、カンゾウ）、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、デキストリン、砂糖、食塩、ぶどう糖、チーズパウダー、酵母エキスパウダー、オニオンパウダー、ハラペーニョパウダー、パセリフレーク／香料、調味料（アミノ酸等）、酸味料、カロチノイド色素、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、砂糖、粉末醤油、たん白加水分解物、でん粉、食塩、ガーリックパウダー、オニオンパウダー、酵母エキスパウダー、ビーフエキス調味料、香味粉末油脂、ブラックペッパー／調味料（アミノ酸等）、着色料（カラメル、カロチノイド）、香料、酸味料、甘味料（アスパルテーム・L-フェニルアラニン化合物、スクラロース）、香辛料抽出物、（一部に小麦・牛肉・ごま・大豆・豚肉を含む）</t>
-  </si>
-  <si>
-    <t>牛乳（国内製造）、コーヒー（エチオピア産コーヒー豆51%）、砂糖、全粉乳、 脱脂粉乳、デキストリン／カゼインNa、乳化剤、香料、甘味料（アセスルファムK）</t>
-  </si>
-  <si>
-    <t>砂糖、水飴、濃縮果汁（いちご、レモン、オレンジ、パインアップル、りんご、メロン、すもも）、酸味料、香料、着色料（紫コーン色素、パプリカ色素、カロチン、紅麹、クチナシ、紅花黄）</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ ／ガムベース､酸味料､香料､カラメル色素、軟化剤</t>
-  </si>
-  <si>
-    <t>ぶどう糖(国内製造)､砂糖､水あめ､還元水あめ、濃縮ぶどう果汁 ／ガムベース､酸味料､香料､アントシアニン色素</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖、水あめ／ガムベース､酸味料､ 糊料(アラビアガム)､香料､着色料(フラボノイド、アントシアニン)､光沢剤</t>
-  </si>
-  <si>
-    <t>砂糖(国内製造)､ぶどう糖､水あめ､還元水あめ､ 酵母エキス､デキストリン／ガムベース､酸味料､ 香料､軟化剤､カロチノイド色素</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、ゼラチン、パラチニット/酸味料、香料、着色料（クチナシ、アントシアニン、カロチノイド）、甘味料（スクラロース）</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油、粉末ソース、砂糖、トマト風味パウダー、たん白加水分解物（大 豆を含む）、小麦粉、粉末鰹節、あおさ、食塩、たこパウダー / 調味料（アミノ酸等）、酸味料、炭酸 カルシウム、着色料（カラメル、カロチノイド）、香料（鶏肉・りんご由来）、甘味料（スクラロース、 ステビア：乳由来、甘草）、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>じゃがいも（国産又はアメリカ）、植物油、食塩、砂糖、でん粉、香辛料パウダー、たん白加水分解物（大豆を含む）、粉末ソース、オニオンパウダー、ビーフパウダー、トマトパウダー、酵母エキスパウダー、調味動物油脂（豚肉を含む） / 調味料（アミノ酸等）、酸味料、香料（小麦・いか・ゼラチン由来）、着色料（カラメル、クチナシ）、甘味料（ステビア、スクラロース）、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、水飴、マルトース、ゼラチン、濃縮ぶどう果汁、植物油脂</t>
-  </si>
-  <si>
-    <t>砂糖（外国製造、国内製造）、小麦粉、植物油脂、全粉乳、ココアバター、カカオマス、マーガリン、ショートニング、鶏卵、乳糖、ホエイパウダー、ココアパウダー、キャラメルパウダー、乾燥全卵、食塩、バター</t>
-  </si>
-  <si>
-    <t>ぶどう糖、砂糖、でん粉、ゼラチン、酸味料、乳化剤、光沢剤、香料、着色料（クチナシ、野菜色素、カロチノイド）、糊料（アラビアガム）</t>
-  </si>
-  <si>
-    <t>コーヒー（コーヒー豆（ブラジル産、エチオピア産、その他））</t>
-  </si>
-  <si>
-    <t>果実（りんご、オレンジ、もも、タンジェリン、パインアップル、ぶどう）、砂糖類 （砂糖、ぶどう糖）、高麗人参根エキス、Ｌ－カルニチンＬ－酒石酸塩、塩化Ｎａ、ガラナ種子 エキス、クエン酸、香料、炭酸ガス、甘味料（Ｄ－リボース、スクラロース）、Ｌ－アルギニン 、カフェイン、クエン酸Ｎａ、着色料（β－カロチン、アントシアニン）、ナイアシン、　　　　　　　　イノシトール、Ｖ．Ｂ６、Ｖ．Ｂ２、Ｖ．Ｂ１２</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造）、乳糖、ワッフルクランチ（小麦粉、砂糖、でん粉、その他）、植物油脂、小麦粉、全粉乳、ココアバター、レモン果汁パウダー、ショートニング、異性化液糖、食塩／乳化剤、着色料（カロテノイド、アナトー）、香料、酸味料、膨脹剤、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>ワッフルクランチ（国内製造）（小麦粉、砂糖、でん粉、その他）、砂糖、乳糖、植物油脂、全粉乳、ココアバター、糖漬け乾燥いちご(いちご、砂糖、ぶどう糖)、糖漬け乾燥クランベリー（クランベリー、砂糖、植物油脂）、いちごパウダー、ぶどう糖、いちごパウダー（乳糖、いちご、デキストリン）、コーンスターチ／乳化剤、着色料（野菜色素、アナトー、紅麹）、香料、酸味料、膨脹剤、糊料(ペクチン)、（一部に乳成分・小麦・大豆を含む）</t>
-  </si>
-  <si>
-    <t>うるち米（国産）、植物油脂、米粉（うるち米（国産））、でん粉、食物繊維（イヌリン）、食塩、野菜粉末（ほうれん草、オニオン、にんじん、トマト、かぼちゃ、コーン）、発酵調味料（小麦・大豆を含む）、たんぱく加水分解物（大豆を含む）、粉末しょう油（小麦・大豆を含む）、ガーリックパウダー（大豆を含む）、チキンブイヨンパウダー（乳成分を含む)、チーズパウダー、黒胡椒、黒糖パウダー、ココアパウダー、酵母エキスパウダー</t>
-  </si>
-  <si>
-    <t>米粉（うるち米（国産））、砂糖、食塩、フラクトオリゴ糖／加工でん粉</t>
-  </si>
-  <si>
-    <t>コーングリッツ（国内製造）、植物油脂、砂糖、マーガリン、加糖れん乳、食塩、卵黄粉末／ソルビトール、香料、卵殻Ca、乳化剤、甘味料（スクラロース）、カロチノイド色素、（一部に卵・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>乾燥ポテト（外国製造）、植物油脂、食塩、唐辛子パウダー（ブート・ジョロキアパウダー2%使用）、砂糖、ガーリックパウダー、酵母エキスパウダー、たんぱく加水分解物、ブドウ糖、オニオンパウダー、レモングラスパウダー、澱粉、乳糖、チリパウダー、チキンパウダー、香味油、ホワイトペッパーパウダー、醤油風味調味料、唐辛子ピューレ、チキンエキス調味料、クミンパウダー、パプリカパウダー、調味エキス／加工澱粉、調味料（アミノ酸等）、酸味料、炭酸Ca、香料、酸化防止剤（ビタミンE）、香辛料抽出物、カラメル色素、（一部に乳成分・小麦・ごま・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造、国内製造)、牛乳、全粉乳、メロン果汁、脱脂粉乳、ココナッツオイル、デキストリン、クリーム、食塩／乳化剤、香料、ビタミンC、クチナシ色素、カロテン色素、甘味料(ステビア)、クエン酸</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、酒粕、デキストリン、はちみつ、食塩、米糀粉末／酸味料、香料、着色料（アントシアニン､ウコン）、Ｌ‐ロイシン、Ｌ‐バリン、Ｌ‐イソロイシン、安定剤（キサンタンガム）、甘味料（アスパルテーム・Ｌ‐フェニルアラニン化合物）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、マヌカハニー、カラメルソース（砂糖）、ハーブエキス／香料、酸味料、着色料（カラメル）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、濃縮果汁（マスカット、アセロラ、レモン）、ハーブエキス／酸味料、ビタミンＣ、香料、着色料（アントシアニン、クチナシ、ウコン）、抽出ビタミンＥ、ナイアシン、パントテン酸Ｃａ、ビタミンＢ１、ビタミンＢ６、ビタミンＢ２、ビタミンＡ、葉酸、ビタミンＤ、ビタミンＢ１２</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水飴、巨峰濃縮果汁／酸味料、香料、着色料（アントシアニン）</t>
-  </si>
-  <si>
-    <t>ばれいしょでん粉（ばれいしょ（北海道））、砂糖、加糖卵黄（卵黄（卵を含む）、砂糖）、水飴、ぶどう糖、小麦粉、寒梅粉ミックス（とうもろこしでん粉、もち米）、脱脂粉乳／卵殻カルシウム、膨張剤</t>
-  </si>
-  <si>
-    <t>砂糖(外国製造又は国内製造)、全粉乳、植物油脂、カカオマス、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、野菜色素、香料(乳・大豆由来)</t>
-  </si>
-  <si>
-    <t>＜ハローキティ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜マイメロディ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素 ＜ポチャッコ＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来) ＜ポムポムプリン＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、カロテノイド色素 ＜シナモロール＞ 砂糖(外国製造又は国内製造)、全粉乳、カカオマス、植物油脂、ココアバター、乳糖、脱脂粉乳、油脂加工品／乳化剤(大豆由来)、香料(乳・大豆由来)、野菜色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、チョコレートチップ（乳成分を含む）、還元水あめ、白ねりあん（乳成分を含む）、卵、全脂大豆粉、カカオマス、水あめ、脱脂粉乳、食塩、卵黄（卵を含む）、全粉乳／加工デンプン、乳化剤（乳・大豆由来）、香料（乳・大豆由来）、安定剤（加工デンプン）、膨脹剤、カラメル色素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、植物油脂、バター、全粉乳、発酵種（小麦を含む）、食塩、乳等を主原料とする食品/乳化剤（小麦・大豆由来）、香料（乳・大豆由来）、カロテノイド色素</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、ぶどう糖、水あめ、ゼラチン、ウーロン茶抽出物／ガムベース、酸味料、軟化剤、香料、ビタミンＣ、クチナシ色素</t>
-  </si>
-  <si>
-    <t>含蜜糖（国内製造)、黒砂糖、砂糖、小麦粉、小麦蛋白（グルテン）／カラメル色素、膨張剤</t>
-  </si>
-  <si>
-    <t>グルコースシロップ、砂糖、ゼラチン、植物油脂/ソルビトール、酸味料、増　剤（寒天）、香料、着色料（黄4、黄5、赤40、青1）、光沢剤</t>
-  </si>
-  <si>
-    <t>うるち米（国産、アメリカ産）、植物油脂、砂糖、しょうゆ（小麦・大豆を含む）、果糖ぶどう糖液糖、食塩、調味エキス（大豆を含む）／加工デンプン（小麦由来）、調味料（アミノ酸等）、着色料（カラメル）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、ココアバター、マーガリン（乳成分を含む）、デキストリン、ホエイパウダー（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、練乳粉末、カラメル粉末（乳成分を含む）、洋酒、キャラメル粉末（乳成分を含む）、うるちひえパフ、食塩、水飴、乾燥卵白（卵を含む）、バニラシード／ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、トレハロース、ビタミンC、ビタミンD、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>でん粉(国内製造)、植物油脂、米粉、えび粉、食塩、香味油（小麦・えび・大豆を含む）、小麦たんぱく、えびシーズニング(大豆を含む)、昆布粉、青のり粉　/加工デンプン　乳化剤（大豆由来）、ソルビトール、調味料(アミノ酸等)、着色料（カロテノイド）、酸化防止剤（ビタミンE、ビタミンC）、香料（えび由来）、微粒酸化ケイ素</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、小麦全粒粉、乳糖、異性化液糖、ホエイパウダー（乳成分を含む）、デキストリン、食塩　／　膨脹剤、乳化剤（大豆由来）、香料</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、ショートニング、砂糖、加糖練乳、乳糖、ぶどう糖、全粉乳、いちご粉末、食塩、クリーミングパウダー（乳成分を含む）、ココアバター ／ 膨脹剤、酸味料、乳化剤（大豆由来）、香料、着色料（ビートレッド、カロテン）、卵殻未焼成カルシウム（卵由来）</t>
-  </si>
-  <si>
-    <t>原材料：小麦粉（国内製造）、砂糖、液全卵、ショートニング、植物油脂、カカオマス、水飴、ほうじ茶粉末、加糖練乳、クリーミングパウダー（乳成分を含む）、食塩、洋酒/ソルビトール、酒精、乳化剤（大豆由来）、加工デンプン、香料、膨張剤</t>
-  </si>
-  <si>
-    <t>原材料：小麦粉（国内製造）、砂糖、液全卵、マーガリン（乳成分を含む）、ごまペースト、水飴、ココアバター、食塩、洋酒/ ソルビトール、酒精、加工デンプン、乳化剤（大豆由来）、香料（ごま由来）、膨張剤</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、植物油脂、小麦全粒粉、全粉乳、ココアパウダー、カカオマス、デキストリン、乳糖、食塩／膨脹剤、乳化剤（大豆由来）、着色料（カラメル）、香料</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造、国内製造）、カカオマス、液全卵、小麦粉、植物油脂、ショートニング、ココアパウダー、洋酒、水飴、異性化液糖、加糖練乳、全粉乳、還元水飴、クリーム（乳成分を含む）、ココアバター、乳糖、バター、脱脂粉乳、ぶどう糖、デキストリン、食塩／ソルビトール、酒精、乳化剤（大豆由来）、香料、膨脹剤</t>
-  </si>
-  <si>
     <t>小麦粉(国内製造)、砂糖、ショートニング、カカオマス、全粉乳、マーガリン（乳成分を含む）、ココアパウダー、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、洋酒、うるちひえパフ、食塩、水飴、乾燥卵白（卵を含む）　／　ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、ビタミンC、ビタミンD、着色料（カロテン）</t>
   </si>
   <si>
-    <t>小麦粉（国内製造）、砂糖、ショートニング、全粉乳、エリスリトール、マーガリン（乳成分を含む）、液全卵、イースト、食用加工油脂（小麦を含む）、乳糖、デキストリン、脱脂粉乳、洋酒、ココアバター、うるちひえパフ、食塩、クリーミングパウダー（乳成分を含む）、水飴、乾燥卵白（卵を含む）　/　ソルビトール、卵殻未焼成カルシウム（卵由来）、酒精、乳化剤（大豆由来）、香料（乳由来）、イーストフード（小麦由来）、ビタミンC、ビタミンD、着色料（カロテン）</t>
-  </si>
-  <si>
-    <t>チョコレート（砂糖、乳糖、ココアバター、全粉乳、カカオマス、植物油脂、その他）（国内製造）、小麦パフ（小麦粉、コーンスターチ、その他）、植物油脂、砂糖、乳糖、澱粉／トレハロース、乳化剤、香料、着色料（紅麹、野菜色素）、膨脹剤、酸味料、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>ソーダ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、着色料（クチナシ、紅花黄）、オレンジ味：砂糖（国内製造）、水飴（国内製造）／酸味料、香料、カロテノイド色素、グレープ味：砂糖（国内製造）、水飴（国内製造）、濃縮グレープ果汁／酸味料、香料、野菜色素、クチナシ色素、コーラ味：砂糖（国内製造）、水飴（国内製造）／酸味料、カラメル色素、香料</t>
-  </si>
-  <si>
-    <t>準チョコレート（砂糖、植物油脂、ココアパウダー、全粉乳、脱脂粉乳、その他）（国内製造）、チョコレート（砂糖、ココアバター、乳糖、植物油脂、全粉乳、その他）、小麦パフ（小麦粉、コーンスターチ、その他）／乳化剤、香料、膨脹剤、着色料（紅花黄、カロチノイド）、（一部に乳成分・小麦を含む）</t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、コーングリッツ、植物油脂、マーガリン、加糖れん乳、ココアパウダー、カラメルソース、食塩、準チョコレート、牛乳／未焼成Ca、カラメル色素、香料、乳化剤、トレハロース、（一部に乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>植物油脂（国内製造）、砂糖、ショートニング、ポテトでん粉、青大豆、枝豆パウダー（秋田県産）、チーズ、マルチトール、乾燥ポテト、食塩、バター、クロレラパウダー、香辛料、たん白加水分解物、酵母エキスパウダー、大豆イソフラボン抽出物、デキストリン／加工でん粉、カゼインNa、乳化剤、膨脹剤、炭酸Ca、香料、調味料（アミノ酸）、（一部に小麦・乳成分・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉、砂糖、植物油脂、カカオマス、ショートニング、ココアパウダー、全粉乳、転化糖蜜、加糖れん乳、ごま、食塩、コラーゲン(豚肉を含む)／着色料（カラメル）、膨脹剤、乳化剤（大豆由来）、炭酸Ｃａ、香料</t>
-  </si>
-  <si>
-    <t>準チョコレート（植物油脂、砂糖、カカオマス、全粉乳、ココアパウダー）（国内製造）、コーングリッツ、小麦全粒粉、砂糖、ココアパウダー、食塩／乳化剤、炭酸Ca、香料、（一部に小麦・乳成分・大豆を含む）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、植物油脂、しょうゆ、砂糖、食塩、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー、ポークパウダー、魚介パウダー/加工デンプン、調味料(アミノ酸等）、炭酸Ca、酸化防止剤（ビタミンE）、（一部に小麦・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉（国内製造）、植物油脂、わさびビーフ風味パウダー、食塩、粉末卵、ビーフエキスパウダー、粉末油脂、砂糖、しょうゆ、わさびペースト、ミート調味エキス、ガーリックパウダー、野菜エキス、たんぱく加水分解物、ミート調味パウダー／加工デンプン、調味料（アミノ酸等）、香料、乳化剤、着色料（カラメル、紅麹、クチナシ）、酸化防止剤（ビタミンＥ）、甘味料（ステビア、スクラロース）、酸味料、香辛料抽出物、（一部に小麦・卵・乳成分・牛肉・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
+    <t>ピーナッツ（輸入）、砂糖、植物油脂、乳糖、全粉乳、カカオマス、ココアパウダー、脱脂粉乳／乳化剤、香料、 （一部に乳成分・落花生・大豆を含む）</t>
+  </si>
+  <si>
+    <t>ピーナッツ（アメリカ）、砂糖、小麦粉、寒梅粉、澱粉、米粉、食塩、ガラクトオリゴ糖／膨張剤、炭酸カルシウム、着色料（クチナシ）、ピロリン酸鉄、 （一部に乳成分・小麦・落花生を含む）</t>
+  </si>
+  <si>
+    <t>砂糖・ココアバター・乳糖・カカオマス・全粉乳・脱市粉乳・ココアバター・植物油脂・澱粉・加工でん粉・増粘多糖類・炭酸・光沢剤・乳化剤・着色料・香料・</t>
+  </si>
+  <si>
+    <t>砂糖・水飴・でん粉分解物・香料・着色料・ガムベース・増粘多糖類・酸味料・光沢剤・軟化剤</t>
+  </si>
+  <si>
+    <t>ブドウ糖・澱粉・酸味料・香料・乳化剤・ベニハナ黄色・クチナシ青色</t>
+  </si>
+  <si>
+    <t>砂糖・ぶどう糖・水飴・酸味料・香料・アラビアガム・光沢剤・野菜色素・クチナシ色素</t>
+  </si>
+  <si>
+    <t>魚介シート［魚肉すり身（魚介類）、いか、その他］（国内製造）、砂糖、発酵調味液、しょう油、照焼のタレ、調味酢、還元水飴、食塩／ソルビット、加工デンプン、調味料（アミノ酸等）、酸味料、トレハロース、着色料（カラメル）、甘味料（ステビア、カンゾウ）、酒精、（一部に小麦・卵・いか・さば・大豆・魚肉すり身（魚介類）を含む）</t>
+  </si>
+  <si>
+    <t>パン粉（国内製造）、植物油脂、魚介シート［魚肉すり身（魚介類）、でん粉、その他］、小麦粉、卵、食塩、脱脂粉乳、砂糖、香辛料、濃厚ソース、醸造酢、カレー粉、オイスターソース、酵母エキス、魚介エキス（魚介類）／ソルビット、酸味料、調味料（アミノ酸等）、加工デンプン、酸化防止剤（V.E）、着色料（アナトー、カラメル）、膨張剤、甘味料（ステビア、カンゾウ）、乳化剤、（一部に小麦・卵・乳成分・鶏肉・大豆・豚肉・もも・りんご・魚肉すり身（魚介類）・魚介エキス（魚介類）を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、準チョコレート（砂糖、植物油脂、全粉乳、カカオマス、ココアパウダー）、砂 糖、ショートニング、植物油脂、ぶどう糖、転化糖蜜、粉末醤油、食塩、ごま油、イースト、ごま／ 膨脹剤、炭酸Ca、乳化剤、香料、（一部に小麦・乳成分・大豆・ごま・鶏肉を含む）</t>
+  </si>
+  <si>
+    <t>小麦粉（国内製造）、ピーナッツ(ピーナッツ、植物油脂、食塩）、植物油脂、しょうゆ、砂糖、香辛料、食塩、チキンエキスパウダー、チキンエキス、たんぱく加水分解物、ミート調味エキス、ミート調味パウダー、酵母エキスパウダー／加工デンプン、調味料（アミノ酸等）、酸化防止剤（ビタミンE）、（一部に小麦・落花生・大豆・鶏肉・豚肉・ゼラチンを含む）</t>
   </si>
   <si>
     <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ（遺伝子組換えでない）、イソマルトオリゴ糖、乳製品（殺菌乳酸菌飲料）、はちみつ、発酵乳パウダー、レモンリキュール、大豆たんぱく（遺伝子組換えでない）、有胞子性乳酸菌／ソルビトール、ゲル化剤（ペクチン：りんご由来）、酸味料、香料、着色料（紅花黄）</t>
   </si>
   <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮ブルーベリー果汁、大豆たんぱく／ソルビトール、ゲル化剤（ペクチン：りんご由来）、酸味料、着色料（ビートレッド、クチナシ）、香料</t>
+  </si>
+  <si>
+    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮イチゴ果汁、濃縮リンゴ果汁、大豆たんぱく、イチゴパウダー、砂糖混合ぶどう糖果糖液糖／ソルビトール、酸味料、ゲル化剤（ペクチン）、着色料（ビートレッド）、香料</t>
+  </si>
+  <si>
     <t>水あめ（国内製造）、砂糖、ゼラチン、コーンスターチ、大豆たんぱく／香料</t>
   </si>
   <si>
-    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮ブルーベリー果汁、大豆たんぱく／ソルビトール、ゲル化剤（ペクチン：りんご由来）、酸味料、着色料（ビートレッド、クチナシ）、香料</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、濃縮イチゴ果汁、濃縮リンゴ果汁、大豆たんぱく、イチゴパウダー、砂糖混合ぶどう糖果糖液糖／ソルビトール、酸味料、ゲル化剤（ペクチン）、着色料（ビートレッド）、香料</t>
-  </si>
-  <si>
     <t>水あめ（国内製造）、砂糖、麦芽糖、ぶどう糖、ゼラチン、コーンスターチ、乳製品（殺菌乳酸菌飲料）、発酵乳パウダー、大豆たんぱく／ソルビトール、酸味料、ゲル化剤（ペクチン：りんご由来）、香料</t>
   </si>
   <si>
+    <t>糖類(砂糖(国内製造)、ぶどう糖)、ムクナエキス末(ムクナ抽出物、デキストリン)/酸味料、炭酸、L-アルギニン、香料、カラメル色素、カフェイン、酸化防止剤(ビタミンC)、L-ロイシン、L-イソロイシン、L-バリン、ナイアシン、L-グルタミン酸ナトリウム、グリシン、L-アスパラギン酸ナトリウム、 DL-アラニン、ビタミンB2、L-フェニルアラニン、メチルヘスペリジン、ビタミンB6、L-トレオニン </t>
+  </si>
+  <si>
+    <t>ムクナエキス末(ムクナ抽出物、デキストリン)(インド製造)、ローヤルゼリー、デキストリン/炭酸、クエン酸、香料、L-アルギニン、トマト色素、クエン酸第一鉄ナトリウム、甘味料(アセスルファムK、スクラロース)、カフェイン、酸化防止剤(ビタミンC)、ビタミンB12</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖液糖(国内製造)、ぶどう果汁、ムクナエキス末（ムクナ抽出物、デキストリン）、ローヤルゼリー、デキストリン、酸味料、炭酸、香料、L-アルギニン、着色料(カラメル色素、野菜色素）、カフェイン、L-ロイシン、L-イソロイシン、L-バリン、ナイアシン、L-グルタミン酸ナトリウム、グリシン、L-アスパラギン酸ナトリウム、DL-アラニン、ビタミンB₂、L-フェニルアラニン、メチルへスぺリジン、ビタミンB₆、L-トレオニン</t>
+  </si>
+  <si>
+    <t>砂糖（国内製造）、水飴／酸味料、香料、赤色１０６号</t>
+  </si>
+  <si>
     <t>植物油脂（国内製造）、乳糖、ココアバター、砂糖、アップルソース、マルトデキストリン、ビスケット（小麦粉、砂糖、植物油脂、シュガーシロップ、大豆粉、食塩、シナモン）、脱脂粉乳、全粉乳、乾燥パン粉／乳化剤、香料、酸味料、着色料（カラメル、クチナシ、カロチノイド、フラボノイド）、膨脹剤、増粘剤（ペクチン）</t>
   </si>
   <si>
-    <t>粉糖（国内製造）、コーンスターチ（遺伝子組換えでない）／酸味料、香料、着色料（青1）</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、乳製品、デキストリン、カゼインＮａ、乳化剤、香料</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、全粉乳、脱脂粉乳、カゼインＮａ、乳化剤、香料、甘味料（アセスルファムＫ）</t>
-  </si>
-  <si>
-    <t>コーヒー</t>
-  </si>
-  <si>
-    <t>牛乳、砂糖、コーヒー、脱脂粉乳、クリーム、脱脂濃縮乳、全粉乳、デキストリン、カゼインＮａ、香料、乳化剤、安定剤（カラギナン）</t>
-  </si>
-  <si>
-    <t>牛乳、コーヒー、砂糖、ぶどう糖、乳加工品、カゼインＮａ、香料、乳化剤</t>
-  </si>
-  <si>
-    <t>砂糖(タイ製造、国内製造)、水あめ、ゼラチン、乳糖、乳酸菌乾燥粉末（殺菌）、ビフィズス菌乾燥粉末(殺菌)／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、アラビアガム、光沢剤、着色料(赤キャベツ、紅花黄、クチナシ)、乳化剤、（一部に乳成分・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>ぶどう糖（国内製造）、でん粉、食塩／香料、重曹、酸味料、糊料（プルラン）、赤キャベツ色素</t>
-  </si>
-  <si>
-    <t>水あめ（国内製造）、砂糖、ゼラチン、濃縮マスカット果汁、紅茶エキスパウダー、オブラートパウダー／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、乳化剤、光沢剤、（一部に大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>水あめ(国内製造)、砂糖、ゼラチン、濃縮レモン果汁、カルダモン末、シナモン末、クローブ末、バニラシロップ、オブラートパウダー／ソルビトール、酸味料、ゲル化剤（ペクチン）、香料、乳化剤、光沢剤、（一部に大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>砂糖（タイ製造、国内製造）、水あめ、ゼラチン、乳糖／ソルビトール、酸味料、香料、ゲル化剤（ペクチン）、着色料（カラメル、赤キャベツ、クチナシ、カロチン）、アラビアガム、光沢剤、乳化剤、（一部に乳成分・大豆・ゼラチンを含む）</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、砂糖、ショートニング、抹茶(京都産宇治抹茶100%)、食塩、乳糖/膨張剤、クチナシ色素、香料、乳化剤(大豆由来)、酸化防止剤(ビタミンE)</t>
-  </si>
-  <si>
-    <t>じゃがいも（遺伝子組換えでない）（国産）、植物油脂、砂糖、粉末しょうゆ（小麦・大豆を含む）、たん白加水分解物、食塩、でん粉、かつお節パウダー、唐辛子、ごま、しょうがパウダー、あおさ、昆布パウダー、花椒、陳皮パウダー、赤しそパウダー、ぶどう糖、デキストリン、ビーフエキス調味料／調味料（アミノ酸等）、香料、甘味料（ステビア）、香辛料抽出物</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、ショートニング、砂糖、全粒粉、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤(大豆由来)</t>
-  </si>
-  <si>
-    <t>小麦粉(国内製造)、砂糖、ショートニング、ココアパウダー、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤(大豆由来)</t>
-  </si>
-  <si>
-    <t>〈ミルク味〉小麦粉（国内製造）、ショートニング、砂糖、全粒粉、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤（大豆由来）　〈チョコ味〉小麦粉（国内製造）、砂糖、ショートニング、ココアパウダー、乳糖、乳等を主要原料とする食品、乾燥全卵、でん粉、食塩／膨張剤、香料、乳化剤（大豆由来）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂糖（国内製造）、砂糖（国内製造）、菜種油/pH調整剤、ゲル化剤(アルギン酸Na)、甘味料(アスパルテーム・L-フェニルアラニン化合物、スクラロース、アセスルファムK)、香料、リン酸Ca、着色料（赤40） </t>
-  </si>
-  <si>
-    <t>砂糖（国内製造）、水あめ／酸味料、香料、着色料（アカキャベツ）</t>
-  </si>
-  <si>
-    <t>砂糖、澱粉（遺伝子組換えでない）、酸味料、香料、重曹</t>
-  </si>
-  <si>
-    <t>小麦粉、植物油脂、加糖練乳、砂糖、ショー　トニング、イースト、食塩、バター加工品、　酵母エキス、炭酸Ca、調味料（無機塩等）、　乳化剤、甘味料（スクラロース）、（原材料　の一部に大豆を含む）</t>
+    <t>油揚げめん（小麦粉（国内製造）、植物油脂、食塩、しょうゆ、香辛料（ガーリック）、チキンエキス）、たれ（しょうゆ、香辛料（ガーリック、ペパー、ジンジャー）、植物油脂、えび調味油、しょうゆ調味料、糖類、香味調味料、酵母エキス、メンマパウダー）、かやく（味付豚ミンチ、味付卵、キャベツ、味付えび）／加工でん粉、調味料（アミノ酸等）、香料、炭酸Ｃａ、かんすい、乳化剤、アルギニン、カフェイン、酸味料、酒精、カラメル色素、ｐＨ調整剤、カロチノイド色素、ナイアシン、酸化防止剤（Ｖ．Ｅ）、Ｖ．Ｂ６、増粘多糖類、香辛料抽出物、Ｖ．Ｂ２、Ｖ．Ｂ１、炭酸Ｍｇ、くん液、Ｖ．Ｂ１２、（一部にえび・小麦・卵・乳成分・ごま・大豆・鶏肉・豚肉を含む）</t>
   </si>
 </sst>
 </file>
@@ -967,10 +870,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E615D68-CAB4-47E0-941D-23CC2B10D297}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A196"/>
+  <dimension ref="A1:A170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,12 +888,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1000,962 +903,832 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
